--- a/ROG VX.xlsx
+++ b/ROG VX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E898B20-477A-4264-81FC-56C2326E8EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0511E27A-21CE-41B0-9D93-26807B532245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="3045" windowWidth="17760" windowHeight="11475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8505" yWindow="3045" windowWidth="17760" windowHeight="11475" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management and Structure" sheetId="121" r:id="rId1"/>
@@ -2329,7 +2329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="852">
   <si>
     <t>Gross Profit</t>
   </si>
@@ -4803,9 +4803,6 @@
     <t>PD-1 mab</t>
   </si>
   <si>
-    <t>7/26/2019: CHMP recommends Tecentriq for ES-SCLC</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -4864,6 +4861,30 @@
   </si>
   <si>
     <t xml:space="preserve">  SCLC accounts for 15% of all lung cancer, with 70% in extensive stage. 1.76m deaths every year due to lung cancer, WW.</t>
+  </si>
+  <si>
+    <t>7/26/2019: CHMP recommends Tecentriq for 1L ES-SCLC</t>
+  </si>
+  <si>
+    <t>7/26/2019: CHMP recommends Tecentriq for 1L NSCLC</t>
+  </si>
+  <si>
+    <t>median OS 18.6 vs. 13.9 months, HR=0.79, p=0.033</t>
+  </si>
+  <si>
+    <t>median PFS 7.0 vs. 5.5 months, HR=0.64, p&lt;0.0001</t>
+  </si>
+  <si>
+    <t>Tecentriq+carboplatin+nab-paclitaxel vs. carboplatin+nab-paclitaxel</t>
+  </si>
+  <si>
+    <t>no EGFRm or ALK+, stage IV, 2:1 randomization</t>
+  </si>
+  <si>
+    <t>Phase III "IMpower130" n=723 1L nsNSCLC</t>
+  </si>
+  <si>
+    <t>49.2% ORR vs. 31.9%, mDOR 8.4 months vs. 6.1 months</t>
   </si>
 </sst>
 </file>
@@ -6338,7 +6359,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="48" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -6346,7 +6367,7 @@
         <v>310</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -6354,7 +6375,7 @@
         <v>312</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -6362,7 +6383,7 @@
         <v>450</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -6370,7 +6391,7 @@
         <v>418</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -9304,10 +9325,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
@@ -9319,7 +9340,7 @@
         <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9327,7 +9348,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>86</v>
@@ -9336,7 +9357,7 @@
         <v>1999</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>401</v>
@@ -9347,7 +9368,7 @@
         <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>206</v>
@@ -9369,10 +9390,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9520,7 +9541,7 @@
         <v>804</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -9596,7 +9617,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="146" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>123</v>
@@ -11128,8 +11149,16 @@
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="144" t="s">
-        <v>824</v>
-      </c>
+        <v>844</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="144" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="144"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
@@ -42317,11 +42346,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACF25B3-07FE-4EEF-84E7-5108734F64E4}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -42336,7 +42363,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>805</v>
@@ -42344,10 +42371,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -42355,18 +42382,18 @@
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>823</v>
@@ -42379,22 +42406,52 @@
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="48" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="48" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -43768,21 +43825,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -43896,10 +43938,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C23984D-947A-4544-B729-0E53BCCB05F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2911DF48-8F96-42CC-AFEE-EFAF0475AAB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -43920,17 +43985,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2911DF48-8F96-42CC-AFEE-EFAF0475AAB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C23984D-947A-4544-B729-0E53BCCB05F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ROG VX.xlsx
+++ b/ROG VX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09EE523-F330-4365-94A6-D7307F9CC11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E356776-E35F-4EA7-90FE-460FCD89795D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1575" windowWidth="29250" windowHeight="18735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management and Structure" sheetId="121" r:id="rId1"/>
@@ -2330,7 +2330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="920">
   <si>
     <t>Gross Profit</t>
   </si>
@@ -3232,9 +3232,6 @@
     <t>NCE?</t>
   </si>
   <si>
-    <t>IV since 1997, but 6/09 initiated SQ study.</t>
-  </si>
-  <si>
     <t>RoActemra</t>
   </si>
   <si>
@@ -3910,9 +3907,6 @@
     <t>HR=1.032 p=0.89 for OS</t>
   </si>
   <si>
-    <t>Arzerra (Genmab/GSK). Velcade head-to-head trial in FL! TEVA/LONN</t>
-  </si>
-  <si>
     <t>Phase III "C08" - adjuvant CRC - FAILED n=2710</t>
   </si>
   <si>
@@ -4159,9 +4153,6 @@
     <t>CDK inhibitor</t>
   </si>
   <si>
-    <t>Sued GSK, claiming Arzerra infringes CLL patent.</t>
-  </si>
-  <si>
     <t>GDC-0068</t>
   </si>
   <si>
@@ -4990,18 +4981,6 @@
     <t>R7201 (tofogliflozin)</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>LLY</t>
   </si>
   <si>
@@ -5090,12 +5069,33 @@
   </si>
   <si>
     <t>SERD</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Pharmacology</t>
+  </si>
+  <si>
+    <t>8nM CD20</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>IV. SQ approved.</t>
+  </si>
+  <si>
+    <t>US IV 11/26/1997</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -5103,7 +5103,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5428,7 +5428,7 @@
     <xf numFmtId="6" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5698,29 +5698,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5744,7 +5723,9 @@
     <cellStyle name="Währung_ALTGGV" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B67EB15E-B32A-42BE-9CFC-6B81393A85E8}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6470,158 +6451,158 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="40" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="40" t="s">
+      <c r="C25" s="2" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>828</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -6643,19 +6624,19 @@
       <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="C3">
         <v>2005</v>
       </c>
@@ -6751,19 +6732,19 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="B4" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="B5" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="B8" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C8" s="89">
         <v>15000</v>
@@ -6861,9 +6842,9 @@
         <v>18857.445275226455</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26">
       <c r="B9" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C9" s="89">
         <v>15000</v>
@@ -6961,9 +6942,9 @@
         <v>18857.445275226455</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26">
       <c r="B10" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C10" s="89"/>
       <c r="D10" s="89"/>
@@ -6990,9 +6971,9 @@
       <c r="Y10" s="89"/>
       <c r="Z10" s="89"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26">
       <c r="B11" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C11" s="89">
         <f>SUM(C8:C10)</f>
@@ -7091,9 +7072,9 @@
         <v>37714.89055045291</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26">
       <c r="B12" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -7168,7 +7149,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="B13" s="2" t="s">
         <v>106</v>
       </c>
@@ -7245,9 +7226,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="91" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="91" customFormat="1">
       <c r="B14" s="91" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C14" s="92">
         <f>C13*C12*C9</f>
@@ -7360,74 +7341,74 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="40" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="C9" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="C10" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -7446,19 +7427,19 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
@@ -7466,7 +7447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
@@ -7474,7 +7455,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
@@ -7482,7 +7463,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>106</v>
       </c>
@@ -7490,60 +7471,60 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="C16" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="C19" s="16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="C22" s="55">
         <v>39387</v>
       </c>
@@ -7551,7 +7532,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="C23" s="55">
         <v>39356</v>
       </c>
@@ -7575,19 +7556,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
@@ -7595,7 +7576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
@@ -7603,7 +7584,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
@@ -7611,32 +7592,32 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="C6" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="16" t="s">
         <v>251</v>
       </c>
@@ -7657,18 +7638,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -7676,20 +7657,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -7706,19 +7687,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
@@ -7726,7 +7707,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
@@ -7734,7 +7715,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
@@ -7742,7 +7723,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
@@ -7750,67 +7731,67 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="15" t="s">
         <v>191</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="C13" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="C16" s="16" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3">
       <c r="C18" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7829,19 +7810,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="57" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="57" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="B2" s="58" t="s">
         <v>49</v>
       </c>
@@ -7849,12 +7830,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="B3" s="58" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="C4" s="59">
         <v>39387</v>
       </c>
@@ -7862,7 +7843,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="C5" s="59">
         <v>39356</v>
       </c>
@@ -7870,7 +7851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="B6" s="58" t="s">
         <v>53</v>
       </c>
@@ -7889,19 +7870,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
@@ -7909,7 +7890,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
@@ -7917,7 +7898,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>66</v>
       </c>
@@ -7925,32 +7906,32 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="C6" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="16" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="C9" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="C11" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="5" t="s">
         <v>233</v>
       </c>
@@ -7971,127 +7952,127 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="76" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="76" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="78" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="76" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="76" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="76" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="B6" s="76" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" s="76" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="C8" s="76" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="C9" s="76" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="B10" s="76" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="C11" s="77" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="C12" s="77"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="C13" s="77" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="C14" s="77"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="C15" s="77" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" s="77" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
       <c r="C18" s="76" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" s="77" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
       <c r="C21" s="76" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
       <c r="C23" s="77" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
       <c r="C25" s="77" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -8109,28 +8090,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -8149,7 +8130,7 @@
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -8158,108 +8139,108 @@
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="115" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="B2" s="40" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="E3" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="J4" t="s">
         <v>106</v>
       </c>
       <c r="K4" t="s">
+        <v>619</v>
+      </c>
+      <c r="L4" t="s">
+        <v>620</v>
+      </c>
+      <c r="M4" t="s">
+        <v>621</v>
+      </c>
+      <c r="N4" t="s">
         <v>622</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>623</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>624</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>625</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>626</v>
       </c>
-      <c r="P4" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>628</v>
-      </c>
-      <c r="R4" t="s">
-        <v>629</v>
-      </c>
       <c r="S4" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="C5">
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="C6">
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="C7">
         <v>2012</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="C8">
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="C9">
         <v>2014</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="B10" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C10" s="102">
         <v>42200</v>
@@ -8268,10 +8249,10 @@
         <v>38551</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G10" s="89">
         <v>993.32</v>
@@ -8280,7 +8261,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J10">
         <v>107.1</v>
@@ -8289,10 +8270,10 @@
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N10" s="100">
         <v>7.3590000000000003E-2</v>
@@ -8314,9 +8295,9 @@
         <v>8.0999999999999961E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="B11" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C11" s="101">
         <v>42200</v>
@@ -8325,10 +8306,10 @@
         <v>38546</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G11" s="89">
         <v>6.68</v>
@@ -8337,7 +8318,7 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J11">
         <v>108</v>
@@ -8346,10 +8327,10 @@
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N11" s="100">
         <v>7.5139999999999998E-2</v>
@@ -8371,9 +8352,9 @@
         <v>6.2000000000000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="B12" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C12" s="101">
         <v>42067</v>
@@ -8382,10 +8363,10 @@
         <v>39869</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G12" s="89">
         <v>1250</v>
@@ -8394,7 +8375,7 @@
         <v>5.5E-2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J12">
         <v>107.8914</v>
@@ -8403,10 +8384,10 @@
         <v>3.6400000000000002E-2</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N12" s="100">
         <v>5.6730000000000003E-2</v>
@@ -8428,9 +8409,9 @@
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="B13" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C13" s="101">
         <v>42433</v>
@@ -8439,10 +8420,10 @@
         <v>39869</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G13" s="89">
         <v>2750</v>
@@ -8451,7 +8432,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J13">
         <v>113.5855</v>
@@ -8460,10 +8441,10 @@
         <v>3.0300000000000001E-2</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N13" s="100">
         <v>5.5359999999999999E-2</v>
@@ -8486,9 +8467,9 @@
         <v>1.9500000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="B14" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C14" s="101">
         <v>42817</v>
@@ -8497,10 +8478,10 @@
         <v>39876</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G14" s="89">
         <v>1500</v>
@@ -8509,7 +8490,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J14">
         <v>115.0825</v>
@@ -8518,10 +8499,10 @@
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N14" s="100">
         <v>4.4569999999999999E-2</v>
@@ -8543,9 +8524,9 @@
         <v>-1.04E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="B15" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C15" s="101">
         <v>43525</v>
@@ -8554,10 +8535,10 @@
         <v>39862</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G15" s="89">
         <v>4500</v>
@@ -8566,7 +8547,7 @@
         <v>0.06</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J15">
         <v>110.85899999999999</v>
@@ -8575,10 +8556,10 @@
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N15" s="100">
         <v>5.9859999999999997E-2</v>
@@ -8600,9 +8581,9 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="B16" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C16" s="101">
         <v>44259</v>
@@ -8611,10 +8592,10 @@
         <v>39869</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G16" s="89">
         <v>1750</v>
@@ -8623,7 +8604,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J16">
         <v>122.0099</v>
@@ -8632,10 +8613,10 @@
         <v>3.95E-2</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N16" s="100">
         <v>6.4390000000000003E-2</v>
@@ -8657,9 +8638,9 @@
         <v>2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19">
       <c r="B17" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C17" s="101">
         <v>45167</v>
@@ -8668,10 +8649,10 @@
         <v>37854</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G17" s="89">
         <v>250</v>
@@ -8680,7 +8661,7 @@
         <v>5.3749999999999999E-2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J17">
         <v>102.3557</v>
@@ -8689,10 +8670,10 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N17" s="100">
         <v>7.0470000000000005E-2</v>
@@ -8714,9 +8695,9 @@
         <v>1.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19">
       <c r="B18" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C18" s="101">
         <v>49505</v>
@@ -8725,10 +8706,10 @@
         <v>38551</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G18" s="89">
         <v>500</v>
@@ -8737,7 +8718,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J18">
         <v>98.950999999999993</v>
@@ -8746,10 +8727,10 @@
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N18" s="100">
         <v>7.2969999999999993E-2</v>
@@ -8771,9 +8752,9 @@
         <v>1.3900000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19">
       <c r="B19" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C19" s="101">
         <v>50830</v>
@@ -8782,10 +8763,10 @@
         <v>39862</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G19" s="89">
         <v>2500</v>
@@ -8794,7 +8775,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="J19">
         <v>125.7942</v>
@@ -8803,10 +8784,10 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="N19" s="100">
         <v>6.8470000000000003E-2</v>
@@ -8844,19 +8825,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
@@ -8864,7 +8845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
@@ -8872,7 +8853,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>104</v>
       </c>
@@ -8880,7 +8861,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>74</v>
       </c>
@@ -8888,32 +8869,32 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="C11" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="5" t="s">
         <v>91</v>
       </c>
@@ -8934,19 +8915,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -8954,14 +8935,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="B3" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="B4" s="5"/>
       <c r="C4" s="55">
         <v>39387</v>
@@ -8970,7 +8951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="B5" s="5"/>
       <c r="C5" s="55">
         <v>39356</v>
@@ -8995,17 +8976,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" s="2" t="s">
         <v>122</v>
       </c>
@@ -9013,7 +8994,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
         <v>199</v>
       </c>
@@ -9024,7 +9005,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" s="8" t="s">
         <v>127</v>
       </c>
@@ -9041,7 +9022,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6" s="8" t="s">
         <v>289</v>
       </c>
@@ -9058,7 +9039,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" s="8" t="s">
         <v>273</v>
       </c>
@@ -9072,7 +9053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" s="8" t="s">
         <v>279</v>
       </c>
@@ -9086,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="B9" s="8" t="s">
         <v>277</v>
       </c>
@@ -9100,12 +9081,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" s="53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>110</v>
@@ -9114,10 +9095,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="B11" s="8" t="s">
         <v>282</v>
       </c>
@@ -9131,7 +9112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="B12" s="8" t="s">
         <v>116</v>
       </c>
@@ -9148,7 +9129,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="B13" s="8" t="s">
         <v>118</v>
       </c>
@@ -9162,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="B14" s="8" t="s">
         <v>69</v>
       </c>
@@ -9176,7 +9157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="B15" s="53" t="s">
         <v>125</v>
       </c>
@@ -9190,12 +9171,12 @@
         <v>126</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>290</v>
@@ -9204,15 +9185,15 @@
         <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="53" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>290</v>
@@ -9235,35 +9216,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
@@ -9271,7 +9252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
@@ -9279,7 +9260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
         <v>66</v>
       </c>
@@ -9287,27 +9268,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
         <v>75</v>
       </c>
@@ -9315,7 +9296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="B12" s="5" t="s">
         <v>96</v>
       </c>
@@ -9323,19 +9304,19 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="16" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="3" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -9355,18 +9336,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
@@ -9374,7 +9355,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
@@ -9382,7 +9363,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
@@ -9390,7 +9371,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -9398,12 +9379,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="40" t="s">
         <v>296</v>
       </c>
@@ -9422,19 +9403,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
@@ -9442,7 +9423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
@@ -9450,7 +9431,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -9458,7 +9439,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
@@ -9466,27 +9447,27 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="C11" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="C13" s="4" t="s">
         <v>285</v>
       </c>
@@ -9508,19 +9489,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
@@ -9528,7 +9509,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
@@ -9536,7 +9517,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
@@ -9544,7 +9525,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
@@ -9552,7 +9533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -9560,7 +9541,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>81</v>
       </c>
@@ -9568,37 +9549,37 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="3" t="s">
+    <row r="11" spans="1:3">
+      <c r="C11" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="C13" s="16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="C15" s="15" t="s">
         <v>205</v>
       </c>
@@ -9624,7 +9605,7 @@
       <selection pane="bottomRight" activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
@@ -9632,17 +9613,17 @@
     <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="B2" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
@@ -9654,15 +9635,15 @@
         <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>86</v>
@@ -9671,18 +9652,18 @@
         <v>1999</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="B4" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>206</v>
@@ -9691,43 +9672,43 @@
         <v>36959</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="B6" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="B7" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>67</v>
@@ -9746,9 +9727,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" s="53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>280</v>
@@ -9767,12 +9748,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>80</v>
@@ -9781,19 +9762,19 @@
         <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G16" s="86"/>
       <c r="H16" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>393</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>394</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>80</v>
@@ -9802,14 +9783,14 @@
         <v>1</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G17" s="86"/>
       <c r="H17" s="35" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="8" t="s">
         <v>109</v>
       </c>
@@ -9826,13 +9807,13 @@
         <v>254</v>
       </c>
       <c r="G18" s="87" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="8" t="s">
         <v>111</v>
       </c>
@@ -9849,13 +9830,13 @@
         <v>269</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H19" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" s="8" t="s">
         <v>271</v>
       </c>
@@ -9869,14 +9850,14 @@
         <v>1</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="8" t="s">
         <v>272</v>
       </c>
@@ -9890,16 +9871,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G21" s="86"/>
       <c r="H21" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>67</v>
@@ -9911,19 +9892,19 @@
         <v>1</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G22" s="86"/>
       <c r="H22" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>359</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>110</v>
@@ -9937,9 +9918,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="53" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>67</v>
@@ -9956,12 +9937,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>324</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>80</v>
@@ -9970,18 +9951,18 @@
         <v>1</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="53" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>80</v>
@@ -9990,18 +9971,18 @@
         <v>1</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="53" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>67</v>
@@ -10013,15 +9994,15 @@
         <v>19</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>115</v>
@@ -10033,15 +10014,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>283</v>
@@ -10050,18 +10031,18 @@
         <v>80</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="53" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>115</v>
@@ -10073,15 +10054,15 @@
         <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>115</v>
@@ -10090,110 +10071,110 @@
         <v>80</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="B32" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="D32" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="D32" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="126" t="s">
-        <v>322</v>
-      </c>
-      <c r="F32" s="121" t="s">
-        <v>326</v>
+      <c r="F32" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="123" t="s">
+      <c r="D33" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="122" t="s">
-        <v>355</v>
-      </c>
-      <c r="F33" s="121" t="s">
-        <v>468</v>
+      <c r="E33" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>467</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="53" t="s">
-        <v>733</v>
-      </c>
-      <c r="C34" s="121" t="s">
-        <v>702</v>
-      </c>
-      <c r="D34" s="121" t="s">
+        <v>730</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="122" t="s">
-        <v>575</v>
-      </c>
-      <c r="F34" s="121" t="s">
-        <v>703</v>
+      <c r="E34" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>700</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="53" t="s">
-        <v>901</v>
-      </c>
-      <c r="C35" s="121" t="s">
-        <v>314</v>
-      </c>
-      <c r="D35" s="121" t="s">
+        <v>894</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="122">
+      <c r="E35" s="41">
         <v>1</v>
       </c>
-      <c r="F35" s="121" t="s">
-        <v>471</v>
+      <c r="F35" s="10" t="s">
+        <v>470</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36" s="53" t="s">
-        <v>583</v>
-      </c>
-      <c r="C36" s="121" t="s">
+        <v>581</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="121" t="s">
+      <c r="D36" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="122">
+      <c r="E36" s="41">
         <v>1</v>
       </c>
-      <c r="F36" s="121" t="s">
-        <v>584</v>
+      <c r="F36" s="10" t="s">
+        <v>582</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>253</v>
@@ -10214,11 +10195,11 @@
   </sheetPr>
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="4" customWidth="1"/>
@@ -10236,10 +10217,10 @@
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1">
       <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
@@ -10266,12 +10247,12 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="3" customFormat="1">
       <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D3" s="10">
         <v>2004</v>
@@ -10292,10 +10273,10 @@
         <v>800.40300000000002</v>
       </c>
       <c r="K3" s="54" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4" s="7" t="s">
         <v>94</v>
       </c>
@@ -10323,12 +10304,12 @@
       </c>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="B5" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D5" s="11">
         <v>1997</v>
@@ -10350,36 +10331,36 @@
         <v>13031</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6" s="53" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="35"/>
       <c r="I6" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J6" s="21">
         <v>31198</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="B7" s="38" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D7" s="119">
         <v>42508</v>
@@ -10388,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>161</v>
@@ -10403,12 +10384,12 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="B8" s="38" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>114</v>
@@ -10427,9 +10408,9 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="B9" s="38" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>123</v>
@@ -10449,7 +10430,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="B10" s="38" t="s">
         <v>265</v>
       </c>
@@ -10466,18 +10447,18 @@
         <v>164</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="E11" s="37" t="s">
         <v>314</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>315</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>71</v>
@@ -10491,7 +10472,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="B12" s="7" t="s">
         <v>244</v>
       </c>
@@ -10515,24 +10496,24 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="B13" s="38" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>114</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>163</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I13" s="60" t="s">
         <v>41</v>
@@ -10540,9 +10521,9 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="3" customFormat="1">
       <c r="B14" s="38" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>84</v>
@@ -10560,13 +10541,13 @@
         <v>161</v>
       </c>
       <c r="I14" s="60" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" s="8" t="s">
         <v>267</v>
       </c>
@@ -10580,53 +10561,53 @@
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16" s="38" t="s">
+        <v>847</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>848</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>850</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>851</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>853</v>
-      </c>
       <c r="G16" s="83" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="53" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>380</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="53" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D18" s="10">
         <v>2013</v>
@@ -10641,14 +10622,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="53" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="130">
+      <c r="D19" s="123">
         <v>43397</v>
       </c>
       <c r="E19" s="41">
@@ -10657,14 +10638,14 @@
       <c r="F19" s="10"/>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="53" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="D20" s="130">
+        <v>909</v>
+      </c>
+      <c r="D20" s="123">
         <v>44057</v>
       </c>
       <c r="E20" s="41">
@@ -10677,43 +10658,43 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="53" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="D21" s="130">
+        <v>905</v>
+      </c>
+      <c r="D21" s="123">
         <v>44917</v>
       </c>
       <c r="E21" s="41">
         <v>1</v>
       </c>
       <c r="F21" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>892</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="53" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="130">
+        <v>313</v>
+      </c>
+      <c r="D22" s="123">
         <v>44589</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="10" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="38" t="s">
         <v>266</v>
       </c>
@@ -10727,35 +10708,35 @@
         <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G23" s="83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="53" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>253</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
@@ -10775,10 +10756,10 @@
         <v>211</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="6"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
@@ -10788,696 +10769,682 @@
       <c r="F26" s="9"/>
       <c r="G26" s="12"/>
       <c r="I26" s="3" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="120" t="s">
-        <v>906</v>
-      </c>
-      <c r="C27" s="121" t="s">
-        <v>882</v>
-      </c>
-      <c r="D27" s="121" t="s">
+        <v>899</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="122" t="s">
-        <v>907</v>
-      </c>
-      <c r="F27" s="123"/>
+      <c r="E27" s="41" t="s">
+        <v>900</v>
+      </c>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="53" t="s">
+        <v>884</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="G28" s="121" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="53" t="s">
+        <v>898</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="G29" s="121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="53" t="s">
+        <v>901</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="G30" s="121"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="53" t="s">
+        <v>911</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="G31" s="121"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="53" t="s">
+        <v>887</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="G32" s="121" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="53" t="s">
+        <v>890</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="C28" s="121" t="s">
-        <v>854</v>
-      </c>
-      <c r="D28" s="121" t="s">
+      <c r="G33" s="121" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="53" t="s">
+        <v>896</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="G34" s="121" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="53" t="s">
+        <v>903</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="123"/>
-      <c r="F28" s="121" t="s">
-        <v>892</v>
-      </c>
-      <c r="G28" s="124" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="53" t="s">
-        <v>905</v>
-      </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="121" t="s">
-        <v>893</v>
-      </c>
-      <c r="G29" s="124" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="53" t="s">
-        <v>908</v>
-      </c>
-      <c r="C30" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="123"/>
-      <c r="F30" s="121" t="s">
-        <v>909</v>
-      </c>
-      <c r="G30" s="124"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="53" t="s">
-        <v>918</v>
-      </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="123"/>
-      <c r="F31" s="121" t="s">
-        <v>919</v>
-      </c>
-      <c r="G31" s="124"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="53" t="s">
-        <v>894</v>
-      </c>
-      <c r="C32" s="121" t="s">
-        <v>896</v>
-      </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="121" t="s">
-        <v>895</v>
-      </c>
-      <c r="G32" s="124" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="53" t="s">
-        <v>897</v>
-      </c>
-      <c r="C33" s="121" t="s">
-        <v>900</v>
-      </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="121" t="s">
-        <v>898</v>
-      </c>
-      <c r="G33" s="124" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="53" t="s">
-        <v>903</v>
-      </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="121" t="s">
-        <v>904</v>
-      </c>
-      <c r="G34" s="124" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="53" t="s">
-        <v>910</v>
-      </c>
-      <c r="C35" s="121" t="s">
+      <c r="E35" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="D35" s="121" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="122" t="s">
+      <c r="F35" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="F35" s="121" t="s">
-        <v>362</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36" s="53" t="s">
-        <v>737</v>
-      </c>
-      <c r="C36" s="121" t="s">
-        <v>360</v>
-      </c>
-      <c r="D36" s="121"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="121" t="s">
-        <v>362</v>
+        <v>734</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37" s="53" t="s">
-        <v>741</v>
-      </c>
-      <c r="C37" s="121" t="s">
         <v>738</v>
       </c>
-      <c r="D37" s="121" t="s">
+      <c r="C37" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="122">
+      <c r="E37" s="41">
         <v>1</v>
       </c>
-      <c r="F37" s="121" t="s">
-        <v>739</v>
+      <c r="F37" s="10" t="s">
+        <v>736</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38" s="53" t="s">
-        <v>744</v>
-      </c>
-      <c r="C38" s="121" t="s">
-        <v>360</v>
-      </c>
-      <c r="D38" s="121" t="s">
+        <v>741</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="122">
+      <c r="E38" s="41">
         <v>1</v>
       </c>
-      <c r="F38" s="121" t="s">
-        <v>745</v>
+      <c r="F38" s="10" t="s">
+        <v>742</v>
       </c>
       <c r="G38" s="35"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>739</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>740</v>
-      </c>
-      <c r="C39" s="121" t="s">
-        <v>360</v>
-      </c>
-      <c r="D39" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="122" t="s">
-        <v>742</v>
-      </c>
-      <c r="F39" s="121" t="s">
-        <v>743</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40" s="53" t="s">
-        <v>746</v>
-      </c>
-      <c r="C40" s="121" t="s">
+        <v>743</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D40" s="121" t="s">
+      <c r="D40" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="122">
+      <c r="E40" s="41">
         <v>1</v>
       </c>
-      <c r="F40" s="121" t="s">
-        <v>747</v>
+      <c r="F40" s="10" t="s">
+        <v>744</v>
       </c>
       <c r="G40" s="35"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="B41" s="53" t="s">
-        <v>712</v>
-      </c>
-      <c r="C41" s="121" t="s">
-        <v>360</v>
-      </c>
-      <c r="D41" s="121" t="s">
+        <v>709</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="122">
+      <c r="E41" s="41">
         <v>1</v>
       </c>
-      <c r="F41" s="121" t="s">
-        <v>713</v>
+      <c r="F41" s="10" t="s">
+        <v>710</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" s="17" customFormat="1">
       <c r="B42" s="53" t="s">
-        <v>709</v>
-      </c>
-      <c r="C42" s="121" t="s">
-        <v>710</v>
-      </c>
-      <c r="D42" s="121" t="s">
+        <v>706</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="122">
+      <c r="E42" s="41">
         <v>1</v>
       </c>
-      <c r="F42" s="121" t="s">
-        <v>711</v>
+      <c r="F42" s="10" t="s">
+        <v>708</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" s="17" customFormat="1">
       <c r="B43" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="123" t="s">
+      <c r="C43" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="123" t="s">
+      <c r="D43" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="127">
+      <c r="E43" s="14">
         <v>1</v>
       </c>
-      <c r="F43" s="121" t="s">
-        <v>384</v>
+      <c r="F43" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44" s="53" t="s">
-        <v>695</v>
-      </c>
-      <c r="C44" s="121" t="s">
+        <v>692</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="121" t="s">
+      <c r="D44" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="122">
+      <c r="E44" s="41">
         <v>1</v>
       </c>
-      <c r="F44" s="121" t="s">
-        <v>475</v>
+      <c r="F44" s="10" t="s">
+        <v>474</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="B45" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="121" t="s">
+      <c r="C45" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="121" t="s">
+      <c r="D45" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="122">
+      <c r="E45" s="41">
         <v>1</v>
       </c>
-      <c r="F45" s="121" t="s">
-        <v>608</v>
+      <c r="F45" s="10" t="s">
+        <v>606</v>
       </c>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="C46" s="121" t="s">
+        <v>370</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="121" t="s">
+      <c r="D46" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="122">
+      <c r="E46" s="41">
         <v>1</v>
       </c>
-      <c r="F46" s="121" t="s">
-        <v>474</v>
+      <c r="F46" s="10" t="s">
+        <v>473</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="B47" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="41">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="C47" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="122">
-        <v>1</v>
-      </c>
-      <c r="F47" s="121" t="s">
-        <v>386</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="B48" s="53" t="s">
-        <v>673</v>
-      </c>
-      <c r="C48" s="121" t="s">
+        <v>670</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="121" t="s">
+      <c r="D48" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="122">
+      <c r="E48" s="41">
         <v>1</v>
       </c>
-      <c r="F48" s="121" t="s">
-        <v>387</v>
+      <c r="F48" s="10" t="s">
+        <v>386</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7">
       <c r="B49" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="C49" s="121" t="s">
+        <v>371</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="122">
+      <c r="E49" s="41">
         <v>1</v>
       </c>
-      <c r="F49" s="123"/>
       <c r="G49" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7">
       <c r="B50" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="14">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="C50" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="123" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="127">
-        <v>1</v>
-      </c>
-      <c r="F50" s="121" t="s">
-        <v>370</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7">
       <c r="B51" s="53" t="s">
-        <v>610</v>
-      </c>
-      <c r="C51" s="121" t="s">
+        <v>607</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="121" t="s">
+      <c r="D51" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="127">
+      <c r="E51" s="14">
         <v>1</v>
       </c>
-      <c r="F51" s="121"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7">
       <c r="B52" s="53" t="s">
-        <v>576</v>
-      </c>
-      <c r="C52" s="121" t="s">
+        <v>574</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="121" t="s">
+      <c r="D52" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="122" t="s">
-        <v>577</v>
-      </c>
-      <c r="F52" s="121"/>
+      <c r="E52" s="41" t="s">
+        <v>575</v>
+      </c>
+      <c r="F52" s="10"/>
       <c r="G52" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7">
       <c r="B53" s="53" t="s">
-        <v>674</v>
-      </c>
-      <c r="C53" s="121" t="s">
-        <v>607</v>
-      </c>
-      <c r="D53" s="121" t="s">
+        <v>671</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="122">
+      <c r="E53" s="41">
         <v>1</v>
       </c>
-      <c r="F53" s="121" t="s">
-        <v>387</v>
+      <c r="F53" s="10" t="s">
+        <v>386</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7">
       <c r="B54" s="53" t="s">
-        <v>376</v>
-      </c>
-      <c r="C54" s="121" t="s">
+        <v>375</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="121" t="s">
+      <c r="D54" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="122">
+      <c r="E54" s="41">
         <v>1</v>
       </c>
-      <c r="F54" s="121" t="s">
-        <v>473</v>
+      <c r="F54" s="10" t="s">
+        <v>472</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7">
       <c r="B55" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C55" s="121" t="s">
+      <c r="D55" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="14">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="D55" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="127">
-        <v>1</v>
-      </c>
-      <c r="F55" s="121" t="s">
-        <v>368</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7">
       <c r="B56" s="53" t="s">
-        <v>592</v>
-      </c>
-      <c r="C56" s="121" t="s">
+        <v>590</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="121" t="s">
+      <c r="D56" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="127">
+      <c r="E56" s="14">
         <v>1</v>
       </c>
-      <c r="F56" s="121" t="s">
-        <v>593</v>
+      <c r="F56" s="10" t="s">
+        <v>591</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7">
       <c r="B57" s="96" t="s">
-        <v>736</v>
-      </c>
-      <c r="C57" s="128" t="s">
+        <v>733</v>
+      </c>
+      <c r="C57" s="122" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="97">
+        <v>1</v>
+      </c>
+      <c r="F57" s="122" t="s">
         <v>350</v>
-      </c>
-      <c r="D57" s="128" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="129">
-        <v>1</v>
-      </c>
-      <c r="F57" s="128" t="s">
-        <v>351</v>
       </c>
       <c r="G57" s="98" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" s="17" customFormat="1">
       <c r="B58" s="53" t="s">
-        <v>578</v>
-      </c>
-      <c r="C58" s="121" t="s">
+        <v>576</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="14">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>466</v>
-      </c>
-      <c r="D58" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="127">
-        <v>1</v>
-      </c>
-      <c r="F58" s="121" t="s">
-        <v>467</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7">
       <c r="B59" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C59" s="121" t="s">
+      <c r="D59" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="14">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="D59" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" s="127">
-        <v>1</v>
-      </c>
-      <c r="F59" s="121" t="s">
-        <v>354</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7">
       <c r="B60" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="C60" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="122" t="s">
+      <c r="F60" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="F60" s="121" t="s">
-        <v>375</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7">
       <c r="B61" s="53" t="s">
-        <v>586</v>
-      </c>
-      <c r="C61" s="121" t="s">
+        <v>584</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="D61" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="122" t="s">
-        <v>415</v>
-      </c>
-      <c r="F61" s="121" t="s">
-        <v>585</v>
+      <c r="F61" s="10" t="s">
+        <v>583</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7">
       <c r="B62" s="53"/>
-      <c r="C62" s="121" t="s">
-        <v>389</v>
-      </c>
-      <c r="D62" s="121" t="s">
+      <c r="C62" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="122">
+      <c r="E62" s="41">
         <v>1</v>
       </c>
-      <c r="F62" s="121" t="s">
-        <v>391</v>
+      <c r="F62" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7">
       <c r="B63" s="53"/>
-      <c r="C63" s="121" t="s">
-        <v>390</v>
-      </c>
-      <c r="D63" s="121" t="s">
+      <c r="C63" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="122">
+      <c r="E63" s="41">
         <v>1</v>
       </c>
-      <c r="F63" s="121" t="s">
-        <v>392</v>
+      <c r="F63" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7">
       <c r="B64" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" s="62" t="s">
         <v>283</v>
@@ -11489,136 +11456,136 @@
         <v>1</v>
       </c>
       <c r="F64" s="62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G64" s="63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6">
       <c r="B66" s="3"/>
       <c r="F66" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6">
       <c r="B67" s="3"/>
       <c r="F67" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6">
       <c r="B68" s="3"/>
       <c r="F68" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6">
       <c r="F69" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6">
       <c r="F70" s="18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
       <c r="F71" s="18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
       <c r="F72" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
       <c r="F73" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
       <c r="F74" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
       <c r="F75" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
       <c r="F76" s="18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
       <c r="F77" s="18" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
       <c r="F78" s="18" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
       <c r="F79" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
       <c r="F80" s="18" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
       <c r="F81" s="18" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
       <c r="F82" s="18" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
       <c r="F83" s="18" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
       <c r="F84" s="18" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
       <c r="F85" s="18" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
       <c r="F87" s="118" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
       <c r="F88" s="118" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
       <c r="F89" s="118"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:6">
       <c r="F90" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
       <c r="F91" s="118" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -11662,7 +11629,7 @@
       <selection pane="bottomRight" activeCell="DV14" sqref="DV14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="15" customWidth="1"/>
@@ -11683,7 +11650,7 @@
     <col min="162" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:165">
       <c r="A1" s="34" t="s">
         <v>55</v>
       </c>
@@ -11730,9 +11697,9 @@
       <c r="AU1" s="25"/>
       <c r="AV1" s="25"/>
     </row>
-    <row r="2" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:165" s="26" customFormat="1">
       <c r="B2" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>181</v>
@@ -11777,88 +11744,88 @@
         <v>174</v>
       </c>
       <c r="Q2" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="R2" s="25" t="s">
-        <v>336</v>
-      </c>
       <c r="S2" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="U2" s="68" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="V2" s="68" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="W2" s="68" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="X2" s="68" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="Y2" s="68" t="s">
+        <v>754</v>
+      </c>
+      <c r="Z2" s="68" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA2" s="68" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB2" s="68" t="s">
         <v>757</v>
       </c>
-      <c r="Z2" s="68" t="s">
-        <v>758</v>
-      </c>
-      <c r="AA2" s="68" t="s">
-        <v>759</v>
-      </c>
-      <c r="AB2" s="68" t="s">
-        <v>760</v>
-      </c>
       <c r="AC2" s="68" t="s">
+        <v>859</v>
+      </c>
+      <c r="AD2" s="68" t="s">
+        <v>860</v>
+      </c>
+      <c r="AE2" s="68" t="s">
+        <v>861</v>
+      </c>
+      <c r="AF2" s="68" t="s">
         <v>862</v>
       </c>
-      <c r="AD2" s="68" t="s">
+      <c r="AG2" s="68" t="s">
         <v>863</v>
       </c>
-      <c r="AE2" s="68" t="s">
+      <c r="AH2" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="AF2" s="68" t="s">
+      <c r="AI2" s="68" t="s">
         <v>865</v>
       </c>
-      <c r="AG2" s="68" t="s">
+      <c r="AJ2" s="68" t="s">
         <v>866</v>
       </c>
-      <c r="AH2" s="68" t="s">
+      <c r="AK2" s="68" t="s">
         <v>867</v>
       </c>
-      <c r="AI2" s="68" t="s">
+      <c r="AL2" s="68" t="s">
         <v>868</v>
       </c>
-      <c r="AJ2" s="68" t="s">
+      <c r="AM2" s="68" t="s">
         <v>869</v>
       </c>
-      <c r="AK2" s="68" t="s">
+      <c r="AN2" s="68" t="s">
         <v>870</v>
       </c>
-      <c r="AL2" s="68" t="s">
+      <c r="AO2" s="68" t="s">
         <v>871</v>
       </c>
-      <c r="AM2" s="68" t="s">
+      <c r="AP2" s="68" t="s">
         <v>872</v>
       </c>
-      <c r="AN2" s="68" t="s">
+      <c r="AQ2" s="68" t="s">
         <v>873</v>
       </c>
-      <c r="AO2" s="68" t="s">
+      <c r="AR2" s="68" t="s">
         <v>874</v>
-      </c>
-      <c r="AP2" s="68" t="s">
-        <v>875</v>
-      </c>
-      <c r="AQ2" s="68" t="s">
-        <v>876</v>
-      </c>
-      <c r="AR2" s="68" t="s">
-        <v>877</v>
       </c>
       <c r="AS2" s="68"/>
       <c r="AT2" s="68"/>
@@ -11926,184 +11893,184 @@
         <v>198</v>
       </c>
       <c r="BR2" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="BS2" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="BS2" s="44" t="s">
+      <c r="BT2" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="BT2" s="44" t="s">
+      <c r="BU2" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="BU2" s="44" t="s">
-        <v>305</v>
-      </c>
       <c r="BV2" s="52" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="BW2" s="52" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="BX2" s="52" t="s">
+        <v>684</v>
+      </c>
+      <c r="BY2" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="BZ2" s="52" t="s">
+        <v>686</v>
+      </c>
+      <c r="CA2" s="52" t="s">
         <v>687</v>
       </c>
-      <c r="BY2" s="52" t="s">
+      <c r="CB2" s="52" t="s">
         <v>688</v>
       </c>
-      <c r="BZ2" s="52" t="s">
+      <c r="CC2" s="52" t="s">
         <v>689</v>
       </c>
-      <c r="CA2" s="52" t="s">
-        <v>690</v>
-      </c>
-      <c r="CB2" s="52" t="s">
-        <v>691</v>
-      </c>
-      <c r="CC2" s="52" t="s">
-        <v>692</v>
-      </c>
       <c r="CD2" s="52" t="s">
+        <v>716</v>
+      </c>
+      <c r="CE2" s="52" t="s">
+        <v>717</v>
+      </c>
+      <c r="CF2" s="52" t="s">
+        <v>718</v>
+      </c>
+      <c r="CG2" s="52" t="s">
         <v>719</v>
       </c>
-      <c r="CE2" s="52" t="s">
-        <v>720</v>
-      </c>
-      <c r="CF2" s="52" t="s">
-        <v>721</v>
-      </c>
-      <c r="CG2" s="52" t="s">
-        <v>722</v>
-      </c>
       <c r="CH2" s="52" t="s">
+        <v>725</v>
+      </c>
+      <c r="CI2" s="52" t="s">
+        <v>726</v>
+      </c>
+      <c r="CJ2" s="52" t="s">
+        <v>727</v>
+      </c>
+      <c r="CK2" s="52" t="s">
         <v>728</v>
       </c>
-      <c r="CI2" s="52" t="s">
-        <v>729</v>
-      </c>
-      <c r="CJ2" s="52" t="s">
-        <v>730</v>
-      </c>
-      <c r="CK2" s="52" t="s">
-        <v>731</v>
-      </c>
       <c r="CL2" s="52" t="s">
+        <v>747</v>
+      </c>
+      <c r="CM2" s="52" t="s">
+        <v>748</v>
+      </c>
+      <c r="CN2" s="52" t="s">
+        <v>749</v>
+      </c>
+      <c r="CO2" s="52" t="s">
         <v>750</v>
       </c>
-      <c r="CM2" s="52" t="s">
-        <v>751</v>
-      </c>
-      <c r="CN2" s="52" t="s">
-        <v>752</v>
-      </c>
-      <c r="CO2" s="52" t="s">
-        <v>753</v>
-      </c>
       <c r="CP2" s="52" t="s">
+        <v>761</v>
+      </c>
+      <c r="CQ2" s="52" t="s">
+        <v>762</v>
+      </c>
+      <c r="CR2" s="52" t="s">
+        <v>763</v>
+      </c>
+      <c r="CS2" s="52" t="s">
         <v>764</v>
       </c>
-      <c r="CQ2" s="52" t="s">
+      <c r="CT2" s="52" t="s">
         <v>765</v>
       </c>
-      <c r="CR2" s="52" t="s">
+      <c r="CU2" s="52" t="s">
         <v>766</v>
       </c>
-      <c r="CS2" s="52" t="s">
+      <c r="CV2" s="52" t="s">
         <v>767</v>
       </c>
-      <c r="CT2" s="52" t="s">
+      <c r="CW2" s="52" t="s">
         <v>768</v>
       </c>
-      <c r="CU2" s="52" t="s">
+      <c r="CX2" s="52" t="s">
         <v>769</v>
       </c>
-      <c r="CV2" s="52" t="s">
+      <c r="CY2" s="52" t="s">
         <v>770</v>
       </c>
-      <c r="CW2" s="52" t="s">
+      <c r="CZ2" s="52" t="s">
         <v>771</v>
       </c>
-      <c r="CX2" s="52" t="s">
+      <c r="DA2" s="52" t="s">
         <v>772</v>
       </c>
-      <c r="CY2" s="52" t="s">
+      <c r="DB2" s="52" t="s">
         <v>773</v>
       </c>
-      <c r="CZ2" s="52" t="s">
+      <c r="DC2" s="52" t="s">
         <v>774</v>
       </c>
-      <c r="DA2" s="52" t="s">
+      <c r="DD2" s="52" t="s">
         <v>775</v>
       </c>
-      <c r="DB2" s="52" t="s">
+      <c r="DE2" s="52" t="s">
         <v>776</v>
       </c>
-      <c r="DC2" s="52" t="s">
+      <c r="DF2" s="52" t="s">
         <v>777</v>
       </c>
-      <c r="DD2" s="52" t="s">
+      <c r="DG2" s="52" t="s">
         <v>778</v>
       </c>
-      <c r="DE2" s="52" t="s">
+      <c r="DH2" s="52" t="s">
         <v>779</v>
       </c>
-      <c r="DF2" s="52" t="s">
+      <c r="DI2" s="52" t="s">
         <v>780</v>
       </c>
-      <c r="DG2" s="52" t="s">
+      <c r="DJ2" s="52" t="s">
         <v>781</v>
       </c>
-      <c r="DH2" s="52" t="s">
+      <c r="DK2" s="52" t="s">
         <v>782</v>
       </c>
-      <c r="DI2" s="52" t="s">
+      <c r="DL2" s="52" t="s">
         <v>783</v>
       </c>
-      <c r="DJ2" s="52" t="s">
+      <c r="DM2" s="52" t="s">
         <v>784</v>
       </c>
-      <c r="DK2" s="52" t="s">
+      <c r="DN2" s="52" t="s">
         <v>785</v>
       </c>
-      <c r="DL2" s="52" t="s">
+      <c r="DO2" s="52" t="s">
         <v>786</v>
       </c>
-      <c r="DM2" s="52" t="s">
+      <c r="DP2" s="52" t="s">
         <v>787</v>
       </c>
-      <c r="DN2" s="52" t="s">
+      <c r="DQ2" s="52" t="s">
         <v>788</v>
       </c>
-      <c r="DO2" s="52" t="s">
+      <c r="DR2" s="52" t="s">
         <v>789</v>
       </c>
-      <c r="DP2" s="52" t="s">
+      <c r="DS2" s="52" t="s">
         <v>790</v>
       </c>
-      <c r="DQ2" s="52" t="s">
+      <c r="DT2" s="52" t="s">
         <v>791</v>
       </c>
-      <c r="DR2" s="52" t="s">
+      <c r="DU2" s="52" t="s">
         <v>792</v>
       </c>
-      <c r="DS2" s="52" t="s">
-        <v>793</v>
-      </c>
-      <c r="DT2" s="52" t="s">
-        <v>794</v>
-      </c>
-      <c r="DU2" s="52" t="s">
-        <v>795</v>
-      </c>
       <c r="DV2" s="52" t="s">
+        <v>875</v>
+      </c>
+      <c r="DW2" s="52" t="s">
+        <v>876</v>
+      </c>
+      <c r="DX2" s="52" t="s">
+        <v>877</v>
+      </c>
+      <c r="DY2" s="52" t="s">
         <v>878</v>
-      </c>
-      <c r="DW2" s="52" t="s">
-        <v>879</v>
-      </c>
-      <c r="DX2" s="52" t="s">
-        <v>880</v>
-      </c>
-      <c r="DY2" s="52" t="s">
-        <v>881</v>
       </c>
       <c r="DZ2" s="52"/>
       <c r="EA2" s="52"/>
@@ -12228,9 +12195,9 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="3" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:165" s="26" customFormat="1">
       <c r="B3" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -12596,9 +12563,9 @@
       <c r="FA3" s="46"/>
       <c r="FB3" s="46"/>
     </row>
-    <row r="4" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:165" s="26" customFormat="1">
       <c r="B4" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -12871,7 +12838,7 @@
       <c r="FA4" s="46"/>
       <c r="FB4" s="46"/>
     </row>
-    <row r="5" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:165" s="26" customFormat="1">
       <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
@@ -13158,7 +13125,7 @@
       <c r="FA5" s="46"/>
       <c r="FB5" s="46"/>
     </row>
-    <row r="6" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:165" s="26" customFormat="1">
       <c r="B6" s="17" t="s">
         <v>41</v>
       </c>
@@ -13467,9 +13434,9 @@
       <c r="FA6" s="46"/>
       <c r="FB6" s="46"/>
     </row>
-    <row r="7" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:165" s="26" customFormat="1">
       <c r="B7" s="17" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -13661,9 +13628,9 @@
       <c r="FA7" s="46"/>
       <c r="FB7" s="46"/>
     </row>
-    <row r="8" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:165" s="26" customFormat="1">
       <c r="B8" s="17" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -13952,9 +13919,9 @@
       <c r="FA8" s="46"/>
       <c r="FB8" s="46"/>
     </row>
-    <row r="9" spans="1:165" s="116" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:165" s="116" customFormat="1">
       <c r="B9" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -14137,9 +14104,9 @@
       <c r="FA9" s="117"/>
       <c r="FB9" s="117"/>
     </row>
-    <row r="10" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:165" s="26" customFormat="1">
       <c r="B10" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -14359,9 +14326,9 @@
       <c r="FA10" s="46"/>
       <c r="FB10" s="46"/>
     </row>
-    <row r="11" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:165" s="26" customFormat="1">
       <c r="B11" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -14544,9 +14511,9 @@
       <c r="FA11" s="46"/>
       <c r="FB11" s="46"/>
     </row>
-    <row r="12" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:165" s="26" customFormat="1">
       <c r="B12" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -14729,9 +14696,9 @@
       <c r="FA12" s="46"/>
       <c r="FB12" s="46"/>
     </row>
-    <row r="13" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:165" s="26" customFormat="1">
       <c r="B13" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -14995,7 +14962,7 @@
       <c r="FA13" s="46"/>
       <c r="FB13" s="46"/>
     </row>
-    <row r="14" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:165" s="26" customFormat="1">
       <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
@@ -15366,9 +15333,9 @@
       <c r="FA14" s="46"/>
       <c r="FB14" s="46"/>
     </row>
-    <row r="15" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:165" s="26" customFormat="1">
       <c r="B15" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -15737,7 +15704,7 @@
       <c r="FA15" s="46"/>
       <c r="FB15" s="46"/>
     </row>
-    <row r="16" spans="1:165" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:165" s="26" customFormat="1">
       <c r="B16" s="15" t="s">
         <v>24</v>
       </c>
@@ -16108,9 +16075,9 @@
       <c r="FA16" s="46"/>
       <c r="FB16" s="46"/>
     </row>
-    <row r="17" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:158" s="26" customFormat="1">
       <c r="B17" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -16305,9 +16272,9 @@
       <c r="FA17" s="46"/>
       <c r="FB17" s="46"/>
     </row>
-    <row r="18" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:158" s="26" customFormat="1">
       <c r="B18" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -16490,7 +16457,7 @@
       <c r="FA18" s="46"/>
       <c r="FB18" s="46"/>
     </row>
-    <row r="19" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:158" s="26" customFormat="1">
       <c r="B19" s="15" t="s">
         <v>28</v>
       </c>
@@ -16855,9 +16822,9 @@
       <c r="FA19" s="46"/>
       <c r="FB19" s="46"/>
     </row>
-    <row r="20" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:158" s="26" customFormat="1">
       <c r="B20" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -17040,7 +17007,7 @@
       <c r="FA20" s="46"/>
       <c r="FB20" s="46"/>
     </row>
-    <row r="21" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:158" s="26" customFormat="1">
       <c r="B21" s="15" t="s">
         <v>29</v>
       </c>
@@ -17400,7 +17367,7 @@
       <c r="FA21" s="46"/>
       <c r="FB21" s="46"/>
     </row>
-    <row r="22" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:158" s="26" customFormat="1">
       <c r="B22" s="15" t="s">
         <v>26</v>
       </c>
@@ -17760,9 +17727,9 @@
       <c r="FA22" s="46"/>
       <c r="FB22" s="46"/>
     </row>
-    <row r="23" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:158" s="26" customFormat="1">
       <c r="B23" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -17945,9 +17912,9 @@
       <c r="FA23" s="46"/>
       <c r="FB23" s="46"/>
     </row>
-    <row r="24" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:158" s="26" customFormat="1">
       <c r="B24" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -18130,9 +18097,9 @@
       <c r="FA24" s="46"/>
       <c r="FB24" s="46"/>
     </row>
-    <row r="25" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:158" s="26" customFormat="1">
       <c r="B25" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -18317,9 +18284,9 @@
       <c r="FA25" s="46"/>
       <c r="FB25" s="46"/>
     </row>
-    <row r="26" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:158" s="26" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -18502,7 +18469,7 @@
       <c r="FA26" s="46"/>
       <c r="FB26" s="46"/>
     </row>
-    <row r="27" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:158" s="26" customFormat="1">
       <c r="B27" s="15" t="s">
         <v>27</v>
       </c>
@@ -18867,7 +18834,7 @@
       <c r="FA27" s="46"/>
       <c r="FB27" s="46"/>
     </row>
-    <row r="28" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:158" s="26" customFormat="1">
       <c r="B28" s="15" t="s">
         <v>40</v>
       </c>
@@ -19233,9 +19200,9 @@
       <c r="FA28" s="46"/>
       <c r="FB28" s="46"/>
     </row>
-    <row r="29" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:158" s="26" customFormat="1">
       <c r="B29" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -19403,9 +19370,9 @@
       <c r="FA29" s="46"/>
       <c r="FB29" s="46"/>
     </row>
-    <row r="30" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:158" s="26" customFormat="1">
       <c r="B30" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -19575,9 +19542,9 @@
       <c r="FA30" s="46"/>
       <c r="FB30" s="46"/>
     </row>
-    <row r="31" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:158" s="26" customFormat="1">
       <c r="B31" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -19738,9 +19705,9 @@
       <c r="FA31" s="46"/>
       <c r="FB31" s="46"/>
     </row>
-    <row r="32" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:158" s="26" customFormat="1">
       <c r="B32" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -19901,9 +19868,9 @@
       <c r="FA32" s="46"/>
       <c r="FB32" s="46"/>
     </row>
-    <row r="33" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:158" s="26" customFormat="1">
       <c r="B33" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -20064,9 +20031,9 @@
       <c r="FA33" s="46"/>
       <c r="FB33" s="46"/>
     </row>
-    <row r="34" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:158" s="26" customFormat="1">
       <c r="B34" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -20227,9 +20194,9 @@
       <c r="FA34" s="46"/>
       <c r="FB34" s="46"/>
     </row>
-    <row r="35" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:158" s="26" customFormat="1">
       <c r="B35" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -20390,9 +20357,9 @@
       <c r="FA35" s="46"/>
       <c r="FB35" s="46"/>
     </row>
-    <row r="36" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:158" s="26" customFormat="1">
       <c r="B36" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -20553,9 +20520,9 @@
       <c r="FA36" s="46"/>
       <c r="FB36" s="46"/>
     </row>
-    <row r="37" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:158" s="26" customFormat="1">
       <c r="B37" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -20716,7 +20683,7 @@
       <c r="FA37" s="46"/>
       <c r="FB37" s="46"/>
     </row>
-    <row r="38" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:158" s="26" customFormat="1">
       <c r="B38" s="3" t="s">
         <v>139</v>
       </c>
@@ -21058,7 +21025,7 @@
       <c r="FA38" s="46"/>
       <c r="FB38" s="46"/>
     </row>
-    <row r="39" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:158" s="26" customFormat="1">
       <c r="B39" s="15" t="s">
         <v>34</v>
       </c>
@@ -21400,7 +21367,7 @@
       <c r="FA39" s="46"/>
       <c r="FB39" s="46"/>
     </row>
-    <row r="40" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:158" s="26" customFormat="1">
       <c r="B40" s="15" t="s">
         <v>31</v>
       </c>
@@ -21746,7 +21713,7 @@
       <c r="FA40" s="46"/>
       <c r="FB40" s="46"/>
     </row>
-    <row r="41" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:158" s="26" customFormat="1">
       <c r="B41" s="15" t="s">
         <v>25</v>
       </c>
@@ -22085,7 +22052,7 @@
       <c r="FA41" s="46"/>
       <c r="FB41" s="46"/>
     </row>
-    <row r="42" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:158" s="26" customFormat="1">
       <c r="B42" s="15" t="s">
         <v>140</v>
       </c>
@@ -22380,7 +22347,7 @@
       <c r="FA42" s="46"/>
       <c r="FB42" s="46"/>
     </row>
-    <row r="43" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:158" s="26" customFormat="1">
       <c r="B43" s="15" t="s">
         <v>33</v>
       </c>
@@ -22726,7 +22693,7 @@
       <c r="FA43" s="46"/>
       <c r="FB43" s="46"/>
     </row>
-    <row r="44" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:158" s="26" customFormat="1">
       <c r="B44" s="15" t="s">
         <v>158</v>
       </c>
@@ -23067,7 +23034,7 @@
       <c r="FA44" s="46"/>
       <c r="FB44" s="46"/>
     </row>
-    <row r="45" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:158" s="26" customFormat="1">
       <c r="B45" s="15" t="s">
         <v>142</v>
       </c>
@@ -23402,7 +23369,7 @@
       <c r="FA45" s="46"/>
       <c r="FB45" s="46"/>
     </row>
-    <row r="46" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:158" s="26" customFormat="1">
       <c r="B46" s="15" t="s">
         <v>30</v>
       </c>
@@ -23696,7 +23663,7 @@
       <c r="FA46" s="46"/>
       <c r="FB46" s="46"/>
     </row>
-    <row r="47" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:158" s="26" customFormat="1">
       <c r="B47" s="15" t="s">
         <v>38</v>
       </c>
@@ -23975,7 +23942,7 @@
       <c r="FA47" s="46"/>
       <c r="FB47" s="46"/>
     </row>
-    <row r="48" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:158" s="26" customFormat="1">
       <c r="B48" s="3" t="s">
         <v>50</v>
       </c>
@@ -24203,7 +24170,7 @@
       <c r="FA48" s="46"/>
       <c r="FB48" s="46"/>
     </row>
-    <row r="49" spans="2:167" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:167" s="26" customFormat="1" hidden="1">
       <c r="B49" s="15" t="s">
         <v>39</v>
       </c>
@@ -24489,7 +24456,7 @@
       <c r="FA49" s="46"/>
       <c r="FB49" s="46"/>
     </row>
-    <row r="50" spans="2:167" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:167" s="26" customFormat="1" hidden="1">
       <c r="B50" s="15" t="s">
         <v>32</v>
       </c>
@@ -24725,7 +24692,7 @@
       <c r="FJ50" s="25"/>
       <c r="FK50" s="25"/>
     </row>
-    <row r="51" spans="2:167" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:167" s="26" customFormat="1" hidden="1">
       <c r="B51" s="3" t="s">
         <v>36</v>
       </c>
@@ -24938,9 +24905,9 @@
       <c r="FJ51" s="99"/>
       <c r="FK51" s="99"/>
     </row>
-    <row r="52" spans="2:167" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:167" s="26" customFormat="1" hidden="1">
       <c r="B52" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -25142,9 +25109,9 @@
       <c r="FA52" s="46"/>
       <c r="FB52" s="46"/>
     </row>
-    <row r="53" spans="2:167" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:167" s="26" customFormat="1" hidden="1">
       <c r="B53" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -25346,9 +25313,9 @@
       <c r="FA53" s="46"/>
       <c r="FB53" s="46"/>
     </row>
-    <row r="54" spans="2:167" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:167" s="26" customFormat="1" hidden="1">
       <c r="B54" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -25550,9 +25517,9 @@
       <c r="FA54" s="46"/>
       <c r="FB54" s="46"/>
     </row>
-    <row r="55" spans="2:167" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:167" s="26" customFormat="1" hidden="1">
       <c r="B55" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
@@ -25754,7 +25721,7 @@
       <c r="FA55" s="46"/>
       <c r="FB55" s="46"/>
     </row>
-    <row r="56" spans="2:167" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:167" s="26" customFormat="1" hidden="1">
       <c r="B56" s="3" t="s">
         <v>35</v>
       </c>
@@ -25958,9 +25925,9 @@
       <c r="FA56" s="46"/>
       <c r="FB56" s="46"/>
     </row>
-    <row r="57" spans="2:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:167" s="26" customFormat="1">
       <c r="B57" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -26164,7 +26131,7 @@
       <c r="FA57" s="46"/>
       <c r="FB57" s="46"/>
     </row>
-    <row r="58" spans="2:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:167" s="26" customFormat="1">
       <c r="B58" s="15" t="s">
         <v>37</v>
       </c>
@@ -26463,7 +26430,7 @@
       <c r="FA58" s="46"/>
       <c r="FB58" s="46"/>
     </row>
-    <row r="59" spans="2:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:167" s="26" customFormat="1">
       <c r="B59" s="3"/>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -26634,9 +26601,9 @@
       <c r="FA59" s="46"/>
       <c r="FB59" s="46"/>
     </row>
-    <row r="60" spans="2:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:167" s="26" customFormat="1">
       <c r="B60" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
@@ -26842,7 +26809,7 @@
       <c r="FA60" s="46"/>
       <c r="FB60" s="46"/>
     </row>
-    <row r="61" spans="2:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:167" s="26" customFormat="1">
       <c r="B61" s="3" t="s">
         <v>18</v>
       </c>
@@ -27142,7 +27109,7 @@
       <c r="FB61" s="46"/>
       <c r="FD61" s="97"/>
     </row>
-    <row r="62" spans="2:167" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:167" s="17" customFormat="1">
       <c r="B62" s="17" t="s">
         <v>63</v>
       </c>
@@ -27471,7 +27438,7 @@
       <c r="FA62" s="48"/>
       <c r="FB62" s="48"/>
     </row>
-    <row r="63" spans="2:167" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:167">
       <c r="B63" s="15" t="s">
         <v>64</v>
       </c>
@@ -27629,7 +27596,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="64" spans="2:167" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:167" s="17" customFormat="1">
       <c r="B64" s="15" t="s">
         <v>13</v>
       </c>
@@ -27885,7 +27852,7 @@
       <c r="FA64" s="48"/>
       <c r="FB64" s="48"/>
     </row>
-    <row r="65" spans="2:231" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:231" s="17" customFormat="1">
       <c r="B65" s="15" t="s">
         <v>0</v>
       </c>
@@ -28150,7 +28117,7 @@
       <c r="FA65" s="48"/>
       <c r="FB65" s="48"/>
     </row>
-    <row r="66" spans="2:231" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:231">
       <c r="B66" s="15" t="s">
         <v>186</v>
       </c>
@@ -28316,7 +28283,7 @@
         <v>9444</v>
       </c>
     </row>
-    <row r="67" spans="2:231" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:231" s="17" customFormat="1">
       <c r="B67" s="15" t="s">
         <v>185</v>
       </c>
@@ -28571,7 +28538,7 @@
       <c r="FA67" s="48"/>
       <c r="FB67" s="48"/>
     </row>
-    <row r="68" spans="2:231" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:231">
       <c r="B68" s="15" t="s">
         <v>1</v>
       </c>
@@ -28714,7 +28681,7 @@
         <v>13708</v>
       </c>
     </row>
-    <row r="69" spans="2:231" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:231">
       <c r="B69" s="15" t="s">
         <v>183</v>
       </c>
@@ -28796,9 +28763,9 @@
       <c r="EW69" s="25"/>
       <c r="EX69" s="25"/>
     </row>
-    <row r="70" spans="2:231" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:231">
       <c r="B70" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -28939,7 +28906,7 @@
         <v>25815</v>
       </c>
     </row>
-    <row r="71" spans="2:231" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:231" s="17" customFormat="1">
       <c r="B71" s="17" t="s">
         <v>149</v>
       </c>
@@ -29204,7 +29171,7 @@
       <c r="FA71" s="48"/>
       <c r="FB71" s="48"/>
     </row>
-    <row r="72" spans="2:231" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:231">
       <c r="B72" s="15" t="s">
         <v>2</v>
       </c>
@@ -29345,7 +29312,7 @@
         <v>-751</v>
       </c>
     </row>
-    <row r="73" spans="2:231" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:231" s="17" customFormat="1">
       <c r="B73" s="15" t="s">
         <v>3</v>
       </c>
@@ -29569,7 +29536,7 @@
       <c r="FA73" s="48"/>
       <c r="FB73" s="48"/>
     </row>
-    <row r="74" spans="2:231" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:231" s="17" customFormat="1">
       <c r="B74" s="17" t="s">
         <v>15</v>
       </c>
@@ -29834,7 +29801,7 @@
       <c r="FA74" s="48"/>
       <c r="FB74" s="48"/>
     </row>
-    <row r="75" spans="2:231" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:231">
       <c r="B75" s="15" t="s">
         <v>5</v>
       </c>
@@ -29996,7 +29963,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="76" spans="2:231" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:231">
       <c r="B76" s="15" t="s">
         <v>6</v>
       </c>
@@ -30172,7 +30139,7 @@
         <v>18071</v>
       </c>
     </row>
-    <row r="77" spans="2:231" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:231">
       <c r="B77" s="15" t="s">
         <v>4</v>
       </c>
@@ -30399,7 +30366,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="78" spans="2:231" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:231">
       <c r="B78" s="15" t="s">
         <v>20</v>
       </c>
@@ -30965,7 +30932,7 @@
         <v>36294.684152289366</v>
       </c>
     </row>
-    <row r="79" spans="2:231" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:231" s="17" customFormat="1">
       <c r="B79" s="17" t="s">
         <v>21</v>
       </c>
@@ -31208,7 +31175,7 @@
       <c r="FA79" s="48"/>
       <c r="FB79" s="48"/>
     </row>
-    <row r="80" spans="2:231" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:231" s="17" customFormat="1">
       <c r="B80" s="15" t="s">
         <v>42</v>
       </c>
@@ -31444,7 +31411,7 @@
       <c r="FA80" s="48"/>
       <c r="FB80" s="48"/>
     </row>
-    <row r="81" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:160" s="17" customFormat="1">
       <c r="B81" s="15"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -31602,7 +31569,7 @@
       <c r="FA81" s="48"/>
       <c r="FB81" s="48"/>
     </row>
-    <row r="82" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:160">
       <c r="B82" s="15" t="s">
         <v>182</v>
       </c>
@@ -31814,7 +31781,7 @@
       <c r="FA82" s="15"/>
       <c r="FB82" s="15"/>
     </row>
-    <row r="83" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:160">
       <c r="C83" s="50"/>
       <c r="D83" s="50"/>
       <c r="E83" s="50"/>
@@ -31969,7 +31936,7 @@
       <c r="FA83" s="15"/>
       <c r="FB83" s="15"/>
     </row>
-    <row r="84" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:160" s="17" customFormat="1">
       <c r="B84" s="17" t="s">
         <v>8</v>
       </c>
@@ -32207,13 +32174,13 @@
         <v>0.75973312526870596</v>
       </c>
       <c r="FA84" s="88" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="FB84" s="51">
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:160">
       <c r="B85" s="15" t="s">
         <v>186</v>
       </c>
@@ -32393,10 +32360,10 @@
         <v>0.01</v>
       </c>
       <c r="FD85" s="103" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="86" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="86" spans="2:160" s="17" customFormat="1">
       <c r="B86" s="15" t="s">
         <v>185</v>
       </c>
@@ -32660,10 +32627,10 @@
         <v>0.11</v>
       </c>
       <c r="FD86" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="87" spans="2:160" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="87" spans="2:160">
       <c r="B87" s="30" t="s">
         <v>1</v>
       </c>
@@ -32835,17 +32802,17 @@
         <v>0.21827677903218101</v>
       </c>
       <c r="FA87" s="114" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="FB87" s="25">
         <f>NPV(FB86,EQ78:HZ78)+Main!J5-Main!J6+EP78</f>
         <v>13928.006012798654</v>
       </c>
       <c r="FD87" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="88" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="88" spans="2:160" s="17" customFormat="1">
       <c r="B88" s="17" t="s">
         <v>149</v>
       </c>
@@ -33105,17 +33072,17 @@
         <v>0.34867279183452493</v>
       </c>
       <c r="FA88" s="114" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="FB88" s="50">
         <f>FB87/Main!J3</f>
         <v>17.401241640521906</v>
       </c>
       <c r="FD88" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="89" spans="2:160" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="89" spans="2:160">
       <c r="B89" s="15" t="s">
         <v>10</v>
       </c>
@@ -33266,17 +33233,17 @@
         <v>0.33671438352892469</v>
       </c>
       <c r="FA89" s="114" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="FB89" s="104">
         <f>FB88/Main!J2-1</f>
         <v>-0.93740560560963337</v>
       </c>
       <c r="FD89" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="90" spans="2:160" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90" spans="2:160">
       <c r="B90" s="15" t="s">
         <v>11</v>
       </c>
@@ -33448,7 +33415,7 @@
         <v>0.14541757306346353</v>
       </c>
     </row>
-    <row r="91" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:160" s="17" customFormat="1">
       <c r="B91" s="17" t="s">
         <v>20</v>
       </c>
@@ -33678,7 +33645,7 @@
       <c r="FA91" s="48"/>
       <c r="FB91" s="48"/>
     </row>
-    <row r="92" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:160">
       <c r="B92" s="15" t="s">
         <v>7</v>
       </c>
@@ -33777,7 +33744,7 @@
       <c r="EW92" s="28"/>
       <c r="EX92" s="28"/>
     </row>
-    <row r="93" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:160">
       <c r="G93" s="23"/>
       <c r="H93" s="23"/>
       <c r="I93" s="25"/>
@@ -33820,7 +33787,7 @@
       <c r="AU93" s="25"/>
       <c r="AV93" s="25"/>
     </row>
-    <row r="94" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:160" s="17" customFormat="1">
       <c r="B94" s="17" t="s">
         <v>184</v>
       </c>
@@ -34108,9 +34075,9 @@
       <c r="FA94" s="48"/>
       <c r="FB94" s="48"/>
     </row>
-    <row r="95" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:160" s="17" customFormat="1">
       <c r="B95" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C95" s="75"/>
       <c r="D95" s="75"/>
@@ -34283,9 +34250,9 @@
       <c r="FA95" s="48"/>
       <c r="FB95" s="48"/>
     </row>
-    <row r="96" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:160" s="17" customFormat="1">
       <c r="B96" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C96" s="75"/>
       <c r="D96" s="75"/>
@@ -34454,9 +34421,9 @@
       <c r="FA96" s="48"/>
       <c r="FB96" s="48"/>
     </row>
-    <row r="97" spans="2:158" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:158" s="17" customFormat="1">
       <c r="B97" s="17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C97" s="75"/>
       <c r="D97" s="75"/>
@@ -34623,9 +34590,9 @@
       <c r="FA97" s="48"/>
       <c r="FB97" s="48"/>
     </row>
-    <row r="98" spans="2:158" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:158" s="17" customFormat="1">
       <c r="B98" s="17" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C98" s="75"/>
       <c r="D98" s="75"/>
@@ -34792,9 +34759,9 @@
       <c r="FA98" s="48"/>
       <c r="FB98" s="48"/>
     </row>
-    <row r="99" spans="2:158" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:158" s="17" customFormat="1">
       <c r="B99" s="17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C99" s="75"/>
       <c r="D99" s="75"/>
@@ -34961,9 +34928,9 @@
       <c r="FA99" s="48"/>
       <c r="FB99" s="48"/>
     </row>
-    <row r="100" spans="2:158" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:158" s="17" customFormat="1">
       <c r="B100" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C100" s="75"/>
       <c r="D100" s="75"/>
@@ -35165,9 +35132,9 @@
       <c r="FA100" s="48"/>
       <c r="FB100" s="48"/>
     </row>
-    <row r="101" spans="2:158" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:158" s="3" customFormat="1">
       <c r="B101" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C101" s="80"/>
       <c r="D101" s="80"/>
@@ -35336,7 +35303,7 @@
       <c r="FA101" s="52"/>
       <c r="FB101" s="52"/>
     </row>
-    <row r="102" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:158">
       <c r="B102" s="15" t="s">
         <v>187</v>
       </c>
@@ -35436,7 +35403,7 @@
       <c r="EW102" s="28"/>
       <c r="EX102" s="28"/>
     </row>
-    <row r="103" spans="2:158" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:158" s="17" customFormat="1">
       <c r="B103" s="15" t="s">
         <v>188</v>
       </c>
@@ -35625,7 +35592,7 @@
       <c r="FA103" s="48"/>
       <c r="FB103" s="48"/>
     </row>
-    <row r="104" spans="2:158" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:158" s="17" customFormat="1">
       <c r="B104" s="30" t="s">
         <v>189</v>
       </c>
@@ -35814,7 +35781,7 @@
       <c r="FA104" s="48"/>
       <c r="FB104" s="48"/>
     </row>
-    <row r="105" spans="2:158" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:158" s="17" customFormat="1">
       <c r="B105" s="17" t="s">
         <v>149</v>
       </c>
@@ -36004,7 +35971,7 @@
       <c r="FA105" s="48"/>
       <c r="FB105" s="48"/>
     </row>
-    <row r="106" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:158">
       <c r="B106" s="15" t="s">
         <v>194</v>
       </c>
@@ -36101,7 +36068,7 @@
       <c r="EW106" s="28"/>
       <c r="EX106" s="28"/>
     </row>
-    <row r="107" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:158">
       <c r="B107" s="15" t="s">
         <v>14</v>
       </c>
@@ -36198,7 +36165,7 @@
       <c r="EW107" s="28"/>
       <c r="EX107" s="28"/>
     </row>
-    <row r="108" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:158">
       <c r="B108" s="15" t="s">
         <v>15</v>
       </c>
@@ -36295,7 +36262,7 @@
       <c r="EW108" s="28"/>
       <c r="EX108" s="28"/>
     </row>
-    <row r="109" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:158">
       <c r="B109" s="15" t="s">
         <v>4</v>
       </c>
@@ -36392,7 +36359,7 @@
       <c r="EW109" s="28"/>
       <c r="EX109" s="28"/>
     </row>
-    <row r="110" spans="2:158" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:158" s="17" customFormat="1">
       <c r="B110" s="17" t="s">
         <v>20</v>
       </c>
@@ -36578,7 +36545,7 @@
       <c r="FA110" s="48"/>
       <c r="FB110" s="48"/>
     </row>
-    <row r="111" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:158">
       <c r="B111" s="15" t="s">
         <v>16</v>
       </c>
@@ -36675,7 +36642,7 @@
       <c r="EW111" s="28"/>
       <c r="EX111" s="28"/>
     </row>
-    <row r="112" spans="2:158" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:158" s="17" customFormat="1">
       <c r="B112" s="17" t="s">
         <v>21</v>
       </c>
@@ -36868,7 +36835,7 @@
       <c r="FA112" s="48"/>
       <c r="FB112" s="48"/>
     </row>
-    <row r="113" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:158">
       <c r="B113" s="15" t="s">
         <v>42</v>
       </c>
@@ -36959,7 +36926,7 @@
       <c r="EW113" s="28"/>
       <c r="EX113" s="28"/>
     </row>
-    <row r="114" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:158">
       <c r="B114" s="15" t="s">
         <v>17</v>
       </c>
@@ -37056,7 +37023,7 @@
       <c r="EW114" s="28"/>
       <c r="EX114" s="28"/>
     </row>
-    <row r="115" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:158">
       <c r="C115" s="44"/>
       <c r="D115" s="44"/>
       <c r="E115" s="44"/>
@@ -37103,9 +37070,9 @@
       <c r="AU115" s="25"/>
       <c r="AV115" s="25"/>
     </row>
-    <row r="116" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:158">
       <c r="B116" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E116" s="44"/>
       <c r="F116" s="44"/>
@@ -37151,7 +37118,7 @@
       <c r="AU116" s="25"/>
       <c r="AV116" s="25"/>
     </row>
-    <row r="117" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:158" s="26" customFormat="1">
       <c r="B117" s="17" t="s">
         <v>138</v>
       </c>
@@ -37396,7 +37363,7 @@
       <c r="FA117" s="46"/>
       <c r="FB117" s="46"/>
     </row>
-    <row r="118" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:158" s="26" customFormat="1">
       <c r="B118" s="17" t="s">
         <v>24</v>
       </c>
@@ -37641,7 +37608,7 @@
       <c r="FA118" s="46"/>
       <c r="FB118" s="46"/>
     </row>
-    <row r="119" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:158" s="26" customFormat="1">
       <c r="B119" s="17" t="s">
         <v>23</v>
       </c>
@@ -37886,7 +37853,7 @@
       <c r="FA119" s="46"/>
       <c r="FB119" s="46"/>
     </row>
-    <row r="120" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:158" s="26" customFormat="1">
       <c r="B120" s="15" t="s">
         <v>139</v>
       </c>
@@ -38110,7 +38077,7 @@
       <c r="FA120" s="46"/>
       <c r="FB120" s="46"/>
     </row>
-    <row r="121" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:158" s="26" customFormat="1">
       <c r="B121" s="15" t="s">
         <v>33</v>
       </c>
@@ -38334,7 +38301,7 @@
       <c r="FA121" s="46"/>
       <c r="FB121" s="46"/>
     </row>
-    <row r="122" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:158" s="26" customFormat="1">
       <c r="B122" s="15" t="s">
         <v>40</v>
       </c>
@@ -38558,7 +38525,7 @@
       <c r="FA122" s="46"/>
       <c r="FB122" s="46"/>
     </row>
-    <row r="123" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:158" s="26" customFormat="1">
       <c r="B123" s="15" t="s">
         <v>34</v>
       </c>
@@ -38782,7 +38749,7 @@
       <c r="FA123" s="46"/>
       <c r="FB123" s="46"/>
     </row>
-    <row r="124" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:158" s="26" customFormat="1">
       <c r="B124" s="15" t="s">
         <v>31</v>
       </c>
@@ -39006,7 +38973,7 @@
       <c r="FA124" s="46"/>
       <c r="FB124" s="46"/>
     </row>
-    <row r="125" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:158" s="26" customFormat="1">
       <c r="B125" s="15" t="s">
         <v>25</v>
       </c>
@@ -39221,7 +39188,7 @@
       <c r="FA125" s="46"/>
       <c r="FB125" s="46"/>
     </row>
-    <row r="126" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:158" s="26" customFormat="1">
       <c r="B126" s="15" t="s">
         <v>29</v>
       </c>
@@ -39415,7 +39382,7 @@
       <c r="FA126" s="46"/>
       <c r="FB126" s="46"/>
     </row>
-    <row r="127" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:158" s="26" customFormat="1">
       <c r="B127" s="15" t="s">
         <v>140</v>
       </c>
@@ -39624,7 +39591,7 @@
       <c r="FA127" s="46"/>
       <c r="FB127" s="46"/>
     </row>
-    <row r="128" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:158" s="26" customFormat="1">
       <c r="B128" s="15" t="s">
         <v>39</v>
       </c>
@@ -39848,7 +39815,7 @@
       <c r="FA128" s="46"/>
       <c r="FB128" s="46"/>
     </row>
-    <row r="129" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:158" s="26" customFormat="1">
       <c r="B129" s="15" t="s">
         <v>28</v>
       </c>
@@ -40072,7 +40039,7 @@
       <c r="FA129" s="46"/>
       <c r="FB129" s="46"/>
     </row>
-    <row r="130" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:158" s="26" customFormat="1">
       <c r="B130" s="15" t="s">
         <v>141</v>
       </c>
@@ -40296,7 +40263,7 @@
       <c r="FA130" s="46"/>
       <c r="FB130" s="46"/>
     </row>
-    <row r="131" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:158" s="26" customFormat="1">
       <c r="B131" s="15" t="s">
         <v>142</v>
       </c>
@@ -40520,7 +40487,7 @@
       <c r="FA131" s="46"/>
       <c r="FB131" s="46"/>
     </row>
-    <row r="132" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:158" s="26" customFormat="1">
       <c r="B132" s="15" t="s">
         <v>27</v>
       </c>
@@ -40744,7 +40711,7 @@
       <c r="FA132" s="46"/>
       <c r="FB132" s="46"/>
     </row>
-    <row r="133" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:158" s="26" customFormat="1">
       <c r="B133" s="15" t="s">
         <v>37</v>
       </c>
@@ -40905,7 +40872,7 @@
       <c r="FA133" s="46"/>
       <c r="FB133" s="46"/>
     </row>
-    <row r="134" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:158" s="26" customFormat="1">
       <c r="B134" s="15" t="s">
         <v>30</v>
       </c>
@@ -41066,7 +41033,7 @@
       <c r="FA134" s="46"/>
       <c r="FB134" s="46"/>
     </row>
-    <row r="135" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:158" s="26" customFormat="1">
       <c r="B135" s="15" t="s">
         <v>26</v>
       </c>
@@ -41227,7 +41194,7 @@
       <c r="FA135" s="46"/>
       <c r="FB135" s="46"/>
     </row>
-    <row r="136" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:158" s="26" customFormat="1">
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
@@ -41385,9 +41352,9 @@
       <c r="FA136" s="46"/>
       <c r="FB136" s="46"/>
     </row>
-    <row r="137" spans="2:158" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:158" s="26" customFormat="1">
       <c r="B137" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
@@ -41552,9 +41519,9 @@
       <c r="FA137" s="46"/>
       <c r="FB137" s="46"/>
     </row>
-    <row r="138" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:158">
       <c r="B138" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E138" s="44"/>
       <c r="F138" s="44"/>
@@ -41606,9 +41573,9 @@
         <v>16877</v>
       </c>
     </row>
-    <row r="139" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:158">
       <c r="B139" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
@@ -41658,9 +41625,9 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="140" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:158">
       <c r="B140" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E140" s="28"/>
       <c r="F140" s="28"/>
@@ -41714,7 +41681,7 @@
         <v>13893</v>
       </c>
     </row>
-    <row r="141" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:158">
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
@@ -41757,9 +41724,9 @@
       <c r="AU141" s="25"/>
       <c r="AV141" s="25"/>
     </row>
-    <row r="142" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:158">
       <c r="B142" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
@@ -41833,7 +41800,7 @@
         <v>100920</v>
       </c>
     </row>
-    <row r="143" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:158">
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
@@ -41876,9 +41843,9 @@
       <c r="AU143" s="25"/>
       <c r="AV143" s="25"/>
     </row>
-    <row r="144" spans="2:158" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:158">
       <c r="B144" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
@@ -41922,7 +41889,7 @@
       <c r="AU144" s="25"/>
       <c r="AV144" s="25"/>
     </row>
-    <row r="145" spans="7:48" x14ac:dyDescent="0.2">
+    <row r="145" spans="7:48">
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
@@ -41965,7 +41932,7 @@
       <c r="AU145" s="25"/>
       <c r="AV145" s="25"/>
     </row>
-    <row r="146" spans="7:48" x14ac:dyDescent="0.2">
+    <row r="146" spans="7:48">
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
@@ -42008,7 +41975,7 @@
       <c r="AU146" s="25"/>
       <c r="AV146" s="25"/>
     </row>
-    <row r="147" spans="7:48" x14ac:dyDescent="0.2">
+    <row r="147" spans="7:48">
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
@@ -42051,7 +42018,7 @@
       <c r="AU147" s="25"/>
       <c r="AV147" s="25"/>
     </row>
-    <row r="148" spans="7:48" x14ac:dyDescent="0.2">
+    <row r="148" spans="7:48">
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
@@ -42094,7 +42061,7 @@
       <c r="AU148" s="25"/>
       <c r="AV148" s="25"/>
     </row>
-    <row r="149" spans="7:48" x14ac:dyDescent="0.2">
+    <row r="149" spans="7:48">
       <c r="G149" s="25"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
@@ -42137,7 +42104,7 @@
       <c r="AU149" s="25"/>
       <c r="AV149" s="25"/>
     </row>
-    <row r="150" spans="7:48" x14ac:dyDescent="0.2">
+    <row r="150" spans="7:48">
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
@@ -42180,7 +42147,7 @@
       <c r="AU150" s="25"/>
       <c r="AV150" s="25"/>
     </row>
-    <row r="151" spans="7:48" x14ac:dyDescent="0.2">
+    <row r="151" spans="7:48">
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
@@ -42223,7 +42190,7 @@
       <c r="AU151" s="25"/>
       <c r="AV151" s="25"/>
     </row>
-    <row r="152" spans="7:48" x14ac:dyDescent="0.2">
+    <row r="152" spans="7:48">
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
@@ -42290,108 +42257,108 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="40" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="C9" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="C10" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="C11" s="2" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="C13" s="40" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="C14" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="C15" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="2" t="s">
         <v>841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
-        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -42410,143 +42377,143 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="B11" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>483</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="C12" s="65">
         <f>3363/7365</f>
         <v>0.4566191446028513</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13" s="65">
         <f>346/7365</f>
         <v>4.6978954514596064E-2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="B14" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C14" s="65">
         <f>2158/7365</f>
         <v>0.29300746775288528</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C15" s="65">
         <f>882/7365</f>
         <v>0.11975560081466395</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="B16" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C16" s="65">
         <f>616/7365</f>
         <v>8.3638832315003395E-2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="E17" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" s="40" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -42560,26 +42527,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
@@ -42587,7 +42554,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
@@ -42595,15 +42562,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
@@ -42611,7 +42578,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
         <v>168</v>
       </c>
@@ -42619,7 +42586,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
         <v>106</v>
       </c>
@@ -42627,594 +42594,602 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="16" t="s">
+    <row r="14" spans="1:3">
+      <c r="C14" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="5" t="s">
+    <row r="15" spans="1:3">
+      <c r="C15" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="16" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="5" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="16" t="s">
+    <row r="20" spans="3:3">
+      <c r="C20" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="5" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="16" t="s">
+    <row r="23" spans="3:3">
+      <c r="C23" s="16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="16" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="16" t="s">
+    <row r="25" spans="3:3">
+      <c r="C25" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
+    <row r="30" spans="3:3">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="16" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="16" t="s">
+    <row r="32" spans="3:3">
+      <c r="C32" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="3" t="s">
+    <row r="33" spans="3:29">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:29">
+      <c r="C34" s="16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" spans="3:29">
+      <c r="C35" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C33" s="16" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C34" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C36" s="16" t="s">
+    <row r="36" spans="3:29">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:29">
+      <c r="C37" s="16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="38" spans="3:29">
+      <c r="C38" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="39" spans="3:29">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:29">
+      <c r="C40" s="16" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="41" spans="3:29">
+      <c r="C41" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="37" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C37" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="38" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C39" s="16" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="40" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C40" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="42" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C42" s="31" t="s">
+    <row r="43" spans="3:29">
+      <c r="C43" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D43" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E43" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F43" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="48" t="s">
+      <c r="G43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="H42" s="48" t="s">
+      <c r="H43" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="I42" s="48" t="s">
+      <c r="I43" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="J42" s="48" t="s">
+      <c r="J43" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="K42" s="48" t="s">
+      <c r="K43" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="L42" s="48" t="s">
+      <c r="L43" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="M42" s="48" t="s">
+      <c r="M43" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="N42" s="48" t="s">
+      <c r="N43" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="O42" s="48" t="s">
+      <c r="O43" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="P42" s="48" t="s">
+      <c r="P43" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="Q42" s="48" t="s">
+      <c r="Q43" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="R42" s="48" t="s">
+      <c r="R43" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="S42" s="48" t="s">
+      <c r="S43" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="T42" s="48" t="s">
+      <c r="T43" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="U42" s="93"/>
-      <c r="V42" s="48" t="s">
+      <c r="U43" s="93"/>
+      <c r="V43" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="W42" s="48" t="s">
+      <c r="W43" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="X42" s="48" t="s">
+      <c r="X43" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="Y42" s="48" t="s">
+      <c r="Y43" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="Z42" s="48">
+      <c r="Z43" s="48">
         <v>2005</v>
       </c>
-      <c r="AA42" s="48">
+      <c r="AA43" s="48">
         <v>2006</v>
       </c>
-      <c r="AB42" s="48">
-        <f t="shared" ref="AB42:AC42" si="0">AA42+1</f>
+      <c r="AB43" s="48">
+        <f t="shared" ref="AB43:AC43" si="0">AA43+1</f>
         <v>2007</v>
       </c>
-      <c r="AC42" s="48">
+      <c r="AC43" s="48">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
     </row>
-    <row r="43" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C43" s="17" t="s">
+    <row r="44" spans="3:29">
+      <c r="C44" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="105">
-        <f>SUM(D44:D46)</f>
+      <c r="D44" s="105">
+        <f>SUM(D45:D47)</f>
         <v>782</v>
       </c>
-      <c r="E43" s="105">
-        <f>SUM(E44:E46)</f>
+      <c r="E44" s="105">
+        <f>SUM(E45:E47)</f>
         <v>842</v>
       </c>
-      <c r="F43" s="105">
-        <f>SUM(F44:F46)</f>
+      <c r="F44" s="105">
+        <f>SUM(F45:F47)</f>
         <v>880</v>
       </c>
-      <c r="G43" s="105">
-        <f>SUM(G44:G46)</f>
+      <c r="G44" s="105">
+        <f>SUM(G45:G47)</f>
         <v>874</v>
       </c>
-      <c r="H43" s="105">
-        <f>SUM(H44:H46)</f>
+      <c r="H44" s="105">
+        <f>SUM(H45:H47)</f>
         <v>929</v>
       </c>
-      <c r="I43" s="105">
-        <f t="shared" ref="I43:T43" si="1">SUM(I44:I46)</f>
+      <c r="I44" s="105">
+        <f t="shared" ref="I44:T44" si="1">SUM(I45:I47)</f>
         <v>1015</v>
       </c>
-      <c r="J43" s="105">
+      <c r="J44" s="105">
         <f t="shared" si="1"/>
         <v>1057</v>
       </c>
-      <c r="K43" s="105">
+      <c r="K44" s="105">
         <f t="shared" si="1"/>
         <v>1153</v>
       </c>
-      <c r="L43" s="105">
+      <c r="L44" s="105">
         <f t="shared" si="1"/>
         <v>1146</v>
       </c>
-      <c r="M43" s="105">
+      <c r="M44" s="105">
         <f t="shared" si="1"/>
         <v>1202</v>
       </c>
-      <c r="N43" s="105">
+      <c r="N44" s="105">
         <f t="shared" si="1"/>
         <v>1177</v>
       </c>
-      <c r="O43" s="105">
+      <c r="O44" s="105">
         <f t="shared" si="1"/>
         <v>1314</v>
       </c>
-      <c r="P43" s="105">
+      <c r="P44" s="105">
         <f t="shared" si="1"/>
         <v>1309</v>
       </c>
-      <c r="Q43" s="105">
+      <c r="Q44" s="105">
         <f t="shared" si="1"/>
         <v>1395</v>
       </c>
-      <c r="R43" s="105">
+      <c r="R44" s="105">
         <f t="shared" si="1"/>
         <v>1380</v>
       </c>
-      <c r="S43" s="105">
+      <c r="S44" s="105">
         <f t="shared" si="1"/>
         <v>1432</v>
       </c>
-      <c r="T43" s="105">
+      <c r="T44" s="105">
         <f t="shared" si="1"/>
         <v>1407</v>
       </c>
-      <c r="U43" s="93"/>
-      <c r="V43" s="106">
+      <c r="U44" s="93"/>
+      <c r="V44" s="106">
         <v>1721.3157894736842</v>
       </c>
-      <c r="W43" s="106">
+      <c r="W44" s="106">
         <v>2402</v>
       </c>
-      <c r="X43" s="106">
+      <c r="X44" s="106">
         <v>2775</v>
       </c>
-      <c r="Y43" s="105">
-        <f>SUM(D43:G43)</f>
+      <c r="Y44" s="105">
+        <f>SUM(D44:G44)</f>
         <v>3378</v>
       </c>
-      <c r="Z43" s="105">
-        <f t="shared" ref="Z43:Z46" si="2">SUM(H43:K43)</f>
+      <c r="Z44" s="105">
+        <f t="shared" ref="Z44:Z47" si="2">SUM(H44:K44)</f>
         <v>4154</v>
       </c>
-      <c r="AA43" s="105">
-        <f t="shared" ref="AA43:AA46" si="3">SUM(L43:O43)</f>
+      <c r="AA44" s="105">
+        <f t="shared" ref="AA44:AA47" si="3">SUM(L44:O44)</f>
         <v>4839</v>
       </c>
-      <c r="AB43" s="105">
-        <f>SUM(P43:S43)</f>
+      <c r="AB44" s="105">
+        <f>SUM(P44:S44)</f>
         <v>5516</v>
       </c>
-      <c r="AC43" s="105"/>
-    </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C44" s="15" t="s">
+      <c r="AC44" s="105"/>
+    </row>
+    <row r="45" spans="3:29">
+      <c r="C45" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="107">
+      <c r="D45" s="107">
         <v>484</v>
       </c>
-      <c r="E44" s="107">
+      <c r="E45" s="107">
         <v>514</v>
       </c>
-      <c r="F44" s="107">
+      <c r="F45" s="107">
         <v>531</v>
       </c>
-      <c r="G44" s="107">
+      <c r="G45" s="107">
         <v>514</v>
       </c>
-      <c r="H44" s="107">
+      <c r="H45" s="107">
         <v>540</v>
       </c>
-      <c r="I44" s="107">
+      <c r="I45" s="107">
         <v>573</v>
       </c>
-      <c r="J44" s="107">
+      <c r="J45" s="107">
         <v>612</v>
       </c>
-      <c r="K44" s="107">
+      <c r="K45" s="107">
         <v>672</v>
       </c>
-      <c r="L44" s="107">
+      <c r="L45" s="107">
         <v>634</v>
       </c>
-      <c r="M44" s="107">
+      <c r="M45" s="107">
         <v>675</v>
       </c>
-      <c r="N44" s="107">
+      <c r="N45" s="107">
         <v>650</v>
       </c>
-      <c r="O44" s="107">
+      <c r="O45" s="107">
         <v>737</v>
       </c>
-      <c r="P44" s="107">
+      <c r="P45" s="107">
         <v>682</v>
       </c>
-      <c r="Q44" s="107">
+      <c r="Q45" s="107">
         <v>742</v>
       </c>
-      <c r="R44" s="107">
+      <c r="R45" s="107">
         <v>718</v>
       </c>
-      <c r="S44" s="107">
+      <c r="S45" s="107">
         <v>709</v>
       </c>
-      <c r="T44" s="107">
+      <c r="T45" s="107">
         <v>675</v>
       </c>
-      <c r="U44" s="93"/>
-      <c r="V44" s="108">
+      <c r="U45" s="93"/>
+      <c r="V45" s="108">
         <v>1365</v>
       </c>
-      <c r="W44" s="108">
+      <c r="W45" s="108">
         <v>1760</v>
       </c>
-      <c r="X44" s="108">
+      <c r="X45" s="108">
         <v>1923</v>
       </c>
-      <c r="Y44" s="109">
-        <f>SUM(D44:G44)</f>
+      <c r="Y45" s="109">
+        <f>SUM(D45:G45)</f>
         <v>2043</v>
       </c>
-      <c r="Z44" s="109">
-        <f>SUM(H44:K44)</f>
+      <c r="Z45" s="109">
+        <f>SUM(H45:K45)</f>
         <v>2397</v>
       </c>
-      <c r="AA44" s="109">
+      <c r="AA45" s="109">
         <f t="shared" si="3"/>
         <v>2696</v>
       </c>
-      <c r="AB44" s="107"/>
-      <c r="AC44" s="107"/>
-    </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C45" s="15" t="s">
+      <c r="AB45" s="107"/>
+      <c r="AC45" s="107"/>
+    </row>
+    <row r="46" spans="3:29">
+      <c r="C46" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="107">
+      <c r="D46" s="107">
         <v>39</v>
       </c>
-      <c r="E45" s="107">
+      <c r="E46" s="107">
         <v>48</v>
       </c>
-      <c r="F45" s="107">
+      <c r="F46" s="107">
         <v>49</v>
       </c>
-      <c r="G45" s="107">
+      <c r="G46" s="107">
         <v>58</v>
       </c>
-      <c r="H45" s="107">
+      <c r="H46" s="107">
         <v>40</v>
       </c>
-      <c r="I45" s="107">
+      <c r="I46" s="107">
         <v>52</v>
       </c>
-      <c r="J45" s="107">
+      <c r="J46" s="107">
         <v>50</v>
       </c>
-      <c r="K45" s="107">
+      <c r="K46" s="107">
         <v>59</v>
       </c>
-      <c r="L45" s="107">
+      <c r="L46" s="107">
         <v>41</v>
       </c>
-      <c r="M45" s="107">
+      <c r="M46" s="107">
         <v>48</v>
       </c>
-      <c r="N45" s="107">
+      <c r="N46" s="107">
         <v>49</v>
       </c>
-      <c r="O45" s="107">
+      <c r="O46" s="107">
         <v>56</v>
       </c>
-      <c r="P45" s="107">
+      <c r="P46" s="107">
         <v>38</v>
       </c>
-      <c r="Q45" s="107">
+      <c r="Q46" s="107">
         <v>48</v>
       </c>
-      <c r="R45" s="107">
+      <c r="R46" s="107">
         <v>49</v>
       </c>
-      <c r="S45" s="107">
+      <c r="S46" s="107">
         <v>55</v>
       </c>
-      <c r="T45" s="107">
+      <c r="T46" s="107">
         <v>43</v>
       </c>
-      <c r="U45" s="93"/>
-      <c r="V45" s="108">
+      <c r="U46" s="93"/>
+      <c r="V46" s="108">
         <v>26.315789473684209</v>
       </c>
-      <c r="W45" s="108">
+      <c r="W46" s="108">
         <v>70</v>
       </c>
-      <c r="X45" s="108">
+      <c r="X46" s="108">
         <v>109</v>
       </c>
-      <c r="Y45" s="109">
-        <f t="shared" ref="Y45:Y46" si="4">SUM(D45:G45)</f>
+      <c r="Y46" s="109">
+        <f t="shared" ref="Y46:Y47" si="4">SUM(D46:G46)</f>
         <v>194</v>
       </c>
-      <c r="Z45" s="109">
+      <c r="Z46" s="109">
         <f t="shared" si="2"/>
         <v>201</v>
       </c>
-      <c r="AA45" s="109">
+      <c r="AA46" s="109">
         <f t="shared" si="3"/>
         <v>194</v>
       </c>
-      <c r="AB45" s="107"/>
-      <c r="AC45" s="107"/>
-    </row>
-    <row r="46" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C46" s="15" t="s">
+      <c r="AB46" s="107"/>
+      <c r="AC46" s="107"/>
+    </row>
+    <row r="47" spans="3:29">
+      <c r="C47" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="107">
+      <c r="D47" s="107">
         <v>259</v>
       </c>
-      <c r="E46" s="107">
+      <c r="E47" s="107">
         <v>280</v>
       </c>
-      <c r="F46" s="107">
+      <c r="F47" s="107">
         <v>300</v>
       </c>
-      <c r="G46" s="107">
+      <c r="G47" s="107">
         <v>302</v>
       </c>
-      <c r="H46" s="107">
+      <c r="H47" s="107">
         <v>349</v>
       </c>
-      <c r="I46" s="107">
+      <c r="I47" s="107">
         <v>390</v>
       </c>
-      <c r="J46" s="107">
+      <c r="J47" s="107">
         <v>395</v>
       </c>
-      <c r="K46" s="107">
+      <c r="K47" s="107">
         <v>422</v>
       </c>
-      <c r="L46" s="107">
+      <c r="L47" s="107">
         <v>471</v>
       </c>
-      <c r="M46" s="107">
+      <c r="M47" s="107">
         <v>479</v>
       </c>
-      <c r="N46" s="66">
+      <c r="N47" s="66">
         <v>478</v>
       </c>
-      <c r="O46" s="66">
+      <c r="O47" s="66">
         <v>521</v>
       </c>
-      <c r="P46" s="66">
+      <c r="P47" s="66">
         <v>589</v>
       </c>
-      <c r="Q46" s="66">
+      <c r="Q47" s="66">
         <v>605</v>
       </c>
-      <c r="R46" s="66">
+      <c r="R47" s="66">
         <v>613</v>
       </c>
-      <c r="S46" s="107">
+      <c r="S47" s="107">
         <v>668</v>
       </c>
-      <c r="T46" s="107">
+      <c r="T47" s="107">
         <v>689</v>
       </c>
-      <c r="U46" s="93"/>
-      <c r="V46" s="108">
+      <c r="U47" s="93"/>
+      <c r="V47" s="108">
         <v>330</v>
       </c>
-      <c r="W46" s="108">
+      <c r="W47" s="108">
         <v>572</v>
       </c>
-      <c r="X46" s="108">
+      <c r="X47" s="108">
         <v>743</v>
       </c>
-      <c r="Y46" s="109">
+      <c r="Y47" s="109">
         <f t="shared" si="4"/>
         <v>1141</v>
       </c>
-      <c r="Z46" s="109">
+      <c r="Z47" s="109">
         <f t="shared" si="2"/>
         <v>1556</v>
       </c>
-      <c r="AA46" s="109">
+      <c r="AA47" s="109">
         <f t="shared" si="3"/>
         <v>1949</v>
       </c>
-      <c r="AB46" s="107"/>
-      <c r="AC46" s="107"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="55">
+      <c r="AB47" s="107"/>
+      <c r="AC47" s="107"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="C51" s="55">
         <v>39387</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D51" s="5">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="55">
+    <row r="52" spans="2:4">
+      <c r="C52" s="55">
         <v>39356</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D52" s="5">
         <v>202</v>
       </c>
     </row>
@@ -43235,19 +43210,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="13"/>
       <c r="B2" s="5" t="s">
         <v>49</v>
@@ -43256,7 +43231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="13"/>
       <c r="B3" s="5" t="s">
         <v>51</v>
@@ -43265,7 +43240,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>44</v>
@@ -43274,13 +43249,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="13"/>
       <c r="C5" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>191</v>
@@ -43289,471 +43264,471 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="13"/>
       <c r="C7" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="B9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="B10" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="B11" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="B12" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="C20" s="16" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="C21" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3">
       <c r="C24" s="16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" s="16" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="16"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="16" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" s="16" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="16" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="16" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3">
       <c r="C35" s="16" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
       <c r="C36" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
       <c r="C37" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3">
       <c r="C39" s="16" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3">
       <c r="C40" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3">
       <c r="C41" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3">
       <c r="C42" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3">
       <c r="C43" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
       <c r="C45" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3">
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3">
       <c r="C49" s="16" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
       <c r="C50" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3">
       <c r="C52" s="16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3">
       <c r="C53" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3">
       <c r="C55" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="16"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="3" t="s">
+    <row r="59" spans="3:3">
+      <c r="C59" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3">
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3">
       <c r="C61" s="16" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
       <c r="C62" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
       <c r="C63" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3">
       <c r="C65" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3">
       <c r="C66" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3">
       <c r="C68" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="3" t="s">
+    <row r="71" spans="3:3">
+      <c r="C71" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="3" t="s">
+    <row r="73" spans="3:3">
+      <c r="C73" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="16" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="3" t="s">
+    <row r="94" spans="3:3">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="16" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="16" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="16" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="16"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="16" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="16" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="16" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3">
       <c r="C96" s="16"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4">
       <c r="C97" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="C98" s="16"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="C99" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="C100" s="16"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="C101" s="16" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C98" s="16"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C99" s="16" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C100" s="16"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C101" s="16" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4">
       <c r="C102" s="16"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4">
       <c r="C103" s="16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="C104" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="C105" s="16"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="C106" s="16" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C104" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C105" s="16"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C106" s="16" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4">
       <c r="C107" s="16"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4">
       <c r="C108" s="16"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4">
       <c r="C109" s="16"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4">
       <c r="B110" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
       <c r="C111" s="55">
         <v>39387</v>
       </c>
@@ -43761,7 +43736,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4">
       <c r="C112" s="55">
         <v>39356</v>
       </c>
@@ -43781,15 +43756,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -43903,6 +43869,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -43910,14 +43885,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C23984D-947A-4544-B729-0E53BCCB05F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2911DF48-8F96-42CC-AFEE-EFAF0475AAB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43929,6 +43896,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C23984D-947A-4544-B729-0E53BCCB05F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ROG VX.xlsx
+++ b/ROG VX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C1DD40-A48C-4DCB-AD4A-99FA36A5D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BE16B0-7E8D-429A-8D74-B11C835768E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="480" windowWidth="28905" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9315" yWindow="1440" windowWidth="38700" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management and Structure" sheetId="121" r:id="rId1"/>
@@ -5518,7 +5518,7 @@
     <xf numFmtId="6" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5795,7 +5795,6 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Chart Fonts" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -10286,7 +10285,9 @@
   </sheetPr>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10362,7 +10363,7 @@
         <v>800.40300000000002</v>
       </c>
       <c r="K3" s="54" t="s">
-        <v>788</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -11713,12 +11714,12 @@
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F94" s="124" t="s">
+      <c r="F94" s="3" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F95" s="124" t="s">
+      <c r="F95" s="3" t="s">
         <v>949</v>
       </c>
     </row>
@@ -11765,12 +11766,12 @@
   </sheetPr>
   <dimension ref="A1:HY164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="EO4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="EO114" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AT9" sqref="AT9"/>
       <selection pane="topRight" activeCell="AT9" sqref="AT9"/>
       <selection pane="bottomLeft" activeCell="AT9" sqref="AT9"/>
-      <selection pane="bottomRight" activeCell="FC60" sqref="FC9:FC60"/>
+      <selection pane="bottomRight" activeCell="FC123" sqref="FC123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12413,99 +12414,99 @@
       <c r="AV3" s="25"/>
       <c r="AW3" s="93"/>
       <c r="AX3" s="66">
-        <f>SUM(AX22:AX60)</f>
+        <f t="shared" ref="AX3:BK3" si="12">SUM(AX22:AX60)</f>
         <v>4069.9046424090338</v>
       </c>
       <c r="AY3" s="66">
-        <f>SUM(AY22:AY60)</f>
+        <f t="shared" si="12"/>
         <v>4173.6097867001254</v>
       </c>
       <c r="AZ3" s="66">
-        <f>SUM(AZ22:AZ60)</f>
+        <f t="shared" si="12"/>
         <v>4166.2823086574654</v>
       </c>
       <c r="BA3" s="66">
-        <f>SUM(BA22:BA60)</f>
+        <f t="shared" si="12"/>
         <v>4238</v>
       </c>
       <c r="BB3" s="66">
-        <f>SUM(BB22:BB60)</f>
+        <f t="shared" si="12"/>
         <v>4755</v>
       </c>
       <c r="BC3" s="66">
-        <f>SUM(BC22:BC60)</f>
+        <f t="shared" si="12"/>
         <v>4932.7282626022334</v>
       </c>
       <c r="BD3" s="66">
-        <f>SUM(BD22:BD60)</f>
+        <f t="shared" si="12"/>
         <v>5009.2717373977657</v>
       </c>
       <c r="BE3" s="66">
-        <f>SUM(BE22:BE60)</f>
+        <f t="shared" si="12"/>
         <v>5887</v>
       </c>
       <c r="BF3" s="66">
-        <f>SUM(BF22:BF60)</f>
+        <f t="shared" si="12"/>
         <v>5602</v>
       </c>
       <c r="BG3" s="66">
-        <f>SUM(BG22:BG60)</f>
+        <f t="shared" si="12"/>
         <v>5550</v>
       </c>
       <c r="BH3" s="66">
-        <f>SUM(BH22:BH60)</f>
+        <f t="shared" si="12"/>
         <v>6038.2578675886843</v>
       </c>
       <c r="BI3" s="66">
-        <f>SUM(BI22:BI60)</f>
+        <f t="shared" si="12"/>
         <v>6461.146521744965</v>
       </c>
       <c r="BJ3" s="66">
-        <f>SUM(BJ22:BJ60)</f>
+        <f t="shared" si="12"/>
         <v>5116</v>
       </c>
       <c r="BK3" s="66">
-        <f>SUM(BK22:BK60)</f>
+        <f t="shared" si="12"/>
         <v>4939</v>
       </c>
       <c r="BL3" s="66">
-        <f>SUM(BL22:BL61)</f>
+        <f t="shared" ref="BL3:BU3" si="13">SUM(BL22:BL61)</f>
         <v>9212</v>
       </c>
       <c r="BM3" s="66">
-        <f>SUM(BM22:BM61)</f>
+        <f t="shared" si="13"/>
         <v>10011</v>
       </c>
       <c r="BN3" s="66">
-        <f>SUM(BN22:BN61)</f>
+        <f t="shared" si="13"/>
         <v>8795</v>
       </c>
       <c r="BO3" s="66">
-        <f>SUM(BO22:BO61)</f>
+        <f t="shared" si="13"/>
         <v>8902</v>
       </c>
       <c r="BP3" s="66">
-        <f>SUM(BP22:BP61)</f>
+        <f t="shared" si="13"/>
         <v>9138</v>
       </c>
       <c r="BQ3" s="66">
-        <f>SUM(BQ22:BQ61)</f>
+        <f t="shared" si="13"/>
         <v>9972</v>
       </c>
       <c r="BR3" s="66">
-        <f>SUM(BR22:BR61)</f>
+        <f t="shared" si="13"/>
         <v>9396</v>
       </c>
       <c r="BS3" s="66">
-        <f>SUM(BS22:BS61)</f>
+        <f t="shared" si="13"/>
         <v>10081</v>
       </c>
       <c r="BT3" s="66">
-        <f>SUM(BT22:BT61)</f>
+        <f t="shared" si="13"/>
         <v>10101</v>
       </c>
       <c r="BU3" s="66">
-        <f>SUM(BU22:BU61)</f>
+        <f t="shared" si="13"/>
         <v>9962</v>
       </c>
       <c r="BV3" s="66">
@@ -12513,31 +12514,31 @@
         <v>5341</v>
       </c>
       <c r="BW3" s="66">
-        <f>SUM(BW22:BW61)</f>
+        <f t="shared" ref="BW3:CC3" si="14">SUM(BW22:BW61)</f>
         <v>9659</v>
       </c>
       <c r="BX3" s="66">
-        <f>SUM(BX22:BX61)</f>
+        <f t="shared" si="14"/>
         <v>9009</v>
       </c>
       <c r="BY3" s="66">
-        <f>SUM(BY22:BY61)</f>
+        <f t="shared" si="14"/>
         <v>8663</v>
       </c>
       <c r="BZ3" s="66">
-        <f>SUM(BZ22:BZ61)</f>
+        <f t="shared" si="14"/>
         <v>8712</v>
       </c>
       <c r="CA3" s="66">
-        <f>SUM(CA22:CA61)</f>
+        <f t="shared" si="14"/>
         <v>8103</v>
       </c>
       <c r="CB3" s="66">
-        <f>SUM(CB22:CB61)</f>
+        <f t="shared" si="14"/>
         <v>7582</v>
       </c>
       <c r="CC3" s="66">
-        <f>SUM(CC22:CC61)</f>
+        <f t="shared" si="14"/>
         <v>8397</v>
       </c>
       <c r="CD3" s="66"/>
@@ -12577,55 +12578,55 @@
       <c r="DL3" s="66"/>
       <c r="DM3" s="66"/>
       <c r="DN3" s="66">
-        <f>SUM(DN9:DN60)</f>
+        <f t="shared" ref="DN3:DZ3" si="15">SUM(DN9:DN60)</f>
         <v>9557</v>
       </c>
       <c r="DO3" s="66">
-        <f>SUM(DO9:DO60)</f>
+        <f t="shared" si="15"/>
         <v>10001</v>
       </c>
       <c r="DP3" s="66">
-        <f>SUM(DP9:DP60)</f>
+        <f t="shared" si="15"/>
         <v>10547</v>
       </c>
       <c r="DQ3" s="66">
-        <f>SUM(DQ9:DQ60)</f>
+        <f t="shared" si="15"/>
         <v>10511</v>
       </c>
       <c r="DR3" s="66">
-        <f>SUM(DR9:DR60)</f>
+        <f t="shared" si="15"/>
         <v>11159</v>
       </c>
       <c r="DS3" s="66">
-        <f>SUM(DS9:DS60)</f>
+        <f t="shared" si="15"/>
         <v>10082</v>
       </c>
       <c r="DT3" s="66">
-        <f>SUM(DT9:DT60)</f>
+        <f t="shared" si="15"/>
         <v>9636</v>
       </c>
       <c r="DU3" s="66">
-        <f>SUM(DU9:DU60)</f>
+        <f t="shared" si="15"/>
         <v>11088</v>
       </c>
       <c r="DV3" s="66">
-        <f>SUM(DV9:DV60)</f>
+        <f t="shared" si="15"/>
         <v>10573</v>
       </c>
       <c r="DW3" s="66">
-        <f>SUM(DW9:DW60)</f>
+        <f t="shared" si="15"/>
         <v>9974</v>
       </c>
       <c r="DX3" s="66">
-        <f>SUM(DX9:DX60)</f>
+        <f t="shared" si="15"/>
         <v>9893</v>
       </c>
       <c r="DY3" s="66">
-        <f>SUM(DY9:DY60)</f>
+        <f t="shared" si="15"/>
         <v>9879</v>
       </c>
       <c r="DZ3" s="66">
-        <f>SUM(DZ9:DZ60)</f>
+        <f t="shared" si="15"/>
         <v>10921</v>
       </c>
       <c r="EA3" s="66"/>
@@ -12635,35 +12636,35 @@
       <c r="EE3" s="66"/>
       <c r="EF3" s="5"/>
       <c r="EG3" s="66">
-        <f>SUM(EG22:EG60)</f>
+        <f t="shared" ref="EG3:EN3" si="16">SUM(EG22:EG60)</f>
         <v>14673</v>
       </c>
       <c r="EH3" s="66">
-        <f>SUM(EH22:EH60)</f>
+        <f t="shared" si="16"/>
         <v>14294</v>
       </c>
       <c r="EI3" s="66">
-        <f>SUM(EI22:EI60)</f>
+        <f t="shared" si="16"/>
         <v>15796</v>
       </c>
       <c r="EJ3" s="66">
-        <f>SUM(EJ22:EJ60)</f>
+        <f t="shared" si="16"/>
         <v>16647.796737766625</v>
       </c>
       <c r="EK3" s="66">
-        <f>SUM(EK22:EK60)</f>
+        <f t="shared" si="16"/>
         <v>20584</v>
       </c>
       <c r="EL3" s="66">
-        <f>SUM(EL22:EL60)</f>
+        <f t="shared" si="16"/>
         <v>22785.404389333649</v>
       </c>
       <c r="EM3" s="66">
-        <f>SUM(EM22:EM60)</f>
+        <f t="shared" si="16"/>
         <v>20074</v>
       </c>
       <c r="EN3" s="66">
-        <f>SUM(EN22:EN60)</f>
+        <f t="shared" si="16"/>
         <v>19186</v>
       </c>
       <c r="EO3" s="66">
@@ -12675,39 +12676,39 @@
         <v>36911</v>
       </c>
       <c r="EQ3" s="68">
-        <f t="shared" ref="EQ3:EQ8" si="12">SUM(BZ3:CC3)</f>
+        <f t="shared" ref="EQ3:EQ8" si="17">SUM(BZ3:CC3)</f>
         <v>32794</v>
       </c>
       <c r="ER3" s="66">
-        <f>SUM(ER22:ER61)</f>
+        <f t="shared" ref="ER3:EY3" si="18">SUM(ER22:ER61)</f>
         <v>17131</v>
       </c>
       <c r="ES3" s="66">
-        <f>SUM(ES22:ES61)</f>
+        <f t="shared" si="18"/>
         <v>17584</v>
       </c>
       <c r="ET3" s="66">
-        <f>SUM(ET22:ET61)</f>
+        <f t="shared" si="18"/>
         <v>16271.419999999998</v>
       </c>
       <c r="EU3" s="66">
-        <f>SUM(EU22:EU61)</f>
+        <f t="shared" si="18"/>
         <v>15649.399199999998</v>
       </c>
       <c r="EV3" s="66">
-        <f>SUM(EV22:EV61)</f>
+        <f t="shared" si="18"/>
         <v>15438.866182000002</v>
       </c>
       <c r="EW3" s="66">
-        <f>SUM(EW22:EW61)</f>
+        <f t="shared" si="18"/>
         <v>15093.13838527</v>
       </c>
       <c r="EX3" s="66">
-        <f>SUM(EX22:EX61)</f>
+        <f t="shared" si="18"/>
         <v>14957.861871643699</v>
       </c>
       <c r="EY3" s="66">
-        <f>SUM(EY22:EY61)</f>
+        <f t="shared" si="18"/>
         <v>11226.904922314505</v>
       </c>
       <c r="EZ3" s="66">
@@ -12974,15 +12975,15 @@
         <v>10461</v>
       </c>
       <c r="EO4" s="27">
-        <f t="shared" ref="EO4:EO22" si="13">SUM(BR4:BU4)</f>
+        <f t="shared" ref="EO4:EO22" si="19">SUM(BR4:BU4)</f>
         <v>14805</v>
       </c>
       <c r="EP4" s="27">
-        <f t="shared" ref="EP4:EP46" si="14">SUM(BV4:BY4)</f>
+        <f t="shared" ref="EP4:EP46" si="20">SUM(BV4:BY4)</f>
         <v>14071</v>
       </c>
       <c r="EQ4" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>12223</v>
       </c>
       <c r="ER4" s="27"/>
@@ -13041,7 +13042,7 @@
         <v>2184</v>
       </c>
       <c r="R5" s="27">
-        <f t="shared" ref="R5:R6" si="15">BT5+BU5</f>
+        <f t="shared" ref="R5:R6" si="21">BT5+BU5</f>
         <v>2581</v>
       </c>
       <c r="S5" s="27">
@@ -13255,7 +13256,7 @@
         <v>3503</v>
       </c>
       <c r="EM5" s="27">
-        <f t="shared" ref="EM5:EM45" si="16">SUM(M5:N5)</f>
+        <f t="shared" ref="EM5:EM45" si="22">SUM(M5:N5)</f>
         <v>3399</v>
       </c>
       <c r="EN5" s="27">
@@ -13263,15 +13264,15 @@
         <v>3336</v>
       </c>
       <c r="EO5" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4765</v>
       </c>
       <c r="EP5" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4319</v>
       </c>
       <c r="EQ5" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3817</v>
       </c>
       <c r="ER5" s="27"/>
@@ -13330,7 +13331,7 @@
         <v>4902</v>
       </c>
       <c r="R6" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>5153</v>
       </c>
       <c r="S6" s="27">
@@ -13570,15 +13571,15 @@
         <v>9656</v>
       </c>
       <c r="EO6" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>10055</v>
       </c>
       <c r="EP6" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>10415</v>
       </c>
       <c r="EQ6" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>9737</v>
       </c>
       <c r="ER6" s="27"/>
@@ -13782,15 +13783,15 @@
       <c r="EM7" s="27"/>
       <c r="EN7" s="27"/>
       <c r="EO7" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2238</v>
       </c>
       <c r="EP7" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>9201</v>
       </c>
       <c r="EQ7" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>8533</v>
       </c>
       <c r="ER7" s="27"/>
@@ -14063,11 +14064,11 @@
         <v>16955</v>
       </c>
       <c r="EL8" s="27">
-        <f t="shared" ref="EL8:EL41" si="17">SUM(K8:L8)</f>
+        <f t="shared" ref="EL8:EL41" si="23">SUM(K8:L8)</f>
         <v>20666</v>
       </c>
       <c r="EM8" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>22970</v>
       </c>
       <c r="EN8" s="27">
@@ -14075,15 +14076,15 @@
         <v>22164</v>
       </c>
       <c r="EO8" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>17188</v>
       </c>
       <c r="EP8" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>9467</v>
       </c>
       <c r="EQ8" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>8221</v>
       </c>
       <c r="ER8" s="27"/>
@@ -14295,7 +14296,7 @@
         <v>6036</v>
       </c>
       <c r="FC9" s="54">
-        <f t="shared" ref="FC9:FC61" si="18">SUM(DV9:DY9)</f>
+        <f t="shared" ref="FC9:FC56" si="24">SUM(DV9:DY9)</f>
         <v>6381</v>
       </c>
       <c r="FD9" s="117"/>
@@ -14495,7 +14496,7 @@
         <v>3823</v>
       </c>
       <c r="FC10" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>4147</v>
       </c>
       <c r="FD10" s="46"/>
@@ -14713,11 +14714,11 @@
         <v>645.48</v>
       </c>
       <c r="EW11" s="25">
-        <f t="shared" ref="EW11:EX11" si="19">+EV11*1.1</f>
+        <f t="shared" ref="EW11:EX11" si="25">+EV11*1.1</f>
         <v>710.02800000000013</v>
       </c>
       <c r="EX11" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>781.03080000000023</v>
       </c>
       <c r="EY11" s="25"/>
@@ -14728,11 +14729,11 @@
         <v>3955</v>
       </c>
       <c r="FB11" s="20">
-        <f t="shared" ref="FB11:FB31" si="20">SUM(DR11:DU11)</f>
+        <f t="shared" ref="FB11:FB30" si="26">SUM(DR11:DU11)</f>
         <v>4087</v>
       </c>
       <c r="FC11" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3768</v>
       </c>
       <c r="FD11" s="46"/>
@@ -14928,11 +14929,11 @@
         <v>3315</v>
       </c>
       <c r="FB12" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3717</v>
       </c>
       <c r="FC12" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3766</v>
       </c>
       <c r="FD12" s="46"/>
@@ -15115,7 +15116,7 @@
         <v>591</v>
       </c>
       <c r="FC13" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2357</v>
       </c>
       <c r="FD13" s="46"/>
@@ -15144,7 +15145,7 @@
         <v>155</v>
       </c>
       <c r="T14" s="25">
-        <f t="shared" ref="T14" si="21">+BY14+BX14</f>
+        <f t="shared" ref="T14" si="27">+BY14+BX14</f>
         <v>242</v>
       </c>
       <c r="U14" s="25">
@@ -15212,7 +15213,7 @@
         <v>66</v>
       </c>
       <c r="BW14" s="66">
-        <f t="shared" ref="BW14" si="22">+S14-BV14</f>
+        <f t="shared" ref="BW14" si="28">+S14-BV14</f>
         <v>89</v>
       </c>
       <c r="BX14" s="66">
@@ -15362,27 +15363,27 @@
         <v>1037</v>
       </c>
       <c r="ET14" s="25">
-        <f t="shared" ref="ET14:EY14" si="23">ES14*1.1</f>
+        <f t="shared" ref="ET14:EY14" si="29">ES14*1.1</f>
         <v>1140.7</v>
       </c>
       <c r="EU14" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1254.7700000000002</v>
       </c>
       <c r="EV14" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1380.2470000000003</v>
       </c>
       <c r="EW14" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1518.2717000000005</v>
       </c>
       <c r="EX14" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1670.0988700000007</v>
       </c>
       <c r="EY14" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1837.1087570000009</v>
       </c>
       <c r="EZ14" s="68">
@@ -15392,11 +15393,11 @@
         <v>3562</v>
       </c>
       <c r="FB14" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2701</v>
       </c>
       <c r="FC14" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2630</v>
       </c>
       <c r="FD14" s="46"/>
@@ -15742,27 +15743,27 @@
         <v>790</v>
       </c>
       <c r="ET15" s="25">
-        <f t="shared" ref="ET15:EY15" si="24">ES15*1.01</f>
+        <f t="shared" ref="ET15:EY15" si="30">ES15*1.01</f>
         <v>797.9</v>
       </c>
       <c r="EU15" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>805.87900000000002</v>
       </c>
       <c r="EV15" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>813.93779000000006</v>
       </c>
       <c r="EW15" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>822.07716790000006</v>
       </c>
       <c r="EX15" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>830.29793957900006</v>
       </c>
       <c r="EY15" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>838.60091897479003</v>
       </c>
       <c r="EZ15" s="25">
@@ -15772,11 +15773,11 @@
         <v>1942</v>
       </c>
       <c r="FB15" s="20">
-        <f>SUM(DR15:DU15)</f>
+        <f t="shared" ref="FB15:FB21" si="31">SUM(DR15:DU15)</f>
         <v>2208</v>
       </c>
       <c r="FC15" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2176</v>
       </c>
       <c r="FD15" s="46"/>
@@ -15984,11 +15985,11 @@
         <v>1982</v>
       </c>
       <c r="FB16" s="20">
-        <f>SUM(DR16:DU16)</f>
+        <f t="shared" si="31"/>
         <v>2080</v>
       </c>
       <c r="FC16" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1966</v>
       </c>
       <c r="FD16" s="46"/>
@@ -16184,11 +16185,11 @@
         <v>340</v>
       </c>
       <c r="FB17" s="20">
-        <f>SUM(DR17:DU17)</f>
+        <f t="shared" si="31"/>
         <v>740</v>
       </c>
       <c r="FC17" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1120</v>
       </c>
       <c r="FD17" s="46"/>
@@ -16570,11 +16571,11 @@
         <v>2694</v>
       </c>
       <c r="FB18" s="20">
-        <f>SUM(DR18:DU18)</f>
+        <f t="shared" si="31"/>
         <v>2142</v>
       </c>
       <c r="FC18" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1626</v>
       </c>
       <c r="FD18" s="46"/>
@@ -16770,11 +16771,11 @@
         <v>602</v>
       </c>
       <c r="FB19" s="20">
-        <f>SUM(DR19:DU19)</f>
+        <f t="shared" si="31"/>
         <v>1119</v>
       </c>
       <c r="FC19" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1419</v>
       </c>
       <c r="FD19" s="46"/>
@@ -17124,15 +17125,15 @@
         <v>6951</v>
       </c>
       <c r="ET20" s="25">
-        <f t="shared" ref="ET20:EV20" si="25">ES20*1.01</f>
+        <f t="shared" ref="ET20:EV20" si="32">ES20*1.01</f>
         <v>7020.51</v>
       </c>
       <c r="EU20" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>7090.7151000000003</v>
       </c>
       <c r="EV20" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>7161.6222510000007</v>
       </c>
       <c r="EW20" s="25">
@@ -17156,11 +17157,11 @@
         <v>2565</v>
       </c>
       <c r="FB20" s="20">
-        <f>SUM(DR20:DU20)</f>
+        <f t="shared" si="31"/>
         <v>2075</v>
       </c>
       <c r="FC20" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1630</v>
       </c>
       <c r="FD20" s="46"/>
@@ -17356,11 +17357,11 @@
         <v>1356</v>
       </c>
       <c r="FB21" s="20">
-        <f>SUM(DR21:DU21)</f>
+        <f t="shared" si="31"/>
         <v>1513</v>
       </c>
       <c r="FC21" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1502</v>
       </c>
       <c r="FD21" s="46"/>
@@ -17680,7 +17681,7 @@
         <v>1665</v>
       </c>
       <c r="EL22" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2962</v>
       </c>
       <c r="EM22" s="25">
@@ -17688,11 +17689,11 @@
         <v>4106</v>
       </c>
       <c r="EN22" s="25">
-        <f t="shared" ref="EN22:EN41" si="26">SUM(BN22:BQ22)</f>
+        <f t="shared" ref="EN22:EN41" si="33">SUM(BN22:BQ22)</f>
         <v>5207</v>
       </c>
       <c r="EO22" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6222</v>
       </c>
       <c r="EP22" s="25">
@@ -17712,23 +17713,23 @@
         <v>6254</v>
       </c>
       <c r="ET22" s="25">
-        <f t="shared" ref="ET22:EX22" si="27">ES22*1.01</f>
+        <f t="shared" ref="ET22:EX22" si="34">ES22*1.01</f>
         <v>6316.54</v>
       </c>
       <c r="EU22" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>6379.7053999999998</v>
       </c>
       <c r="EV22" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>6443.5024539999995</v>
       </c>
       <c r="EW22" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>6507.9374785399996</v>
       </c>
       <c r="EX22" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>6573.0168533254</v>
       </c>
       <c r="EY22" s="25">
@@ -17742,11 +17743,11 @@
         <v>3056</v>
       </c>
       <c r="FB22" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2122</v>
       </c>
       <c r="FC22" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1573</v>
       </c>
       <c r="FD22" s="46"/>
@@ -17940,11 +17941,11 @@
         <v>1630</v>
       </c>
       <c r="FB23" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1679</v>
       </c>
       <c r="FC23" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>525</v>
       </c>
       <c r="FD23" s="46"/>
@@ -17994,15 +17995,15 @@
         <v>697</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" ref="T24:T47" si="28">+BY24+BX24</f>
+        <f t="shared" ref="T24:T47" si="35">+BY24+BX24</f>
         <v>761</v>
       </c>
       <c r="U24" s="25">
-        <f t="shared" ref="U24:U48" si="29">SUM(BZ24:CA24)</f>
+        <f t="shared" ref="U24:U48" si="36">SUM(BZ24:CA24)</f>
         <v>769</v>
       </c>
       <c r="V24" s="25">
-        <f t="shared" ref="V24:V47" si="30">CC24+CB24</f>
+        <f t="shared" ref="V24:V47" si="37">CC24+CB24</f>
         <v>754</v>
       </c>
       <c r="W24" s="25"/>
@@ -18251,7 +18252,7 @@
         <v>0</v>
       </c>
       <c r="EL24" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>478</v>
       </c>
       <c r="EM24" s="25">
@@ -18259,7 +18260,7 @@
         <v>991</v>
       </c>
       <c r="EN24" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>960</v>
       </c>
       <c r="EO24" s="25">
@@ -18267,43 +18268,43 @@
         <v>1198</v>
       </c>
       <c r="EP24" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1458</v>
       </c>
       <c r="EQ24" s="25">
-        <f t="shared" ref="EQ24:EQ48" si="31">SUM(BZ24:CC24)</f>
+        <f t="shared" ref="EQ24:EQ48" si="38">SUM(BZ24:CC24)</f>
         <v>1523</v>
       </c>
       <c r="ER24" s="25">
-        <f t="shared" ref="ER24:ER58" si="32">SUM(CD24:CG24)</f>
+        <f t="shared" ref="ER24:ER58" si="39">SUM(CD24:CG24)</f>
         <v>1481</v>
       </c>
       <c r="ES24" s="25">
-        <f t="shared" ref="ES24:ES58" si="33">SUM(CH24:CK24)</f>
+        <f t="shared" ref="ES24:ES58" si="40">SUM(CH24:CK24)</f>
         <v>1689</v>
       </c>
       <c r="ET24" s="25">
-        <f t="shared" ref="ET24:EY24" si="34">ES24*1.01</f>
+        <f t="shared" ref="ET24:EY24" si="41">ES24*1.01</f>
         <v>1705.89</v>
       </c>
       <c r="EU24" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>1722.9489000000001</v>
       </c>
       <c r="EV24" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>1740.1783890000002</v>
       </c>
       <c r="EW24" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>1757.5801728900001</v>
       </c>
       <c r="EX24" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>1775.1559746189</v>
       </c>
       <c r="EY24" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>1792.9075343650891</v>
       </c>
       <c r="EZ24" s="25">
@@ -18313,11 +18314,11 @@
         <v>1353</v>
       </c>
       <c r="FB24" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1012</v>
       </c>
       <c r="FC24" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>460</v>
       </c>
       <c r="FD24" s="46"/>
@@ -18665,19 +18666,19 @@
         <v>717.15</v>
       </c>
       <c r="EU25" s="25">
-        <f t="shared" ref="EU25:EX25" si="35">ET25*1.05</f>
+        <f t="shared" ref="EU25:EX25" si="42">ET25*1.05</f>
         <v>753.00750000000005</v>
       </c>
       <c r="EV25" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>790.6578750000001</v>
       </c>
       <c r="EW25" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>830.19076875000019</v>
       </c>
       <c r="EX25" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>871.70030718750024</v>
       </c>
       <c r="EY25" s="25"/>
@@ -18688,11 +18689,11 @@
         <v>1312</v>
       </c>
       <c r="FB25" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1177</v>
       </c>
       <c r="FC25" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1173</v>
       </c>
       <c r="FD25" s="46"/>
@@ -18894,7 +18895,7 @@
         <v>730</v>
       </c>
       <c r="FC26" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>811</v>
       </c>
       <c r="FD26" s="46"/>
@@ -19244,19 +19245,19 @@
         <v>600.6</v>
       </c>
       <c r="EU27" s="25">
-        <f t="shared" ref="EU27:EX27" si="36">ET27*1.05</f>
+        <f t="shared" ref="EU27:EX27" si="43">ET27*1.05</f>
         <v>630.63</v>
       </c>
       <c r="EV27" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>662.16150000000005</v>
       </c>
       <c r="EW27" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>695.26957500000003</v>
       </c>
       <c r="EX27" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>730.03305375000002</v>
       </c>
       <c r="EY27" s="25">
@@ -19274,7 +19275,7 @@
         <v>543</v>
       </c>
       <c r="FC27" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>452</v>
       </c>
       <c r="FD27" s="46"/>
@@ -19610,27 +19611,27 @@
         <v>874</v>
       </c>
       <c r="ET28" s="25">
-        <f t="shared" ref="ET28" si="37">ES28*0.6</f>
+        <f t="shared" ref="ET28" si="44">ES28*0.6</f>
         <v>524.4</v>
       </c>
       <c r="EU28" s="25">
-        <f t="shared" ref="EU28" si="38">ET28*0.6</f>
+        <f t="shared" ref="EU28" si="45">ET28*0.6</f>
         <v>314.64</v>
       </c>
       <c r="EV28" s="25">
-        <f t="shared" ref="EV28" si="39">EU28*0.6</f>
+        <f t="shared" ref="EV28" si="46">EU28*0.6</f>
         <v>188.78399999999999</v>
       </c>
       <c r="EW28" s="25">
-        <f t="shared" ref="EW28" si="40">EV28*0.6</f>
+        <f t="shared" ref="EW28" si="47">EV28*0.6</f>
         <v>113.2704</v>
       </c>
       <c r="EX28" s="25">
-        <f t="shared" ref="EX28" si="41">EW28*0.6</f>
+        <f t="shared" ref="EX28" si="48">EW28*0.6</f>
         <v>67.962239999999994</v>
       </c>
       <c r="EY28" s="25">
-        <f t="shared" ref="EY28" si="42">EX28*0.6</f>
+        <f t="shared" ref="EY28" si="49">EX28*0.6</f>
         <v>40.777343999999992</v>
       </c>
       <c r="EZ28" s="25">
@@ -19831,7 +19832,7 @@
         <v>228</v>
       </c>
       <c r="FC29" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>837</v>
       </c>
       <c r="FD29" s="46"/>
@@ -20014,7 +20015,7 @@
         <v>1039</v>
       </c>
       <c r="FB30" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>590</v>
       </c>
       <c r="FC30" s="54">
@@ -21226,30 +21227,30 @@
         <v>892</v>
       </c>
       <c r="P38" s="25">
-        <f t="shared" ref="P38:P45" si="43">SUM(BP38:BQ38)</f>
+        <f t="shared" ref="P38:P45" si="50">SUM(BP38:BQ38)</f>
         <v>882</v>
       </c>
       <c r="Q38" s="25">
-        <f t="shared" ref="Q38:Q47" si="44">SUM(BR38:BS38)</f>
+        <f t="shared" ref="Q38:Q47" si="51">SUM(BR38:BS38)</f>
         <v>789</v>
       </c>
       <c r="R38" s="25">
-        <f t="shared" ref="R38:R47" si="45">BT38+BU38</f>
+        <f t="shared" ref="R38:R47" si="52">BT38+BU38</f>
         <v>771</v>
       </c>
       <c r="S38" s="25">
         <v>677</v>
       </c>
       <c r="T38" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>608</v>
       </c>
       <c r="U38" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>493</v>
       </c>
       <c r="V38" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>403</v>
       </c>
       <c r="W38" s="25"/>
@@ -21358,7 +21359,7 @@
         <v>339</v>
       </c>
       <c r="BW38" s="66">
-        <f t="shared" ref="BW38:BW46" si="46">+S38-BV38</f>
+        <f t="shared" ref="BW38:BW46" si="53">+S38-BV38</f>
         <v>338</v>
       </c>
       <c r="BX38" s="66">
@@ -21466,67 +21467,67 @@
         <v>2051</v>
       </c>
       <c r="EJ38" s="25">
-        <f t="shared" ref="EJ38:EJ46" si="47">SUM(AX38:BA38)</f>
+        <f t="shared" ref="EJ38:EJ46" si="54">SUM(AX38:BA38)</f>
         <v>2082</v>
       </c>
       <c r="EK38" s="25">
-        <f t="shared" ref="EK38:EK46" si="48">SUM(BB38:BE38)</f>
+        <f t="shared" ref="EK38:EK46" si="55">SUM(BB38:BE38)</f>
         <v>2252</v>
       </c>
       <c r="EL38" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2227</v>
       </c>
       <c r="EM38" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2094</v>
       </c>
       <c r="EN38" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>1774</v>
       </c>
       <c r="EO38" s="25">
-        <f t="shared" ref="EO38:EO47" si="49">SUM(BR38:BU38)</f>
+        <f t="shared" ref="EO38:EO47" si="56">SUM(BR38:BU38)</f>
         <v>1560</v>
       </c>
       <c r="EP38" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1285</v>
       </c>
       <c r="EQ38" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>896</v>
       </c>
       <c r="ER38" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>674</v>
       </c>
       <c r="ES38" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>520</v>
       </c>
       <c r="ET38" s="25">
-        <f t="shared" ref="ET38:EY38" si="50">ES38*0.99</f>
+        <f t="shared" ref="ET38:EY38" si="57">ES38*0.99</f>
         <v>514.79999999999995</v>
       </c>
       <c r="EU38" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>509.65199999999993</v>
       </c>
       <c r="EV38" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>504.55547999999993</v>
       </c>
       <c r="EW38" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>499.50992519999994</v>
       </c>
       <c r="EX38" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>494.51482594799995</v>
       </c>
       <c r="EY38" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>489.56967768851996</v>
       </c>
       <c r="EZ38" s="25"/>
@@ -21574,26 +21575,26 @@
         <v>850</v>
       </c>
       <c r="Q39" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>842</v>
       </c>
       <c r="R39" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>813</v>
       </c>
       <c r="S39" s="25">
         <v>869</v>
       </c>
       <c r="T39" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>776</v>
       </c>
       <c r="U39" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>695</v>
       </c>
       <c r="V39" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>743</v>
       </c>
       <c r="W39" s="25"/>
@@ -21702,7 +21703,7 @@
         <v>441</v>
       </c>
       <c r="BW39" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>428</v>
       </c>
       <c r="BX39" s="66">
@@ -21810,15 +21811,15 @@
         <v>719</v>
       </c>
       <c r="EJ39" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>1179</v>
       </c>
       <c r="EK39" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>1403</v>
       </c>
       <c r="EL39" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1467</v>
       </c>
       <c r="EM39" s="25">
@@ -21826,27 +21827,27 @@
         <v>1637</v>
       </c>
       <c r="EN39" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>1635</v>
       </c>
       <c r="EO39" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>1655</v>
       </c>
       <c r="EP39" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1645</v>
       </c>
       <c r="EQ39" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1438</v>
       </c>
       <c r="ER39" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1649</v>
       </c>
       <c r="ES39" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1312</v>
       </c>
       <c r="ET39" s="25">
@@ -21858,19 +21859,19 @@
         <v>839.68000000000018</v>
       </c>
       <c r="EV39" s="25">
-        <f t="shared" ref="EV39:EY39" si="51">EU39*0.8</f>
+        <f t="shared" ref="EV39:EY39" si="58">EU39*0.8</f>
         <v>671.74400000000014</v>
       </c>
       <c r="EW39" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>537.39520000000016</v>
       </c>
       <c r="EX39" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>429.91616000000016</v>
       </c>
       <c r="EY39" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>343.93292800000017</v>
       </c>
       <c r="EZ39" s="25"/>
@@ -21914,30 +21915,30 @@
         <v>573</v>
       </c>
       <c r="P40" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>638</v>
       </c>
       <c r="Q40" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>626</v>
       </c>
       <c r="R40" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>634</v>
       </c>
       <c r="S40" s="25">
         <v>732</v>
       </c>
       <c r="T40" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>694</v>
       </c>
       <c r="U40" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>668</v>
       </c>
       <c r="V40" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>686</v>
       </c>
       <c r="W40" s="25"/>
@@ -22046,7 +22047,7 @@
         <v>352</v>
       </c>
       <c r="BW40" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>380</v>
       </c>
       <c r="BX40" s="66">
@@ -22154,43 +22155,43 @@
         <v>515</v>
       </c>
       <c r="EJ40" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>534</v>
       </c>
       <c r="EK40" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>796</v>
       </c>
       <c r="EL40" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>971</v>
       </c>
       <c r="EM40" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1151</v>
       </c>
       <c r="EN40" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>1211</v>
       </c>
       <c r="EO40" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>1260</v>
       </c>
       <c r="EP40" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1426</v>
       </c>
       <c r="EQ40" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1354</v>
       </c>
       <c r="ER40" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1523</v>
       </c>
       <c r="ES40" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1509</v>
       </c>
       <c r="ET40" s="25">
@@ -22198,23 +22199,23 @@
         <v>754.5</v>
       </c>
       <c r="EU40" s="25">
-        <f t="shared" ref="EU40:EY40" si="52">ET40*0.5</f>
+        <f t="shared" ref="EU40:EY40" si="59">ET40*0.5</f>
         <v>377.25</v>
       </c>
       <c r="EV40" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>188.625</v>
       </c>
       <c r="EW40" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>94.3125</v>
       </c>
       <c r="EX40" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>47.15625</v>
       </c>
       <c r="EY40" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>23.578125</v>
       </c>
       <c r="EZ40" s="25">
@@ -22262,30 +22263,30 @@
         <v>587</v>
       </c>
       <c r="P41" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>628</v>
       </c>
       <c r="Q41" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>643</v>
       </c>
       <c r="R41" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>661</v>
       </c>
       <c r="S41" s="25">
         <v>674</v>
       </c>
       <c r="T41" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>651</v>
       </c>
       <c r="U41" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>614</v>
       </c>
       <c r="V41" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>637</v>
       </c>
       <c r="W41" s="25"/>
@@ -22394,7 +22395,7 @@
         <v>326</v>
       </c>
       <c r="BW41" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>348</v>
       </c>
       <c r="BX41" s="66">
@@ -22502,63 +22503,63 @@
         <v>0</v>
       </c>
       <c r="EJ41" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>17</v>
       </c>
       <c r="EK41" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>387</v>
       </c>
       <c r="EL41" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>813</v>
       </c>
       <c r="EM41" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1062</v>
       </c>
       <c r="EN41" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>1215</v>
       </c>
       <c r="EO41" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>1304</v>
       </c>
       <c r="EP41" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1325</v>
       </c>
       <c r="EQ41" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>1251</v>
       </c>
       <c r="ER41" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>1314</v>
       </c>
       <c r="ES41" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>1339</v>
       </c>
       <c r="ET41" s="25">
-        <f t="shared" ref="ET41:EX41" si="53">ES41*1.01</f>
+        <f t="shared" ref="ET41:EX41" si="60">ES41*1.01</f>
         <v>1352.39</v>
       </c>
       <c r="EU41" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>1365.9139</v>
       </c>
       <c r="EV41" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>1379.5730390000001</v>
       </c>
       <c r="EW41" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>1393.3687693900001</v>
       </c>
       <c r="EX41" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>1407.3024570839002</v>
       </c>
       <c r="EY41" s="25"/>
@@ -22607,26 +22608,26 @@
         <v>601</v>
       </c>
       <c r="Q42" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>525</v>
       </c>
       <c r="R42" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>533</v>
       </c>
       <c r="S42" s="25">
         <v>544</v>
       </c>
       <c r="T42" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>469</v>
       </c>
       <c r="U42" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>394</v>
       </c>
       <c r="V42" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>302</v>
       </c>
       <c r="W42" s="25"/>
@@ -22732,7 +22733,7 @@
         <v>277</v>
       </c>
       <c r="BW42" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>267</v>
       </c>
       <c r="BX42" s="66">
@@ -22820,15 +22821,15 @@
         <v>0</v>
       </c>
       <c r="EJ42" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="EK42" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>86</v>
       </c>
       <c r="EL42" s="25">
-        <f t="shared" ref="EL42:EL46" si="54">SUM(K42:L42)</f>
+        <f t="shared" ref="EL42:EL46" si="61">SUM(K42:L42)</f>
         <v>488</v>
       </c>
       <c r="EM42" s="25">
@@ -22836,19 +22837,19 @@
         <v>887</v>
       </c>
       <c r="EN42" s="25">
-        <f t="shared" ref="EN42:EN47" si="55">SUM(BN42:BQ42)</f>
+        <f t="shared" ref="EN42:EN47" si="62">SUM(BN42:BQ42)</f>
         <v>1108</v>
       </c>
       <c r="EO42" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>1058</v>
       </c>
       <c r="EP42" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1013</v>
       </c>
       <c r="EQ42" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>696</v>
       </c>
       <c r="ER42" s="25"/>
@@ -22904,26 +22905,26 @@
         <v>282</v>
       </c>
       <c r="Q43" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>1010</v>
       </c>
       <c r="R43" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>2190</v>
       </c>
       <c r="S43" s="25">
         <v>710</v>
       </c>
       <c r="T43" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>163</v>
       </c>
       <c r="U43" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>262</v>
       </c>
       <c r="V43" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>97</v>
       </c>
       <c r="W43" s="25"/>
@@ -23032,7 +23033,7 @@
         <v>517</v>
       </c>
       <c r="BW43" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>193</v>
       </c>
       <c r="BX43" s="66">
@@ -23140,15 +23141,15 @@
         <v>431</v>
       </c>
       <c r="EJ43" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>330</v>
       </c>
       <c r="EK43" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>1558</v>
       </c>
       <c r="EL43" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>2627</v>
       </c>
       <c r="EM43" s="25">
@@ -23156,27 +23157,27 @@
         <v>2085</v>
       </c>
       <c r="EN43" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>609</v>
       </c>
       <c r="EO43" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>3200</v>
       </c>
       <c r="EP43" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>873</v>
       </c>
       <c r="EQ43" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>359</v>
       </c>
       <c r="ER43" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>560</v>
       </c>
       <c r="ES43" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>635</v>
       </c>
       <c r="ET43" s="25">
@@ -23248,30 +23249,30 @@
         <v>261</v>
       </c>
       <c r="P44" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>292</v>
       </c>
       <c r="Q44" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>274</v>
       </c>
       <c r="R44" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>290</v>
       </c>
       <c r="S44" s="25">
         <v>296</v>
       </c>
       <c r="T44" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>309</v>
       </c>
       <c r="U44" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>282</v>
       </c>
       <c r="V44" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>287</v>
       </c>
       <c r="W44" s="25"/>
@@ -23379,7 +23380,7 @@
         <v>149</v>
       </c>
       <c r="BW44" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>147</v>
       </c>
       <c r="BX44" s="66">
@@ -23487,43 +23488,43 @@
         <v>281</v>
       </c>
       <c r="EJ44" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>329</v>
       </c>
       <c r="EK44" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>394</v>
       </c>
       <c r="EL44" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>488</v>
       </c>
       <c r="EM44" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>542</v>
       </c>
       <c r="EN44" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>556</v>
       </c>
       <c r="EO44" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>564</v>
       </c>
       <c r="EP44" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>605</v>
       </c>
       <c r="EQ44" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>569</v>
       </c>
       <c r="ER44" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>638</v>
       </c>
       <c r="ES44" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>693</v>
       </c>
       <c r="ET44" s="25">
@@ -23531,23 +23532,23 @@
         <v>346.5</v>
       </c>
       <c r="EU44" s="25">
-        <f t="shared" ref="EU44:EY44" si="56">+ET44*0.5</f>
+        <f t="shared" ref="EU44:EY44" si="63">+ET44*0.5</f>
         <v>173.25</v>
       </c>
       <c r="EV44" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>86.625</v>
       </c>
       <c r="EW44" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>43.3125</v>
       </c>
       <c r="EX44" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>21.65625</v>
       </c>
       <c r="EY44" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>10.828125</v>
       </c>
       <c r="EZ44" s="25"/>
@@ -23591,30 +23592,30 @@
         <v>195</v>
       </c>
       <c r="P45" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>218</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>211</v>
       </c>
       <c r="R45" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>189</v>
       </c>
       <c r="S45" s="25">
         <v>193</v>
       </c>
       <c r="T45" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>212</v>
       </c>
       <c r="U45" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>169</v>
       </c>
       <c r="V45" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>148</v>
       </c>
       <c r="W45" s="25"/>
@@ -23720,7 +23721,7 @@
         <v>91</v>
       </c>
       <c r="BW45" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>102</v>
       </c>
       <c r="BX45" s="66">
@@ -23824,63 +23825,63 @@
         <v>442</v>
       </c>
       <c r="EJ45" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>449</v>
       </c>
       <c r="EK45" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>476</v>
       </c>
       <c r="EL45" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>494</v>
       </c>
       <c r="EM45" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>470</v>
       </c>
       <c r="EN45" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>413</v>
       </c>
       <c r="EO45" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>400</v>
       </c>
       <c r="EP45" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>405</v>
       </c>
       <c r="EQ45" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>317</v>
       </c>
       <c r="ER45" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>304</v>
       </c>
       <c r="ES45" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>274</v>
       </c>
       <c r="ET45" s="25">
-        <f t="shared" ref="ET45:ET47" si="57">ES45*1.05</f>
+        <f t="shared" ref="ET45:ET47" si="64">ES45*1.05</f>
         <v>287.7</v>
       </c>
       <c r="EU45" s="25">
-        <f t="shared" ref="EU45:EX45" si="58">ET45*1.05</f>
+        <f t="shared" ref="EU45:EX45" si="65">ET45*1.05</f>
         <v>302.08499999999998</v>
       </c>
       <c r="EV45" s="25">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>317.18925000000002</v>
       </c>
       <c r="EW45" s="25">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>333.04871250000002</v>
       </c>
       <c r="EX45" s="25">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>349.70114812500003</v>
       </c>
       <c r="EY45" s="25">
@@ -23932,26 +23933,26 @@
         <v>212</v>
       </c>
       <c r="Q46" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>188</v>
       </c>
       <c r="R46" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>197</v>
       </c>
       <c r="S46" s="25">
         <v>167</v>
       </c>
       <c r="T46" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>164</v>
       </c>
       <c r="U46" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>135</v>
       </c>
       <c r="V46" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>143</v>
       </c>
       <c r="W46" s="25"/>
@@ -24057,7 +24058,7 @@
         <v>81</v>
       </c>
       <c r="BW46" s="66">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>86</v>
       </c>
       <c r="BX46" s="66">
@@ -24144,15 +24145,15 @@
         <v>315</v>
       </c>
       <c r="EJ46" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>325</v>
       </c>
       <c r="EK46" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>364</v>
       </c>
       <c r="EL46" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>379</v>
       </c>
       <c r="EM46" s="25">
@@ -24160,19 +24161,19 @@
         <v>405</v>
       </c>
       <c r="EN46" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>404</v>
       </c>
       <c r="EO46" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>385</v>
       </c>
       <c r="EP46" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>331</v>
       </c>
       <c r="EQ46" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>278</v>
       </c>
       <c r="ER46" s="25"/>
@@ -24213,26 +24214,26 @@
         <v>157</v>
       </c>
       <c r="Q47" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>140</v>
       </c>
       <c r="R47" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>146</v>
       </c>
       <c r="S47" s="25">
         <v>0</v>
       </c>
       <c r="T47" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>77</v>
       </c>
       <c r="U47" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>150</v>
       </c>
       <c r="V47" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>144</v>
       </c>
       <c r="W47" s="25"/>
@@ -24416,44 +24417,44 @@
         <v>311</v>
       </c>
       <c r="EN47" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>311</v>
       </c>
       <c r="EO47" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>286</v>
       </c>
       <c r="EP47" s="25"/>
       <c r="EQ47" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>294</v>
       </c>
       <c r="ER47" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>310</v>
       </c>
       <c r="ES47" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>313</v>
       </c>
       <c r="ET47" s="25">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>328.65000000000003</v>
       </c>
       <c r="EU47" s="25">
-        <f t="shared" ref="EU47:EX47" si="59">ET47*1.05</f>
+        <f t="shared" ref="EU47:EX47" si="66">ET47*1.05</f>
         <v>345.08250000000004</v>
       </c>
       <c r="EV47" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>362.33662500000008</v>
       </c>
       <c r="EW47" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>380.4534562500001</v>
       </c>
       <c r="EX47" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>399.47612906250015</v>
       </c>
       <c r="EY47" s="25">
@@ -24497,7 +24498,7 @@
       <c r="S48" s="25"/>
       <c r="T48" s="25"/>
       <c r="U48" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>138</v>
       </c>
       <c r="V48" s="25">
@@ -24664,15 +24665,15 @@
       <c r="EO48" s="25"/>
       <c r="EP48" s="25"/>
       <c r="EQ48" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>344</v>
       </c>
       <c r="ER48" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>384</v>
       </c>
       <c r="ES48" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>425</v>
       </c>
       <c r="ET48" s="25">
@@ -24680,19 +24681,19 @@
         <v>429.25</v>
       </c>
       <c r="EU48" s="25">
-        <f t="shared" ref="EU48:EX48" si="60">+ET48*1.01</f>
+        <f t="shared" ref="EU48:EX48" si="67">+ET48*1.01</f>
         <v>433.54250000000002</v>
       </c>
       <c r="EV48" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>437.877925</v>
       </c>
       <c r="EW48" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>442.25670424999998</v>
       </c>
       <c r="EX48" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>446.6792712925</v>
       </c>
       <c r="EY48" s="25"/>
@@ -24975,15 +24976,15 @@
         <v>337</v>
       </c>
       <c r="EQ49" s="25">
-        <f t="shared" ref="EQ49:EQ56" si="61">SUM(BZ49:CC49)</f>
+        <f t="shared" ref="EQ49:EQ56" si="68">SUM(BZ49:CC49)</f>
         <v>0</v>
       </c>
       <c r="ER49" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="ES49" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="ET49" s="25"/>
@@ -24996,7 +24997,7 @@
       <c r="FA49" s="46"/>
       <c r="FB49" s="16"/>
       <c r="FC49" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD49" s="46"/>
@@ -25196,11 +25197,11 @@
         <v>437</v>
       </c>
       <c r="EJ50" s="25">
-        <f t="shared" ref="EJ50:EJ56" si="62">SUM(AX50:BA50)</f>
+        <f t="shared" ref="EJ50:EJ56" si="69">SUM(AX50:BA50)</f>
         <v>457</v>
       </c>
       <c r="EK50" s="25">
-        <f t="shared" ref="EK50:EK56" si="63">SUM(BB50:BE50)</f>
+        <f t="shared" ref="EK50:EK56" si="70">SUM(BB50:BE50)</f>
         <v>500</v>
       </c>
       <c r="EL50" s="25">
@@ -25214,21 +25215,21 @@
       <c r="EN50" s="25"/>
       <c r="EO50" s="25"/>
       <c r="EQ50" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="ER50" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="ES50" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="FA50" s="46"/>
       <c r="FB50" s="111"/>
       <c r="FC50" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD50" s="25"/>
@@ -25412,11 +25413,11 @@
         <v>49</v>
       </c>
       <c r="EJ51" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>168</v>
       </c>
       <c r="EK51" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>259</v>
       </c>
       <c r="EL51" s="25"/>
@@ -25425,15 +25426,15 @@
       <c r="EO51" s="25"/>
       <c r="EP51" s="25"/>
       <c r="EQ51" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="ER51" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="ES51" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="ET51" s="25"/>
@@ -25446,7 +25447,7 @@
       <c r="FA51" s="46"/>
       <c r="FB51" s="112"/>
       <c r="FC51" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD51" s="99"/>
@@ -25630,11 +25631,11 @@
         <v>3</v>
       </c>
       <c r="EJ52" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>70</v>
       </c>
       <c r="EK52" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>117</v>
       </c>
       <c r="EL52" s="25"/>
@@ -25643,15 +25644,15 @@
       <c r="EO52" s="25"/>
       <c r="EP52" s="25"/>
       <c r="EQ52" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="ER52" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="ES52" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="ET52" s="25"/>
@@ -25664,7 +25665,7 @@
       <c r="FA52" s="46"/>
       <c r="FB52" s="16"/>
       <c r="FC52" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD52" s="46"/>
@@ -25839,11 +25840,11 @@
         <v>392</v>
       </c>
       <c r="EJ53" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>361</v>
       </c>
       <c r="EK53" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>326</v>
       </c>
       <c r="EL53" s="25"/>
@@ -25852,15 +25853,15 @@
       <c r="EO53" s="25"/>
       <c r="EP53" s="25"/>
       <c r="EQ53" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="ER53" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="ES53" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="ET53" s="25"/>
@@ -25873,7 +25874,7 @@
       <c r="FA53" s="46"/>
       <c r="FB53" s="16"/>
       <c r="FC53" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD53" s="46"/>
@@ -26048,11 +26049,11 @@
         <v>0</v>
       </c>
       <c r="EJ54" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>38</v>
       </c>
       <c r="EK54" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>104</v>
       </c>
       <c r="EL54" s="25"/>
@@ -26061,15 +26062,15 @@
       <c r="EO54" s="25"/>
       <c r="EP54" s="25"/>
       <c r="EQ54" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="ER54" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="ES54" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="ET54" s="25"/>
@@ -26082,7 +26083,7 @@
       <c r="FA54" s="46"/>
       <c r="FB54" s="16"/>
       <c r="FC54" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD54" s="46"/>
@@ -26257,11 +26258,11 @@
         <v>0</v>
       </c>
       <c r="EJ55" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>45</v>
       </c>
       <c r="EK55" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>57</v>
       </c>
       <c r="EL55" s="25"/>
@@ -26270,15 +26271,15 @@
       <c r="EO55" s="25"/>
       <c r="EP55" s="25"/>
       <c r="EQ55" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="ER55" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="ES55" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="ET55" s="25"/>
@@ -26291,7 +26292,7 @@
       <c r="FA55" s="46"/>
       <c r="FB55" s="16"/>
       <c r="FC55" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD55" s="46"/>
@@ -26466,11 +26467,11 @@
         <v>223</v>
       </c>
       <c r="EJ56" s="25">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>383</v>
       </c>
       <c r="EK56" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>407</v>
       </c>
       <c r="EL56" s="25"/>
@@ -26479,15 +26480,15 @@
       <c r="EO56" s="25"/>
       <c r="EP56" s="25"/>
       <c r="EQ56" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="ER56" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="ES56" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="ET56" s="25"/>
@@ -26500,7 +26501,7 @@
       <c r="FA56" s="46"/>
       <c r="FB56" s="16"/>
       <c r="FC56" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD56" s="46"/>
@@ -26679,11 +26680,11 @@
       <c r="EP57" s="25"/>
       <c r="EQ57" s="25"/>
       <c r="ER57" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>234</v>
       </c>
       <c r="ES57" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>354</v>
       </c>
       <c r="ET57" s="25">
@@ -26691,19 +26692,19 @@
         <v>389.40000000000003</v>
       </c>
       <c r="EU57" s="25">
-        <f t="shared" ref="EU57:EX57" si="64">+ET57*1.1</f>
+        <f t="shared" ref="EU57:EX57" si="71">+ET57*1.1</f>
         <v>428.34000000000009</v>
       </c>
       <c r="EV57" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>471.17400000000015</v>
       </c>
       <c r="EW57" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>518.29140000000018</v>
       </c>
       <c r="EX57" s="25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>570.12054000000023</v>
       </c>
       <c r="EY57" s="25"/>
@@ -26991,11 +26992,11 @@
       </c>
       <c r="EQ58" s="25"/>
       <c r="ER58" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>266</v>
       </c>
       <c r="ES58" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>138</v>
       </c>
       <c r="ET58" s="25"/>
@@ -27412,35 +27413,35 @@
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
       <c r="I61" s="27">
-        <f>I8+I4+I5-SUM(I22:I47)</f>
+        <f t="shared" ref="I61:P61" si="72">I8+I4+I5-SUM(I22:I47)</f>
         <v>7606</v>
       </c>
       <c r="J61" s="27">
-        <f>J8+J4+J5-SUM(J22:J47)</f>
+        <f t="shared" si="72"/>
         <v>7873</v>
       </c>
       <c r="K61" s="27">
-        <f>K8+K4+K5-SUM(K22:K47)</f>
+        <f t="shared" si="72"/>
         <v>8448</v>
       </c>
       <c r="L61" s="27">
-        <f>L8+L4+L5-SUM(L22:L47)</f>
+        <f t="shared" si="72"/>
         <v>8812</v>
       </c>
       <c r="M61" s="27">
-        <f>M8+M4+M5-SUM(M22:M47)</f>
+        <f t="shared" si="72"/>
         <v>9113</v>
       </c>
       <c r="N61" s="27">
-        <f>N8+N4+N5-SUM(N22:N47)</f>
+        <f t="shared" si="72"/>
         <v>9363</v>
       </c>
       <c r="O61" s="27">
-        <f>O8+O4+O5-SUM(O22:O47)</f>
+        <f t="shared" si="72"/>
         <v>8582</v>
       </c>
       <c r="P61" s="27">
-        <f>P8+P4+P5-SUM(P22:P47)</f>
+        <f t="shared" si="72"/>
         <v>9042</v>
       </c>
       <c r="Q61" s="46"/>
@@ -27493,91 +27494,91 @@
       <c r="BF61" s="93"/>
       <c r="BG61" s="93"/>
       <c r="BH61" s="25">
-        <f>BH4+BH5+BH8-SUM(BH22:BH47)</f>
+        <f t="shared" ref="BH61:BT61" si="73">BH4+BH5+BH8-SUM(BH22:BH47)</f>
         <v>4080.910722056241</v>
       </c>
       <c r="BI61" s="25">
-        <f>BI4+BI5+BI8-SUM(BI22:BI47)</f>
+        <f t="shared" si="73"/>
         <v>4365.2622756988276</v>
       </c>
       <c r="BJ61" s="25">
-        <f>BJ4+BJ5+BJ8-SUM(BJ22:BJ47)</f>
+        <f t="shared" si="73"/>
         <v>4394</v>
       </c>
       <c r="BK61" s="25">
-        <f>BK4+BK5+BK8-SUM(BK22:BK47)</f>
+        <f t="shared" si="73"/>
         <v>4567</v>
       </c>
       <c r="BL61" s="25">
-        <f>BL4+BL5+BL8-SUM(BL22:BL47)</f>
+        <f t="shared" si="73"/>
         <v>4474</v>
       </c>
       <c r="BM61" s="25">
-        <f>BM4+BM5+BM8-SUM(BM22:BM47)</f>
+        <f t="shared" si="73"/>
         <v>4730</v>
       </c>
       <c r="BN61" s="25">
-        <f>BN4+BN5+BN8-SUM(BN22:BN47)</f>
+        <f t="shared" si="73"/>
         <v>4244</v>
       </c>
       <c r="BO61" s="25">
-        <f>BO4+BO5+BO8-SUM(BO22:BO47)</f>
+        <f t="shared" si="73"/>
         <v>4335</v>
       </c>
       <c r="BP61" s="25">
-        <f>BP4+BP5+BP8-SUM(BP22:BP47)</f>
+        <f t="shared" si="73"/>
         <v>4395</v>
       </c>
       <c r="BQ61" s="25">
-        <f>BQ4+BQ5+BQ8-SUM(BQ22:BQ47)</f>
+        <f t="shared" si="73"/>
         <v>4647</v>
       </c>
       <c r="BR61" s="25">
-        <f>BR4+BR5+BR8-SUM(BR22:BR47)</f>
+        <f t="shared" si="73"/>
         <v>4259</v>
       </c>
       <c r="BS61" s="25">
-        <f>BS4+BS5+BS8-SUM(BS22:BS47)</f>
+        <f t="shared" si="73"/>
         <v>4533</v>
       </c>
       <c r="BT61" s="25">
-        <f>BT4+BT5+BT8-SUM(BT22:BT47)</f>
+        <f t="shared" si="73"/>
         <v>4303</v>
       </c>
       <c r="BU61" s="25">
-        <f>BU4+BU5+BU7+BU8-SUM(BU22:BU60)</f>
+        <f t="shared" ref="BU61:CC61" si="74">BU4+BU5+BU7+BU8-SUM(BU22:BU60)</f>
         <v>4117</v>
       </c>
       <c r="BV61" s="25">
-        <f>BV4+BV5+BV7+BV8-SUM(BV22:BV60)</f>
+        <f t="shared" si="74"/>
         <v>4386</v>
       </c>
       <c r="BW61" s="25">
-        <f>BW4+BW5+BW7+BW8-SUM(BW22:BW60)</f>
+        <f t="shared" si="74"/>
         <v>4507</v>
       </c>
       <c r="BX61" s="25">
-        <f>BX4+BX5+BX7+BX8-SUM(BX22:BX60)</f>
+        <f t="shared" si="74"/>
         <v>4237</v>
       </c>
       <c r="BY61" s="25">
-        <f>BY4+BY5+BY7+BY8-SUM(BY22:BY60)</f>
+        <f t="shared" si="74"/>
         <v>4043</v>
       </c>
       <c r="BZ61" s="25">
-        <f>BZ4+BZ5+BZ7+BZ8-SUM(BZ22:BZ60)</f>
+        <f t="shared" si="74"/>
         <v>4217</v>
       </c>
       <c r="CA61" s="25">
-        <f>CA4+CA5+CA7+CA8-SUM(CA22:CA60)</f>
+        <f t="shared" si="74"/>
         <v>4087</v>
       </c>
       <c r="CB61" s="25">
-        <f>CB4+CB5+CB7+CB8-SUM(CB22:CB60)</f>
+        <f t="shared" si="74"/>
         <v>3723</v>
       </c>
       <c r="CC61" s="25">
-        <f>CC4+CC5+CC7+CC8-SUM(CC22:CC60)</f>
+        <f t="shared" si="74"/>
         <v>4220</v>
       </c>
       <c r="CD61" s="25"/>
@@ -27667,27 +27668,27 @@
       <c r="ER61" s="25"/>
       <c r="ES61" s="25"/>
       <c r="ET61" s="25">
-        <f t="shared" ref="ET61:EY61" si="65">ES61*0.9</f>
+        <f t="shared" ref="ET61:EY61" si="75">ES61*0.9</f>
         <v>0</v>
       </c>
       <c r="EU61" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="EV61" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="EW61" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="EX61" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="EY61" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="EZ61" s="25">
@@ -27722,39 +27723,39 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27">
-        <f>+I4+I5+I6+I8</f>
+        <f t="shared" ref="I62:Q62" si="76">+I4+I5+I6+I8</f>
         <v>16622</v>
       </c>
       <c r="J62" s="27">
-        <f>+J4+J5+J6+J8</f>
+        <f t="shared" si="76"/>
         <v>18889</v>
       </c>
       <c r="K62" s="27">
-        <f>+K4+K5+K6+K8</f>
+        <f t="shared" si="76"/>
         <v>19849</v>
       </c>
       <c r="L62" s="27">
-        <f>+L4+L5+L6+L8</f>
+        <f t="shared" si="76"/>
         <v>22192</v>
       </c>
       <c r="M62" s="27">
-        <f>+M4+M5+M6+M8</f>
+        <f t="shared" si="76"/>
         <v>22827</v>
       </c>
       <c r="N62" s="27">
-        <f>+N4+N5+N6+N8</f>
+        <f t="shared" si="76"/>
         <v>23306</v>
       </c>
       <c r="O62" s="27">
-        <f>+O4+O5+O6+O8</f>
+        <f t="shared" si="76"/>
         <v>22004</v>
       </c>
       <c r="P62" s="27">
-        <f>+P4+P5+P6+P8</f>
+        <f t="shared" si="76"/>
         <v>23613</v>
       </c>
       <c r="Q62" s="27">
-        <f>+Q4+Q5+Q6+Q8</f>
+        <f t="shared" si="76"/>
         <v>24006</v>
       </c>
       <c r="R62" s="27">
@@ -27815,59 +27816,59 @@
       <c r="BF62" s="24"/>
       <c r="BG62" s="24"/>
       <c r="BH62" s="27">
-        <f>SUM(BH22:BH61)+BH6</f>
+        <f t="shared" ref="BH62:BU62" si="77">SUM(BH22:BH61)+BH6</f>
         <v>12262.168589644925</v>
       </c>
       <c r="BI62" s="27">
-        <f>SUM(BI22:BI61)+BI6</f>
+        <f t="shared" si="77"/>
         <v>13158.408797443793</v>
       </c>
       <c r="BJ62" s="27">
-        <f>SUM(BJ22:BJ61)+BJ6</f>
+        <f t="shared" si="77"/>
         <v>11726</v>
       </c>
       <c r="BK62" s="27">
-        <f>SUM(BK22:BK61)+BK6</f>
+        <f t="shared" si="77"/>
         <v>11849</v>
       </c>
       <c r="BL62" s="27">
-        <f>SUM(BL22:BL61)+BL6</f>
+        <f t="shared" si="77"/>
         <v>11476</v>
       </c>
       <c r="BM62" s="27">
-        <f>SUM(BM22:BM61)+BM6</f>
+        <f t="shared" si="77"/>
         <v>12538</v>
       </c>
       <c r="BN62" s="27">
-        <f>SUM(BN22:BN61)+BN6</f>
+        <f t="shared" si="77"/>
         <v>11082</v>
       </c>
       <c r="BO62" s="27">
-        <f>SUM(BO22:BO61)+BO6</f>
+        <f t="shared" si="77"/>
         <v>11362</v>
       </c>
       <c r="BP62" s="27">
-        <f>SUM(BP22:BP61)+BP6</f>
+        <f t="shared" si="77"/>
         <v>11503</v>
       </c>
       <c r="BQ62" s="27">
-        <f>SUM(BQ22:BQ61)+BQ6</f>
+        <f t="shared" si="77"/>
         <v>12516</v>
       </c>
       <c r="BR62" s="27">
-        <f>SUM(BR22:BR61)+BR6</f>
+        <f t="shared" si="77"/>
         <v>11757</v>
       </c>
       <c r="BS62" s="27">
-        <f>SUM(BS22:BS61)+BS6</f>
+        <f t="shared" si="77"/>
         <v>12622</v>
       </c>
       <c r="BT62" s="27">
-        <f>SUM(BT22:BT61)+BT6</f>
+        <f t="shared" si="77"/>
         <v>12564</v>
       </c>
       <c r="BU62" s="27">
-        <f>SUM(BU22:BU61)+BU6</f>
+        <f t="shared" si="77"/>
         <v>12652</v>
       </c>
       <c r="BV62" s="27">
@@ -27875,31 +27876,31 @@
         <v>7859</v>
       </c>
       <c r="BW62" s="27">
-        <f>SUM(BW22:BW61)+BW6</f>
+        <f t="shared" ref="BW62:CC62" si="78">SUM(BW22:BW61)+BW6</f>
         <v>12391</v>
       </c>
       <c r="BX62" s="27">
-        <f>SUM(BX22:BX61)+BX6</f>
+        <f t="shared" si="78"/>
         <v>11491</v>
       </c>
       <c r="BY62" s="27">
-        <f>SUM(BY22:BY61)+BY6</f>
+        <f t="shared" si="78"/>
         <v>11346</v>
       </c>
       <c r="BZ62" s="27">
-        <f>SUM(BZ22:BZ61)+BZ6</f>
+        <f t="shared" si="78"/>
         <v>11120</v>
       </c>
       <c r="CA62" s="27">
-        <f>SUM(CA22:CA61)+CA6</f>
+        <f t="shared" si="78"/>
         <v>10551</v>
       </c>
       <c r="CB62" s="27">
-        <f>SUM(CB22:CB61)+CB6</f>
+        <f t="shared" si="78"/>
         <v>9821</v>
       </c>
       <c r="CC62" s="27">
-        <f>SUM(CC22:CC61)+CC6</f>
+        <f t="shared" si="78"/>
         <v>11039</v>
       </c>
       <c r="CD62" s="27"/>
@@ -28157,35 +28158,35 @@
         <v>1582</v>
       </c>
       <c r="ER63" s="25">
-        <f t="shared" ref="ER63:EY63" si="66">EQ63</f>
+        <f t="shared" ref="ER63:EY63" si="79">EQ63</f>
         <v>1582</v>
       </c>
       <c r="ES63" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>1582</v>
       </c>
       <c r="ET63" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>1582</v>
       </c>
       <c r="EU63" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>1582</v>
       </c>
       <c r="EV63" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>1582</v>
       </c>
       <c r="EW63" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>1582</v>
       </c>
       <c r="EX63" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>1582</v>
       </c>
       <c r="EY63" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>1582</v>
       </c>
       <c r="EZ63" s="25">
@@ -28416,35 +28417,35 @@
         <v>11942</v>
       </c>
       <c r="ER64" s="25">
-        <f t="shared" ref="ER64:EY64" si="67">ER62-ER65+ER63</f>
+        <f t="shared" ref="ER64:EY64" si="80">ER62-ER65+ER63</f>
         <v>18713</v>
       </c>
       <c r="ES64" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>48362</v>
       </c>
       <c r="ET64" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>49044</v>
       </c>
       <c r="EU64" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>49163</v>
       </c>
       <c r="EV64" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>49731</v>
       </c>
       <c r="EW64" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>46686</v>
       </c>
       <c r="EX64" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>47855</v>
       </c>
       <c r="EY64" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="80"/>
         <v>53419</v>
       </c>
       <c r="EZ64" s="25">
@@ -28481,19 +28482,19 @@
         <v>11038</v>
       </c>
       <c r="I65" s="25">
-        <f t="shared" ref="I65:N65" si="68">I62-I64+I63</f>
+        <f t="shared" ref="I65:N65" si="81">I62-I64+I63</f>
         <v>12984</v>
       </c>
       <c r="J65" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v>14670</v>
       </c>
       <c r="K65" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v>15642</v>
       </c>
       <c r="L65" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v>17249</v>
       </c>
       <c r="M65" s="25">
@@ -28501,31 +28502,31 @@
         <v>17799</v>
       </c>
       <c r="N65" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="81"/>
         <v>15793</v>
       </c>
       <c r="O65" s="25">
-        <f t="shared" ref="O65:T65" si="69">O62-O64+O63</f>
+        <f t="shared" ref="O65:T65" si="82">O62-O64+O63</f>
         <v>16608</v>
       </c>
       <c r="P65" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v>17635</v>
       </c>
       <c r="Q65" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v>18022</v>
       </c>
       <c r="R65" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v>18685</v>
       </c>
       <c r="S65" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v>18644</v>
       </c>
       <c r="T65" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="82"/>
         <v>17160</v>
       </c>
       <c r="U65" s="25"/>
@@ -28655,11 +28656,11 @@
         <v>21804</v>
       </c>
       <c r="EK65" s="25">
-        <f t="shared" ref="EK65:EL65" si="70">EK62+EK63-EK64</f>
+        <f t="shared" ref="EK65:EL65" si="83">EK62+EK63-EK64</f>
         <v>27654</v>
       </c>
       <c r="EL65" s="25">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>32891</v>
       </c>
       <c r="EM65" s="25">
@@ -28683,35 +28684,35 @@
         <v>32171</v>
       </c>
       <c r="ER65" s="25">
-        <f t="shared" ref="ER65:EY65" si="71">ER62*ER84</f>
+        <f t="shared" ref="ER65:EY65" si="84">ER62*ER84</f>
         <v>0</v>
       </c>
       <c r="ES65" s="25">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="ET65" s="25">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="EU65" s="25">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="EV65" s="25">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="EW65" s="25">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="EX65" s="25">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="EY65" s="25">
-        <f t="shared" si="71"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="EZ65" s="25">
@@ -28845,7 +28846,7 @@
         <v>9170</v>
       </c>
       <c r="EO66" s="25">
-        <f t="shared" ref="EO66" si="72">SUM(Q66:R66)</f>
+        <f t="shared" ref="EO66" si="85">SUM(Q66:R66)</f>
         <v>9475</v>
       </c>
       <c r="EP66" s="25">
@@ -28856,35 +28857,35 @@
         <v>8049</v>
       </c>
       <c r="ER66" s="25">
-        <f t="shared" ref="ER66:EY66" si="73">EQ66*0.99</f>
+        <f t="shared" ref="ER66:EY66" si="86">EQ66*0.99</f>
         <v>7968.51</v>
       </c>
       <c r="ES66" s="25">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v>7888.8249000000005</v>
       </c>
       <c r="ET66" s="25">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v>7809.9366510000009</v>
       </c>
       <c r="EU66" s="25">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v>7731.8372844900005</v>
       </c>
       <c r="EV66" s="25">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v>7654.5189116451002</v>
       </c>
       <c r="EW66" s="25">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v>7577.973722528649</v>
       </c>
       <c r="EX66" s="25">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v>7502.1939853033628</v>
       </c>
       <c r="EY66" s="25">
-        <f t="shared" si="73"/>
+        <f t="shared" si="86"/>
         <v>7427.1720454503293</v>
       </c>
       <c r="EZ66" s="25">
@@ -29101,7 +29102,7 @@
         <v>2332</v>
       </c>
       <c r="EO67" s="25">
-        <f t="shared" ref="EO67" si="74">SUM(Q67:R67)</f>
+        <f t="shared" ref="EO67" si="87">SUM(Q67:R67)</f>
         <v>2175</v>
       </c>
       <c r="EP67" s="25">
@@ -29112,35 +29113,35 @@
         <v>2342</v>
       </c>
       <c r="ER67" s="25">
-        <f t="shared" ref="ER67:EY67" si="75">EQ67*0.99</f>
+        <f t="shared" ref="ER67:EY67" si="88">EQ67*0.99</f>
         <v>2318.58</v>
       </c>
       <c r="ES67" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v>2295.3941999999997</v>
       </c>
       <c r="ET67" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v>2272.4402579999996</v>
       </c>
       <c r="EU67" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v>2249.7158554199996</v>
       </c>
       <c r="EV67" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v>2227.2186968657998</v>
       </c>
       <c r="EW67" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v>2204.9465098971418</v>
       </c>
       <c r="EX67" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v>2182.8970447981706</v>
       </c>
       <c r="EY67" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="88"/>
         <v>2161.0680743501889</v>
       </c>
       <c r="EZ67" s="25">
@@ -29272,7 +29273,7 @@
         <v>8845</v>
       </c>
       <c r="EO68" s="25">
-        <f t="shared" ref="EO68" si="76">SUM(Q68:R68)</f>
+        <f t="shared" ref="EO68" si="89">SUM(Q68:R68)</f>
         <v>9874</v>
       </c>
       <c r="EP68" s="25">
@@ -29397,23 +29398,23 @@
       <c r="K70" s="25"/>
       <c r="L70" s="25"/>
       <c r="M70" s="25">
-        <f t="shared" ref="M70:Q70" si="77">SUM(M66:M68)-M69</f>
+        <f t="shared" ref="M70:Q70" si="90">SUM(M66:M68)-M69</f>
         <v>9214</v>
       </c>
       <c r="N70" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v>8351</v>
       </c>
       <c r="O70" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v>9567</v>
       </c>
       <c r="P70" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v>10780</v>
       </c>
       <c r="Q70" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="90"/>
         <v>10052</v>
       </c>
       <c r="R70" s="25">
@@ -29461,59 +29462,59 @@
       <c r="EJ70" s="25"/>
       <c r="EK70" s="25"/>
       <c r="EL70" s="25">
-        <f t="shared" ref="EL70:EQ70" si="78">SUM(EL66:EL68)-EL69</f>
+        <f t="shared" ref="EL70:EQ70" si="91">SUM(EL66:EL68)-EL69</f>
         <v>18777</v>
       </c>
       <c r="EM70" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v>17565</v>
       </c>
       <c r="EN70" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v>20347</v>
       </c>
       <c r="EO70" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v>21524</v>
       </c>
       <c r="EP70" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v>22388</v>
       </c>
       <c r="EQ70" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="91"/>
         <v>18717</v>
       </c>
       <c r="ER70" s="25">
-        <f t="shared" ref="ER70:EY70" si="79">SUM(ER66:ER68)-ER69</f>
+        <f t="shared" ref="ER70:EY70" si="92">SUM(ER66:ER68)-ER69</f>
         <v>10287.09</v>
       </c>
       <c r="ES70" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>10184.2191</v>
       </c>
       <c r="ET70" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>10082.376909000001</v>
       </c>
       <c r="EU70" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>9981.55313991</v>
       </c>
       <c r="EV70" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>9881.737608510899</v>
       </c>
       <c r="EW70" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>9782.9202324257913</v>
       </c>
       <c r="EX70" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>9685.0910301015338</v>
       </c>
       <c r="EY70" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="92"/>
         <v>9588.2401198005173</v>
       </c>
       <c r="EZ70" s="23">
@@ -29568,23 +29569,23 @@
         <v>6605</v>
       </c>
       <c r="M71" s="27">
-        <f t="shared" ref="M71:Q71" si="80">M65-M70</f>
+        <f t="shared" ref="M71:Q71" si="93">M65-M70</f>
         <v>8585</v>
       </c>
       <c r="N71" s="27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="93"/>
         <v>7442</v>
       </c>
       <c r="O71" s="27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="93"/>
         <v>7041</v>
       </c>
       <c r="P71" s="27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="93"/>
         <v>6855</v>
       </c>
       <c r="Q71" s="27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="93"/>
         <v>7970</v>
       </c>
       <c r="R71" s="27">
@@ -29730,63 +29731,63 @@
         <v>10133</v>
       </c>
       <c r="EL71" s="27">
-        <f t="shared" ref="EL71:EQ71" si="81">EL65-EL70</f>
+        <f t="shared" ref="EL71:EQ71" si="94">EL65-EL70</f>
         <v>14114</v>
       </c>
       <c r="EM71" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="94"/>
         <v>16027</v>
       </c>
       <c r="EN71" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="94"/>
         <v>14742</v>
       </c>
       <c r="EO71" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="94"/>
         <v>15183</v>
       </c>
       <c r="EP71" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="94"/>
         <v>13339</v>
       </c>
       <c r="EQ71" s="27">
-        <f t="shared" si="81"/>
+        <f t="shared" si="94"/>
         <v>13454</v>
       </c>
       <c r="ER71" s="27">
-        <f t="shared" ref="ER71:EZ71" si="82">ER65-ER70</f>
+        <f t="shared" ref="ER71:EZ71" si="95">ER65-ER70</f>
         <v>-10287.09</v>
       </c>
       <c r="ES71" s="27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="95"/>
         <v>-10184.2191</v>
       </c>
       <c r="ET71" s="27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="95"/>
         <v>-10082.376909000001</v>
       </c>
       <c r="EU71" s="27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="95"/>
         <v>-9981.55313991</v>
       </c>
       <c r="EV71" s="27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="95"/>
         <v>-9881.737608510899</v>
       </c>
       <c r="EW71" s="27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="95"/>
         <v>-9782.9202324257913</v>
       </c>
       <c r="EX71" s="27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="95"/>
         <v>-9685.0910301015338</v>
       </c>
       <c r="EY71" s="27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="95"/>
         <v>-9588.2401198005173</v>
       </c>
       <c r="EZ71" s="27">
-        <f t="shared" si="82"/>
+        <f t="shared" si="95"/>
         <v>21536</v>
       </c>
       <c r="FA71" s="24">
@@ -29888,7 +29889,7 @@
         <v>1123</v>
       </c>
       <c r="EO72" s="25">
-        <f t="shared" ref="EO72:EO73" si="83">SUM(Q72:R72)</f>
+        <f t="shared" ref="EO72:EO73" si="96">SUM(Q72:R72)</f>
         <v>792</v>
       </c>
       <c r="EP72" s="25">
@@ -29900,35 +29901,35 @@
         <v>-1569</v>
       </c>
       <c r="ER72" s="25">
-        <f>ER82*$FJ$84</f>
+        <f t="shared" ref="ER72:EY72" si="97">ER82*$FJ$84</f>
         <v>-66.900000000000006</v>
       </c>
       <c r="ES72" s="25">
-        <f>ES82*$FJ$84</f>
+        <f t="shared" si="97"/>
         <v>-460.35162000000003</v>
       </c>
       <c r="ET72" s="25">
-        <f>ET82*$FJ$84</f>
+        <f t="shared" si="97"/>
         <v>-864.84530735999999</v>
       </c>
       <c r="EU72" s="25">
-        <f>EU82*$FJ$84</f>
+        <f t="shared" si="97"/>
         <v>-1280.83975158168</v>
       </c>
       <c r="EV72" s="25">
-        <f>EV82*$FJ$84</f>
+        <f t="shared" si="97"/>
         <v>-1708.8106814583641</v>
       </c>
       <c r="EW72" s="25">
-        <f>EW82*$FJ$84</f>
+        <f t="shared" si="97"/>
         <v>-2149.2515164771962</v>
       </c>
       <c r="EX72" s="25">
-        <f>EX82*$FJ$84</f>
+        <f t="shared" si="97"/>
         <v>-2602.67404293551</v>
       </c>
       <c r="EY72" s="25">
-        <f>EY82*$FJ$84</f>
+        <f t="shared" si="97"/>
         <v>-3069.6091157109176</v>
       </c>
       <c r="EZ72" s="25">
@@ -30149,7 +30150,7 @@
         <v>887</v>
       </c>
       <c r="EO73" s="25">
-        <f t="shared" si="83"/>
+        <f t="shared" si="96"/>
         <v>2460</v>
       </c>
       <c r="EP73" s="25">
@@ -30193,47 +30194,47 @@
         <v>3135</v>
       </c>
       <c r="I74" s="27">
-        <f t="shared" ref="I74:S74" si="84">I71+I72-I73</f>
+        <f t="shared" ref="I74:S74" si="98">I71+I72-I73</f>
         <v>5299</v>
       </c>
       <c r="J74" s="27">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>5797</v>
       </c>
       <c r="K74" s="27">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>6723</v>
       </c>
       <c r="L74" s="27">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>7036</v>
       </c>
       <c r="M74" s="27">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>9085</v>
       </c>
       <c r="N74" s="27">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>7776</v>
       </c>
       <c r="O74" s="27">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>7278</v>
       </c>
       <c r="P74" s="27">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>7092</v>
       </c>
       <c r="Q74" s="27">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>7419</v>
       </c>
       <c r="R74" s="27">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>6096</v>
       </c>
       <c r="S74" s="27">
-        <f t="shared" si="84"/>
+        <f t="shared" si="98"/>
         <v>7550</v>
       </c>
       <c r="T74" s="27">
@@ -30367,23 +30368,23 @@
         <v>6465</v>
       </c>
       <c r="EK74" s="27">
-        <f t="shared" ref="EK74:EZ74" si="85">EK71+EK72-EK73</f>
+        <f t="shared" ref="EK74:EZ74" si="99">EK71+EK72-EK73</f>
         <v>10461</v>
       </c>
       <c r="EL74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>14969</v>
       </c>
       <c r="EM74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>16861</v>
       </c>
       <c r="EN74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>14978</v>
       </c>
       <c r="EO74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>13515</v>
       </c>
       <c r="EP74" s="27">
@@ -30391,43 +30392,43 @@
         <v>11064</v>
       </c>
       <c r="EQ74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>11885</v>
       </c>
       <c r="ER74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>-10353.99</v>
       </c>
       <c r="ES74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>-10644.57072</v>
       </c>
       <c r="ET74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>-10947.22221636</v>
       </c>
       <c r="EU74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>-11262.39289149168</v>
       </c>
       <c r="EV74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>-11590.548289969263</v>
       </c>
       <c r="EW74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>-11932.171748902987</v>
       </c>
       <c r="EX74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>-12287.765073037044</v>
       </c>
       <c r="EY74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>-12657.849235511436</v>
       </c>
       <c r="EZ74" s="27">
-        <f t="shared" si="85"/>
+        <f t="shared" si="99"/>
         <v>20972</v>
       </c>
       <c r="FA74" s="24">
@@ -30568,35 +30569,35 @@
         <v>2341</v>
       </c>
       <c r="ER75" s="25">
-        <f t="shared" ref="ER75:EY75" si="86">ER74*0.24</f>
+        <f t="shared" ref="ER75:EY75" si="100">ER74*0.24</f>
         <v>-2484.9575999999997</v>
       </c>
       <c r="ES75" s="25">
-        <f t="shared" si="86"/>
+        <f t="shared" si="100"/>
         <v>-2554.6969727999999</v>
       </c>
       <c r="ET75" s="25">
-        <f t="shared" si="86"/>
+        <f t="shared" si="100"/>
         <v>-2627.3333319263998</v>
       </c>
       <c r="EU75" s="25">
-        <f t="shared" si="86"/>
+        <f t="shared" si="100"/>
         <v>-2702.9742939580028</v>
       </c>
       <c r="EV75" s="25">
-        <f t="shared" si="86"/>
+        <f t="shared" si="100"/>
         <v>-2781.7315895926231</v>
       </c>
       <c r="EW75" s="25">
-        <f t="shared" si="86"/>
+        <f t="shared" si="100"/>
         <v>-2863.7212197367166</v>
       </c>
       <c r="EX75" s="25">
-        <f t="shared" si="86"/>
+        <f t="shared" si="100"/>
         <v>-2949.0636175288905</v>
       </c>
       <c r="EY75" s="25">
-        <f t="shared" si="86"/>
+        <f t="shared" si="100"/>
         <v>-3037.8838165227444</v>
       </c>
       <c r="EZ75" s="25">
@@ -30633,51 +30634,51 @@
         <v>2336</v>
       </c>
       <c r="I76" s="25">
-        <f t="shared" ref="I76:N76" si="87">I74-I75</f>
+        <f t="shared" ref="I76:N76" si="101">I74-I75</f>
         <v>4204</v>
       </c>
       <c r="J76" s="25">
-        <f t="shared" si="87"/>
+        <f t="shared" si="101"/>
         <v>4668</v>
       </c>
       <c r="K76" s="25">
-        <f t="shared" si="87"/>
+        <f t="shared" si="101"/>
         <v>5022</v>
       </c>
       <c r="L76" s="25">
-        <f t="shared" si="87"/>
+        <f t="shared" si="101"/>
         <v>5301</v>
       </c>
       <c r="M76" s="25">
-        <f t="shared" si="87"/>
+        <f t="shared" si="101"/>
         <v>6970</v>
       </c>
       <c r="N76" s="25">
-        <f t="shared" si="87"/>
+        <f t="shared" si="101"/>
         <v>6024</v>
       </c>
       <c r="O76" s="25">
-        <f t="shared" ref="O76:T76" si="88">O74-O75</f>
+        <f t="shared" ref="O76:T76" si="102">O74-O75</f>
         <v>5417</v>
       </c>
       <c r="P76" s="25">
-        <f t="shared" si="88"/>
+        <f t="shared" si="102"/>
         <v>7092</v>
       </c>
       <c r="Q76" s="25">
-        <f t="shared" si="88"/>
+        <f t="shared" si="102"/>
         <v>5741</v>
       </c>
       <c r="R76" s="25">
-        <f t="shared" si="88"/>
+        <f t="shared" si="102"/>
         <v>4904</v>
       </c>
       <c r="S76" s="25">
-        <f t="shared" si="88"/>
+        <f t="shared" si="102"/>
         <v>5750</v>
       </c>
       <c r="T76" s="25">
-        <f t="shared" si="88"/>
+        <f t="shared" si="102"/>
         <v>3071</v>
       </c>
       <c r="U76" s="25"/>
@@ -30718,19 +30719,19 @@
         <v>4860</v>
       </c>
       <c r="EK76" s="25">
-        <f t="shared" ref="EK76:ET76" si="89">EK74-EK75</f>
+        <f t="shared" ref="EK76:ET76" si="103">EK74-EK75</f>
         <v>8177</v>
       </c>
       <c r="EL76" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>11533</v>
       </c>
       <c r="EM76" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>12994</v>
       </c>
       <c r="EN76" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>11661</v>
       </c>
       <c r="EO76" s="25">
@@ -30742,39 +30743,39 @@
         <v>8744</v>
       </c>
       <c r="EQ76" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>9544</v>
       </c>
       <c r="ER76" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>-7869.0324000000001</v>
       </c>
       <c r="ES76" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>-8089.8737471999993</v>
       </c>
       <c r="ET76" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>-8319.8888844335997</v>
       </c>
       <c r="EU76" s="25">
-        <f t="shared" ref="EU76:EY76" si="90">EU74-EU75</f>
+        <f t="shared" ref="EU76:EY76" si="104">EU74-EU75</f>
         <v>-8559.4185975336768</v>
       </c>
       <c r="EV76" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-8808.8167003766393</v>
       </c>
       <c r="EW76" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-9068.4505291662699</v>
       </c>
       <c r="EX76" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-9338.7014555081532</v>
       </c>
       <c r="EY76" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="104"/>
         <v>-9619.9654189886915</v>
       </c>
       <c r="EZ76" s="25">
@@ -31047,51 +31048,51 @@
         <v>2060</v>
       </c>
       <c r="I78" s="25">
-        <f t="shared" ref="I78:N78" si="91">I76-I77</f>
+        <f t="shared" ref="I78:N78" si="105">I76-I77</f>
         <v>3760</v>
       </c>
       <c r="J78" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>4169</v>
       </c>
       <c r="K78" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>4450</v>
       </c>
       <c r="L78" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>4582</v>
       </c>
       <c r="M78" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>6027</v>
       </c>
       <c r="N78" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="105"/>
         <v>5291</v>
       </c>
       <c r="O78" s="25">
-        <f t="shared" ref="O78:T78" si="92">O76-O77</f>
+        <f t="shared" ref="O78:T78" si="106">O76-O77</f>
         <v>4505</v>
       </c>
       <c r="P78" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>6180</v>
       </c>
       <c r="Q78" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>5163</v>
       </c>
       <c r="R78" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>4756</v>
       </c>
       <c r="S78" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>5653</v>
       </c>
       <c r="T78" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="106"/>
         <v>2943</v>
       </c>
       <c r="U78" s="25"/>
@@ -31220,19 +31221,19 @@
         <v>4322</v>
       </c>
       <c r="EK78" s="25">
-        <f t="shared" ref="EK78:EZ78" si="93">EK76-EK77</f>
+        <f t="shared" ref="EK78:EZ78" si="107">EK76-EK77</f>
         <v>7234</v>
       </c>
       <c r="EL78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>10242</v>
       </c>
       <c r="EM78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>11318</v>
       </c>
       <c r="EN78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>9786</v>
       </c>
       <c r="EO78" s="25">
@@ -31244,43 +31245,43 @@
         <v>8519</v>
       </c>
       <c r="EQ78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>9343</v>
       </c>
       <c r="ER78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>-7869.0324000000001</v>
       </c>
       <c r="ES78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>-8089.8737471999993</v>
       </c>
       <c r="ET78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>-8319.8888844335997</v>
       </c>
       <c r="EU78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>-8559.4185975336768</v>
       </c>
       <c r="EV78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>-8808.8167003766393</v>
       </c>
       <c r="EW78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>-9068.4505291662699</v>
       </c>
       <c r="EX78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>-9338.7014555081532</v>
       </c>
       <c r="EY78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>-9619.9654189886915</v>
       </c>
       <c r="EZ78" s="25">
-        <f t="shared" si="93"/>
+        <f t="shared" si="107"/>
         <v>16577</v>
       </c>
       <c r="FA78" s="25">
@@ -31296,299 +31297,299 @@
         <v>13267</v>
       </c>
       <c r="FD78" s="25">
-        <f>FC78*(1+$FJ$85)</f>
+        <f t="shared" ref="FD78:GI78" si="108">FC78*(1+$FJ$85)</f>
         <v>13399.67</v>
       </c>
       <c r="FE78" s="32">
-        <f>FD78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>13533.6667</v>
       </c>
       <c r="FF78" s="32">
-        <f>FE78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>13669.003366999999</v>
       </c>
       <c r="FG78" s="32">
-        <f>FF78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>13805.693400669999</v>
       </c>
       <c r="FH78" s="32">
-        <f>FG78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>13943.750334676699</v>
       </c>
       <c r="FI78" s="32">
-        <f>FH78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>14083.187838023467</v>
       </c>
       <c r="FJ78" s="32">
-        <f>FI78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>14224.019716403702</v>
       </c>
       <c r="FK78" s="32">
-        <f>FJ78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>14366.259913567739</v>
       </c>
       <c r="FL78" s="32">
-        <f>FK78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>14509.922512703417</v>
       </c>
       <c r="FM78" s="32">
-        <f>FL78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>14655.021737830451</v>
       </c>
       <c r="FN78" s="32">
-        <f>FM78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>14801.571955208756</v>
       </c>
       <c r="FO78" s="32">
-        <f>FN78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>14949.587674760844</v>
       </c>
       <c r="FP78" s="32">
-        <f>FO78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>15099.083551508453</v>
       </c>
       <c r="FQ78" s="32">
-        <f>FP78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>15250.074387023538</v>
       </c>
       <c r="FR78" s="32">
-        <f>FQ78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>15402.575130893774</v>
       </c>
       <c r="FS78" s="32">
-        <f>FR78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>15556.600882202712</v>
       </c>
       <c r="FT78" s="32">
-        <f>FS78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>15712.166891024739</v>
       </c>
       <c r="FU78" s="32">
-        <f>FT78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>15869.288559934987</v>
       </c>
       <c r="FV78" s="32">
-        <f>FU78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>16027.981445534337</v>
       </c>
       <c r="FW78" s="32">
-        <f>FV78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>16188.26125998968</v>
       </c>
       <c r="FX78" s="32">
-        <f>FW78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>16350.143872589577</v>
       </c>
       <c r="FY78" s="32">
-        <f>FX78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>16513.645311315471</v>
       </c>
       <c r="FZ78" s="32">
-        <f>FY78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>16678.781764428626</v>
       </c>
       <c r="GA78" s="32">
-        <f>FZ78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>16845.569582072912</v>
       </c>
       <c r="GB78" s="32">
-        <f>GA78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>17014.025277893641</v>
       </c>
       <c r="GC78" s="32">
-        <f>GB78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>17184.165530672577</v>
       </c>
       <c r="GD78" s="32">
-        <f>GC78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>17356.007185979302</v>
       </c>
       <c r="GE78" s="32">
-        <f>GD78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>17529.567257839095</v>
       </c>
       <c r="GF78" s="32">
-        <f>GE78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>17704.862930417486</v>
       </c>
       <c r="GG78" s="32">
-        <f>GF78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>17881.911559721662</v>
       </c>
       <c r="GH78" s="32">
-        <f>GG78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>18060.730675318879</v>
       </c>
       <c r="GI78" s="32">
-        <f>GH78*(1+$FJ$85)</f>
+        <f t="shared" si="108"/>
         <v>18241.337982072069</v>
       </c>
       <c r="GJ78" s="32">
-        <f>GI78*(1+$FJ$85)</f>
+        <f t="shared" ref="GJ78:HO78" si="109">GI78*(1+$FJ$85)</f>
         <v>18423.751361892791</v>
       </c>
       <c r="GK78" s="32">
-        <f>GJ78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>18607.988875511721</v>
       </c>
       <c r="GL78" s="32">
-        <f>GK78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>18794.068764266838</v>
       </c>
       <c r="GM78" s="32">
-        <f>GL78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>18982.009451909507</v>
       </c>
       <c r="GN78" s="32">
-        <f>GM78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>19171.829546428602</v>
       </c>
       <c r="GO78" s="32">
-        <f>GN78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>19363.547841892887</v>
       </c>
       <c r="GP78" s="32">
-        <f>GO78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>19557.183320311815</v>
       </c>
       <c r="GQ78" s="32">
-        <f>GP78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>19752.755153514932</v>
       </c>
       <c r="GR78" s="32">
-        <f>GQ78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>19950.282705050082</v>
       </c>
       <c r="GS78" s="32">
-        <f>GR78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>20149.785532100585</v>
       </c>
       <c r="GT78" s="32">
-        <f>GS78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>20351.28338742159</v>
       </c>
       <c r="GU78" s="32">
-        <f>GT78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>20554.796221295805</v>
       </c>
       <c r="GV78" s="32">
-        <f>GU78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>20760.344183508761</v>
       </c>
       <c r="GW78" s="32">
-        <f>GV78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>20967.947625343848</v>
       </c>
       <c r="GX78" s="32">
-        <f>GW78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>21177.627101597285</v>
       </c>
       <c r="GY78" s="32">
-        <f>GX78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>21389.403372613258</v>
       </c>
       <c r="GZ78" s="32">
-        <f>GY78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>21603.297406339392</v>
       </c>
       <c r="HA78" s="32">
-        <f>GZ78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>21819.330380402786</v>
       </c>
       <c r="HB78" s="32">
-        <f>HA78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>22037.523684206815</v>
       </c>
       <c r="HC78" s="32">
-        <f>HB78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>22257.898921048883</v>
       </c>
       <c r="HD78" s="32">
-        <f>HC78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>22480.477910259371</v>
       </c>
       <c r="HE78" s="32">
-        <f>HD78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>22705.282689361964</v>
       </c>
       <c r="HF78" s="32">
-        <f>HE78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>22932.335516255585</v>
       </c>
       <c r="HG78" s="32">
-        <f>HF78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>23161.658871418142</v>
       </c>
       <c r="HH78" s="32">
-        <f>HG78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>23393.275460132325</v>
       </c>
       <c r="HI78" s="32">
-        <f>HH78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>23627.208214733648</v>
       </c>
       <c r="HJ78" s="32">
-        <f>HI78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>23863.480296880985</v>
       </c>
       <c r="HK78" s="32">
-        <f>HJ78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>24102.115099849794</v>
       </c>
       <c r="HL78" s="32">
-        <f>HK78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>24343.136250848293</v>
       </c>
       <c r="HM78" s="32">
-        <f>HL78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>24586.567613356776</v>
       </c>
       <c r="HN78" s="32">
-        <f>HM78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>24832.433289490345</v>
       </c>
       <c r="HO78" s="32">
-        <f>HN78*(1+$FJ$85)</f>
+        <f t="shared" si="109"/>
         <v>25080.757622385248</v>
       </c>
       <c r="HP78" s="32">
-        <f>HO78*(1+$FJ$85)</f>
+        <f t="shared" ref="HP78:HY78" si="110">HO78*(1+$FJ$85)</f>
         <v>25331.5651986091</v>
       </c>
       <c r="HQ78" s="32">
-        <f>HP78*(1+$FJ$85)</f>
+        <f t="shared" si="110"/>
         <v>25584.880850595189</v>
       </c>
       <c r="HR78" s="32">
-        <f>HQ78*(1+$FJ$85)</f>
+        <f t="shared" si="110"/>
         <v>25840.72965910114</v>
       </c>
       <c r="HS78" s="32">
-        <f>HR78*(1+$FJ$85)</f>
+        <f t="shared" si="110"/>
         <v>26099.136955692153</v>
       </c>
       <c r="HT78" s="32">
-        <f>HS78*(1+$FJ$85)</f>
+        <f t="shared" si="110"/>
         <v>26360.128325249076</v>
       </c>
       <c r="HU78" s="32">
-        <f>HT78*(1+$FJ$85)</f>
+        <f t="shared" si="110"/>
         <v>26623.729608501566</v>
       </c>
       <c r="HV78" s="32">
-        <f>HU78*(1+$FJ$85)</f>
+        <f t="shared" si="110"/>
         <v>26889.966904586581</v>
       </c>
       <c r="HW78" s="32">
-        <f>HV78*(1+$FJ$85)</f>
+        <f t="shared" si="110"/>
         <v>27158.866573632447</v>
       </c>
       <c r="HX78" s="32">
-        <f>HW78*(1+$FJ$85)</f>
+        <f t="shared" si="110"/>
         <v>27430.455239368774</v>
       </c>
       <c r="HY78" s="32">
-        <f>HX78*(1+$FJ$85)</f>
+        <f t="shared" si="110"/>
         <v>27704.759791762463</v>
       </c>
     </row>
@@ -31615,51 +31616,51 @@
         <v>2.4104238397498516</v>
       </c>
       <c r="I79" s="49">
-        <f t="shared" ref="I79:N79" si="94">I78/I80</f>
+        <f t="shared" ref="I79:N79" si="111">I78/I80</f>
         <v>4.3591034019903718</v>
       </c>
       <c r="J79" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>4.8332718305579414</v>
       </c>
       <c r="K79" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>5.1590452496960513</v>
       </c>
       <c r="L79" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>5.3120776031701817</v>
       </c>
       <c r="M79" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>6.9873181393074386</v>
       </c>
       <c r="N79" s="49">
-        <f t="shared" si="94"/>
+        <f t="shared" si="111"/>
         <v>6.1340468350880464</v>
       </c>
       <c r="O79" s="49">
-        <f t="shared" ref="O79:T79" si="95">O78/O80</f>
+        <f t="shared" ref="O79:T79" si="112">O78/O80</f>
         <v>5.2228087303102724</v>
       </c>
       <c r="P79" s="49">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>7.1646965490160897</v>
       </c>
       <c r="Q79" s="49">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>5.9856518256585876</v>
       </c>
       <c r="R79" s="49">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>5.5138020691133525</v>
       </c>
       <c r="S79" s="49">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>6.5537264711307364</v>
       </c>
       <c r="T79" s="49">
-        <f t="shared" si="95"/>
+        <f t="shared" si="112"/>
         <v>3.4119258808663999</v>
       </c>
       <c r="U79" s="49"/>
@@ -31792,11 +31793,11 @@
         <v>6.1026426057431324</v>
       </c>
       <c r="EL79" s="49">
-        <f t="shared" ref="EL79:ET79" si="96">EL78/EL80</f>
+        <f t="shared" ref="EL79:ET79" si="113">EL78/EL80</f>
         <v>11.873919426379091</v>
       </c>
       <c r="EM79" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>13.121364974395485</v>
       </c>
       <c r="EN79" s="49">
@@ -31812,19 +31813,19 @@
         <v>9.8763834791372265</v>
       </c>
       <c r="EQ79" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>10.831676352339372</v>
       </c>
       <c r="ER79" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>-9.1228526343650156</v>
       </c>
       <c r="ES79" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>-9.3788819609287533</v>
       </c>
       <c r="ET79" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="113"/>
         <v>-9.6455467926373348</v>
       </c>
       <c r="EU79" s="49"/>
@@ -32034,15 +32035,15 @@
         <v>862.56269999999995</v>
       </c>
       <c r="EM80" s="25">
-        <f t="shared" ref="EM80:ET80" si="97">EL80</f>
+        <f t="shared" ref="EM80:ET80" si="114">EL80</f>
         <v>862.56269999999995</v>
       </c>
       <c r="EN80" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>862.56269999999995</v>
       </c>
       <c r="EO80" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>862.56269999999995</v>
       </c>
       <c r="EP80" s="25">
@@ -32050,19 +32051,19 @@
         <v>862.56269999999995</v>
       </c>
       <c r="EQ80" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>862.56269999999995</v>
       </c>
       <c r="ER80" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>862.56269999999995</v>
       </c>
       <c r="ES80" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>862.56269999999995</v>
       </c>
       <c r="ET80" s="25">
-        <f t="shared" si="97"/>
+        <f t="shared" si="114"/>
         <v>862.56269999999995</v>
       </c>
       <c r="EU80" s="25"/>
@@ -32413,35 +32414,35 @@
         <v>-10681</v>
       </c>
       <c r="ER82" s="25">
-        <f t="shared" ref="ER82:ES82" si="98">EQ82+EQ78</f>
+        <f t="shared" ref="ER82:ES82" si="115">EQ82+EQ78</f>
         <v>-1338</v>
       </c>
       <c r="ES82" s="25">
-        <f t="shared" si="98"/>
+        <f t="shared" si="115"/>
         <v>-9207.0324000000001</v>
       </c>
       <c r="ET82" s="25">
-        <f t="shared" ref="ET82:EY82" si="99">ES82+ES78</f>
+        <f t="shared" ref="ET82:EY82" si="116">ES82+ES78</f>
         <v>-17296.906147199999</v>
       </c>
       <c r="EU82" s="25">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>-25616.795031633599</v>
       </c>
       <c r="EV82" s="25">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>-34176.21362916728</v>
       </c>
       <c r="EW82" s="25">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>-42985.030329543923</v>
       </c>
       <c r="EX82" s="25">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>-52053.480858710194</v>
       </c>
       <c r="EY82" s="25">
-        <f t="shared" si="99"/>
+        <f t="shared" si="116"/>
         <v>-61392.182314218349</v>
       </c>
       <c r="EZ82" s="25"/>
@@ -32635,27 +32636,27 @@
         <v>0.74</v>
       </c>
       <c r="K84" s="29">
-        <f t="shared" ref="K84:P84" si="100">K65/K62</f>
+        <f t="shared" ref="K84:P84" si="117">K65/K62</f>
         <v>0.78804977580734548</v>
       </c>
       <c r="L84" s="29">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>0.77726207642393652</v>
       </c>
       <c r="M84" s="29">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>0.77973452490471806</v>
       </c>
       <c r="N84" s="29">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>0.6776366600875311</v>
       </c>
       <c r="O84" s="29">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>0.75477185966187965</v>
       </c>
       <c r="P84" s="29">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>0.74683437089738702</v>
       </c>
       <c r="Q84" s="29">
@@ -32791,31 +32792,31 @@
       <c r="EE84" s="48"/>
       <c r="EG84" s="29"/>
       <c r="EH84" s="29">
-        <f t="shared" ref="EH84:EN84" si="101">EH65/EH62</f>
+        <f t="shared" ref="EH84:EN84" si="118">EH65/EH62</f>
         <v>0.77042891122535107</v>
       </c>
       <c r="EI84" s="29">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>0.77576314821625603</v>
       </c>
       <c r="EJ84" s="29">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>0.73856784770679496</v>
       </c>
       <c r="EK84" s="29">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>0.77874461434485087</v>
       </c>
       <c r="EL84" s="29">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>0.78235531980685524</v>
       </c>
       <c r="EM84" s="29">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>0.72815555025686607</v>
       </c>
       <c r="EN84" s="29">
-        <f t="shared" si="101"/>
+        <f t="shared" si="118"/>
         <v>0.75520306480425281</v>
       </c>
       <c r="EO84" s="113">
@@ -32826,7 +32827,7 @@
         <v>0.76049999999999995</v>
       </c>
       <c r="EQ84" s="29">
-        <f t="shared" ref="EQ84" si="102">EQ65/EQ62</f>
+        <f t="shared" ref="EQ84" si="119">EQ65/EQ62</f>
         <v>0.75641296936352309</v>
       </c>
       <c r="ER84" s="29"/>
@@ -32842,7 +32843,7 @@
         <v>0.78487046276769024</v>
       </c>
       <c r="FA84" s="29">
-        <f t="shared" ref="FA84" si="103">FA65/FA62</f>
+        <f t="shared" ref="FA84" si="120">FA65/FA62</f>
         <v>0.75973312526870596</v>
       </c>
       <c r="FI84" s="88" t="s">
@@ -32875,39 +32876,39 @@
         <v>0.28927714057081888</v>
       </c>
       <c r="I85" s="28">
-        <f t="shared" ref="I85:Q85" si="104">I66/I62</f>
+        <f t="shared" ref="I85:Q85" si="121">I66/I62</f>
         <v>0.26525087233786548</v>
       </c>
       <c r="J85" s="28">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>0.27613955212028163</v>
       </c>
       <c r="K85" s="28">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>0.26238097637160562</v>
       </c>
       <c r="L85" s="28">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>0.25450612833453495</v>
       </c>
       <c r="M85" s="28">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>0.24322074736058177</v>
       </c>
       <c r="N85" s="28">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>0.16197545696387197</v>
       </c>
       <c r="O85" s="28">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>0.19864570078167607</v>
       </c>
       <c r="P85" s="28">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>0.20323550586541311</v>
       </c>
       <c r="Q85" s="28">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>0.19024410564025659</v>
       </c>
       <c r="R85" s="28">
@@ -32978,51 +32979,51 @@
         <v>0.19104748462546628</v>
       </c>
       <c r="EP85" s="28">
-        <f t="shared" ref="EP85:EZ85" si="105">EP66/EP62</f>
+        <f t="shared" ref="EP85:EZ85" si="122">EP66/EP62</f>
         <v>0.20048176478045895</v>
       </c>
       <c r="EQ85" s="28">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>0.18925019397615855</v>
       </c>
       <c r="ER85" s="28">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>0.46515147977351001</v>
       </c>
       <c r="ES85" s="28">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>0.16863670158187261</v>
       </c>
       <c r="ET85" s="28">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>0.16455136005646626</v>
       </c>
       <c r="EU85" s="28">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>0.16249841921123978</v>
       </c>
       <c r="EV85" s="28">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>0.15897565705715799</v>
       </c>
       <c r="EW85" s="28">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>0.1680111236814617</v>
       </c>
       <c r="EX85" s="28">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>0.16212897338195845</v>
       </c>
       <c r="EY85" s="28">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>0.14327935732103186</v>
       </c>
       <c r="EZ85" s="28">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>0.16050271762426488</v>
       </c>
       <c r="FA85" s="28">
-        <f t="shared" ref="FA85" si="106">FA66/FA62</f>
+        <f t="shared" ref="FA85" si="123">FA66/FA62</f>
         <v>0.1503797710227544</v>
       </c>
       <c r="FI85" s="88" t="s">
@@ -33064,31 +33065,31 @@
         <v>0.35242098296664276</v>
       </c>
       <c r="K86" s="28">
-        <f t="shared" ref="K86:Q86" si="107">K67/K62</f>
+        <f t="shared" ref="K86:Q86" si="124">K67/K62</f>
         <v>5.40077585772583E-2</v>
       </c>
       <c r="L86" s="28">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>6.6240086517664026E-2</v>
       </c>
       <c r="M86" s="28">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>5.4190213343847202E-2</v>
       </c>
       <c r="N86" s="28">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>5.2175405474984983E-2</v>
       </c>
       <c r="O86" s="28">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>4.9491001636066172E-2</v>
       </c>
       <c r="P86" s="28">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>5.2640494642781518E-2</v>
       </c>
       <c r="Q86" s="28">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>4.0281596267599765E-2</v>
       </c>
       <c r="R86" s="28">
@@ -33247,51 +33248,51 @@
         <v>4.3855227341465873E-2</v>
       </c>
       <c r="EP86" s="28">
-        <f t="shared" ref="EP86:EZ86" si="108">EP67/EP62</f>
+        <f t="shared" ref="EP86:EZ86" si="125">EP67/EP62</f>
         <v>6.0727718378903776E-2</v>
       </c>
       <c r="EQ86" s="28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>5.5065716771296229E-2</v>
       </c>
       <c r="ER86" s="28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.13534411301149962</v>
       </c>
       <c r="ES86" s="28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>4.9067853783668229E-2</v>
       </c>
       <c r="ET86" s="28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>4.787915085752812E-2</v>
       </c>
       <c r="EU86" s="28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>4.7281811130913592E-2</v>
       </c>
       <c r="EV86" s="28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>4.6256800699200393E-2</v>
       </c>
       <c r="EW86" s="28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>4.8885830744438225E-2</v>
       </c>
       <c r="EX86" s="28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>4.7174314282587483E-2</v>
       </c>
       <c r="EY86" s="28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>4.1689682550112642E-2</v>
       </c>
       <c r="EZ86" s="28">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>4.6739708176877046E-2</v>
       </c>
       <c r="FA86" s="28">
-        <f t="shared" ref="FA86" si="109">FA67/FA62</f>
+        <f t="shared" ref="FA86" si="126">FA67/FA62</f>
         <v>4.2403783379245552E-2</v>
       </c>
       <c r="FI86" s="88" t="s">
@@ -33333,31 +33334,31 @@
         <v>0.18283130835135153</v>
       </c>
       <c r="K87" s="28">
-        <f t="shared" ref="K87:Q87" si="110">K68/K62</f>
+        <f t="shared" ref="K87:Q87" si="127">K68/K62</f>
         <v>0.15431507884528187</v>
       </c>
       <c r="L87" s="28">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.15888608507570295</v>
       </c>
       <c r="M87" s="28">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.15924124939764314</v>
       </c>
       <c r="N87" s="28">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.20381017763666009</v>
       </c>
       <c r="O87" s="28">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.18664788220323578</v>
       </c>
       <c r="P87" s="28">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.20065218311946809</v>
       </c>
       <c r="Q87" s="28">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>0.18820294926268433</v>
       </c>
       <c r="R87" s="28">
@@ -33428,51 +33429,51 @@
         <v>0.19909265046879726</v>
       </c>
       <c r="EP87" s="28">
-        <f t="shared" ref="EP87:EZ87" si="111">EP68/EP62</f>
+        <f t="shared" ref="EP87:EZ87" si="128">EP68/EP62</f>
         <v>0.21184972319655157</v>
       </c>
       <c r="EQ87" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0.19576309045167054</v>
       </c>
       <c r="ER87" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="ES87" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="ET87" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="EU87" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="EV87" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="EW87" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="EX87" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="EY87" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="EZ87" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0.20837405483257035</v>
       </c>
       <c r="FA87" s="28">
-        <f t="shared" ref="FA87" si="112">FA68/FA62</f>
+        <f t="shared" ref="FA87" si="129">FA68/FA62</f>
         <v>0.21827677903218101</v>
       </c>
       <c r="FI87" s="114" t="s">
@@ -33515,43 +33516,43 @@
         <v>0.22392567642135672</v>
       </c>
       <c r="K88" s="29">
-        <f t="shared" ref="K88:R88" si="113">K71/K62</f>
+        <f t="shared" ref="K88:R88" si="130">K71/K62</f>
         <v>0.31734596201319965</v>
       </c>
       <c r="L88" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>0.29762977649603461</v>
       </c>
       <c r="M88" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>0.37608971831602928</v>
       </c>
       <c r="N88" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>0.31931691409937357</v>
       </c>
       <c r="O88" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>0.31998727504090163</v>
       </c>
       <c r="P88" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>0.29030618726972429</v>
       </c>
       <c r="Q88" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>0.33200033325002082</v>
       </c>
       <c r="R88" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="130"/>
         <v>0.28604854060913704</v>
       </c>
       <c r="S88" s="29">
-        <f t="shared" ref="S88:T88" si="114">S71/S62</f>
+        <f t="shared" ref="S88:T88" si="131">S71/S62</f>
         <v>0.35541484007144014</v>
       </c>
       <c r="T88" s="29">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>0.20468221548732815</v>
       </c>
       <c r="U88" s="29"/>
@@ -33700,51 +33701,51 @@
         <v>0.30613973182780524</v>
       </c>
       <c r="EP88" s="29">
-        <f t="shared" ref="EP88:EZ88" si="115">EP71/EP62</f>
+        <f t="shared" ref="EP88:EZ88" si="132">EP71/EP62</f>
         <v>0.28185352660271312</v>
       </c>
       <c r="EQ88" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>0.31633396816439774</v>
       </c>
       <c r="ER88" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-0.60049559278500964</v>
       </c>
       <c r="ES88" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-0.21770455536554084</v>
       </c>
       <c r="ET88" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-0.21243051091399437</v>
       </c>
       <c r="EU88" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-0.20978023034215337</v>
       </c>
       <c r="EV88" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-0.20523245775635837</v>
       </c>
       <c r="EW88" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-0.21689695442589996</v>
       </c>
       <c r="EX88" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-0.20930328766454592</v>
       </c>
       <c r="EY88" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-0.18496903987114449</v>
       </c>
       <c r="EZ88" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>0.36925398213397803</v>
       </c>
       <c r="FA88" s="29">
-        <f t="shared" ref="FA88" si="116">FA71/FA62</f>
+        <f t="shared" ref="FA88" si="133">FA71/FA62</f>
         <v>0.34867279183452493</v>
       </c>
       <c r="FI88" s="114" t="s">
@@ -33853,59 +33854,59 @@
         <v>0.30398791565649136</v>
       </c>
       <c r="EN89" s="28">
-        <f t="shared" ref="EN89:EZ89" si="117">EN74/EN62</f>
+        <f t="shared" ref="EN89:EZ89" si="134">EN74/EN62</f>
         <v>0.32236403159503263</v>
       </c>
       <c r="EO89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>0.2725073092045569</v>
       </c>
       <c r="EP89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>0.23378269872797194</v>
       </c>
       <c r="EQ89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>0.27944322964425949</v>
       </c>
       <c r="ER89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>-0.60440079388243528</v>
       </c>
       <c r="ES89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>-0.2275453339033775</v>
       </c>
       <c r="ET89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>-0.23065235802031098</v>
       </c>
       <c r="EU89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>-0.23669937352076836</v>
       </c>
       <c r="EV89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>-0.24072251323951199</v>
       </c>
       <c r="EW89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>-0.26454797243931771</v>
       </c>
       <c r="EX89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>-0.26554935001052543</v>
       </c>
       <c r="EY89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>-0.24418560556188507</v>
       </c>
       <c r="EZ89" s="28">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>0.35958369768358966</v>
       </c>
       <c r="FA89" s="28">
-        <f t="shared" ref="FA89" si="118">FA74/FA62</f>
+        <f t="shared" ref="FA89" si="135">FA74/FA62</f>
         <v>0.33671438352892469</v>
       </c>
       <c r="FI89" s="114" t="s">
@@ -33948,43 +33949,43 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="K90" s="28">
-        <f t="shared" ref="K90:R90" si="119">K75/K74</f>
+        <f t="shared" ref="K90:R90" si="136">K75/K74</f>
         <v>0.25301204819277107</v>
       </c>
       <c r="L90" s="28">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>0.24658897100625354</v>
       </c>
       <c r="M90" s="28">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>0.23280132085855806</v>
       </c>
       <c r="N90" s="28">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>0.22530864197530864</v>
       </c>
       <c r="O90" s="28">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>0.25570211596592468</v>
       </c>
       <c r="P90" s="28">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="Q90" s="28">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>0.2261760345059981</v>
       </c>
       <c r="R90" s="28">
-        <f t="shared" si="119"/>
+        <f t="shared" si="136"/>
         <v>0.19553805774278216</v>
       </c>
       <c r="S90" s="28">
-        <f t="shared" ref="S90:T90" si="120">S75/S74</f>
+        <f t="shared" ref="S90:T90" si="137">S75/S74</f>
         <v>0.23841059602649006</v>
       </c>
       <c r="T90" s="28">
-        <f t="shared" si="120"/>
+        <f t="shared" si="137"/>
         <v>0.14480646059593427</v>
       </c>
       <c r="U90" s="28"/>
@@ -34047,39 +34048,39 @@
         <v>0.2096890817064353</v>
       </c>
       <c r="EQ90" s="28">
-        <f t="shared" ref="EQ90:EY90" si="121">EQ75/EQ74</f>
+        <f t="shared" ref="EQ90:EY90" si="138">EQ75/EQ74</f>
         <v>0.19697097181320994</v>
       </c>
       <c r="ER90" s="28">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>0.24</v>
       </c>
       <c r="ES90" s="28">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>0.24</v>
       </c>
       <c r="ET90" s="28">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>0.24</v>
       </c>
       <c r="EU90" s="28">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>0.23999999999999996</v>
       </c>
       <c r="EV90" s="28">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>0.24</v>
       </c>
       <c r="EW90" s="28">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>0.24</v>
       </c>
       <c r="EX90" s="28">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>0.24</v>
       </c>
       <c r="EY90" s="28">
-        <f t="shared" si="121"/>
+        <f t="shared" si="138"/>
         <v>0.24</v>
       </c>
       <c r="EZ90" s="28">
@@ -34087,7 +34088,7 @@
         <v>0.17137135227922945</v>
       </c>
       <c r="FA90" s="28">
-        <f t="shared" ref="FA90" si="122">FA75/FA74</f>
+        <f t="shared" ref="FA90" si="139">FA75/FA74</f>
         <v>0.14541757306346353</v>
       </c>
       <c r="FI90" s="44"/>
@@ -34267,51 +34268,51 @@
         <v>0.17561949193815188</v>
       </c>
       <c r="EN91" s="29">
-        <f t="shared" ref="EN91:EY91" si="123">EN78/EN62</f>
+        <f t="shared" ref="EN91:EY91" si="140">EN78/EN62</f>
         <v>0.2106192023760842</v>
       </c>
       <c r="EO91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="EP91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>0.1800067616109538</v>
       </c>
       <c r="EQ91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>0.21967506054407374</v>
       </c>
       <c r="ER91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>-0.45934460335065086</v>
       </c>
       <c r="ES91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>-0.17293445376656688</v>
       </c>
       <c r="ET91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>-0.17529579209543633</v>
       </c>
       <c r="EU91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>-0.17989152387578397</v>
       </c>
       <c r="EV91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>-0.1829491100620291</v>
       </c>
       <c r="EW91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>-0.20105645905388148</v>
       </c>
       <c r="EX91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>-0.20181750600799933</v>
       </c>
       <c r="EY91" s="29">
-        <f t="shared" si="123"/>
+        <f t="shared" si="140"/>
         <v>-0.18558106022703266</v>
       </c>
       <c r="EZ91" s="29">
@@ -34496,43 +34497,43 @@
         <v>7.3267007224671055E-2</v>
       </c>
       <c r="K94" s="29">
-        <f t="shared" ref="K94:T94" si="124">K62/I62-1</f>
+        <f t="shared" ref="K94:T94" si="141">K62/I62-1</f>
         <v>0.19414029599326188</v>
       </c>
       <c r="L94" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>0.17486367727248653</v>
       </c>
       <c r="M94" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>0.1500327472416747</v>
       </c>
       <c r="N94" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>5.0198269646719584E-2</v>
       </c>
       <c r="O94" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>-3.6053795943400413E-2</v>
       </c>
       <c r="P94" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>1.3172573586200942E-2</v>
       </c>
       <c r="Q94" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>9.0983457553172054E-2</v>
       </c>
       <c r="R94" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>6.7886333799178411E-2</v>
       </c>
       <c r="S94" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>2.6243439140214875E-2</v>
       </c>
       <c r="T94" s="29">
-        <f t="shared" si="124"/>
+        <f t="shared" si="141"/>
         <v>-9.7120875634517767E-2</v>
       </c>
       <c r="U94" s="29"/>
@@ -34583,43 +34584,43 @@
       <c r="BN94" s="79"/>
       <c r="BO94" s="79"/>
       <c r="BP94" s="79">
-        <f t="shared" ref="BP94:BQ94" si="125">BP62/BL62-1</f>
+        <f t="shared" ref="BP94:BQ94" si="142">BP62/BL62-1</f>
         <v>2.3527361449982021E-3</v>
       </c>
       <c r="BQ94" s="79">
-        <f t="shared" si="125"/>
+        <f t="shared" si="142"/>
         <v>-1.7546658159196538E-3</v>
       </c>
       <c r="BR94" s="79">
-        <f t="shared" ref="BR94:BW94" si="126">BR62/BN62-1</f>
+        <f t="shared" ref="BR94:BW94" si="143">BR62/BN62-1</f>
         <v>6.0909583107742193E-2</v>
       </c>
       <c r="BS94" s="79">
-        <f t="shared" si="126"/>
+        <f t="shared" si="143"/>
         <v>0.1108959690195388</v>
       </c>
       <c r="BT94" s="79">
-        <f t="shared" si="126"/>
+        <f t="shared" si="143"/>
         <v>9.2236807789272346E-2</v>
       </c>
       <c r="BU94" s="79">
-        <f t="shared" si="126"/>
+        <f t="shared" si="143"/>
         <v>1.0866091403004097E-2</v>
       </c>
       <c r="BV94" s="79">
-        <f t="shared" si="126"/>
+        <f t="shared" si="143"/>
         <v>-0.33154716339202173</v>
       </c>
       <c r="BW94" s="79">
-        <f t="shared" si="126"/>
+        <f t="shared" si="143"/>
         <v>-1.8301378545396929E-2</v>
       </c>
       <c r="BX94" s="79">
-        <f t="shared" ref="BX94" si="127">BX62/BT62-1</f>
+        <f t="shared" ref="BX94" si="144">BX62/BT62-1</f>
         <v>-8.5402737981534527E-2</v>
       </c>
       <c r="BY94" s="79">
-        <f t="shared" ref="BY94" si="128">BY62/BU62-1</f>
+        <f t="shared" ref="BY94" si="145">BY62/BU62-1</f>
         <v>-0.10322478659500478</v>
       </c>
       <c r="BZ94" s="48"/>
@@ -34687,11 +34688,11 @@
       </c>
       <c r="EJ94" s="29"/>
       <c r="EK94" s="29">
-        <f t="shared" ref="EK94:EL94" si="129">EK62/EJ62-1</f>
+        <f t="shared" ref="EK94:EL94" si="146">EK62/EJ62-1</f>
         <v>0.20286565950816349</v>
       </c>
       <c r="EL94" s="29">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0.18388668299963395</v>
       </c>
       <c r="EM94" s="29">
@@ -34711,55 +34712,55 @@
         <v>-4.5750579695533866E-2</v>
       </c>
       <c r="EQ94" s="29">
-        <f t="shared" ref="EQ94:ES94" si="130">EQ62/EP62-1</f>
+        <f t="shared" ref="EQ94:ES94" si="147">EQ62/EP62-1</f>
         <v>-0.10131851413599291</v>
       </c>
       <c r="ER94" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="147"/>
         <v>-0.59721144576896856</v>
       </c>
       <c r="ES94" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="147"/>
         <v>1.7307220827739185</v>
       </c>
       <c r="ET94" s="29">
-        <f t="shared" ref="ET94" si="131">ET62/ES62-1</f>
+        <f t="shared" ref="ET94" si="148">ET62/ES62-1</f>
         <v>1.4578879863189398E-2</v>
       </c>
       <c r="EU94" s="29">
-        <f t="shared" ref="EU94" si="132">EU62/ET62-1</f>
+        <f t="shared" ref="EU94" si="149">EU62/ET62-1</f>
         <v>2.5072689730731845E-3</v>
       </c>
       <c r="EV94" s="29">
-        <f t="shared" ref="EV94" si="133">EV62/EU62-1</f>
+        <f t="shared" ref="EV94" si="150">EV62/EU62-1</f>
         <v>1.1937538092936295E-2</v>
       </c>
       <c r="EW94" s="29">
-        <f t="shared" ref="EW94" si="134">EW62/EV62-1</f>
+        <f t="shared" ref="EW94" si="151">EW62/EV62-1</f>
         <v>-6.3241188809736393E-2</v>
       </c>
       <c r="EX94" s="29">
-        <f t="shared" ref="EX94" si="135">EX62/EW62-1</f>
+        <f t="shared" ref="EX94" si="152">EX62/EW62-1</f>
         <v>2.5917878680383089E-2</v>
       </c>
       <c r="EY94" s="29">
-        <f t="shared" ref="EY94" si="136">EY62/EX62-1</f>
+        <f t="shared" ref="EY94" si="153">EY62/EX62-1</f>
         <v>0.12024290623041511</v>
       </c>
       <c r="EZ94" s="29">
-        <f t="shared" ref="EZ94" si="137">EZ62/EY62-1</f>
+        <f t="shared" ref="EZ94" si="154">EZ62/EY62-1</f>
         <v>0.12512298165403091</v>
       </c>
       <c r="FA94" s="29">
-        <f t="shared" ref="FA94:FC95" si="138">FA62/EZ62-1</f>
+        <f t="shared" ref="FA94:FC94" si="155">FA62/EZ62-1</f>
         <v>7.6779315192976982E-2</v>
       </c>
       <c r="FB94" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>-4.0158596200697394E-2</v>
       </c>
       <c r="FC94" s="29">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>-2.0056736176777945E-2</v>
       </c>
       <c r="FD94" s="48"/>
@@ -35775,63 +35776,63 @@
       <c r="EK100" s="29"/>
       <c r="EL100" s="29"/>
       <c r="EM100" s="81">
-        <f>EM6/EL6-1</f>
+        <f t="shared" ref="EM100:FA100" si="156">EM6/EL6-1</f>
         <v>6.8937921573110739E-2</v>
       </c>
       <c r="EN100" s="81">
-        <f>EN6/EM6-1</f>
+        <f t="shared" si="156"/>
         <v>3.2727272727272716E-2</v>
       </c>
       <c r="EO100" s="81">
-        <f>EO6/EN6-1</f>
+        <f t="shared" si="156"/>
         <v>4.1321458160729074E-2</v>
       </c>
       <c r="EP100" s="81">
-        <f>EP6/EO6-1</f>
+        <f t="shared" si="156"/>
         <v>3.5803083043262074E-2</v>
       </c>
       <c r="EQ100" s="81">
-        <f>EQ6/EP6-1</f>
+        <f t="shared" si="156"/>
         <v>-6.5098415746519422E-2</v>
       </c>
       <c r="ER100" s="81">
-        <f>ER6/EQ6-1</f>
+        <f t="shared" si="156"/>
         <v>-1</v>
       </c>
       <c r="ES100" s="81" t="e">
-        <f>ES6/ER6-1</f>
+        <f t="shared" si="156"/>
         <v>#DIV/0!</v>
       </c>
       <c r="ET100" s="81" t="e">
-        <f>ET6/ES6-1</f>
+        <f t="shared" si="156"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EU100" s="81" t="e">
-        <f>EU6/ET6-1</f>
+        <f t="shared" si="156"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EV100" s="81" t="e">
-        <f>EV6/EU6-1</f>
+        <f t="shared" si="156"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EW100" s="81" t="e">
-        <f>EW6/EV6-1</f>
+        <f t="shared" si="156"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EX100" s="81">
-        <f>EX6/EW6-1</f>
+        <f t="shared" si="156"/>
         <v>6.6230648232469491E-2</v>
       </c>
       <c r="EY100" s="81">
-        <f>EY6/EX6-1</f>
+        <f t="shared" si="156"/>
         <v>5.5128503765820014E-3</v>
       </c>
       <c r="EZ100" s="81">
-        <f>EZ6/EY6-1</f>
+        <f t="shared" si="156"/>
         <v>6.4942084942084977E-2</v>
       </c>
       <c r="FA100" s="81">
-        <f>FA6/EZ6-1</f>
+        <f t="shared" si="156"/>
         <v>0.2877963889493147</v>
       </c>
       <c r="FC100" s="48"/>
@@ -36083,15 +36084,15 @@
       </c>
       <c r="EJ102" s="28"/>
       <c r="EK102" s="28">
-        <f t="shared" ref="EK102:EM104" si="139">EK66/EJ66-1</f>
+        <f t="shared" ref="EK102:EM104" si="157">EK66/EJ66-1</f>
         <v>0.14020148716718639</v>
       </c>
       <c r="EL102" s="28">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.14189544546123911</v>
       </c>
       <c r="EM102" s="28">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>-0.14084377302873985</v>
       </c>
       <c r="EN102" s="28">
@@ -36271,15 +36272,15 @@
       </c>
       <c r="EJ103" s="28"/>
       <c r="EK103" s="28">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.10743405275779372</v>
       </c>
       <c r="EL103" s="28">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.10090948462537885</v>
       </c>
       <c r="EM103" s="28">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>-3.5011801730920555E-2</v>
       </c>
       <c r="EN103" s="29">
@@ -36462,15 +36463,15 @@
       </c>
       <c r="EJ104" s="28"/>
       <c r="EK104" s="28">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.10690725649980592</v>
       </c>
       <c r="EL104" s="28">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.15495179666958814</v>
       </c>
       <c r="EM104" s="28">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.2725755046289271</v>
       </c>
       <c r="EN104" s="29">
@@ -37891,115 +37892,115 @@
       <c r="AZ117" s="48"/>
       <c r="BA117" s="48"/>
       <c r="BB117" s="79">
-        <f>BB20/AX20-1</f>
+        <f t="shared" ref="BB117:CC117" si="158">BB20/AX20-1</f>
         <v>0.18797953964194369</v>
       </c>
       <c r="BC117" s="79">
-        <f>BC20/AY20-1</f>
+        <f t="shared" si="158"/>
         <v>0.20546318289786214</v>
       </c>
       <c r="BD117" s="79">
-        <f>BD20/AZ20-1</f>
+        <f t="shared" si="158"/>
         <v>0.20113636363636367</v>
       </c>
       <c r="BE117" s="79">
-        <f>BE20/BA20-1</f>
+        <f t="shared" si="158"/>
         <v>0.31922196796338675</v>
       </c>
       <c r="BF117" s="79">
-        <f>BF20/BB20-1</f>
+        <f t="shared" si="158"/>
         <v>0.23358449946178683</v>
       </c>
       <c r="BG117" s="79">
-        <f>BG20/BC20-1</f>
+        <f t="shared" si="158"/>
         <v>0.18423645320197046</v>
       </c>
       <c r="BH117" s="79">
-        <f>BH20/BD20-1</f>
+        <f t="shared" si="158"/>
         <v>0.11352885525070966</v>
       </c>
       <c r="BI117" s="79">
-        <f>BI20/BE20-1</f>
+        <f t="shared" si="158"/>
         <v>0.1396357328707718</v>
       </c>
       <c r="BJ117" s="79">
-        <f>BJ20/BF20-1</f>
+        <f t="shared" si="158"/>
         <v>0.14223385689354284</v>
       </c>
       <c r="BK117" s="79">
-        <f>BK20/BG20-1</f>
+        <f t="shared" si="158"/>
         <v>0.16056572379367728</v>
       </c>
       <c r="BL117" s="79">
-        <f>BL20/BH20-1</f>
+        <f t="shared" si="158"/>
         <v>0.1724723874256584</v>
       </c>
       <c r="BM117" s="79">
-        <f>BM20/BI20-1</f>
+        <f t="shared" si="158"/>
         <v>8.9802130898021248E-2</v>
       </c>
       <c r="BN117" s="79">
-        <f>BN20/BJ20-1</f>
+        <f t="shared" si="158"/>
         <v>7.4866310160427885E-2</v>
       </c>
       <c r="BO117" s="79">
-        <f>BO20/BK20-1</f>
+        <f t="shared" si="158"/>
         <v>4.6594982078853153E-2</v>
       </c>
       <c r="BP117" s="79">
-        <f>BP20/BL20-1</f>
+        <f t="shared" si="158"/>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="BQ117" s="79">
-        <f>BQ20/BM20-1</f>
+        <f t="shared" si="158"/>
         <v>0.1061452513966481</v>
       </c>
       <c r="BR117" s="79">
-        <f>BR20/BN20-1</f>
+        <f t="shared" si="158"/>
         <v>5.2594171997156991E-2</v>
       </c>
       <c r="BS117" s="79">
-        <f>BS20/BO20-1</f>
+        <f t="shared" si="158"/>
         <v>0.10753424657534238</v>
       </c>
       <c r="BT117" s="79">
-        <f>BT20/BP20-1</f>
+        <f t="shared" si="158"/>
         <v>2.4456521739130377E-2</v>
       </c>
       <c r="BU117" s="79">
-        <f>BU20/BQ20-1</f>
+        <f t="shared" si="158"/>
         <v>-6.5025252525252486E-2</v>
       </c>
       <c r="BV117" s="79">
-        <f>BV20/BR20-1</f>
+        <f t="shared" si="158"/>
         <v>8.4402430790006644E-2</v>
       </c>
       <c r="BW117" s="79">
-        <f>BW20/BS20-1</f>
+        <f t="shared" si="158"/>
         <v>4.8237476808905333E-2</v>
       </c>
       <c r="BX117" s="79">
-        <f>BX20/BT20-1</f>
+        <f t="shared" si="158"/>
         <v>7.9575596816976457E-3</v>
       </c>
       <c r="BY117" s="79">
-        <f>BY20/BU20-1</f>
+        <f t="shared" si="158"/>
         <v>3.6461850101283E-2</v>
       </c>
       <c r="BZ117" s="79">
-        <f>BZ20/BV20-1</f>
+        <f t="shared" si="158"/>
         <v>-3.1133250311332517E-2</v>
       </c>
       <c r="CA117" s="79">
-        <f>CA20/BW20-1</f>
+        <f t="shared" si="158"/>
         <v>-0.11504424778761058</v>
       </c>
       <c r="CB117" s="79">
-        <f>CB20/BX20-1</f>
+        <f t="shared" si="158"/>
         <v>-0.10460526315789476</v>
       </c>
       <c r="CC117" s="79">
-        <f>CC20/BY20-1</f>
+        <f t="shared" si="158"/>
         <v>3.4527687296416865E-2</v>
       </c>
       <c r="CD117" s="79"/>
@@ -38138,115 +38139,115 @@
       <c r="AZ118" s="48"/>
       <c r="BA118" s="48"/>
       <c r="BB118" s="79">
-        <f>BB18/AX18-1</f>
+        <f t="shared" ref="BB118:CC118" si="159">BB18/AX18-1</f>
         <v>0.19207317073170738</v>
       </c>
       <c r="BC118" s="79">
-        <f>BC18/AY18-1</f>
+        <f t="shared" si="159"/>
         <v>0.2921348314606742</v>
       </c>
       <c r="BD118" s="79">
-        <f>BD18/AZ18-1</f>
+        <f t="shared" si="159"/>
         <v>0.58445040214477206</v>
       </c>
       <c r="BE118" s="79">
-        <f>BE18/BA18-1</f>
+        <f t="shared" si="159"/>
         <v>0.86387535984716535</v>
       </c>
       <c r="BF118" s="79">
-        <f>BF18/BB18-1</f>
+        <f t="shared" si="159"/>
         <v>1.2020460358056266</v>
       </c>
       <c r="BG118" s="79">
-        <f>BG18/BC18-1</f>
+        <f t="shared" si="159"/>
         <v>1.0695652173913044</v>
       </c>
       <c r="BH118" s="79">
-        <f>BH18/BD18-1</f>
+        <f t="shared" si="159"/>
         <v>0.7072758037225042</v>
       </c>
       <c r="BI118" s="79">
-        <f>BI18/BE18-1</f>
+        <f t="shared" si="159"/>
         <v>0.56960227272727271</v>
       </c>
       <c r="BJ118" s="79">
-        <f>BJ18/BF18-1</f>
+        <f t="shared" si="159"/>
         <v>0.35656213704994189</v>
       </c>
       <c r="BK118" s="79">
-        <f>BK18/BG18-1</f>
+        <f t="shared" si="159"/>
         <v>0.27521008403361336</v>
       </c>
       <c r="BL118" s="79">
-        <f>BL18/BH18-1</f>
+        <f t="shared" si="159"/>
         <v>0.19821605550049548</v>
       </c>
       <c r="BM118" s="79">
-        <f>BM18/BI18-1</f>
+        <f t="shared" si="159"/>
         <v>0.14117647058823524</v>
       </c>
       <c r="BN118" s="79">
-        <f>BN18/BJ18-1</f>
+        <f t="shared" si="159"/>
         <v>4.8801369863013644E-2</v>
       </c>
       <c r="BO118" s="79">
-        <f>BO18/BK18-1</f>
+        <f t="shared" si="159"/>
         <v>2.883031301482708E-2</v>
       </c>
       <c r="BP118" s="79">
-        <f>BP18/BL18-1</f>
+        <f t="shared" si="159"/>
         <v>7.1133167907361461E-2</v>
       </c>
       <c r="BQ118" s="79">
-        <f>BQ18/BM18-1</f>
+        <f t="shared" si="159"/>
         <v>4.9167327517843029E-2</v>
       </c>
       <c r="BR118" s="79">
-        <f>BR18/BN18-1</f>
+        <f t="shared" si="159"/>
         <v>6.6938775510203996E-2</v>
       </c>
       <c r="BS118" s="79">
-        <f>BS18/BO18-1</f>
+        <f t="shared" si="159"/>
         <v>7.125700560448367E-2</v>
       </c>
       <c r="BT118" s="79">
-        <f>BT18/BP18-1</f>
+        <f t="shared" si="159"/>
         <v>2.4710424710424617E-2</v>
       </c>
       <c r="BU118" s="79">
-        <f>BU18/BQ18-1</f>
+        <f t="shared" si="159"/>
         <v>-2.1919879062736181E-2</v>
       </c>
       <c r="BV118" s="79">
-        <f>BV18/BR18-1</f>
+        <f t="shared" si="159"/>
         <v>8.4162203519510426E-2</v>
       </c>
       <c r="BW118" s="79">
-        <f>BW18/BS18-1</f>
+        <f t="shared" si="159"/>
         <v>3.811659192825112E-2</v>
       </c>
       <c r="BX118" s="79">
-        <f>BX18/BT18-1</f>
+        <f t="shared" si="159"/>
         <v>2.2607385079125741E-2</v>
       </c>
       <c r="BY118" s="79">
-        <f>BY18/BU18-1</f>
+        <f t="shared" si="159"/>
         <v>-2.1638330757341562E-2</v>
       </c>
       <c r="BZ118" s="79">
-        <f>BZ18/BV18-1</f>
+        <f t="shared" si="159"/>
         <v>-2.1877205363443841E-2</v>
       </c>
       <c r="CA118" s="79">
-        <f>CA18/BW18-1</f>
+        <f t="shared" si="159"/>
         <v>-4.2476601871850206E-2</v>
       </c>
       <c r="CB118" s="79">
-        <f>CB18/BX18-1</f>
+        <f t="shared" si="159"/>
         <v>-0.12380250552689753</v>
       </c>
       <c r="CC118" s="79">
-        <f>CC18/BY18-1</f>
+        <f t="shared" si="159"/>
         <v>6.4770932069510234E-2</v>
       </c>
       <c r="CD118" s="79"/>
@@ -38385,115 +38386,115 @@
       <c r="AZ119" s="48"/>
       <c r="BA119" s="48"/>
       <c r="BB119" s="79">
-        <f>BB22/AX22-1</f>
+        <f t="shared" ref="BB119:CC119" si="160">BB22/AX22-1</f>
         <v>4.416666666666667</v>
       </c>
       <c r="BC119" s="79">
-        <f>BC22/AY22-1</f>
+        <f t="shared" si="160"/>
         <v>1.0532544378698225</v>
       </c>
       <c r="BD119" s="79">
-        <f>BD22/AZ22-1</f>
+        <f t="shared" si="160"/>
         <v>1.0680851063829788</v>
       </c>
       <c r="BE119" s="79">
-        <f>BE22/BA22-1</f>
+        <f t="shared" si="160"/>
         <v>1.403361344537815</v>
       </c>
       <c r="BF119" s="79">
-        <f>BF22/BB22-1</f>
+        <f t="shared" si="160"/>
         <v>1.6</v>
       </c>
       <c r="BG119" s="79">
-        <f>BG22/BC22-1</f>
+        <f t="shared" si="160"/>
         <v>1.0547550432276656</v>
       </c>
       <c r="BH119" s="79">
-        <f>BH22/BD22-1</f>
+        <f t="shared" si="160"/>
         <v>0.52469135802469147</v>
       </c>
       <c r="BI119" s="79">
-        <f>BI22/BE22-1</f>
+        <f t="shared" si="160"/>
         <v>0.45454545454545459</v>
       </c>
       <c r="BJ119" s="79">
-        <f>BJ22/BF22-1</f>
+        <f t="shared" si="160"/>
         <v>0.36538461538461542</v>
       </c>
       <c r="BK119" s="79">
-        <f>BK22/BG22-1</f>
+        <f t="shared" si="160"/>
         <v>0.38288920056100983</v>
       </c>
       <c r="BL119" s="79">
-        <f>BL22/BH22-1</f>
+        <f t="shared" si="160"/>
         <v>0.4331983805668016</v>
       </c>
       <c r="BM119" s="79">
-        <f>BM22/BI22-1</f>
+        <f t="shared" si="160"/>
         <v>0.36418269230769229</v>
       </c>
       <c r="BN119" s="79">
-        <f>BN22/BJ22-1</f>
+        <f t="shared" si="160"/>
         <v>0.22535211267605626</v>
       </c>
       <c r="BO119" s="79">
-        <f>BO22/BK22-1</f>
+        <f t="shared" si="160"/>
         <v>0.23732251521298164</v>
       </c>
       <c r="BP119" s="79">
-        <f>BP22/BL22-1</f>
+        <f t="shared" si="160"/>
         <v>0.27212806026365355</v>
       </c>
       <c r="BQ119" s="79">
-        <f>BQ22/BM22-1</f>
+        <f t="shared" si="160"/>
         <v>0.32599118942731287</v>
       </c>
       <c r="BR119" s="79">
-        <f>BR22/BN22-1</f>
+        <f t="shared" si="160"/>
         <v>0.31299734748010599</v>
       </c>
       <c r="BS119" s="79">
-        <f>BS22/BO22-1</f>
+        <f t="shared" si="160"/>
         <v>0.31557377049180335</v>
       </c>
       <c r="BT119" s="79">
-        <f>BT22/BP22-1</f>
+        <f t="shared" si="160"/>
         <v>0.17986676535899337</v>
       </c>
       <c r="BU119" s="79">
-        <f>BU22/BQ22-1</f>
+        <f t="shared" si="160"/>
         <v>2.1926910299003399E-2</v>
       </c>
       <c r="BV119" s="79">
-        <f>BV22/BR22-1</f>
+        <f t="shared" si="160"/>
         <v>0.12188552188552193</v>
       </c>
       <c r="BW119" s="79">
-        <f>BW22/BS22-1</f>
+        <f t="shared" si="160"/>
         <v>7.6012461059190128E-2</v>
       </c>
       <c r="BX119" s="79">
-        <f>BX22/BT22-1</f>
+        <f t="shared" si="160"/>
         <v>8.7829360100375453E-3</v>
       </c>
       <c r="BY119" s="79">
-        <f>BY22/BU22-1</f>
+        <f t="shared" si="160"/>
         <v>-5.0715214564369338E-2</v>
       </c>
       <c r="BZ119" s="79">
-        <f>BZ22/BV22-1</f>
+        <f t="shared" si="160"/>
         <v>-0.1494597839135654</v>
       </c>
       <c r="CA119" s="79">
-        <f>CA22/BW22-1</f>
+        <f t="shared" si="160"/>
         <v>-0.2420382165605095</v>
       </c>
       <c r="CB119" s="79">
-        <f>CB22/BX22-1</f>
+        <f t="shared" si="160"/>
         <v>-0.24378109452736318</v>
       </c>
       <c r="CC119" s="79">
-        <f>CC22/BY22-1</f>
+        <f t="shared" si="160"/>
         <v>-7.5342465753424626E-2</v>
       </c>
       <c r="CD119" s="79"/>
@@ -38632,87 +38633,87 @@
       <c r="AZ120" s="93"/>
       <c r="BA120" s="93"/>
       <c r="BB120" s="94">
-        <f t="shared" ref="BB120:BV120" si="140">BB38/AX38-1</f>
+        <f t="shared" ref="BB120:BV120" si="161">BB38/AX38-1</f>
         <v>5.5214723926380271E-2</v>
       </c>
       <c r="BC120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>7.344632768361592E-2</v>
       </c>
       <c r="BD120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>6.8181818181818121E-2</v>
       </c>
       <c r="BE120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>0.12734082397003754</v>
       </c>
       <c r="BF120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>3.6821705426356655E-2</v>
       </c>
       <c r="BG120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-8.7719298245614308E-3</v>
       </c>
       <c r="BH120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-5.1418439716312103E-2</v>
       </c>
       <c r="BI120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-1.6611295681063121E-2</v>
       </c>
       <c r="BJ120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-2.4299065420560706E-2</v>
       </c>
       <c r="BK120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-3.7168141592920367E-2</v>
       </c>
       <c r="BL120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-3.1775700934579487E-2</v>
       </c>
       <c r="BM120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-0.13851351351351349</v>
       </c>
       <c r="BN120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-0.15325670498084287</v>
       </c>
       <c r="BO120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-0.17279411764705888</v>
       </c>
       <c r="BP120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-0.17567567567567566</v>
       </c>
       <c r="BQ120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-0.10784313725490191</v>
       </c>
       <c r="BR120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-0.14479638009049778</v>
       </c>
       <c r="BS120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-8.666666666666667E-2</v>
       </c>
       <c r="BT120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-8.4309133489461341E-2</v>
       </c>
       <c r="BU120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-0.1648351648351648</v>
       </c>
       <c r="BV120" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="161"/>
         <v>-0.10317460317460314</v>
       </c>
       <c r="BW120" s="94"/>
@@ -38858,87 +38859,87 @@
       <c r="AZ121" s="93"/>
       <c r="BA121" s="93"/>
       <c r="BB121" s="94">
-        <f t="shared" ref="BB121:BV121" si="141">BB43/AX43-1</f>
+        <f t="shared" ref="BB121:BV121" si="162">BB43/AX43-1</f>
         <v>2.925925925925926</v>
       </c>
       <c r="BC121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>7.2105263157894743</v>
       </c>
       <c r="BD121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>1.5363636363636362</v>
       </c>
       <c r="BE121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>6.5161290322580649</v>
       </c>
       <c r="BF121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>0.41745283018867929</v>
       </c>
       <c r="BG121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>1.3076923076923075</v>
       </c>
       <c r="BH121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>1.3978494623655915</v>
       </c>
       <c r="BI121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>0.42632331902718179</v>
       </c>
       <c r="BJ121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>0.43926788685524132</v>
       </c>
       <c r="BK121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>0.25277777777777777</v>
       </c>
       <c r="BL121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>-0.61584454409566525</v>
       </c>
       <c r="BM121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>-0.48645937813440321</v>
       </c>
       <c r="BN121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>-0.67861271676300583</v>
       </c>
       <c r="BO121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>-0.89135254988913526</v>
       </c>
       <c r="BP121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>-0.60700389105058372</v>
       </c>
       <c r="BQ121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>-0.646484375</v>
       </c>
       <c r="BR121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>0.44244604316546754</v>
       </c>
       <c r="BS121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>11.428571428571429</v>
       </c>
       <c r="BT121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>8.8415841584158414</v>
       </c>
       <c r="BU121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>5.6077348066298338</v>
       </c>
       <c r="BV121" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="162"/>
         <v>0.28927680798004984</v>
       </c>
       <c r="BW121" s="94"/>
@@ -39084,87 +39085,87 @@
       <c r="AZ122" s="93"/>
       <c r="BA122" s="93"/>
       <c r="BB122" s="94">
-        <f>BB28/AX28-1</f>
+        <f t="shared" ref="BB122:BV122" si="163">BB28/AX28-1</f>
         <v>2.7100271002709064E-3</v>
       </c>
       <c r="BC122" s="94">
-        <f>BC28/AY28-1</f>
+        <f t="shared" si="163"/>
         <v>0.22857142857142865</v>
       </c>
       <c r="BD122" s="94">
-        <f>BD28/AZ28-1</f>
+        <f t="shared" si="163"/>
         <v>0.3086053412462908</v>
       </c>
       <c r="BE122" s="94">
-        <f>BE28/BA28-1</f>
+        <f t="shared" si="163"/>
         <v>0.33717579250720453</v>
       </c>
       <c r="BF122" s="94">
-        <f>BF28/BB28-1</f>
+        <f t="shared" si="163"/>
         <v>0.22702702702702693</v>
       </c>
       <c r="BG122" s="94">
-        <f>BG28/BC28-1</f>
+        <f t="shared" si="163"/>
         <v>1.6279069767441756E-2</v>
       </c>
       <c r="BH122" s="94">
-        <f>BH28/BD28-1</f>
+        <f t="shared" si="163"/>
         <v>5.6689342403628107E-2</v>
       </c>
       <c r="BI122" s="94">
-        <f>BI28/BE28-1</f>
+        <f t="shared" si="163"/>
         <v>4.5258620689655249E-2</v>
       </c>
       <c r="BJ122" s="94">
-        <f>BJ28/BF28-1</f>
+        <f t="shared" si="163"/>
         <v>4.8458149779735615E-2</v>
       </c>
       <c r="BK122" s="94">
-        <f>BK28/BG28-1</f>
+        <f t="shared" si="163"/>
         <v>0.15102974828375282</v>
       </c>
       <c r="BL122" s="94">
-        <f>BL28/BH28-1</f>
+        <f t="shared" si="163"/>
         <v>4.0772532188841248E-2</v>
       </c>
       <c r="BM122" s="94">
-        <f>BM28/BI28-1</f>
+        <f t="shared" si="163"/>
         <v>0.12989690721649483</v>
       </c>
       <c r="BN122" s="94">
-        <f>BN28/BJ28-1</f>
+        <f t="shared" si="163"/>
         <v>2.3109243697478909E-2</v>
       </c>
       <c r="BO122" s="94">
-        <f>BO28/BK28-1</f>
+        <f t="shared" si="163"/>
         <v>3.9761431411530879E-2</v>
       </c>
       <c r="BP122" s="94">
-        <f>BP28/BL28-1</f>
+        <f t="shared" si="163"/>
         <v>5.7731958762886615E-2</v>
       </c>
       <c r="BQ122" s="94">
-        <f>BQ28/BM28-1</f>
+        <f t="shared" si="163"/>
         <v>5.1094890510948954E-2</v>
       </c>
       <c r="BR122" s="94">
-        <f>BR28/BN28-1</f>
+        <f t="shared" si="163"/>
         <v>6.1601642710472193E-2</v>
       </c>
       <c r="BS122" s="94">
-        <f>BS28/BO28-1</f>
+        <f t="shared" si="163"/>
         <v>-0.21606118546845121</v>
       </c>
       <c r="BT122" s="94">
-        <f>BT28/BP28-1</f>
+        <f t="shared" si="163"/>
         <v>-0.29434697855750491</v>
       </c>
       <c r="BU122" s="94">
-        <f>BU28/BQ28-1</f>
+        <f t="shared" si="163"/>
         <v>-0.50173611111111116</v>
       </c>
       <c r="BV122" s="94">
-        <f>BV28/BR28-1</f>
+        <f t="shared" si="163"/>
         <v>-0.30947775628626695</v>
       </c>
       <c r="BW122" s="94"/>
@@ -39310,87 +39311,87 @@
       <c r="AZ123" s="93"/>
       <c r="BA123" s="93"/>
       <c r="BB123" s="94">
-        <f t="shared" ref="BB123:BK124" si="142">BB39/AX39-1</f>
+        <f t="shared" ref="BB123:BK124" si="164">BB39/AX39-1</f>
         <v>0.12456747404844282</v>
       </c>
       <c r="BC123" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.20338983050847448</v>
       </c>
       <c r="BD123" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.18243243243243246</v>
       </c>
       <c r="BE123" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.24749163879598668</v>
       </c>
       <c r="BF123" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="BG123" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>5.3521126760563309E-2</v>
       </c>
       <c r="BH123" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="BI123" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>5.3619302949061698E-2</v>
       </c>
       <c r="BJ123" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.14285714285714279</v>
       </c>
       <c r="BK123" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>8.8235294117646967E-2</v>
       </c>
       <c r="BL123" s="94">
-        <f t="shared" ref="BL123:BU124" si="143">BL39/BH39-1</f>
+        <f t="shared" ref="BL123:BU124" si="165">BL39/BH39-1</f>
         <v>9.4285714285714306E-2</v>
       </c>
       <c r="BM123" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>0.13740458015267176</v>
       </c>
       <c r="BN123" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>-7.7500000000000013E-2</v>
       </c>
       <c r="BO123" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>2.2113022113022129E-2</v>
       </c>
       <c r="BP123" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>5.7441253263707637E-2</v>
       </c>
       <c r="BQ123" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>-4.4742729306487261E-3</v>
       </c>
       <c r="BR123" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>6.5040650406503975E-2</v>
       </c>
       <c r="BS123" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>7.9326923076923128E-2</v>
       </c>
       <c r="BT123" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>8.1481481481481488E-2</v>
       </c>
       <c r="BU123" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>-0.15730337078651691</v>
       </c>
       <c r="BV123" s="94">
-        <f t="shared" ref="BV123:BV124" si="144">BV39/BR39-1</f>
+        <f t="shared" ref="BV123:BV124" si="166">BV39/BR39-1</f>
         <v>0.12213740458015265</v>
       </c>
       <c r="BW123" s="94"/>
@@ -39536,87 +39537,87 @@
       <c r="AZ124" s="93"/>
       <c r="BA124" s="93"/>
       <c r="BB124" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.43478260869565211</v>
       </c>
       <c r="BC124" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.484375</v>
       </c>
       <c r="BD124" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.46896551724137936</v>
       </c>
       <c r="BE124" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.56164383561643838</v>
       </c>
       <c r="BF124" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.44242424242424239</v>
       </c>
       <c r="BG124" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.23157894736842111</v>
       </c>
       <c r="BH124" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.1220657276995305</v>
       </c>
       <c r="BI124" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.14035087719298245</v>
       </c>
       <c r="BJ124" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.12184873949579833</v>
       </c>
       <c r="BK124" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="164"/>
         <v>0.20512820512820507</v>
       </c>
       <c r="BL124" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>0.21338912133891208</v>
       </c>
       <c r="BM124" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BN124" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>5.2434456928838857E-2</v>
       </c>
       <c r="BO124" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>3.5460992907801359E-2</v>
       </c>
       <c r="BP124" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>5.862068965517242E-2</v>
       </c>
       <c r="BQ124" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>6.0897435897435903E-2</v>
       </c>
       <c r="BR124" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>5.3380782918149405E-2</v>
       </c>
       <c r="BS124" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>0.13013698630136994</v>
       </c>
       <c r="BT124" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>6.1889250814332275E-2</v>
       </c>
       <c r="BU124" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="165"/>
         <v>-6.9486404833836835E-2</v>
       </c>
       <c r="BV124" s="94">
-        <f t="shared" si="144"/>
+        <f t="shared" si="166"/>
         <v>0.18918918918918926</v>
       </c>
       <c r="BW124" s="94"/>
@@ -39765,75 +39766,75 @@
       <c r="BC125" s="94"/>
       <c r="BD125" s="94"/>
       <c r="BE125" s="94">
-        <f t="shared" ref="BE125:BV125" si="145">BE41/BA41-1</f>
+        <f t="shared" ref="BE125:BV125" si="167">BE41/BA41-1</f>
         <v>7.2941176470588243</v>
       </c>
       <c r="BF125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>2.0175438596491229</v>
       </c>
       <c r="BG125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>1.2159090909090908</v>
       </c>
       <c r="BH125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>1.0891089108910892</v>
       </c>
       <c r="BI125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="BJ125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>0.41279069767441867</v>
       </c>
       <c r="BK125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="BL125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>0.28436018957345977</v>
       </c>
       <c r="BM125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>0.22553191489361701</v>
       </c>
       <c r="BN125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>0.17695473251028804</v>
       </c>
       <c r="BO125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>0.1576923076923078</v>
       </c>
       <c r="BP125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>9.9630996309963082E-2</v>
       </c>
       <c r="BQ125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>0.14583333333333326</v>
       </c>
       <c r="BR125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>0.11888111888111896</v>
       </c>
       <c r="BS125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>7.3089700996677776E-2</v>
       </c>
       <c r="BT125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>7.0469798657718075E-2</v>
       </c>
       <c r="BU125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>3.6363636363636376E-2</v>
       </c>
       <c r="BV125" s="94">
-        <f t="shared" si="145"/>
+        <f t="shared" si="167"/>
         <v>1.8750000000000044E-2</v>
       </c>
       <c r="BW125" s="94"/>
@@ -39989,47 +39990,47 @@
       <c r="BJ126" s="66"/>
       <c r="BK126" s="66"/>
       <c r="BL126" s="94">
-        <f>BL24/BH24-1</f>
+        <f t="shared" ref="BL126:BV126" si="168">BL24/BH24-1</f>
         <v>0.24479166666666674</v>
       </c>
       <c r="BM126" s="94">
-        <f>BM24/BI24-1</f>
+        <f t="shared" si="168"/>
         <v>-0.1648351648351648</v>
       </c>
       <c r="BN126" s="94">
-        <f>BN24/BJ24-1</f>
+        <f t="shared" si="168"/>
         <v>-0.18250950570342206</v>
       </c>
       <c r="BO126" s="94">
-        <f>BO24/BK24-1</f>
+        <f t="shared" si="168"/>
         <v>-0.13793103448275867</v>
       </c>
       <c r="BP126" s="94">
-        <f>BP24/BL24-1</f>
+        <f t="shared" si="168"/>
         <v>2.9288702928870203E-2</v>
       </c>
       <c r="BQ126" s="94">
-        <f>BQ24/BM24-1</f>
+        <f t="shared" si="168"/>
         <v>0.20175438596491224</v>
       </c>
       <c r="BR126" s="94">
-        <f>BR24/BN24-1</f>
+        <f t="shared" si="168"/>
         <v>0.29767441860465116</v>
       </c>
       <c r="BS126" s="94">
-        <f>BS24/BO24-1</f>
+        <f t="shared" si="168"/>
         <v>0.30666666666666664</v>
       </c>
       <c r="BT126" s="94">
-        <f>BT24/BP24-1</f>
+        <f t="shared" si="168"/>
         <v>0.20325203252032531</v>
       </c>
       <c r="BU126" s="94">
-        <f>BU24/BQ24-1</f>
+        <f t="shared" si="168"/>
         <v>0.2007299270072993</v>
       </c>
       <c r="BV126" s="94">
-        <f>BV24/BR24-1</f>
+        <f t="shared" si="168"/>
         <v>0.17204301075268824</v>
       </c>
       <c r="BW126" s="94"/>
@@ -40180,67 +40181,67 @@
       <c r="BE127" s="94"/>
       <c r="BF127" s="94"/>
       <c r="BG127" s="94">
-        <f t="shared" ref="BG127:BV127" si="146">BG42/BC42-1</f>
+        <f t="shared" ref="BG127:BV127" si="169">BG42/BC42-1</f>
         <v>3.3809523809523814</v>
       </c>
       <c r="BH127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>9.1428571428571423</v>
       </c>
       <c r="BI127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>2.5098039215686274</v>
       </c>
       <c r="BJ127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>1.2666666666666666</v>
       </c>
       <c r="BK127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>1.2173913043478262</v>
       </c>
       <c r="BL127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>0.61971830985915499</v>
       </c>
       <c r="BM127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>0.58100558659217882</v>
       </c>
       <c r="BN127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>0.41764705882352948</v>
       </c>
       <c r="BO127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>0.30392156862745101</v>
       </c>
       <c r="BP127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>0.16521739130434776</v>
       </c>
       <c r="BQ127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>0.1766784452296819</v>
       </c>
       <c r="BR127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>3.3195020746888071E-2</v>
       </c>
       <c r="BS127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>3.7593984962406068E-2</v>
       </c>
       <c r="BT127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>-4.8507462686567138E-2</v>
       </c>
       <c r="BU127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>-0.16516516516516522</v>
       </c>
       <c r="BV127" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="169"/>
         <v>0.11244979919678721</v>
       </c>
       <c r="BW127" s="94"/>
@@ -40386,87 +40387,87 @@
       <c r="AZ128" s="93"/>
       <c r="BA128" s="93"/>
       <c r="BB128" s="94">
-        <f t="shared" ref="BB128:BV128" si="147">BB49/AX49-1</f>
+        <f t="shared" ref="BB128:BV128" si="170">BB49/AX49-1</f>
         <v>6.8493150684931781E-3</v>
       </c>
       <c r="BC128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="BD128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>0.11724137931034484</v>
       </c>
       <c r="BE128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>0.17518248175182483</v>
       </c>
       <c r="BF128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>0.23129251700680276</v>
       </c>
       <c r="BG128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>0.10303030303030303</v>
       </c>
       <c r="BH128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-1.2345679012345734E-2</v>
       </c>
       <c r="BI128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>5.5900621118012417E-2</v>
       </c>
       <c r="BJ128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-9.9447513812154664E-2</v>
       </c>
       <c r="BK128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-3.2967032967032961E-2</v>
       </c>
       <c r="BL128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-5.6250000000000022E-2</v>
       </c>
       <c r="BM128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-0.16470588235294115</v>
       </c>
       <c r="BN128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-0.16564417177914115</v>
       </c>
       <c r="BO128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-0.27272727272727271</v>
       </c>
       <c r="BP128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-0.16556291390728473</v>
       </c>
       <c r="BQ128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-0.21126760563380287</v>
       </c>
       <c r="BR128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-0.24264705882352944</v>
       </c>
       <c r="BS128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-0.171875</v>
       </c>
       <c r="BT128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-0.22222222222222221</v>
       </c>
       <c r="BU128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-0.1964285714285714</v>
       </c>
       <c r="BV128" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="170"/>
         <v>-0.11650485436893199</v>
       </c>
       <c r="BW128" s="94"/>
@@ -40612,87 +40613,87 @@
       <c r="AZ129" s="93"/>
       <c r="BA129" s="93"/>
       <c r="BB129" s="94">
-        <f>BB15/AX15-1</f>
+        <f t="shared" ref="BB129:BV129" si="171">BB15/AX15-1</f>
         <v>1.1315789473684212</v>
       </c>
       <c r="BC129" s="94">
-        <f>BC15/AY15-1</f>
+        <f t="shared" si="171"/>
         <v>0.81818181818181812</v>
       </c>
       <c r="BD129" s="94">
-        <f>BD15/AZ15-1</f>
+        <f t="shared" si="171"/>
         <v>0.52941176470588225</v>
       </c>
       <c r="BE129" s="94">
-        <f>BE15/BA15-1</f>
+        <f t="shared" si="171"/>
         <v>0.68493150684931514</v>
       </c>
       <c r="BF129" s="94">
-        <f>BF15/BB15-1</f>
+        <f t="shared" si="171"/>
         <v>0.53086419753086411</v>
       </c>
       <c r="BG129" s="94">
-        <f>BG15/BC15-1</f>
+        <f t="shared" si="171"/>
         <v>0.33000000000000007</v>
       </c>
       <c r="BH129" s="94">
-        <f>BH15/BD15-1</f>
+        <f t="shared" si="171"/>
         <v>0.29807692307692313</v>
       </c>
       <c r="BI129" s="94">
-        <f>BI15/BE15-1</f>
+        <f t="shared" si="171"/>
         <v>0.17886178861788626</v>
       </c>
       <c r="BJ129" s="94">
-        <f>BJ15/BF15-1</f>
+        <f t="shared" si="171"/>
         <v>9.6774193548387011E-2</v>
       </c>
       <c r="BK129" s="94">
-        <f>BK15/BG15-1</f>
+        <f t="shared" si="171"/>
         <v>0.11278195488721798</v>
       </c>
       <c r="BL129" s="94">
-        <f>BL15/BH15-1</f>
+        <f t="shared" si="171"/>
         <v>7.4074074074074181E-2</v>
       </c>
       <c r="BM129" s="94">
-        <f>BM15/BI15-1</f>
+        <f t="shared" si="171"/>
         <v>-4.8275862068965503E-2</v>
       </c>
       <c r="BN129" s="94">
-        <f>BN15/BJ15-1</f>
+        <f t="shared" si="171"/>
         <v>-8.0882352941176516E-2</v>
       </c>
       <c r="BO129" s="94">
-        <f>BO15/BK15-1</f>
+        <f t="shared" si="171"/>
         <v>-9.4594594594594628E-2</v>
       </c>
       <c r="BP129" s="94">
-        <f>BP15/BL15-1</f>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="BQ129" s="94">
-        <f>BQ15/BM15-1</f>
+        <f t="shared" si="171"/>
         <v>0.13043478260869557</v>
       </c>
       <c r="BR129" s="94">
-        <f>BR15/BN15-1</f>
+        <f t="shared" si="171"/>
         <v>0.21599999999999997</v>
       </c>
       <c r="BS129" s="94">
-        <f>BS15/BO15-1</f>
+        <f t="shared" si="171"/>
         <v>0.20149253731343286</v>
       </c>
       <c r="BT129" s="94">
-        <f>BT15/BP15-1</f>
+        <f t="shared" si="171"/>
         <v>8.2758620689655116E-2</v>
       </c>
       <c r="BU129" s="94">
-        <f>BU15/BQ15-1</f>
+        <f t="shared" si="171"/>
         <v>-3.8461538461538436E-2</v>
       </c>
       <c r="BV129" s="94">
-        <f>BV15/BR15-1</f>
+        <f t="shared" si="171"/>
         <v>-2.6315789473684181E-2</v>
       </c>
       <c r="BW129" s="94"/>
@@ -40838,87 +40839,87 @@
       <c r="AZ130" s="93"/>
       <c r="BA130" s="93"/>
       <c r="BB130" s="94">
-        <f t="shared" ref="BB130:BK131" si="148">BB44/AX44-1</f>
+        <f t="shared" ref="BB130:BK131" si="172">BB44/AX44-1</f>
         <v>0</v>
       </c>
       <c r="BC130" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>0.25316455696202533</v>
       </c>
       <c r="BD130" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>0.23456790123456783</v>
       </c>
       <c r="BE130" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>0.31325301204819267</v>
       </c>
       <c r="BF130" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>0.27906976744186052</v>
       </c>
       <c r="BG130" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>0.14141414141414144</v>
       </c>
       <c r="BH130" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>0.26</v>
       </c>
       <c r="BI130" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>0.27522935779816504</v>
       </c>
       <c r="BJ130" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>0.1272727272727272</v>
       </c>
       <c r="BK130" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>0.21238938053097356</v>
       </c>
       <c r="BL130" s="94">
-        <f t="shared" ref="BL130:BU131" si="149">BL44/BH44-1</f>
+        <f t="shared" ref="BL130:BU131" si="173">BL44/BH44-1</f>
         <v>8.7301587301587213E-2</v>
       </c>
       <c r="BM130" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>3.5971223021582732E-2</v>
       </c>
       <c r="BN130" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>3.2258064516129004E-2</v>
       </c>
       <c r="BO130" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>-7.2992700729926918E-3</v>
       </c>
       <c r="BP130" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>4.3795620437956151E-2</v>
       </c>
       <c r="BQ130" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>3.4722222222222321E-2</v>
       </c>
       <c r="BR130" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>2.34375E-2</v>
       </c>
       <c r="BS130" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>5.1470588235294157E-2</v>
       </c>
       <c r="BT130" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>3.4965034965035002E-2</v>
       </c>
       <c r="BU130" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>-4.6979865771812124E-2</v>
       </c>
       <c r="BV130" s="94">
-        <f t="shared" ref="BV130:BV131" si="150">BV44/BR44-1</f>
+        <f t="shared" ref="BV130:BV131" si="174">BV44/BR44-1</f>
         <v>0.13740458015267176</v>
       </c>
       <c r="BW130" s="94"/>
@@ -41064,87 +41065,87 @@
       <c r="AZ131" s="93"/>
       <c r="BA131" s="93"/>
       <c r="BB131" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>9.1743119266054496E-3</v>
       </c>
       <c r="BC131" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>5.1724137931034475E-2</v>
       </c>
       <c r="BD131" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>5.4545454545454453E-2</v>
       </c>
       <c r="BE131" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>0.12280701754385959</v>
       </c>
       <c r="BF131" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>7.2727272727272751E-2</v>
       </c>
       <c r="BG131" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>3.2786885245901676E-2</v>
       </c>
       <c r="BH131" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>1.7241379310344751E-2</v>
       </c>
       <c r="BI131" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>3.125E-2</v>
       </c>
       <c r="BJ131" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>-8.4745762711864181E-3</v>
       </c>
       <c r="BK131" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="172"/>
         <v>-3.1746031746031744E-2</v>
       </c>
       <c r="BL131" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="BM131" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>-0.14393939393939392</v>
       </c>
       <c r="BN131" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>-0.17094017094017089</v>
       </c>
       <c r="BO131" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>-0.19672131147540983</v>
       </c>
       <c r="BP131" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>-0.10169491525423724</v>
       </c>
       <c r="BQ131" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>-8.8495575221239076E-3</v>
       </c>
       <c r="BR131" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>7.2164948453608213E-2</v>
       </c>
       <c r="BS131" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>9.1836734693877542E-2</v>
       </c>
       <c r="BT131" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>-5.6603773584905648E-2</v>
       </c>
       <c r="BU131" s="94">
-        <f t="shared" si="149"/>
+        <f t="shared" si="173"/>
         <v>-0.2053571428571429</v>
       </c>
       <c r="BV131" s="94">
-        <f t="shared" si="150"/>
+        <f t="shared" si="174"/>
         <v>-0.125</v>
       </c>
       <c r="BW131" s="94"/>
@@ -41290,87 +41291,87 @@
       <c r="AZ132" s="93"/>
       <c r="BA132" s="93"/>
       <c r="BB132" s="94">
-        <f>BB27/AX27-1</f>
+        <f t="shared" ref="BB132:BV132" si="175">BB27/AX27-1</f>
         <v>5.9523809523809534E-2</v>
       </c>
       <c r="BC132" s="94">
-        <f>BC27/AY27-1</f>
+        <f t="shared" si="175"/>
         <v>0.18586636397103939</v>
       </c>
       <c r="BD132" s="94">
-        <f>BD27/AZ27-1</f>
+        <f t="shared" si="175"/>
         <v>0.16279069767441867</v>
       </c>
       <c r="BE132" s="94">
-        <f>BE27/BA27-1</f>
+        <f t="shared" si="175"/>
         <v>0.2441860465116279</v>
       </c>
       <c r="BF132" s="94">
-        <f>BF27/BB27-1</f>
+        <f t="shared" si="175"/>
         <v>0.22471910112359561</v>
       </c>
       <c r="BG132" s="94">
-        <f>BG27/BC27-1</f>
+        <f t="shared" si="175"/>
         <v>6.1855670103092786E-2</v>
       </c>
       <c r="BH132" s="94">
-        <f>BH27/BD27-1</f>
+        <f t="shared" si="175"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="BI132" s="94">
-        <f>BI27/BE27-1</f>
+        <f t="shared" si="175"/>
         <v>8.4112149532710179E-2</v>
       </c>
       <c r="BJ132" s="94">
-        <f>BJ27/BF27-1</f>
+        <f t="shared" si="175"/>
         <v>1.8348623853210899E-2</v>
       </c>
       <c r="BK132" s="94">
-        <f>BK27/BG27-1</f>
+        <f t="shared" si="175"/>
         <v>0.16504854368932032</v>
       </c>
       <c r="BL132" s="94">
-        <f>BL27/BH27-1</f>
+        <f t="shared" si="175"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="BM132" s="94">
-        <f>BM27/BI27-1</f>
+        <f t="shared" si="175"/>
         <v>0.10344827586206895</v>
       </c>
       <c r="BN132" s="94">
-        <f>BN27/BJ27-1</f>
+        <f t="shared" si="175"/>
         <v>5.4054054054053946E-2</v>
       </c>
       <c r="BO132" s="94">
-        <f>BO27/BK27-1</f>
+        <f t="shared" si="175"/>
         <v>0</v>
       </c>
       <c r="BP132" s="94">
-        <f>BP27/BL27-1</f>
+        <f t="shared" si="175"/>
         <v>-3.2258064516129004E-2</v>
       </c>
       <c r="BQ132" s="94">
-        <f>BQ27/BM27-1</f>
+        <f t="shared" si="175"/>
         <v>8.59375E-2</v>
       </c>
       <c r="BR132" s="94">
-        <f>BR27/BN27-1</f>
+        <f t="shared" si="175"/>
         <v>2.564102564102555E-2</v>
       </c>
       <c r="BS132" s="94">
-        <f>BS27/BO27-1</f>
+        <f t="shared" si="175"/>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="BT132" s="94">
-        <f>BT27/BP27-1</f>
+        <f t="shared" si="175"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="BU132" s="94">
-        <f>BU27/BQ27-1</f>
+        <f t="shared" si="175"/>
         <v>-7.9136690647481966E-2</v>
       </c>
       <c r="BV132" s="94">
-        <f>BV27/BR27-1</f>
+        <f t="shared" si="175"/>
         <v>0.125</v>
       </c>
       <c r="BW132" s="94"/>
@@ -42259,7 +42260,7 @@
         <v>9786</v>
       </c>
       <c r="EO137" s="23">
-        <f t="shared" ref="EO137" si="151">EO78</f>
+        <f t="shared" ref="EO137" si="176">EO78</f>
         <v>9919</v>
       </c>
       <c r="EP137" s="47"/>

--- a/ROG VX.xlsx
+++ b/ROG VX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BE16B0-7E8D-429A-8D74-B11C835768E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5108AA8-C883-B647-A3E3-373301816A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9315" yWindow="1440" windowWidth="38700" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38720" yWindow="-20660" windowWidth="34560" windowHeight="15340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management and Structure" sheetId="121" r:id="rId1"/>
@@ -21,31 +21,32 @@
     <sheet name="Tecentriq" sheetId="131" r:id="rId6"/>
     <sheet name="Diagnostics" sheetId="124" r:id="rId7"/>
     <sheet name="MabThera" sheetId="115" r:id="rId8"/>
-    <sheet name="Avastin" sheetId="113" r:id="rId9"/>
-    <sheet name="Avastin Model" sheetId="128" r:id="rId10"/>
-    <sheet name="Polivy" sheetId="133" r:id="rId11"/>
-    <sheet name="Herceptin" sheetId="118" r:id="rId12"/>
-    <sheet name="Pegasys" sheetId="119" r:id="rId13"/>
-    <sheet name="Xeloda" sheetId="127" r:id="rId14"/>
-    <sheet name="Actemra" sheetId="112" r:id="rId15"/>
-    <sheet name="Lucentis" sheetId="123" r:id="rId16"/>
-    <sheet name="Perjeta" sheetId="117" r:id="rId17"/>
-    <sheet name="Ocrevus" sheetId="126" r:id="rId18"/>
-    <sheet name="Kadcyla" sheetId="130" r:id="rId19"/>
-    <sheet name="Mircera" sheetId="102" r:id="rId20"/>
-    <sheet name="Tarceva" sheetId="122" r:id="rId21"/>
-    <sheet name="Failures" sheetId="125" r:id="rId22"/>
-    <sheet name="dalcetrapib" sheetId="111" r:id="rId23"/>
-    <sheet name="aleglitazar" sheetId="120" r:id="rId24"/>
-    <sheet name="R1626" sheetId="114" r:id="rId25"/>
-    <sheet name="taspoglutide" sheetId="116" r:id="rId26"/>
+    <sheet name="Hemlibra" sheetId="134" r:id="rId9"/>
+    <sheet name="Avastin" sheetId="113" r:id="rId10"/>
+    <sheet name="Avastin Model" sheetId="128" r:id="rId11"/>
+    <sheet name="Polivy" sheetId="133" r:id="rId12"/>
+    <sheet name="Herceptin" sheetId="118" r:id="rId13"/>
+    <sheet name="Pegasys" sheetId="119" r:id="rId14"/>
+    <sheet name="Xeloda" sheetId="127" r:id="rId15"/>
+    <sheet name="Actemra" sheetId="112" r:id="rId16"/>
+    <sheet name="Lucentis" sheetId="123" r:id="rId17"/>
+    <sheet name="Perjeta" sheetId="117" r:id="rId18"/>
+    <sheet name="Ocrevus" sheetId="126" r:id="rId19"/>
+    <sheet name="Kadcyla" sheetId="130" r:id="rId20"/>
+    <sheet name="Mircera" sheetId="102" r:id="rId21"/>
+    <sheet name="Tarceva" sheetId="122" r:id="rId22"/>
+    <sheet name="Failures" sheetId="125" r:id="rId23"/>
+    <sheet name="dalcetrapib" sheetId="111" r:id="rId24"/>
+    <sheet name="aleglitazar" sheetId="120" r:id="rId25"/>
+    <sheet name="R1626" sheetId="114" r:id="rId26"/>
+    <sheet name="taspoglutide" sheetId="116" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
     <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
   </externalReferences>
   <definedNames>
     <definedName name="__FDS_HYPERLINK_TOGGLE_STATE__" hidden="1">"ON"</definedName>
@@ -2330,7 +2331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="952">
   <si>
     <t>Gross Profit</t>
   </si>
@@ -5180,6 +5181,12 @@
   </si>
   <si>
     <t>1/26/24: Carmot acquisition for 2.9B</t>
+  </si>
+  <si>
+    <t>Hemlibra (emicizumab)</t>
+  </si>
+  <si>
+    <t>100%?</t>
   </si>
 </sst>
 </file>
@@ -5193,7 +5200,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6541,18 +6548,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
         <v>307</v>
       </c>
@@ -6560,7 +6567,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
         <v>309</v>
       </c>
@@ -6568,7 +6575,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
         <v>332</v>
       </c>
@@ -6576,7 +6583,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
         <v>444</v>
       </c>
@@ -6584,7 +6591,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
         <v>447</v>
       </c>
@@ -6592,7 +6599,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
         <v>449</v>
       </c>
@@ -6600,7 +6607,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
         <v>411</v>
       </c>
@@ -6608,7 +6615,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
         <v>445</v>
       </c>
@@ -6616,7 +6623,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
         <v>417</v>
       </c>
@@ -6624,7 +6631,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
         <v>418</v>
       </c>
@@ -6632,7 +6639,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="B12" s="2" t="s">
         <v>421</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
         <v>451</v>
       </c>
@@ -6648,22 +6655,22 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="B22" s="40" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="B23" s="1" t="s">
         <v>308</v>
       </c>
@@ -6671,7 +6678,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3">
       <c r="B24" s="1" t="s">
         <v>310</v>
       </c>
@@ -6679,7 +6686,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
         <v>448</v>
       </c>
@@ -6687,7 +6694,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
         <v>416</v>
       </c>
@@ -6704,6 +6711,557 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D112"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13"/>
+      <c r="C5" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13"/>
+      <c r="C7" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" s="16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="16" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="16" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="16" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="16" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="16" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="16"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="C97" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="C98" s="16"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="C99" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="C100" s="16"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="C101" s="16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="C102" s="16"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="C103" s="16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="C104" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="C105" s="16"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="C106" s="16" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="C107" s="16"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="C108" s="16"/>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="C109" s="16"/>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="C111" s="55">
+        <v>39387</v>
+      </c>
+      <c r="D111" s="5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="C112" s="55">
+        <v>39356</v>
+      </c>
+      <c r="D112" s="5">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
@@ -6714,19 +7272,19 @@
       <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="C3">
         <v>2005</v>
       </c>
@@ -6822,17 +7380,17 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="B4" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="B5" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="B8" s="2" t="s">
         <v>548</v>
       </c>
@@ -6932,7 +7490,7 @@
         <v>18857.445275226455</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26">
       <c r="B9" s="2" t="s">
         <v>549</v>
       </c>
@@ -7032,7 +7590,7 @@
         <v>18857.445275226455</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26">
       <c r="B10" s="2" t="s">
         <v>551</v>
       </c>
@@ -7061,7 +7619,7 @@
       <c r="Y10" s="89"/>
       <c r="Z10" s="89"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26">
       <c r="B11" s="2" t="s">
         <v>552</v>
       </c>
@@ -7162,7 +7720,7 @@
         <v>37714.89055045291</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26">
       <c r="B12" s="2" t="s">
         <v>550</v>
       </c>
@@ -7239,7 +7797,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="B13" s="2" t="s">
         <v>106</v>
       </c>
@@ -7316,7 +7874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="91" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="91" customFormat="1">
       <c r="B14" s="91" t="s">
         <v>553</v>
       </c>
@@ -7425,23 +7983,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC6E127-785F-4CE6-BD27-DE08806227C3}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>814</v>
       </c>
@@ -7449,7 +8007,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
         <v>815</v>
       </c>
@@ -7457,7 +8015,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
@@ -7465,7 +8023,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
         <v>818</v>
       </c>
@@ -7473,7 +8031,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
@@ -7481,22 +8039,22 @@
         <v>848</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="40" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="2" t="s">
         <v>855</v>
       </c>
@@ -7509,7 +8067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -7517,19 +8075,19 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
@@ -7537,7 +8095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
@@ -7545,7 +8103,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
@@ -7553,7 +8111,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>106</v>
       </c>
@@ -7561,60 +8119,60 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="C16" s="16" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="C17" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="C19" s="16" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4">
       <c r="B21" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4">
       <c r="C22" s="55">
         <v>39387</v>
       </c>
@@ -7622,7 +8180,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="C23" s="55">
         <v>39356</v>
       </c>
@@ -7640,25 +8198,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
@@ -7666,7 +8224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
@@ -7674,7 +8232,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
@@ -7682,32 +8240,32 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="C6" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="16" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="16" t="s">
         <v>251</v>
       </c>
@@ -7722,24 +8280,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -7747,7 +8305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
@@ -7755,7 +8313,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
@@ -7771,25 +8329,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
@@ -7797,7 +8355,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
@@ -7805,7 +8363,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
@@ -7813,7 +8371,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
@@ -7821,7 +8379,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="15" t="s">
         <v>191</v>
       </c>
@@ -7829,57 +8387,57 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="C13" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="C16" s="16" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3">
       <c r="C17" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3">
       <c r="C18" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3">
       <c r="C19" s="3" t="s">
         <v>502</v>
       </c>
@@ -7894,25 +8452,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="57"/>
+    <col min="2" max="2" width="11.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="B2" s="58" t="s">
         <v>49</v>
       </c>
@@ -7920,12 +8478,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="B3" s="58" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="C4" s="59">
         <v>39387</v>
       </c>
@@ -7933,7 +8491,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="C5" s="59">
         <v>39356</v>
       </c>
@@ -7941,7 +8499,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="B6" s="58" t="s">
         <v>53</v>
       </c>
@@ -7954,25 +8512,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
@@ -7980,7 +8538,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
@@ -7988,7 +8546,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>66</v>
       </c>
@@ -7996,32 +8554,32 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="C6" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="16" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="C11" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="5" t="s">
         <v>233</v>
       </c>
@@ -8036,25 +8594,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="76" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="76"/>
+    <col min="3" max="16384" width="9.1640625" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="78" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="76" t="s">
         <v>49</v>
       </c>
@@ -8062,7 +8620,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="76" t="s">
         <v>51</v>
       </c>
@@ -8070,7 +8628,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="76" t="s">
         <v>44</v>
       </c>
@@ -8078,7 +8636,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="76" t="s">
         <v>66</v>
       </c>
@@ -8086,7 +8644,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="76" t="s">
         <v>65</v>
       </c>
@@ -8094,73 +8652,73 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="76" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="76" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="76" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="B10" s="76" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="C11" s="77" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="77"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="C13" s="77" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="77"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="C15" s="77" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3">
       <c r="C17" s="77" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3">
       <c r="C18" s="76" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3">
       <c r="C20" s="77" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3">
       <c r="C21" s="76" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3">
       <c r="C23" s="77" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3">
       <c r="C25" s="77" t="s">
         <v>514</v>
       </c>
@@ -8171,44 +8729,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8220,26 +8740,26 @@
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="115" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="B2" s="40" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="E3" s="2" t="s">
         <v>635</v>
       </c>
@@ -8247,7 +8767,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
@@ -8303,32 +8823,32 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="C5">
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="C6">
         <v>2011</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="C7">
         <v>2012</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="C8">
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="C9">
         <v>2014</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="B10" s="2" t="s">
         <v>659</v>
       </c>
@@ -8385,7 +8905,7 @@
         <v>8.0999999999999961E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="B11" s="2" t="s">
         <v>658</v>
       </c>
@@ -8442,7 +8962,7 @@
         <v>6.2000000000000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="B12" s="2" t="s">
         <v>656</v>
       </c>
@@ -8499,7 +9019,7 @@
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="B13" s="2" t="s">
         <v>654</v>
       </c>
@@ -8557,7 +9077,7 @@
         <v>1.9500000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="B14" s="2" t="s">
         <v>650</v>
       </c>
@@ -8614,7 +9134,7 @@
         <v>-1.04E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="B15" s="2" t="s">
         <v>647</v>
       </c>
@@ -8671,7 +9191,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="B16" s="2" t="s">
         <v>640</v>
       </c>
@@ -8728,7 +9248,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19">
       <c r="B17" s="2" t="s">
         <v>637</v>
       </c>
@@ -8785,7 +9305,7 @@
         <v>1.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19">
       <c r="B18" s="2" t="s">
         <v>632</v>
       </c>
@@ -8842,7 +9362,7 @@
         <v>1.3900000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19">
       <c r="B19" s="2" t="s">
         <v>630</v>
       </c>
@@ -8910,24 +9430,62 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
@@ -8935,7 +9493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
@@ -8943,7 +9501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>104</v>
       </c>
@@ -8951,7 +9509,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>74</v>
       </c>
@@ -8959,32 +9517,32 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="C11" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="C12" s="5" t="s">
         <v>91</v>
       </c>
@@ -8999,25 +9557,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -9025,14 +9583,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="B3" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="B4" s="5"/>
       <c r="C4" s="55">
         <v>39387</v>
@@ -9041,7 +9599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="B5" s="5"/>
       <c r="C5" s="55">
         <v>39356</v>
@@ -9058,7 +9616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -9066,17 +9624,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" s="2" t="s">
         <v>122</v>
       </c>
@@ -9084,7 +9642,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
         <v>199</v>
       </c>
@@ -9095,7 +9653,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" s="8" t="s">
         <v>127</v>
       </c>
@@ -9112,7 +9670,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6" s="8" t="s">
         <v>289</v>
       </c>
@@ -9129,7 +9687,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" s="8" t="s">
         <v>273</v>
       </c>
@@ -9143,7 +9701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" s="8" t="s">
         <v>279</v>
       </c>
@@ -9157,7 +9715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="B9" s="8" t="s">
         <v>277</v>
       </c>
@@ -9171,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="B10" s="53" t="s">
         <v>362</v>
       </c>
@@ -9188,7 +9746,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="B11" s="8" t="s">
         <v>282</v>
       </c>
@@ -9202,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="B12" s="8" t="s">
         <v>116</v>
       </c>
@@ -9219,7 +9777,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="B13" s="8" t="s">
         <v>118</v>
       </c>
@@ -9233,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="B14" s="8" t="s">
         <v>69</v>
       </c>
@@ -9247,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="B15" s="53" t="s">
         <v>125</v>
       </c>
@@ -9264,7 +9822,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="B16" s="53" t="s">
         <v>380</v>
       </c>
@@ -9281,7 +9839,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="53" t="s">
         <v>608</v>
       </c>
@@ -9300,25 +9858,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
@@ -9326,7 +9884,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
@@ -9334,7 +9892,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
@@ -9342,7 +9900,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
@@ -9350,7 +9908,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
         <v>66</v>
       </c>
@@ -9358,27 +9916,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
         <v>75</v>
       </c>
@@ -9386,7 +9944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="B12" s="5" t="s">
         <v>96</v>
       </c>
@@ -9394,17 +9952,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="16" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="C15" s="3" t="s">
         <v>522</v>
       </c>
@@ -9420,24 +9978,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
@@ -9445,7 +10003,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
@@ -9453,7 +10011,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
@@ -9461,7 +10019,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
@@ -9469,12 +10027,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="40" t="s">
         <v>296</v>
       </c>
@@ -9487,25 +10045,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
@@ -9513,7 +10071,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
@@ -9521,7 +10079,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -9529,7 +10087,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
@@ -9537,27 +10095,27 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="C7" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="C11" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="C13" s="4" t="s">
         <v>285</v>
       </c>
@@ -9573,25 +10131,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
@@ -9599,7 +10157,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
@@ -9607,7 +10165,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
@@ -9615,7 +10173,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
@@ -9623,7 +10181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -9631,7 +10189,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>81</v>
       </c>
@@ -9639,37 +10197,37 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="16" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="C11" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="C13" s="16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="C15" s="15" t="s">
         <v>205</v>
       </c>
@@ -9695,20 +10253,20 @@
       <selection pane="bottomRight" activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="B2" s="2" t="s">
         <v>814</v>
       </c>
@@ -9728,7 +10286,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -9748,7 +10306,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="B4" s="2" t="s">
         <v>113</v>
       </c>
@@ -9762,41 +10320,41 @@
         <v>36959</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="B6" s="3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="B7" s="3" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" s="3" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" s="53" t="s">
         <v>404</v>
       </c>
@@ -9817,7 +10375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" s="53" t="s">
         <v>348</v>
       </c>
@@ -9838,7 +10396,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" s="53" t="s">
         <v>364</v>
       </c>
@@ -9859,7 +10417,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="53" t="s">
         <v>392</v>
       </c>
@@ -9880,7 +10438,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="B18" s="8" t="s">
         <v>109</v>
       </c>
@@ -9903,7 +10461,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="8" t="s">
         <v>111</v>
       </c>
@@ -9926,7 +10484,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" s="8" t="s">
         <v>271</v>
       </c>
@@ -9947,7 +10505,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="8" t="s">
         <v>272</v>
       </c>
@@ -9968,7 +10526,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="53" t="s">
         <v>355</v>
       </c>
@@ -9989,7 +10547,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" s="53" t="s">
         <v>357</v>
       </c>
@@ -10008,7 +10566,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="53" t="s">
         <v>609</v>
       </c>
@@ -10027,7 +10585,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="43" t="s">
         <v>322</v>
       </c>
@@ -10047,7 +10605,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="53" t="s">
         <v>881</v>
       </c>
@@ -10070,7 +10628,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="53" t="s">
         <v>882</v>
       </c>
@@ -10090,7 +10648,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="53" t="s">
         <v>387</v>
       </c>
@@ -10110,7 +10668,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="53" t="s">
         <v>346</v>
       </c>
@@ -10130,7 +10688,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="53" t="s">
         <v>713</v>
       </c>
@@ -10150,7 +10708,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="53" t="s">
         <v>381</v>
       </c>
@@ -10170,7 +10728,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="B32" s="43" t="s">
         <v>319</v>
       </c>
@@ -10190,7 +10748,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="8" t="s">
         <v>275</v>
       </c>
@@ -10210,7 +10768,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="53" t="s">
         <v>730</v>
       </c>
@@ -10230,7 +10788,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="53" t="s">
         <v>894</v>
       </c>
@@ -10250,7 +10808,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36" s="53" t="s">
         <v>581</v>
       </c>
@@ -10286,31 +10844,31 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="11" customWidth="1"/>
     <col min="5" max="5" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="3.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="22.1640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="4"/>
+    <col min="8" max="8" width="3.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1">
       <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
@@ -10337,7 +10895,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="3" customFormat="1">
       <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
@@ -10366,7 +10924,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="B4" s="7" t="s">
         <v>94</v>
       </c>
@@ -10394,7 +10952,7 @@
       </c>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="B5" s="7" t="s">
         <v>172</v>
       </c>
@@ -10423,15 +10981,23 @@
         <v>878</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="53" t="s">
-        <v>794</v>
+    <row r="6" spans="1:13">
+      <c r="B6" s="38" t="s">
+        <v>950</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>821</v>
       </c>
+      <c r="D6" s="119">
+        <v>43055</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>951</v>
+      </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="35"/>
+      <c r="G6" s="35" t="s">
+        <v>161</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>577</v>
       </c>
@@ -10444,7 +11010,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="B7" s="38" t="s">
         <v>811</v>
       </c>
@@ -10473,7 +11039,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="B8" s="38" t="s">
         <v>704</v>
       </c>
@@ -10497,7 +11063,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="B9" s="38" t="s">
         <v>823</v>
       </c>
@@ -10519,7 +11085,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="B10" s="38" t="s">
         <v>265</v>
       </c>
@@ -10539,7 +11105,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="B11" s="38" t="s">
         <v>312</v>
       </c>
@@ -10561,7 +11127,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="B12" s="7" t="s">
         <v>244</v>
       </c>
@@ -10585,7 +11151,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="B13" s="38" t="s">
         <v>731</v>
       </c>
@@ -10610,7 +11176,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="3" customFormat="1">
       <c r="B14" s="38" t="s">
         <v>752</v>
       </c>
@@ -10636,7 +11202,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" s="8" t="s">
         <v>267</v>
       </c>
@@ -10656,7 +11222,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="B16" s="38" t="s">
         <v>847</v>
       </c>
@@ -10673,7 +11239,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="53" t="s">
         <v>712</v>
       </c>
@@ -10691,7 +11257,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="53" t="s">
         <v>753</v>
       </c>
@@ -10711,7 +11277,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="53" t="s">
         <v>910</v>
       </c>
@@ -10727,7 +11293,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="53" t="s">
         <v>908</v>
       </c>
@@ -10747,7 +11313,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="53" t="s">
         <v>904</v>
       </c>
@@ -10767,7 +11333,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="53" t="s">
         <v>906</v>
       </c>
@@ -10783,7 +11349,7 @@
       </c>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="38" t="s">
         <v>266</v>
       </c>
@@ -10804,7 +11370,7 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="53" t="s">
         <v>729</v>
       </c>
@@ -10825,7 +11391,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
@@ -10848,7 +11414,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="6"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
@@ -10861,7 +11427,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="120" t="s">
         <v>899</v>
       </c>
@@ -10876,7 +11442,7 @@
       </c>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="53" t="s">
         <v>884</v>
       </c>
@@ -10893,7 +11459,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="53" t="s">
         <v>898</v>
       </c>
@@ -10904,7 +11470,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" s="53" t="s">
         <v>901</v>
       </c>
@@ -10919,7 +11485,7 @@
       </c>
       <c r="G30" s="121"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="53" t="s">
         <v>911</v>
       </c>
@@ -10932,7 +11498,7 @@
       </c>
       <c r="G31" s="121"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="53" t="s">
         <v>887</v>
       </c>
@@ -10946,7 +11512,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="53" t="s">
         <v>890</v>
       </c>
@@ -10960,7 +11526,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="53" t="s">
         <v>896</v>
       </c>
@@ -10972,7 +11538,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="53" t="s">
         <v>903</v>
       </c>
@@ -10992,7 +11558,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36" s="53" t="s">
         <v>734</v>
       </c>
@@ -11008,7 +11574,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37" s="53" t="s">
         <v>738</v>
       </c>
@@ -11028,7 +11594,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38" s="53" t="s">
         <v>741</v>
       </c>
@@ -11046,7 +11612,7 @@
       </c>
       <c r="G38" s="35"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39" s="53" t="s">
         <v>737</v>
       </c>
@@ -11066,7 +11632,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40" s="53" t="s">
         <v>743</v>
       </c>
@@ -11084,7 +11650,7 @@
       </c>
       <c r="G40" s="35"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="B41" s="53" t="s">
         <v>709</v>
       </c>
@@ -11104,7 +11670,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" s="17" customFormat="1">
       <c r="B42" s="53" t="s">
         <v>706</v>
       </c>
@@ -11124,7 +11690,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" s="17" customFormat="1">
       <c r="B43" s="8" t="s">
         <v>278</v>
       </c>
@@ -11144,7 +11710,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44" s="53" t="s">
         <v>692</v>
       </c>
@@ -11164,7 +11730,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="B45" s="53" t="s">
         <v>279</v>
       </c>
@@ -11182,7 +11748,7 @@
       </c>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46" s="53" t="s">
         <v>370</v>
       </c>
@@ -11202,7 +11768,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="B47" s="53" t="s">
         <v>384</v>
       </c>
@@ -11222,7 +11788,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="B48" s="53" t="s">
         <v>670</v>
       </c>
@@ -11242,7 +11808,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7">
       <c r="B49" s="53" t="s">
         <v>371</v>
       </c>
@@ -11259,7 +11825,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7">
       <c r="B50" s="53" t="s">
         <v>368</v>
       </c>
@@ -11279,7 +11845,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7">
       <c r="B51" s="53" t="s">
         <v>920</v>
       </c>
@@ -11297,7 +11863,7 @@
       </c>
       <c r="G51" s="35"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7">
       <c r="B52" s="53" t="s">
         <v>923</v>
       </c>
@@ -11315,7 +11881,7 @@
       </c>
       <c r="G52" s="35"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7">
       <c r="B53" s="53" t="s">
         <v>607</v>
       </c>
@@ -11333,7 +11899,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7">
       <c r="B54" s="53" t="s">
         <v>574</v>
       </c>
@@ -11351,7 +11917,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7">
       <c r="B55" s="53" t="s">
         <v>671</v>
       </c>
@@ -11371,7 +11937,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7">
       <c r="B56" s="53" t="s">
         <v>375</v>
       </c>
@@ -11391,7 +11957,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7">
       <c r="B57" s="53" t="s">
         <v>365</v>
       </c>
@@ -11411,7 +11977,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7">
       <c r="B58" s="53" t="s">
         <v>590</v>
       </c>
@@ -11431,7 +11997,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7">
       <c r="B59" s="96" t="s">
         <v>733</v>
       </c>
@@ -11451,7 +12017,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" s="17" customFormat="1">
       <c r="B60" s="53" t="s">
         <v>576</v>
       </c>
@@ -11471,7 +12037,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7">
       <c r="B61" s="53" t="s">
         <v>351</v>
       </c>
@@ -11491,7 +12057,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7">
       <c r="B62" s="53" t="s">
         <v>372</v>
       </c>
@@ -11511,7 +12077,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7">
       <c r="B63" s="53" t="s">
         <v>584</v>
       </c>
@@ -11531,7 +12097,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7">
       <c r="B64" s="53"/>
       <c r="C64" s="10" t="s">
         <v>388</v>
@@ -11549,7 +12115,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7">
       <c r="B65" s="53"/>
       <c r="C65" s="10" t="s">
         <v>389</v>
@@ -11567,7 +12133,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7">
       <c r="B66" s="61" t="s">
         <v>343</v>
       </c>
@@ -11587,148 +12153,148 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7">
       <c r="B68" s="3"/>
       <c r="F68" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7">
       <c r="B69" s="3"/>
       <c r="F69" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7">
       <c r="B70" s="3"/>
       <c r="F70" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7">
       <c r="F71" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7">
       <c r="F72" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7">
       <c r="F73" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7">
       <c r="F74" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7">
       <c r="F75" s="18" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7">
       <c r="F76" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7">
       <c r="F77" s="18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7">
       <c r="F78" s="18" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7">
       <c r="F79" s="18" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7">
       <c r="F80" s="18" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:6">
       <c r="F81" s="18" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:6">
       <c r="F82" s="18" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:6">
       <c r="F83" s="18" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:6">
       <c r="F84" s="18" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:6">
       <c r="F85" s="18" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:6">
       <c r="F86" s="18" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:6">
       <c r="F87" s="18" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:6">
       <c r="F89" s="118" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:6">
       <c r="F90" s="118" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:6">
       <c r="F91" s="118"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:6">
       <c r="F92" s="3" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:6">
       <c r="F93" s="118" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:6">
       <c r="F94" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:6">
       <c r="F95" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:6">
       <c r="F96" s="118" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:6">
       <c r="F97" s="118" t="s">
         <v>926</v>
       </c>
@@ -11752,6 +12318,7 @@
     <hyperlink ref="B13" location="Kadcyla!A1" display="Kadcyla (trastuzumab-DM1)" xr:uid="{0181DD6A-FC19-4133-B47A-15F0C3075EB5}"/>
     <hyperlink ref="B9" location="Ocrevus!A1" display="Ocrevus (ocrelizumab)" xr:uid="{04ABF57F-9F2D-412F-9F21-BE805E3FE321}"/>
     <hyperlink ref="B16" location="Polivy!A1" display="Polivy (polatuzumab vedotin)" xr:uid="{6AF5067F-A358-4F13-A8ED-CEB4A668A3F6}"/>
+    <hyperlink ref="B6" location="Hemlibra!A1" display="Hemlibra" xr:uid="{057E581E-A1F4-5642-9D1B-72A6704C2D09}"/>
   </hyperlinks>
   <pageMargins left="0.18" right="0.17" top="0.33" bottom="0.31" header="0.17" footer="0.35"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11774,28 +12341,28 @@
       <selection pane="bottomRight" activeCell="FC123" sqref="FC123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="15" customWidth="1"/>
-    <col min="3" max="6" width="7.85546875" style="23" customWidth="1"/>
-    <col min="7" max="24" width="7.85546875" style="67" customWidth="1"/>
-    <col min="25" max="25" width="7.85546875" style="25" customWidth="1"/>
-    <col min="26" max="48" width="7.85546875" style="67" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="93" customWidth="1"/>
-    <col min="50" max="135" width="7.140625" style="93" customWidth="1"/>
-    <col min="136" max="136" width="1.7109375" style="5" customWidth="1"/>
-    <col min="137" max="137" width="9.140625" style="23" customWidth="1"/>
-    <col min="138" max="142" width="8.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="15" customWidth="1"/>
+    <col min="3" max="6" width="7.83203125" style="23" customWidth="1"/>
+    <col min="7" max="24" width="7.83203125" style="67" customWidth="1"/>
+    <col min="25" max="25" width="7.83203125" style="25" customWidth="1"/>
+    <col min="26" max="48" width="7.83203125" style="67" customWidth="1"/>
+    <col min="49" max="49" width="9.1640625" style="93" customWidth="1"/>
+    <col min="50" max="135" width="7.1640625" style="93" customWidth="1"/>
+    <col min="136" max="136" width="1.6640625" style="5" customWidth="1"/>
+    <col min="137" max="137" width="9.1640625" style="23" customWidth="1"/>
+    <col min="138" max="142" width="8.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="143" max="156" width="8" style="23" customWidth="1"/>
-    <col min="157" max="157" width="7.85546875" style="44" customWidth="1" collapsed="1"/>
-    <col min="158" max="158" width="7.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="159" max="160" width="7.85546875" style="44" customWidth="1" collapsed="1"/>
-    <col min="161" max="163" width="9.140625" style="15" collapsed="1"/>
-    <col min="164" max="16384" width="9.140625" style="15"/>
+    <col min="157" max="157" width="7.83203125" style="44" customWidth="1" collapsed="1"/>
+    <col min="158" max="158" width="7.83203125" style="15" customWidth="1" collapsed="1"/>
+    <col min="159" max="160" width="7.83203125" style="44" customWidth="1" collapsed="1"/>
+    <col min="161" max="163" width="9.1640625" style="15" collapsed="1"/>
+    <col min="164" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:167" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:167">
       <c r="A1" s="34" t="s">
         <v>55</v>
       </c>
@@ -11842,7 +12409,7 @@
       <c r="AU1" s="25"/>
       <c r="AV1" s="25"/>
     </row>
-    <row r="2" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:167" s="26" customFormat="1">
       <c r="B2" s="17" t="s">
         <v>340</v>
       </c>
@@ -12350,7 +12917,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="3" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:167" s="26" customFormat="1">
       <c r="B3" s="17" t="s">
         <v>484</v>
       </c>
@@ -12723,7 +13290,7 @@
       <c r="FC3" s="46"/>
       <c r="FD3" s="46"/>
     </row>
-    <row r="4" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:167" s="26" customFormat="1">
       <c r="B4" s="17" t="s">
         <v>579</v>
       </c>
@@ -13000,7 +13567,7 @@
       <c r="FC4" s="46"/>
       <c r="FD4" s="46"/>
     </row>
-    <row r="5" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:167" s="26" customFormat="1">
       <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
@@ -13289,7 +13856,7 @@
       <c r="FC5" s="46"/>
       <c r="FD5" s="46"/>
     </row>
-    <row r="6" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:167" s="26" customFormat="1">
       <c r="B6" s="17" t="s">
         <v>41</v>
       </c>
@@ -13612,7 +14179,7 @@
       </c>
       <c r="FD6" s="46"/>
     </row>
-    <row r="7" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:167" s="26" customFormat="1">
       <c r="B7" s="17" t="s">
         <v>694</v>
       </c>
@@ -13808,7 +14375,7 @@
       <c r="FC7" s="46"/>
       <c r="FD7" s="46"/>
     </row>
-    <row r="8" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:167" s="26" customFormat="1">
       <c r="B8" s="17" t="s">
         <v>697</v>
       </c>
@@ -14101,7 +14668,7 @@
       <c r="FC8" s="46"/>
       <c r="FD8" s="46"/>
     </row>
-    <row r="9" spans="1:167" s="116" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:167" s="116" customFormat="1">
       <c r="B9" s="3" t="s">
         <v>793</v>
       </c>
@@ -14301,7 +14868,7 @@
       </c>
       <c r="FD9" s="117"/>
     </row>
-    <row r="10" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:167" s="26" customFormat="1">
       <c r="B10" s="3" t="s">
         <v>794</v>
       </c>
@@ -14501,7 +15068,7 @@
       </c>
       <c r="FD10" s="46"/>
     </row>
-    <row r="11" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:167" s="26" customFormat="1">
       <c r="B11" s="3" t="s">
         <v>724</v>
       </c>
@@ -14738,7 +15305,7 @@
       </c>
       <c r="FD11" s="46"/>
     </row>
-    <row r="12" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:167" s="26" customFormat="1">
       <c r="B12" s="3" t="s">
         <v>795</v>
       </c>
@@ -14938,7 +15505,7 @@
       </c>
       <c r="FD12" s="46"/>
     </row>
-    <row r="13" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:167" s="26" customFormat="1">
       <c r="B13" s="3" t="s">
         <v>803</v>
       </c>
@@ -15121,7 +15688,7 @@
       </c>
       <c r="FD13" s="46"/>
     </row>
-    <row r="14" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:167" s="26" customFormat="1">
       <c r="B14" s="15" t="s">
         <v>300</v>
       </c>
@@ -15402,7 +15969,7 @@
       </c>
       <c r="FD14" s="46"/>
     </row>
-    <row r="15" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:167" s="26" customFormat="1">
       <c r="B15" s="15" t="s">
         <v>28</v>
       </c>
@@ -15782,7 +16349,7 @@
       </c>
       <c r="FD15" s="46"/>
     </row>
-    <row r="16" spans="1:167" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:167" s="26" customFormat="1">
       <c r="B16" s="3" t="s">
         <v>758</v>
       </c>
@@ -15994,7 +16561,7 @@
       </c>
       <c r="FD16" s="46"/>
     </row>
-    <row r="17" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:160" s="26" customFormat="1">
       <c r="B17" s="3" t="s">
         <v>800</v>
       </c>
@@ -16194,7 +16761,7 @@
       </c>
       <c r="FD17" s="46"/>
     </row>
-    <row r="18" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:160" s="26" customFormat="1">
       <c r="B18" s="15" t="s">
         <v>24</v>
       </c>
@@ -16580,7 +17147,7 @@
       </c>
       <c r="FD18" s="46"/>
     </row>
-    <row r="19" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:160" s="26" customFormat="1">
       <c r="B19" s="3" t="s">
         <v>799</v>
       </c>
@@ -16780,7 +17347,7 @@
       </c>
       <c r="FD19" s="46"/>
     </row>
-    <row r="20" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:160" s="26" customFormat="1">
       <c r="B20" s="3" t="s">
         <v>341</v>
       </c>
@@ -17166,7 +17733,7 @@
       </c>
       <c r="FD20" s="46"/>
     </row>
-    <row r="21" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:160" s="26" customFormat="1">
       <c r="B21" s="3" t="s">
         <v>797</v>
       </c>
@@ -17366,7 +17933,7 @@
       </c>
       <c r="FD21" s="46"/>
     </row>
-    <row r="22" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:160" s="26" customFormat="1">
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
@@ -17752,7 +18319,7 @@
       </c>
       <c r="FD22" s="46"/>
     </row>
-    <row r="23" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:160" s="26" customFormat="1">
       <c r="B23" s="3" t="s">
         <v>796</v>
       </c>
@@ -17950,7 +18517,7 @@
       </c>
       <c r="FD23" s="46"/>
     </row>
-    <row r="24" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:160" s="26" customFormat="1">
       <c r="B24" s="15" t="s">
         <v>29</v>
       </c>
@@ -18323,7 +18890,7 @@
       </c>
       <c r="FD24" s="46"/>
     </row>
-    <row r="25" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:160" s="26" customFormat="1">
       <c r="B25" s="15" t="s">
         <v>26</v>
       </c>
@@ -18698,7 +19265,7 @@
       </c>
       <c r="FD25" s="46"/>
     </row>
-    <row r="26" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:160" s="26" customFormat="1">
       <c r="B26" s="3" t="s">
         <v>760</v>
       </c>
@@ -18900,7 +19467,7 @@
       </c>
       <c r="FD26" s="46"/>
     </row>
-    <row r="27" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:160" s="26" customFormat="1">
       <c r="B27" s="15" t="s">
         <v>27</v>
       </c>
@@ -19280,7 +19847,7 @@
       </c>
       <c r="FD27" s="46"/>
     </row>
-    <row r="28" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:160" s="26" customFormat="1">
       <c r="B28" s="15" t="s">
         <v>40</v>
       </c>
@@ -19649,7 +20216,7 @@
       </c>
       <c r="FD28" s="46"/>
     </row>
-    <row r="29" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:160" s="26" customFormat="1">
       <c r="B29" s="3" t="s">
         <v>801</v>
       </c>
@@ -19837,7 +20404,7 @@
       </c>
       <c r="FD29" s="46"/>
     </row>
-    <row r="30" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:160" s="26" customFormat="1">
       <c r="B30" s="3" t="s">
         <v>798</v>
       </c>
@@ -20023,7 +20590,7 @@
       </c>
       <c r="FD30" s="46"/>
     </row>
-    <row r="31" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:160" s="26" customFormat="1">
       <c r="B31" s="3" t="s">
         <v>759</v>
       </c>
@@ -20198,7 +20765,7 @@
       </c>
       <c r="FD31" s="46"/>
     </row>
-    <row r="32" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:160" s="26" customFormat="1">
       <c r="B32" s="3" t="s">
         <v>802</v>
       </c>
@@ -20367,7 +20934,7 @@
       </c>
       <c r="FD32" s="46"/>
     </row>
-    <row r="33" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:160" s="26" customFormat="1">
       <c r="B33" s="3" t="s">
         <v>804</v>
       </c>
@@ -20532,7 +21099,7 @@
       <c r="FC33" s="54"/>
       <c r="FD33" s="46"/>
     </row>
-    <row r="34" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:160" s="26" customFormat="1">
       <c r="B34" s="3" t="s">
         <v>805</v>
       </c>
@@ -20697,7 +21264,7 @@
       <c r="FC34" s="54"/>
       <c r="FD34" s="46"/>
     </row>
-    <row r="35" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:160" s="26" customFormat="1">
       <c r="B35" s="3" t="s">
         <v>806</v>
       </c>
@@ -20862,7 +21429,7 @@
       <c r="FC35" s="54"/>
       <c r="FD35" s="46"/>
     </row>
-    <row r="36" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:160" s="26" customFormat="1">
       <c r="B36" s="3" t="s">
         <v>807</v>
       </c>
@@ -21027,7 +21594,7 @@
       <c r="FC36" s="54"/>
       <c r="FD36" s="46"/>
     </row>
-    <row r="37" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:160" s="26" customFormat="1">
       <c r="B37" s="3" t="s">
         <v>808</v>
       </c>
@@ -21192,7 +21759,7 @@
       <c r="FC37" s="54"/>
       <c r="FD37" s="46"/>
     </row>
-    <row r="38" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:160" s="26" customFormat="1">
       <c r="B38" s="3" t="s">
         <v>139</v>
       </c>
@@ -21536,7 +22103,7 @@
       <c r="FC38" s="54"/>
       <c r="FD38" s="46"/>
     </row>
-    <row r="39" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:160" s="26" customFormat="1">
       <c r="B39" s="15" t="s">
         <v>34</v>
       </c>
@@ -21880,7 +22447,7 @@
       <c r="FC39" s="54"/>
       <c r="FD39" s="46"/>
     </row>
-    <row r="40" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:160" s="26" customFormat="1">
       <c r="B40" s="15" t="s">
         <v>31</v>
       </c>
@@ -22228,7 +22795,7 @@
       <c r="FC40" s="54"/>
       <c r="FD40" s="46"/>
     </row>
-    <row r="41" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:160" s="26" customFormat="1">
       <c r="B41" s="15" t="s">
         <v>25</v>
       </c>
@@ -22569,7 +23136,7 @@
       <c r="FC41" s="54"/>
       <c r="FD41" s="46"/>
     </row>
-    <row r="42" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:160" s="26" customFormat="1">
       <c r="B42" s="15" t="s">
         <v>140</v>
       </c>
@@ -22866,7 +23433,7 @@
       <c r="FC42" s="54"/>
       <c r="FD42" s="46"/>
     </row>
-    <row r="43" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:160" s="26" customFormat="1">
       <c r="B43" s="15" t="s">
         <v>33</v>
       </c>
@@ -23214,7 +23781,7 @@
       <c r="FC43" s="54"/>
       <c r="FD43" s="46"/>
     </row>
-    <row r="44" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:160" s="26" customFormat="1">
       <c r="B44" s="15" t="s">
         <v>158</v>
       </c>
@@ -23557,7 +24124,7 @@
       <c r="FC44" s="54"/>
       <c r="FD44" s="46"/>
     </row>
-    <row r="45" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:160" s="26" customFormat="1">
       <c r="B45" s="15" t="s">
         <v>142</v>
       </c>
@@ -23894,7 +24461,7 @@
       <c r="FC45" s="54"/>
       <c r="FD45" s="46"/>
     </row>
-    <row r="46" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:160" s="26" customFormat="1">
       <c r="B46" s="15" t="s">
         <v>30</v>
       </c>
@@ -24190,7 +24757,7 @@
       <c r="FC46" s="54"/>
       <c r="FD46" s="46"/>
     </row>
-    <row r="47" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:160" s="26" customFormat="1">
       <c r="B47" s="15" t="s">
         <v>38</v>
       </c>
@@ -24475,7 +25042,7 @@
       </c>
       <c r="FD47" s="46"/>
     </row>
-    <row r="48" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:160" s="26" customFormat="1">
       <c r="B48" s="3" t="s">
         <v>50</v>
       </c>
@@ -24711,7 +25278,7 @@
       </c>
       <c r="FD48" s="46"/>
     </row>
-    <row r="49" spans="2:169" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:169" s="26" customFormat="1" hidden="1">
       <c r="B49" s="15" t="s">
         <v>39</v>
       </c>
@@ -25002,7 +25569,7 @@
       </c>
       <c r="FD49" s="46"/>
     </row>
-    <row r="50" spans="2:169" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:169" s="26" customFormat="1" hidden="1">
       <c r="B50" s="15" t="s">
         <v>32</v>
       </c>
@@ -25243,7 +25810,7 @@
       <c r="FL50" s="25"/>
       <c r="FM50" s="25"/>
     </row>
-    <row r="51" spans="2:169" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:169" s="26" customFormat="1" hidden="1">
       <c r="B51" s="3" t="s">
         <v>36</v>
       </c>
@@ -25461,7 +26028,7 @@
       <c r="FL51" s="99"/>
       <c r="FM51" s="99"/>
     </row>
-    <row r="52" spans="2:169" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:169" s="26" customFormat="1" hidden="1">
       <c r="B52" s="3" t="s">
         <v>477</v>
       </c>
@@ -25670,7 +26237,7 @@
       </c>
       <c r="FD52" s="46"/>
     </row>
-    <row r="53" spans="2:169" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:169" s="26" customFormat="1" hidden="1">
       <c r="B53" s="3" t="s">
         <v>476</v>
       </c>
@@ -25879,7 +26446,7 @@
       </c>
       <c r="FD53" s="46"/>
     </row>
-    <row r="54" spans="2:169" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:169" s="26" customFormat="1" hidden="1">
       <c r="B54" s="3" t="s">
         <v>478</v>
       </c>
@@ -26088,7 +26655,7 @@
       </c>
       <c r="FD54" s="46"/>
     </row>
-    <row r="55" spans="2:169" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:169" s="26" customFormat="1" hidden="1">
       <c r="B55" s="3" t="s">
         <v>479</v>
       </c>
@@ -26297,7 +26864,7 @@
       </c>
       <c r="FD55" s="46"/>
     </row>
-    <row r="56" spans="2:169" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:169" s="26" customFormat="1" hidden="1">
       <c r="B56" s="3" t="s">
         <v>35</v>
       </c>
@@ -26506,7 +27073,7 @@
       </c>
       <c r="FD56" s="46"/>
     </row>
-    <row r="57" spans="2:169" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:169" s="26" customFormat="1">
       <c r="B57" s="3" t="s">
         <v>720</v>
       </c>
@@ -26714,7 +27281,7 @@
       <c r="FC57" s="54"/>
       <c r="FD57" s="46"/>
     </row>
-    <row r="58" spans="2:169" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:169" s="26" customFormat="1">
       <c r="B58" s="15" t="s">
         <v>37</v>
       </c>
@@ -27015,7 +27582,7 @@
       <c r="FC58" s="54"/>
       <c r="FD58" s="46"/>
     </row>
-    <row r="59" spans="2:169" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:169" s="26" customFormat="1">
       <c r="B59" s="3"/>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -27188,7 +27755,7 @@
       <c r="FC59" s="54"/>
       <c r="FD59" s="46"/>
     </row>
-    <row r="60" spans="2:169" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:169" s="26" customFormat="1">
       <c r="B60" s="3" t="s">
         <v>339</v>
       </c>
@@ -27402,7 +27969,7 @@
       </c>
       <c r="FD60" s="46"/>
     </row>
-    <row r="61" spans="2:169" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:169" s="26" customFormat="1">
       <c r="B61" s="3" t="s">
         <v>18</v>
       </c>
@@ -27704,7 +28271,7 @@
       <c r="FD61" s="46"/>
       <c r="FF61" s="97"/>
     </row>
-    <row r="62" spans="2:169" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:169" s="17" customFormat="1">
       <c r="B62" s="17" t="s">
         <v>63</v>
       </c>
@@ -28038,7 +28605,7 @@
       </c>
       <c r="FD62" s="48"/>
     </row>
-    <row r="63" spans="2:169" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:169">
       <c r="B63" s="15" t="s">
         <v>64</v>
       </c>
@@ -28199,7 +28766,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="64" spans="2:169" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:169" s="17" customFormat="1">
       <c r="B64" s="15" t="s">
         <v>13</v>
       </c>
@@ -28459,7 +29026,7 @@
       </c>
       <c r="FD64" s="48"/>
     </row>
-    <row r="65" spans="2:233" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:233" s="17" customFormat="1">
       <c r="B65" s="15" t="s">
         <v>0</v>
       </c>
@@ -28729,7 +29296,7 @@
       </c>
       <c r="FD65" s="48"/>
     </row>
-    <row r="66" spans="2:233" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:233">
       <c r="B66" s="15" t="s">
         <v>186</v>
       </c>
@@ -28896,7 +29463,7 @@
       </c>
       <c r="FC66" s="25"/>
     </row>
-    <row r="67" spans="2:233" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:233" s="17" customFormat="1">
       <c r="B67" s="15" t="s">
         <v>185</v>
       </c>
@@ -29155,7 +29722,7 @@
       </c>
       <c r="FD67" s="48"/>
     </row>
-    <row r="68" spans="2:233" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:233">
       <c r="B68" s="15" t="s">
         <v>1</v>
       </c>
@@ -29301,7 +29868,7 @@
         <v>15251</v>
       </c>
     </row>
-    <row r="69" spans="2:233" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:233">
       <c r="B69" s="15" t="s">
         <v>183</v>
       </c>
@@ -29383,7 +29950,7 @@
       <c r="EY69" s="25"/>
       <c r="EZ69" s="25"/>
     </row>
-    <row r="70" spans="2:233" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:233">
       <c r="B70" s="3" t="s">
         <v>580</v>
       </c>
@@ -29530,7 +30097,7 @@
         <v>28769</v>
       </c>
     </row>
-    <row r="71" spans="2:233" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:233" s="17" customFormat="1">
       <c r="B71" s="17" t="s">
         <v>149</v>
       </c>
@@ -29800,7 +30367,7 @@
       </c>
       <c r="FD71" s="48"/>
     </row>
-    <row r="72" spans="2:233" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:233">
       <c r="B72" s="15" t="s">
         <v>2</v>
       </c>
@@ -29945,7 +30512,7 @@
         <v>-495</v>
       </c>
     </row>
-    <row r="73" spans="2:233" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:233" s="17" customFormat="1">
       <c r="B73" s="15" t="s">
         <v>3</v>
       </c>
@@ -30171,7 +30738,7 @@
       <c r="FC73" s="48"/>
       <c r="FD73" s="48"/>
     </row>
-    <row r="74" spans="2:233" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:233" s="17" customFormat="1">
       <c r="B74" s="17" t="s">
         <v>15</v>
       </c>
@@ -30445,7 +31012,7 @@
       </c>
       <c r="FD74" s="48"/>
     </row>
-    <row r="75" spans="2:233" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:233">
       <c r="B75" s="15" t="s">
         <v>5</v>
       </c>
@@ -30611,7 +31178,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="76" spans="2:233" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:233">
       <c r="B76" s="15" t="s">
         <v>6</v>
       </c>
@@ -30792,7 +31359,7 @@
         <v>14144</v>
       </c>
     </row>
-    <row r="77" spans="2:233" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:233">
       <c r="B77" s="15" t="s">
         <v>4</v>
       </c>
@@ -31025,7 +31592,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="78" spans="2:233" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:233">
       <c r="B78" s="15" t="s">
         <v>20</v>
       </c>
@@ -31593,7 +32160,7 @@
         <v>27704.759791762463</v>
       </c>
     </row>
-    <row r="79" spans="2:233" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:233" s="17" customFormat="1">
       <c r="B79" s="17" t="s">
         <v>21</v>
       </c>
@@ -31838,7 +32405,7 @@
       <c r="FC79" s="48"/>
       <c r="FD79" s="48"/>
     </row>
-    <row r="80" spans="2:233" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:233" s="17" customFormat="1">
       <c r="B80" s="15" t="s">
         <v>42</v>
       </c>
@@ -32076,7 +32643,7 @@
       <c r="FC80" s="48"/>
       <c r="FD80" s="48"/>
     </row>
-    <row r="81" spans="2:168" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:168" s="17" customFormat="1">
       <c r="B81" s="15"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -32236,7 +32803,7 @@
       <c r="FC81" s="48"/>
       <c r="FD81" s="48"/>
     </row>
-    <row r="82" spans="2:168" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:168">
       <c r="B82" s="15" t="s">
         <v>182</v>
       </c>
@@ -32450,7 +33017,7 @@
       <c r="FC82" s="15"/>
       <c r="FD82" s="15"/>
     </row>
-    <row r="83" spans="2:168" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:168">
       <c r="C83" s="50"/>
       <c r="D83" s="50"/>
       <c r="E83" s="50"/>
@@ -32607,7 +33174,7 @@
       <c r="FC83" s="15"/>
       <c r="FD83" s="15"/>
     </row>
-    <row r="84" spans="2:168" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:168" s="17" customFormat="1">
       <c r="B84" s="17" t="s">
         <v>8</v>
       </c>
@@ -32853,7 +33420,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="2:168" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:168">
       <c r="B85" s="15" t="s">
         <v>186</v>
       </c>
@@ -33036,7 +33603,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="86" spans="2:168" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:168" s="17" customFormat="1">
       <c r="B86" s="15" t="s">
         <v>185</v>
       </c>
@@ -33305,7 +33872,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="87" spans="2:168" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:168">
       <c r="B87" s="30" t="s">
         <v>1</v>
       </c>
@@ -33487,7 +34054,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="88" spans="2:168" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:168" s="17" customFormat="1">
       <c r="B88" s="17" t="s">
         <v>149</v>
       </c>
@@ -33759,7 +34326,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="89" spans="2:168" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:168">
       <c r="B89" s="15" t="s">
         <v>10</v>
       </c>
@@ -33920,7 +34487,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="90" spans="2:168" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:168">
       <c r="B90" s="15" t="s">
         <v>11</v>
       </c>
@@ -34094,7 +34661,7 @@
       <c r="FI90" s="44"/>
       <c r="FJ90" s="44"/>
     </row>
-    <row r="91" spans="2:168" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:168" s="17" customFormat="1">
       <c r="B91" s="17" t="s">
         <v>20</v>
       </c>
@@ -34326,7 +34893,7 @@
       <c r="FC91" s="48"/>
       <c r="FD91" s="48"/>
     </row>
-    <row r="92" spans="2:168" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:168">
       <c r="B92" s="15" t="s">
         <v>7</v>
       </c>
@@ -34425,7 +34992,7 @@
       <c r="EY92" s="28"/>
       <c r="EZ92" s="28"/>
     </row>
-    <row r="93" spans="2:168" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:168">
       <c r="G93" s="23"/>
       <c r="H93" s="23"/>
       <c r="I93" s="25"/>
@@ -34468,7 +35035,7 @@
       <c r="AU93" s="25"/>
       <c r="AV93" s="25"/>
     </row>
-    <row r="94" spans="2:168" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:168" s="17" customFormat="1">
       <c r="B94" s="17" t="s">
         <v>184</v>
       </c>
@@ -34765,7 +35332,7 @@
       </c>
       <c r="FD94" s="48"/>
     </row>
-    <row r="95" spans="2:168" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:168" s="17" customFormat="1">
       <c r="B95" s="17" t="s">
         <v>336</v>
       </c>
@@ -34944,7 +35511,7 @@
       </c>
       <c r="FD95" s="48"/>
     </row>
-    <row r="96" spans="2:168" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:168" s="17" customFormat="1">
       <c r="B96" s="17" t="s">
         <v>337</v>
       </c>
@@ -35119,7 +35686,7 @@
       <c r="FC96" s="48"/>
       <c r="FD96" s="48"/>
     </row>
-    <row r="97" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:160" s="17" customFormat="1">
       <c r="B97" s="17" t="s">
         <v>721</v>
       </c>
@@ -35290,7 +35857,7 @@
       <c r="FC97" s="48"/>
       <c r="FD97" s="48"/>
     </row>
-    <row r="98" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:160" s="17" customFormat="1">
       <c r="B98" s="17" t="s">
         <v>722</v>
       </c>
@@ -35461,7 +36028,7 @@
       <c r="FC98" s="48"/>
       <c r="FD98" s="48"/>
     </row>
-    <row r="99" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:160" s="17" customFormat="1">
       <c r="B99" s="17" t="s">
         <v>723</v>
       </c>
@@ -35632,7 +36199,7 @@
       <c r="FC99" s="48"/>
       <c r="FD99" s="48"/>
     </row>
-    <row r="100" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:160" s="17" customFormat="1">
       <c r="B100" s="3" t="s">
         <v>698</v>
       </c>
@@ -35838,7 +36405,7 @@
       <c r="FC100" s="48"/>
       <c r="FD100" s="48"/>
     </row>
-    <row r="101" spans="2:160" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:160" s="3" customFormat="1">
       <c r="B101" s="3" t="s">
         <v>338</v>
       </c>
@@ -36011,7 +36578,7 @@
       <c r="FC101" s="52"/>
       <c r="FD101" s="52"/>
     </row>
-    <row r="102" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:160">
       <c r="B102" s="15" t="s">
         <v>187</v>
       </c>
@@ -36111,7 +36678,7 @@
       <c r="EY102" s="28"/>
       <c r="EZ102" s="28"/>
     </row>
-    <row r="103" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:160" s="17" customFormat="1">
       <c r="B103" s="15" t="s">
         <v>188</v>
       </c>
@@ -36302,7 +36869,7 @@
       <c r="FC103" s="48"/>
       <c r="FD103" s="48"/>
     </row>
-    <row r="104" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:160" s="17" customFormat="1">
       <c r="B104" s="30" t="s">
         <v>189</v>
       </c>
@@ -36493,7 +37060,7 @@
       <c r="FC104" s="48"/>
       <c r="FD104" s="48"/>
     </row>
-    <row r="105" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:160" s="17" customFormat="1">
       <c r="B105" s="17" t="s">
         <v>149</v>
       </c>
@@ -36685,7 +37252,7 @@
       <c r="FC105" s="48"/>
       <c r="FD105" s="48"/>
     </row>
-    <row r="106" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:160">
       <c r="B106" s="15" t="s">
         <v>194</v>
       </c>
@@ -36782,7 +37349,7 @@
       <c r="EY106" s="28"/>
       <c r="EZ106" s="28"/>
     </row>
-    <row r="107" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:160">
       <c r="B107" s="15" t="s">
         <v>14</v>
       </c>
@@ -36879,7 +37446,7 @@
       <c r="EY107" s="28"/>
       <c r="EZ107" s="28"/>
     </row>
-    <row r="108" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:160">
       <c r="B108" s="15" t="s">
         <v>15</v>
       </c>
@@ -36976,7 +37543,7 @@
       <c r="EY108" s="28"/>
       <c r="EZ108" s="28"/>
     </row>
-    <row r="109" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:160">
       <c r="B109" s="15" t="s">
         <v>4</v>
       </c>
@@ -37073,7 +37640,7 @@
       <c r="EY109" s="28"/>
       <c r="EZ109" s="28"/>
     </row>
-    <row r="110" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:160" s="17" customFormat="1">
       <c r="B110" s="17" t="s">
         <v>20</v>
       </c>
@@ -37261,7 +37828,7 @@
       <c r="FC110" s="48"/>
       <c r="FD110" s="48"/>
     </row>
-    <row r="111" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:160">
       <c r="B111" s="15" t="s">
         <v>16</v>
       </c>
@@ -37358,7 +37925,7 @@
       <c r="EY111" s="28"/>
       <c r="EZ111" s="28"/>
     </row>
-    <row r="112" spans="2:160" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:160" s="17" customFormat="1">
       <c r="B112" s="17" t="s">
         <v>21</v>
       </c>
@@ -37553,7 +38120,7 @@
       <c r="FC112" s="48"/>
       <c r="FD112" s="48"/>
     </row>
-    <row r="113" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:160">
       <c r="B113" s="15" t="s">
         <v>42</v>
       </c>
@@ -37644,7 +38211,7 @@
       <c r="EY113" s="28"/>
       <c r="EZ113" s="28"/>
     </row>
-    <row r="114" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:160">
       <c r="B114" s="15" t="s">
         <v>17</v>
       </c>
@@ -37741,7 +38308,7 @@
       <c r="EY114" s="28"/>
       <c r="EZ114" s="28"/>
     </row>
-    <row r="115" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:160">
       <c r="C115" s="44"/>
       <c r="D115" s="44"/>
       <c r="E115" s="44"/>
@@ -37788,7 +38355,7 @@
       <c r="AU115" s="25"/>
       <c r="AV115" s="25"/>
     </row>
-    <row r="116" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:160">
       <c r="B116" s="3" t="s">
         <v>483</v>
       </c>
@@ -37836,7 +38403,7 @@
       <c r="AU116" s="25"/>
       <c r="AV116" s="25"/>
     </row>
-    <row r="117" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:160" s="26" customFormat="1">
       <c r="B117" s="17" t="s">
         <v>138</v>
       </c>
@@ -38083,7 +38650,7 @@
       <c r="FC117" s="46"/>
       <c r="FD117" s="46"/>
     </row>
-    <row r="118" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:160" s="26" customFormat="1">
       <c r="B118" s="17" t="s">
         <v>24</v>
       </c>
@@ -38330,7 +38897,7 @@
       <c r="FC118" s="46"/>
       <c r="FD118" s="46"/>
     </row>
-    <row r="119" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:160" s="26" customFormat="1">
       <c r="B119" s="17" t="s">
         <v>23</v>
       </c>
@@ -38577,7 +39144,7 @@
       <c r="FC119" s="46"/>
       <c r="FD119" s="46"/>
     </row>
-    <row r="120" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:160" s="26" customFormat="1">
       <c r="B120" s="15" t="s">
         <v>139</v>
       </c>
@@ -38803,7 +39370,7 @@
       <c r="FC120" s="46"/>
       <c r="FD120" s="46"/>
     </row>
-    <row r="121" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:160" s="26" customFormat="1">
       <c r="B121" s="15" t="s">
         <v>33</v>
       </c>
@@ -39029,7 +39596,7 @@
       <c r="FC121" s="46"/>
       <c r="FD121" s="46"/>
     </row>
-    <row r="122" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:160" s="26" customFormat="1">
       <c r="B122" s="15" t="s">
         <v>40</v>
       </c>
@@ -39255,7 +39822,7 @@
       <c r="FC122" s="46"/>
       <c r="FD122" s="46"/>
     </row>
-    <row r="123" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:160" s="26" customFormat="1">
       <c r="B123" s="15" t="s">
         <v>34</v>
       </c>
@@ -39481,7 +40048,7 @@
       <c r="FC123" s="46"/>
       <c r="FD123" s="46"/>
     </row>
-    <row r="124" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:160" s="26" customFormat="1">
       <c r="B124" s="15" t="s">
         <v>31</v>
       </c>
@@ -39707,7 +40274,7 @@
       <c r="FC124" s="46"/>
       <c r="FD124" s="46"/>
     </row>
-    <row r="125" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:160" s="26" customFormat="1">
       <c r="B125" s="15" t="s">
         <v>25</v>
       </c>
@@ -39924,7 +40491,7 @@
       <c r="FC125" s="46"/>
       <c r="FD125" s="46"/>
     </row>
-    <row r="126" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:160" s="26" customFormat="1">
       <c r="B126" s="15" t="s">
         <v>29</v>
       </c>
@@ -40120,7 +40687,7 @@
       <c r="FC126" s="46"/>
       <c r="FD126" s="46"/>
     </row>
-    <row r="127" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:160" s="26" customFormat="1">
       <c r="B127" s="15" t="s">
         <v>140</v>
       </c>
@@ -40331,7 +40898,7 @@
       <c r="FC127" s="46"/>
       <c r="FD127" s="46"/>
     </row>
-    <row r="128" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:160" s="26" customFormat="1">
       <c r="B128" s="15" t="s">
         <v>39</v>
       </c>
@@ -40557,7 +41124,7 @@
       <c r="FC128" s="46"/>
       <c r="FD128" s="46"/>
     </row>
-    <row r="129" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:160" s="26" customFormat="1">
       <c r="B129" s="15" t="s">
         <v>28</v>
       </c>
@@ -40783,7 +41350,7 @@
       <c r="FC129" s="46"/>
       <c r="FD129" s="46"/>
     </row>
-    <row r="130" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:160" s="26" customFormat="1">
       <c r="B130" s="15" t="s">
         <v>141</v>
       </c>
@@ -41009,7 +41576,7 @@
       <c r="FC130" s="46"/>
       <c r="FD130" s="46"/>
     </row>
-    <row r="131" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:160" s="26" customFormat="1">
       <c r="B131" s="15" t="s">
         <v>142</v>
       </c>
@@ -41235,7 +41802,7 @@
       <c r="FC131" s="46"/>
       <c r="FD131" s="46"/>
     </row>
-    <row r="132" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:160" s="26" customFormat="1">
       <c r="B132" s="15" t="s">
         <v>27</v>
       </c>
@@ -41461,7 +42028,7 @@
       <c r="FC132" s="46"/>
       <c r="FD132" s="46"/>
     </row>
-    <row r="133" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:160" s="26" customFormat="1">
       <c r="B133" s="15" t="s">
         <v>37</v>
       </c>
@@ -41624,7 +42191,7 @@
       <c r="FC133" s="46"/>
       <c r="FD133" s="46"/>
     </row>
-    <row r="134" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:160" s="26" customFormat="1">
       <c r="B134" s="15" t="s">
         <v>30</v>
       </c>
@@ -41787,7 +42354,7 @@
       <c r="FC134" s="46"/>
       <c r="FD134" s="46"/>
     </row>
-    <row r="135" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:160" s="26" customFormat="1">
       <c r="B135" s="15" t="s">
         <v>26</v>
       </c>
@@ -41950,7 +42517,7 @@
       <c r="FC135" s="46"/>
       <c r="FD135" s="46"/>
     </row>
-    <row r="136" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:160" s="26" customFormat="1">
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
@@ -42110,7 +42677,7 @@
       <c r="FC136" s="46"/>
       <c r="FD136" s="46"/>
     </row>
-    <row r="137" spans="2:160" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:160" s="26" customFormat="1">
       <c r="B137" s="3" t="s">
         <v>604</v>
       </c>
@@ -42279,7 +42846,7 @@
       <c r="FC137" s="46"/>
       <c r="FD137" s="46"/>
     </row>
-    <row r="138" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:160">
       <c r="B138" s="3" t="s">
         <v>601</v>
       </c>
@@ -42333,7 +42900,7 @@
         <v>16877</v>
       </c>
     </row>
-    <row r="139" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:160">
       <c r="B139" s="3" t="s">
         <v>602</v>
       </c>
@@ -42385,7 +42952,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="140" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:160">
       <c r="B140" s="3" t="s">
         <v>603</v>
       </c>
@@ -42441,7 +43008,7 @@
         <v>13893</v>
       </c>
     </row>
-    <row r="141" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:160">
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
@@ -42484,7 +43051,7 @@
       <c r="AU141" s="25"/>
       <c r="AV141" s="25"/>
     </row>
-    <row r="142" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:160">
       <c r="B142" s="3" t="s">
         <v>809</v>
       </c>
@@ -42560,7 +43127,7 @@
         <v>100920</v>
       </c>
     </row>
-    <row r="143" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:160">
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
@@ -42603,7 +43170,7 @@
       <c r="AU143" s="25"/>
       <c r="AV143" s="25"/>
     </row>
-    <row r="144" spans="2:160" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:160">
       <c r="B144" s="3" t="s">
         <v>940</v>
       </c>
@@ -42653,7 +43220,7 @@
         <v>-18699</v>
       </c>
     </row>
-    <row r="145" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:159">
       <c r="B145" s="3" t="s">
         <v>810</v>
       </c>
@@ -42703,7 +43270,7 @@
         <v>10510</v>
       </c>
     </row>
-    <row r="146" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:159">
       <c r="B146" s="3" t="s">
         <v>931</v>
       </c>
@@ -42752,7 +43319,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="147" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:159">
       <c r="B147" s="3" t="s">
         <v>932</v>
       </c>
@@ -42802,7 +43369,7 @@
         <v>7226</v>
       </c>
     </row>
-    <row r="148" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:159">
       <c r="B148" s="3" t="s">
         <v>933</v>
       </c>
@@ -42851,7 +43418,7 @@
         <v>11021</v>
       </c>
     </row>
-    <row r="149" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:159">
       <c r="B149" s="3" t="s">
         <v>934</v>
       </c>
@@ -42900,7 +43467,7 @@
         <v>7749</v>
       </c>
     </row>
-    <row r="150" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:159">
       <c r="B150" s="3" t="s">
         <v>935</v>
       </c>
@@ -42949,7 +43516,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="151" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:159">
       <c r="B151" s="3" t="s">
         <v>936</v>
       </c>
@@ -42998,7 +43565,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="152" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:159">
       <c r="B152" s="3" t="s">
         <v>939</v>
       </c>
@@ -43048,7 +43615,7 @@
         <v>25433</v>
       </c>
     </row>
-    <row r="153" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:159">
       <c r="B153" s="3" t="s">
         <v>938</v>
       </c>
@@ -43097,7 +43664,7 @@
         <v>21724</v>
       </c>
     </row>
-    <row r="154" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:159">
       <c r="B154" s="3" t="s">
         <v>937</v>
       </c>
@@ -43106,7 +43673,7 @@
         <v>90468</v>
       </c>
     </row>
-    <row r="156" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:159">
       <c r="B156" s="3" t="s">
         <v>611</v>
       </c>
@@ -43115,7 +43682,7 @@
         <v>29209</v>
       </c>
     </row>
-    <row r="157" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:159">
       <c r="B157" s="3" t="s">
         <v>943</v>
       </c>
@@ -43123,7 +43690,7 @@
         <v>12158</v>
       </c>
     </row>
-    <row r="158" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:159">
       <c r="B158" s="3" t="s">
         <v>942</v>
       </c>
@@ -43131,7 +43698,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="159" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:159">
       <c r="B159" s="3" t="s">
         <v>941</v>
       </c>
@@ -43140,7 +43707,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="160" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:159">
       <c r="B160" s="3" t="s">
         <v>932</v>
       </c>
@@ -43149,7 +43716,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="161" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:159">
       <c r="B161" s="3" t="s">
         <v>944</v>
       </c>
@@ -43157,7 +43724,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="162" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:159">
       <c r="B162" s="3" t="s">
         <v>945</v>
       </c>
@@ -43165,7 +43732,7 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="163" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:159">
       <c r="B163" s="3" t="s">
         <v>947</v>
       </c>
@@ -43173,7 +43740,7 @@
         <v>33263</v>
       </c>
     </row>
-    <row r="164" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:159">
       <c r="B164" s="3" t="s">
         <v>946</v>
       </c>
@@ -43206,18 +43773,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>814</v>
       </c>
@@ -43225,7 +43792,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
         <v>815</v>
       </c>
@@ -43233,7 +43800,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
@@ -43241,13 +43808,13 @@
         <v>817</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
         <v>818</v>
       </c>
@@ -43255,57 +43822,57 @@
         <v>813</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="C8" s="40" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="C9" s="2" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="C10" s="2" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="C11" s="2" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="C13" s="40" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="C15" s="2" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="C16" s="2" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3">
       <c r="C18" s="2" t="s">
         <v>841</v>
       </c>
@@ -43326,59 +43893,59 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="40" t="s">
         <v>459</v>
       </c>
@@ -43389,7 +43956,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" s="2" t="s">
         <v>460</v>
       </c>
@@ -43401,7 +43968,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" s="2" t="s">
         <v>461</v>
       </c>
@@ -43413,7 +43980,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" s="2" t="s">
         <v>462</v>
       </c>
@@ -43425,7 +43992,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="B15" s="2" t="s">
         <v>480</v>
       </c>
@@ -43437,7 +44004,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="B16" s="2" t="s">
         <v>481</v>
       </c>
@@ -43449,15 +44016,15 @@
         <v>665</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="E17" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" s="40" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="B20" s="2" t="s">
         <v>844</v>
       </c>
@@ -43482,20 +44049,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
@@ -43503,7 +44070,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
         <v>51</v>
       </c>
@@ -43511,7 +44078,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
@@ -43519,7 +44086,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
@@ -43527,7 +44094,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
         <v>168</v>
       </c>
@@ -43535,7 +44102,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
         <v>106</v>
       </c>
@@ -43543,7 +44110,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="B8" s="5" t="s">
         <v>914</v>
       </c>
@@ -43551,7 +44118,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="B9" s="5" t="s">
         <v>916</v>
       </c>
@@ -43559,7 +44126,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="B10" s="5" t="s">
         <v>913</v>
       </c>
@@ -43567,7 +44134,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -43575,7 +44142,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="B12" s="3" t="s">
         <v>75</v>
       </c>
@@ -43583,122 +44150,122 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="C14" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="C15" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3">
       <c r="C17" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3">
       <c r="C18" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3">
       <c r="C20" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3">
       <c r="C21" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3">
       <c r="C23" s="16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3">
       <c r="C25" s="16" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3">
       <c r="C26" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3">
       <c r="C28" s="16" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3">
       <c r="C29" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3">
       <c r="C31" s="16" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:3">
       <c r="C32" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:29">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:29">
       <c r="C34" s="16" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:29">
       <c r="C35" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:29">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:29">
       <c r="C37" s="16" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="38" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:29">
       <c r="C38" s="3" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="39" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:29">
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:29">
       <c r="C40" s="16" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="41" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:29">
       <c r="C41" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="43" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:29">
       <c r="C43" s="31" t="s">
         <v>56</v>
       </c>
@@ -43781,7 +44348,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:29">
       <c r="C44" s="17" t="s">
         <v>61</v>
       </c>
@@ -43881,7 +44448,7 @@
       </c>
       <c r="AC44" s="105"/>
     </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:29">
       <c r="C45" s="15" t="s">
         <v>93</v>
       </c>
@@ -43961,7 +44528,7 @@
       <c r="AB45" s="107"/>
       <c r="AC45" s="107"/>
     </row>
-    <row r="46" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:29">
       <c r="C46" s="15" t="s">
         <v>92</v>
       </c>
@@ -44041,7 +44608,7 @@
       <c r="AB46" s="107"/>
       <c r="AC46" s="107"/>
     </row>
-    <row r="47" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:29">
       <c r="C47" s="15" t="s">
         <v>162</v>
       </c>
@@ -44121,12 +44688,12 @@
       <c r="AB47" s="107"/>
       <c r="AC47" s="107"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4">
       <c r="C51" s="55">
         <v>39387</v>
       </c>
@@ -44134,7 +44701,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4">
       <c r="C52" s="55">
         <v>39356</v>
       </c>
@@ -44154,566 +44721,51 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914A0F0E-07B1-F341-AD79-56F9F4F62487}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="5" t="s">
+    <row r="2" spans="1:3">
+      <c r="B2" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="C5" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="C7" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="16" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="16" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="16"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="16" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="16" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="16" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="16" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="16"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="16" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="16" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="16" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="16"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="16" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="16" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="16" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="16"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="16" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="16" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="16" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="16" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="16"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C97" s="16" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C98" s="16"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C99" s="16" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C100" s="16"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C101" s="16" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C102" s="16"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C103" s="16" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C104" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C105" s="16"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C106" s="16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C107" s="16"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C108" s="16"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C109" s="16"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C111" s="55">
-        <v>39387</v>
-      </c>
-      <c r="D111" s="5">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C112" s="55">
-        <v>39356</v>
-      </c>
-      <c r="D112" s="5">
-        <v>196</v>
+      <c r="C4" s="2" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E1D96BB9-C922-CC4B-B74F-B678E7F4A88C}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -44827,6 +44879,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -44834,14 +44895,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C23984D-947A-4544-B729-0E53BCCB05F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2911DF48-8F96-42CC-AFEE-EFAF0475AAB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44853,6 +44906,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C23984D-947A-4544-B729-0E53BCCB05F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ROG VX.xlsx
+++ b/ROG VX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83019B5-9A54-4548-822A-915DB3976CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E86E6-4DF7-4155-A3FB-4E1C2C59B07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="2900" windowWidth="19230" windowHeight="18000" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16070" yWindow="3900" windowWidth="21730" windowHeight="15370" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management and Structure" sheetId="121" r:id="rId1"/>
@@ -2361,7 +2361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1003">
   <si>
     <t>Gross Profit</t>
   </si>
@@ -5364,6 +5364,12 @@
   </si>
   <si>
     <t>Phase III "FeDeriCa"</t>
+  </si>
+  <si>
+    <t>COB: Severin Schwan</t>
+  </si>
+  <si>
+    <t>3/25/25: AGM. Dividend CHF 9.70.</t>
   </si>
 </sst>
 </file>
@@ -11746,10 +11752,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -12287,6 +12293,9 @@
         <v>163</v>
       </c>
       <c r="G24" s="35"/>
+      <c r="I24" s="3" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
@@ -13278,6 +13287,32 @@
       <c r="F100" s="117" t="s">
         <v>925</v>
       </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="117"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="117" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="117"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="117"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="117"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="117"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="117"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="117"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
@@ -13964,99 +13999,99 @@
       <c r="AV3" s="25"/>
       <c r="AW3" s="93"/>
       <c r="AX3" s="66">
-        <f>SUM(AX22:AX66)</f>
+        <f t="shared" ref="AX3:BK3" si="12">SUM(AX22:AX66)</f>
         <v>4069.9046424090338</v>
       </c>
       <c r="AY3" s="66">
-        <f>SUM(AY22:AY66)</f>
+        <f t="shared" si="12"/>
         <v>4173.6097867001254</v>
       </c>
       <c r="AZ3" s="66">
-        <f>SUM(AZ22:AZ66)</f>
+        <f t="shared" si="12"/>
         <v>4166.2823086574654</v>
       </c>
       <c r="BA3" s="66">
-        <f>SUM(BA22:BA66)</f>
+        <f t="shared" si="12"/>
         <v>4238</v>
       </c>
       <c r="BB3" s="66">
-        <f>SUM(BB22:BB66)</f>
+        <f t="shared" si="12"/>
         <v>4755</v>
       </c>
       <c r="BC3" s="66">
-        <f>SUM(BC22:BC66)</f>
+        <f t="shared" si="12"/>
         <v>4932.7282626022334</v>
       </c>
       <c r="BD3" s="66">
-        <f>SUM(BD22:BD66)</f>
+        <f t="shared" si="12"/>
         <v>5009.2717373977657</v>
       </c>
       <c r="BE3" s="66">
-        <f>SUM(BE22:BE66)</f>
+        <f t="shared" si="12"/>
         <v>5887</v>
       </c>
       <c r="BF3" s="66">
-        <f>SUM(BF22:BF66)</f>
+        <f t="shared" si="12"/>
         <v>5602</v>
       </c>
       <c r="BG3" s="66">
-        <f>SUM(BG22:BG66)</f>
+        <f t="shared" si="12"/>
         <v>5550</v>
       </c>
       <c r="BH3" s="66">
-        <f>SUM(BH22:BH66)</f>
+        <f t="shared" si="12"/>
         <v>6038.2578675886843</v>
       </c>
       <c r="BI3" s="66">
-        <f>SUM(BI22:BI66)</f>
+        <f t="shared" si="12"/>
         <v>6461.146521744965</v>
       </c>
       <c r="BJ3" s="66">
-        <f>SUM(BJ22:BJ66)</f>
+        <f t="shared" si="12"/>
         <v>5116</v>
       </c>
       <c r="BK3" s="66">
-        <f>SUM(BK22:BK66)</f>
+        <f t="shared" si="12"/>
         <v>4939</v>
       </c>
       <c r="BL3" s="66">
-        <f>SUM(BL22:BL67)</f>
+        <f t="shared" ref="BL3:BU3" si="13">SUM(BL22:BL67)</f>
         <v>9212</v>
       </c>
       <c r="BM3" s="66">
-        <f>SUM(BM22:BM67)</f>
+        <f t="shared" si="13"/>
         <v>10011</v>
       </c>
       <c r="BN3" s="66">
-        <f>SUM(BN22:BN67)</f>
+        <f t="shared" si="13"/>
         <v>8795</v>
       </c>
       <c r="BO3" s="66">
-        <f>SUM(BO22:BO67)</f>
+        <f t="shared" si="13"/>
         <v>8902</v>
       </c>
       <c r="BP3" s="66">
-        <f>SUM(BP22:BP67)</f>
+        <f t="shared" si="13"/>
         <v>9138</v>
       </c>
       <c r="BQ3" s="66">
-        <f>SUM(BQ22:BQ67)</f>
+        <f t="shared" si="13"/>
         <v>9972</v>
       </c>
       <c r="BR3" s="66">
-        <f>SUM(BR22:BR67)</f>
+        <f t="shared" si="13"/>
         <v>9396</v>
       </c>
       <c r="BS3" s="66">
-        <f>SUM(BS22:BS67)</f>
+        <f t="shared" si="13"/>
         <v>10081</v>
       </c>
       <c r="BT3" s="66">
-        <f>SUM(BT22:BT67)</f>
+        <f t="shared" si="13"/>
         <v>10101</v>
       </c>
       <c r="BU3" s="66">
-        <f>SUM(BU22:BU67)</f>
+        <f t="shared" si="13"/>
         <v>9962</v>
       </c>
       <c r="BV3" s="66">
@@ -14064,31 +14099,31 @@
         <v>5341</v>
       </c>
       <c r="BW3" s="66">
-        <f>SUM(BW22:BW67)</f>
+        <f t="shared" ref="BW3:CC3" si="14">SUM(BW22:BW67)</f>
         <v>9659</v>
       </c>
       <c r="BX3" s="66">
-        <f>SUM(BX22:BX67)</f>
+        <f t="shared" si="14"/>
         <v>9009</v>
       </c>
       <c r="BY3" s="66">
-        <f>SUM(BY22:BY67)</f>
+        <f t="shared" si="14"/>
         <v>8663</v>
       </c>
       <c r="BZ3" s="66">
-        <f>SUM(BZ22:BZ67)</f>
+        <f t="shared" si="14"/>
         <v>8712</v>
       </c>
       <c r="CA3" s="66">
-        <f>SUM(CA22:CA67)</f>
+        <f t="shared" si="14"/>
         <v>8103</v>
       </c>
       <c r="CB3" s="66">
-        <f>SUM(CB22:CB67)</f>
+        <f t="shared" si="14"/>
         <v>7582</v>
       </c>
       <c r="CC3" s="66">
-        <f>SUM(CC22:CC67)</f>
+        <f t="shared" si="14"/>
         <v>8397</v>
       </c>
       <c r="CD3" s="66"/>
@@ -14128,55 +14163,55 @@
       <c r="DL3" s="66"/>
       <c r="DM3" s="66"/>
       <c r="DN3" s="66">
-        <f>SUM(DN9:DN66)</f>
+        <f t="shared" ref="DN3:DZ3" si="15">SUM(DN9:DN66)</f>
         <v>9557</v>
       </c>
       <c r="DO3" s="66">
-        <f>SUM(DO9:DO66)</f>
+        <f t="shared" si="15"/>
         <v>10001</v>
       </c>
       <c r="DP3" s="66">
-        <f>SUM(DP9:DP66)</f>
+        <f t="shared" si="15"/>
         <v>10547</v>
       </c>
       <c r="DQ3" s="66">
-        <f>SUM(DQ9:DQ66)</f>
+        <f t="shared" si="15"/>
         <v>10511</v>
       </c>
       <c r="DR3" s="66">
-        <f>SUM(DR9:DR66)</f>
+        <f t="shared" si="15"/>
         <v>11159</v>
       </c>
       <c r="DS3" s="66">
-        <f>SUM(DS9:DS66)</f>
+        <f t="shared" si="15"/>
         <v>10082</v>
       </c>
       <c r="DT3" s="66">
-        <f>SUM(DT9:DT66)</f>
+        <f t="shared" si="15"/>
         <v>9636</v>
       </c>
       <c r="DU3" s="66">
-        <f>SUM(DU9:DU66)</f>
+        <f t="shared" si="15"/>
         <v>11088</v>
       </c>
       <c r="DV3" s="66">
-        <f>SUM(DV9:DV66)</f>
+        <f t="shared" si="15"/>
         <v>10573</v>
       </c>
       <c r="DW3" s="66">
-        <f>SUM(DW9:DW66)</f>
+        <f t="shared" si="15"/>
         <v>9974</v>
       </c>
       <c r="DX3" s="66">
-        <f>SUM(DX9:DX66)</f>
+        <f t="shared" si="15"/>
         <v>9893</v>
       </c>
       <c r="DY3" s="66">
-        <f>SUM(DY9:DY66)</f>
+        <f t="shared" si="15"/>
         <v>10085</v>
       </c>
       <c r="DZ3" s="66">
-        <f>SUM(DZ9:DZ66)</f>
+        <f t="shared" si="15"/>
         <v>10921</v>
       </c>
       <c r="EA3" s="66">
@@ -14192,35 +14227,35 @@
       <c r="EE3" s="66"/>
       <c r="EF3" s="5"/>
       <c r="EG3" s="66">
-        <f>SUM(EG22:EG66)</f>
+        <f t="shared" ref="EG3:EN3" si="16">SUM(EG22:EG66)</f>
         <v>14673</v>
       </c>
       <c r="EH3" s="66">
-        <f>SUM(EH22:EH66)</f>
+        <f t="shared" si="16"/>
         <v>14294</v>
       </c>
       <c r="EI3" s="66">
-        <f>SUM(EI22:EI66)</f>
+        <f t="shared" si="16"/>
         <v>15796</v>
       </c>
       <c r="EJ3" s="66">
-        <f>SUM(EJ22:EJ66)</f>
+        <f t="shared" si="16"/>
         <v>16647.796737766625</v>
       </c>
       <c r="EK3" s="66">
-        <f>SUM(EK22:EK66)</f>
+        <f t="shared" si="16"/>
         <v>20584</v>
       </c>
       <c r="EL3" s="66">
-        <f>SUM(EL22:EL66)</f>
+        <f t="shared" si="16"/>
         <v>22785.404389333649</v>
       </c>
       <c r="EM3" s="66">
-        <f>SUM(EM22:EM66)</f>
+        <f t="shared" si="16"/>
         <v>20074</v>
       </c>
       <c r="EN3" s="66">
-        <f>SUM(EN22:EN66)</f>
+        <f t="shared" si="16"/>
         <v>19186</v>
       </c>
       <c r="EO3" s="66">
@@ -14232,39 +14267,39 @@
         <v>36911</v>
       </c>
       <c r="EQ3" s="68">
-        <f t="shared" ref="EQ3:EQ8" si="12">SUM(BZ3:CC3)</f>
+        <f t="shared" ref="EQ3:EQ8" si="17">SUM(BZ3:CC3)</f>
         <v>32794</v>
       </c>
       <c r="ER3" s="66">
-        <f>SUM(ER22:ER67)</f>
+        <f t="shared" ref="ER3:EY3" si="18">SUM(ER22:ER67)</f>
         <v>17131</v>
       </c>
       <c r="ES3" s="66">
-        <f>SUM(ES22:ES67)</f>
+        <f t="shared" si="18"/>
         <v>17584</v>
       </c>
       <c r="ET3" s="66">
-        <f>SUM(ET22:ET67)</f>
+        <f t="shared" si="18"/>
         <v>6406.8399999999992</v>
       </c>
       <c r="EU3" s="66">
-        <f>SUM(EU22:EU67)</f>
+        <f t="shared" si="18"/>
         <v>5848.4673999999995</v>
       </c>
       <c r="EV3" s="66">
-        <f>SUM(EV22:EV67)</f>
+        <f t="shared" si="18"/>
         <v>5613.581964</v>
       </c>
       <c r="EW3" s="66">
-        <f>SUM(EW22:EW67)</f>
+        <f t="shared" si="18"/>
         <v>5188.8899900900005</v>
       </c>
       <c r="EX3" s="66">
-        <f>SUM(EX22:EX67)</f>
+        <f t="shared" si="18"/>
         <v>4939.993442761901</v>
       </c>
       <c r="EY3" s="66">
-        <f>SUM(EY22:EY67)</f>
+        <f t="shared" si="18"/>
         <v>2228.9036107822703</v>
       </c>
       <c r="EZ3" s="66">
@@ -14540,15 +14575,15 @@
         <v>10461</v>
       </c>
       <c r="EO4" s="27">
-        <f t="shared" ref="EO4:EO22" si="13">SUM(BR4:BU4)</f>
+        <f t="shared" ref="EO4:EO22" si="19">SUM(BR4:BU4)</f>
         <v>14805</v>
       </c>
       <c r="EP4" s="27">
-        <f t="shared" ref="EP4:EP52" si="14">SUM(BV4:BY4)</f>
+        <f t="shared" ref="EP4:EP52" si="20">SUM(BV4:BY4)</f>
         <v>14071</v>
       </c>
       <c r="EQ4" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>12223</v>
       </c>
       <c r="ER4" s="27"/>
@@ -14611,7 +14646,7 @@
         <v>2184</v>
       </c>
       <c r="R5" s="27">
-        <f t="shared" ref="R5:R6" si="15">BT5+BU5</f>
+        <f t="shared" ref="R5:R6" si="21">BT5+BU5</f>
         <v>2581</v>
       </c>
       <c r="S5" s="27">
@@ -14825,7 +14860,7 @@
         <v>3503</v>
       </c>
       <c r="EM5" s="27">
-        <f t="shared" ref="EM5:EM51" si="16">SUM(M5:N5)</f>
+        <f t="shared" ref="EM5:EM51" si="22">SUM(M5:N5)</f>
         <v>3399</v>
       </c>
       <c r="EN5" s="27">
@@ -14833,15 +14868,15 @@
         <v>3336</v>
       </c>
       <c r="EO5" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4765</v>
       </c>
       <c r="EP5" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4319</v>
       </c>
       <c r="EQ5" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3817</v>
       </c>
       <c r="ER5" s="27"/>
@@ -14904,7 +14939,7 @@
         <v>4902</v>
       </c>
       <c r="R6" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>5153</v>
       </c>
       <c r="S6" s="27">
@@ -15150,15 +15185,15 @@
         <v>9656</v>
       </c>
       <c r="EO6" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>10055</v>
       </c>
       <c r="EP6" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>10415</v>
       </c>
       <c r="EQ6" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>9737</v>
       </c>
       <c r="ER6" s="27"/>
@@ -15364,15 +15399,15 @@
       <c r="EM7" s="27"/>
       <c r="EN7" s="27"/>
       <c r="EO7" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2238</v>
       </c>
       <c r="EP7" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>9201</v>
       </c>
       <c r="EQ7" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>8533</v>
       </c>
       <c r="ER7" s="27"/>
@@ -15649,11 +15684,11 @@
         <v>16955</v>
       </c>
       <c r="EL8" s="27">
-        <f t="shared" ref="EL8:EL47" si="17">SUM(K8:L8)</f>
+        <f t="shared" ref="EL8:EL47" si="23">SUM(K8:L8)</f>
         <v>20666</v>
       </c>
       <c r="EM8" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>22970</v>
       </c>
       <c r="EN8" s="27">
@@ -15661,15 +15696,15 @@
         <v>22164</v>
       </c>
       <c r="EO8" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>17188</v>
       </c>
       <c r="EP8" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>9467</v>
       </c>
       <c r="EQ8" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>8221</v>
       </c>
       <c r="ER8" s="27"/>
@@ -15894,7 +15929,7 @@
         <v>6036</v>
       </c>
       <c r="FC9" s="54">
-        <f t="shared" ref="FC9:FC62" si="18">SUM(DV9:DY9)</f>
+        <f t="shared" ref="FC9:FC62" si="24">SUM(DV9:DY9)</f>
         <v>6381</v>
       </c>
       <c r="FD9" s="54">
@@ -16069,7 +16104,7 @@
         <v>1137</v>
       </c>
       <c r="EC10" s="54">
-        <f t="shared" ref="EC10:EC66" si="19">+FD10-EB10-EA10-DZ10</f>
+        <f t="shared" ref="EC10:EC66" si="25">+FD10-EB10-EA10-DZ10</f>
         <v>1223</v>
       </c>
       <c r="ED10" s="66"/>
@@ -16105,7 +16140,7 @@
         <v>3823</v>
       </c>
       <c r="FC10" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>4147</v>
       </c>
       <c r="FD10" s="54">
@@ -16296,7 +16331,7 @@
         <v>888</v>
       </c>
       <c r="EC11" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>807</v>
       </c>
       <c r="ED11" s="66"/>
@@ -16334,11 +16369,11 @@
         <v>3955</v>
       </c>
       <c r="FB11" s="20">
-        <f t="shared" ref="FB11:FB30" si="20">SUM(DR11:DU11)</f>
+        <f t="shared" ref="FB11:FB30" si="26">SUM(DR11:DU11)</f>
         <v>4087</v>
       </c>
       <c r="FC11" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3768</v>
       </c>
       <c r="FD11" s="54">
@@ -16513,7 +16548,7 @@
         <v>905</v>
       </c>
       <c r="EC12" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>937</v>
       </c>
       <c r="ED12" s="66"/>
@@ -16545,11 +16580,11 @@
         <v>3315</v>
       </c>
       <c r="FB12" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>3717</v>
       </c>
       <c r="FC12" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3766</v>
       </c>
       <c r="FD12" s="54">
@@ -16712,7 +16747,7 @@
         <v>1022</v>
       </c>
       <c r="EC13" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1048</v>
       </c>
       <c r="ED13" s="66"/>
@@ -16743,7 +16778,7 @@
         <v>591</v>
       </c>
       <c r="FC13" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2357</v>
       </c>
       <c r="FD13" s="54">
@@ -16774,7 +16809,7 @@
         <v>155</v>
       </c>
       <c r="T14" s="25">
-        <f t="shared" ref="T14" si="21">+BY14+BX14</f>
+        <f t="shared" ref="T14" si="27">+BY14+BX14</f>
         <v>242</v>
       </c>
       <c r="U14" s="25">
@@ -16842,7 +16877,7 @@
         <v>66</v>
       </c>
       <c r="BW14" s="66">
-        <f t="shared" ref="BW14" si="22">+S14-BV14</f>
+        <f t="shared" ref="BW14" si="28">+S14-BV14</f>
         <v>89</v>
       </c>
       <c r="BX14" s="66">
@@ -16969,7 +17004,7 @@
         <v>672</v>
       </c>
       <c r="EC14" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>697</v>
       </c>
       <c r="ED14" s="66"/>
@@ -17013,11 +17048,11 @@
         <v>3562</v>
       </c>
       <c r="FB14" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2701</v>
       </c>
       <c r="FC14" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2630</v>
       </c>
       <c r="FD14" s="54">
@@ -17318,7 +17353,7 @@
         <v>627</v>
       </c>
       <c r="EC15" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>733</v>
       </c>
       <c r="ED15" s="66"/>
@@ -17386,11 +17421,11 @@
         <v>1942</v>
       </c>
       <c r="FB15" s="20">
-        <f t="shared" ref="FB15:FB21" si="23">SUM(DR15:DU15)</f>
+        <f t="shared" ref="FB15:FB21" si="29">SUM(DR15:DU15)</f>
         <v>2208</v>
       </c>
       <c r="FC15" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2176</v>
       </c>
       <c r="FD15" s="54">
@@ -17577,7 +17612,7 @@
         <v>495</v>
       </c>
       <c r="EC16" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>504</v>
       </c>
       <c r="ED16" s="66"/>
@@ -17609,11 +17644,11 @@
         <v>1982</v>
       </c>
       <c r="FB16" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2080</v>
       </c>
       <c r="FC16" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1966</v>
       </c>
       <c r="FD16" s="54">
@@ -17788,7 +17823,7 @@
         <v>445</v>
       </c>
       <c r="EC17" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>496</v>
       </c>
       <c r="ED17" s="66"/>
@@ -17820,11 +17855,11 @@
         <v>340</v>
       </c>
       <c r="FB17" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>740</v>
       </c>
       <c r="FC17" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1120</v>
       </c>
       <c r="FD17" s="54">
@@ -18131,7 +18166,7 @@
         <v>323</v>
       </c>
       <c r="EC18" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>318</v>
       </c>
       <c r="ED18" s="66"/>
@@ -18199,11 +18234,11 @@
         <v>2694</v>
       </c>
       <c r="FB18" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2142</v>
       </c>
       <c r="FC18" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1626</v>
       </c>
       <c r="FD18" s="54">
@@ -18378,7 +18413,7 @@
         <v>408</v>
       </c>
       <c r="EC19" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>385</v>
       </c>
       <c r="ED19" s="66"/>
@@ -18410,11 +18445,11 @@
         <v>602</v>
       </c>
       <c r="FB19" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1119</v>
       </c>
       <c r="FC19" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1419</v>
       </c>
       <c r="FD19" s="54">
@@ -18721,7 +18756,7 @@
         <v>317</v>
       </c>
       <c r="EC20" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>356</v>
       </c>
       <c r="ED20" s="66"/>
@@ -18789,11 +18824,11 @@
         <v>2565</v>
       </c>
       <c r="FB20" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>2075</v>
       </c>
       <c r="FC20" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1630</v>
       </c>
       <c r="FD20" s="54">
@@ -18968,7 +19003,7 @@
         <v>385</v>
       </c>
       <c r="EC21" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>397</v>
       </c>
       <c r="ED21" s="66"/>
@@ -19000,11 +19035,11 @@
         <v>1356</v>
       </c>
       <c r="FB21" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1513</v>
       </c>
       <c r="FC21" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1502</v>
       </c>
       <c r="FD21" s="54">
@@ -19311,7 +19346,7 @@
         <v>289</v>
       </c>
       <c r="EC22" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>290</v>
       </c>
       <c r="ED22" s="66"/>
@@ -19335,7 +19370,7 @@
         <v>1665</v>
       </c>
       <c r="EL22" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2962</v>
       </c>
       <c r="EM22" s="25">
@@ -19343,11 +19378,11 @@
         <v>4106</v>
       </c>
       <c r="EN22" s="25">
-        <f t="shared" ref="EN22:EN47" si="24">SUM(BN22:BQ22)</f>
+        <f t="shared" ref="EN22:EN47" si="30">SUM(BN22:BQ22)</f>
         <v>5207</v>
       </c>
       <c r="EO22" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6222</v>
       </c>
       <c r="EP22" s="25">
@@ -19379,11 +19414,11 @@
         <v>3056</v>
       </c>
       <c r="FB22" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2122</v>
       </c>
       <c r="FC22" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1573</v>
       </c>
       <c r="FD22" s="54">
@@ -19553,7 +19588,7 @@
         <v>3</v>
       </c>
       <c r="EC23" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED23" s="66"/>
@@ -19585,11 +19620,11 @@
         <v>1630</v>
       </c>
       <c r="FB23" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1679</v>
       </c>
       <c r="FC23" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>525</v>
       </c>
       <c r="FD23" s="54">
@@ -19641,15 +19676,15 @@
         <v>697</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" ref="T24:T53" si="25">+BY24+BX24</f>
+        <f t="shared" ref="T24:T53" si="31">+BY24+BX24</f>
         <v>761</v>
       </c>
       <c r="U24" s="25">
-        <f t="shared" ref="U24:U54" si="26">SUM(BZ24:CA24)</f>
+        <f t="shared" ref="U24:U54" si="32">SUM(BZ24:CA24)</f>
         <v>769</v>
       </c>
       <c r="V24" s="25">
-        <f t="shared" ref="V24:V53" si="27">CC24+CB24</f>
+        <f t="shared" ref="V24:V53" si="33">CC24+CB24</f>
         <v>754</v>
       </c>
       <c r="W24" s="25"/>
@@ -19879,7 +19914,7 @@
         <v>0</v>
       </c>
       <c r="EC24" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED24" s="66"/>
@@ -19903,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="EL24" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>478</v>
       </c>
       <c r="EM24" s="25">
@@ -19911,7 +19946,7 @@
         <v>991</v>
       </c>
       <c r="EN24" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>960</v>
       </c>
       <c r="EO24" s="25">
@@ -19919,19 +19954,19 @@
         <v>1198</v>
       </c>
       <c r="EP24" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1458</v>
       </c>
       <c r="EQ24" s="25">
-        <f t="shared" ref="EQ24:EQ54" si="28">SUM(BZ24:CC24)</f>
+        <f t="shared" ref="EQ24:EQ54" si="34">SUM(BZ24:CC24)</f>
         <v>1523</v>
       </c>
       <c r="ER24" s="25">
-        <f t="shared" ref="ER24:ER64" si="29">SUM(CD24:CG24)</f>
+        <f t="shared" ref="ER24:ER64" si="35">SUM(CD24:CG24)</f>
         <v>1481</v>
       </c>
       <c r="ES24" s="25">
-        <f t="shared" ref="ES24:ES64" si="30">SUM(CH24:CK24)</f>
+        <f t="shared" ref="ES24:ES64" si="36">SUM(CH24:CK24)</f>
         <v>1689</v>
       </c>
       <c r="ET24" s="25"/>
@@ -19947,11 +19982,11 @@
         <v>1353</v>
       </c>
       <c r="FB24" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1012</v>
       </c>
       <c r="FC24" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>460</v>
       </c>
       <c r="FD24" s="46"/>
@@ -20248,7 +20283,7 @@
         <v>302</v>
       </c>
       <c r="EC25" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>307</v>
       </c>
       <c r="ED25" s="66"/>
@@ -20316,11 +20351,11 @@
         <v>1312</v>
       </c>
       <c r="FB25" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1177</v>
       </c>
       <c r="FC25" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1173</v>
       </c>
       <c r="FD25" s="54">
@@ -20497,7 +20532,7 @@
         <v>225</v>
       </c>
       <c r="EC26" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>240</v>
       </c>
       <c r="ED26" s="66"/>
@@ -20533,7 +20568,7 @@
         <v>730</v>
       </c>
       <c r="FC26" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>811</v>
       </c>
       <c r="FD26" s="54">
@@ -20834,7 +20869,7 @@
         <v>104</v>
       </c>
       <c r="EC27" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>126</v>
       </c>
       <c r="ED27" s="66"/>
@@ -20906,7 +20941,7 @@
         <v>543</v>
       </c>
       <c r="FC27" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>452</v>
       </c>
       <c r="FD27" s="54">
@@ -21199,7 +21234,7 @@
         <v>86</v>
       </c>
       <c r="EC28" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>116</v>
       </c>
       <c r="ED28" s="66"/>
@@ -21433,7 +21468,7 @@
         <v>304</v>
       </c>
       <c r="EC29" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>304</v>
       </c>
       <c r="ED29" s="66"/>
@@ -21469,7 +21504,7 @@
         <v>228</v>
       </c>
       <c r="FC29" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>837</v>
       </c>
       <c r="FD29" s="54">
@@ -21625,7 +21660,7 @@
       <c r="EA30" s="66"/>
       <c r="EB30" s="66"/>
       <c r="EC30" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED30" s="66"/>
@@ -21657,7 +21692,7 @@
         <v>1039</v>
       </c>
       <c r="FB30" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>590</v>
       </c>
       <c r="FC30" s="54">
@@ -21804,7 +21839,7 @@
       <c r="EA31" s="66"/>
       <c r="EB31" s="66"/>
       <c r="EC31" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED31" s="66"/>
@@ -21986,7 +22021,7 @@
         <v>80</v>
       </c>
       <c r="EC32" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>88</v>
       </c>
       <c r="ED32" s="66"/>
@@ -22166,7 +22201,7 @@
         <v>36</v>
       </c>
       <c r="EC33" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>36</v>
       </c>
       <c r="ED33" s="66"/>
@@ -22342,7 +22377,7 @@
         <v>10</v>
       </c>
       <c r="EC34" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="ED34" s="66"/>
@@ -22512,7 +22547,7 @@
       <c r="EA35" s="66"/>
       <c r="EB35" s="66"/>
       <c r="EC35" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED35" s="66"/>
@@ -22683,7 +22718,7 @@
       </c>
       <c r="EB36" s="66"/>
       <c r="EC36" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>84</v>
       </c>
       <c r="ED36" s="66"/>
@@ -22862,7 +22897,7 @@
         <v>2</v>
       </c>
       <c r="EC37" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="ED37" s="66"/>
@@ -23036,7 +23071,7 @@
         <v>17</v>
       </c>
       <c r="EC38" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="ED38" s="66"/>
@@ -23210,7 +23245,7 @@
         <v>49</v>
       </c>
       <c r="EC39" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>56</v>
       </c>
       <c r="ED39" s="66"/>
@@ -23384,7 +23419,7 @@
         <v>108</v>
       </c>
       <c r="EC40" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>52</v>
       </c>
       <c r="ED40" s="66"/>
@@ -23558,7 +23593,7 @@
         <v>6</v>
       </c>
       <c r="EC41" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="ED41" s="66"/>
@@ -23726,7 +23761,7 @@
       <c r="EA42" s="66"/>
       <c r="EB42" s="66"/>
       <c r="EC42" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="ED42" s="66"/>
@@ -23794,30 +23829,30 @@
         <v>892</v>
       </c>
       <c r="P43" s="25">
-        <f t="shared" ref="P43:P51" si="31">SUM(BP43:BQ43)</f>
+        <f t="shared" ref="P43:P51" si="37">SUM(BP43:BQ43)</f>
         <v>882</v>
       </c>
       <c r="Q43" s="25">
-        <f t="shared" ref="Q43:Q53" si="32">SUM(BR43:BS43)</f>
+        <f t="shared" ref="Q43:Q53" si="38">SUM(BR43:BS43)</f>
         <v>789</v>
       </c>
       <c r="R43" s="25">
-        <f t="shared" ref="R43:R53" si="33">BT43+BU43</f>
+        <f t="shared" ref="R43:R53" si="39">BT43+BU43</f>
         <v>771</v>
       </c>
       <c r="S43" s="25">
         <v>677</v>
       </c>
       <c r="T43" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>608</v>
       </c>
       <c r="U43" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>493</v>
       </c>
       <c r="V43" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>403</v>
       </c>
       <c r="W43" s="25"/>
@@ -23926,7 +23961,7 @@
         <v>339</v>
       </c>
       <c r="BW43" s="66">
-        <f t="shared" ref="BW43:BW52" si="34">+S43-BV43</f>
+        <f t="shared" ref="BW43:BW52" si="40">+S43-BV43</f>
         <v>338</v>
       </c>
       <c r="BX43" s="66">
@@ -24021,7 +24056,7 @@
       <c r="EA43" s="66"/>
       <c r="EB43" s="66"/>
       <c r="EC43" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED43" s="66"/>
@@ -24037,67 +24072,67 @@
         <v>2051</v>
       </c>
       <c r="EJ43" s="25">
-        <f t="shared" ref="EJ43:EJ52" si="35">SUM(AX43:BA43)</f>
+        <f t="shared" ref="EJ43:EJ52" si="41">SUM(AX43:BA43)</f>
         <v>2082</v>
       </c>
       <c r="EK43" s="25">
-        <f t="shared" ref="EK43:EK52" si="36">SUM(BB43:BE43)</f>
+        <f t="shared" ref="EK43:EK52" si="42">SUM(BB43:BE43)</f>
         <v>2252</v>
       </c>
       <c r="EL43" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2227</v>
       </c>
       <c r="EM43" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2094</v>
       </c>
       <c r="EN43" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1774</v>
       </c>
       <c r="EO43" s="25">
-        <f t="shared" ref="EO43:EO53" si="37">SUM(BR43:BU43)</f>
+        <f t="shared" ref="EO43:EO53" si="43">SUM(BR43:BU43)</f>
         <v>1560</v>
       </c>
       <c r="EP43" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1285</v>
       </c>
       <c r="EQ43" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>896</v>
       </c>
       <c r="ER43" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>674</v>
       </c>
       <c r="ES43" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>520</v>
       </c>
       <c r="ET43" s="25">
-        <f t="shared" ref="ET43:EY43" si="38">ES43*0.99</f>
+        <f t="shared" ref="ET43:EY43" si="44">ES43*0.99</f>
         <v>514.79999999999995</v>
       </c>
       <c r="EU43" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>509.65199999999993</v>
       </c>
       <c r="EV43" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>504.55547999999993</v>
       </c>
       <c r="EW43" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>499.50992519999994</v>
       </c>
       <c r="EX43" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>494.51482594799995</v>
       </c>
       <c r="EY43" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>489.56967768851996</v>
       </c>
       <c r="EZ43" s="25"/>
@@ -24145,26 +24180,26 @@
         <v>850</v>
       </c>
       <c r="Q44" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>842</v>
       </c>
       <c r="R44" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>813</v>
       </c>
       <c r="S44" s="25">
         <v>869</v>
       </c>
       <c r="T44" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>776</v>
       </c>
       <c r="U44" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>695</v>
       </c>
       <c r="V44" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>743</v>
       </c>
       <c r="W44" s="25"/>
@@ -24273,7 +24308,7 @@
         <v>441</v>
       </c>
       <c r="BW44" s="66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>428</v>
       </c>
       <c r="BX44" s="66">
@@ -24368,7 +24403,7 @@
       <c r="EA44" s="66"/>
       <c r="EB44" s="66"/>
       <c r="EC44" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED44" s="66"/>
@@ -24384,15 +24419,15 @@
         <v>719</v>
       </c>
       <c r="EJ44" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1179</v>
       </c>
       <c r="EK44" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1403</v>
       </c>
       <c r="EL44" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1467</v>
       </c>
       <c r="EM44" s="25">
@@ -24400,27 +24435,27 @@
         <v>1637</v>
       </c>
       <c r="EN44" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1635</v>
       </c>
       <c r="EO44" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>1655</v>
       </c>
       <c r="EP44" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1645</v>
       </c>
       <c r="EQ44" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1438</v>
       </c>
       <c r="ER44" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1649</v>
       </c>
       <c r="ES44" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1312</v>
       </c>
       <c r="ET44" s="25">
@@ -24432,19 +24467,19 @@
         <v>839.68000000000018</v>
       </c>
       <c r="EV44" s="25">
-        <f t="shared" ref="EV44:EY44" si="39">EU44*0.8</f>
+        <f t="shared" ref="EV44:EY44" si="45">EU44*0.8</f>
         <v>671.74400000000014</v>
       </c>
       <c r="EW44" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>537.39520000000016</v>
       </c>
       <c r="EX44" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>429.91616000000016</v>
       </c>
       <c r="EY44" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>343.93292800000017</v>
       </c>
       <c r="EZ44" s="25"/>
@@ -24594,7 +24629,7 @@
         <v>5</v>
       </c>
       <c r="EC45" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="ED45" s="66"/>
@@ -24662,30 +24697,30 @@
         <v>573</v>
       </c>
       <c r="P46" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>638</v>
       </c>
       <c r="Q46" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>626</v>
       </c>
       <c r="R46" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>634</v>
       </c>
       <c r="S46" s="25">
         <v>732</v>
       </c>
       <c r="T46" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>694</v>
       </c>
       <c r="U46" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>668</v>
       </c>
       <c r="V46" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>686</v>
       </c>
       <c r="W46" s="25"/>
@@ -24794,7 +24829,7 @@
         <v>352</v>
       </c>
       <c r="BW46" s="66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>380</v>
       </c>
       <c r="BX46" s="66">
@@ -24889,7 +24924,7 @@
       <c r="EA46" s="66"/>
       <c r="EB46" s="66"/>
       <c r="EC46" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED46" s="66"/>
@@ -24905,43 +24940,43 @@
         <v>515</v>
       </c>
       <c r="EJ46" s="25">
+        <f t="shared" si="41"/>
+        <v>534</v>
+      </c>
+      <c r="EK46" s="25">
+        <f t="shared" si="42"/>
+        <v>796</v>
+      </c>
+      <c r="EL46" s="25">
+        <f t="shared" si="23"/>
+        <v>971</v>
+      </c>
+      <c r="EM46" s="25">
+        <f t="shared" si="22"/>
+        <v>1151</v>
+      </c>
+      <c r="EN46" s="25">
+        <f t="shared" si="30"/>
+        <v>1211</v>
+      </c>
+      <c r="EO46" s="25">
+        <f t="shared" si="43"/>
+        <v>1260</v>
+      </c>
+      <c r="EP46" s="25">
+        <f t="shared" si="20"/>
+        <v>1426</v>
+      </c>
+      <c r="EQ46" s="25">
+        <f t="shared" si="34"/>
+        <v>1354</v>
+      </c>
+      <c r="ER46" s="25">
         <f t="shared" si="35"/>
-        <v>534</v>
-      </c>
-      <c r="EK46" s="25">
+        <v>1523</v>
+      </c>
+      <c r="ES46" s="25">
         <f t="shared" si="36"/>
-        <v>796</v>
-      </c>
-      <c r="EL46" s="25">
-        <f t="shared" si="17"/>
-        <v>971</v>
-      </c>
-      <c r="EM46" s="25">
-        <f t="shared" si="16"/>
-        <v>1151</v>
-      </c>
-      <c r="EN46" s="25">
-        <f t="shared" si="24"/>
-        <v>1211</v>
-      </c>
-      <c r="EO46" s="25">
-        <f t="shared" si="37"/>
-        <v>1260</v>
-      </c>
-      <c r="EP46" s="25">
-        <f t="shared" si="14"/>
-        <v>1426</v>
-      </c>
-      <c r="EQ46" s="25">
-        <f t="shared" si="28"/>
-        <v>1354</v>
-      </c>
-      <c r="ER46" s="25">
-        <f t="shared" si="29"/>
-        <v>1523</v>
-      </c>
-      <c r="ES46" s="25">
-        <f t="shared" si="30"/>
         <v>1509</v>
       </c>
       <c r="ET46" s="25">
@@ -24949,23 +24984,23 @@
         <v>754.5</v>
       </c>
       <c r="EU46" s="25">
-        <f t="shared" ref="EU46:EY46" si="40">ET46*0.5</f>
+        <f t="shared" ref="EU46:EY46" si="46">ET46*0.5</f>
         <v>377.25</v>
       </c>
       <c r="EV46" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>188.625</v>
       </c>
       <c r="EW46" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>94.3125</v>
       </c>
       <c r="EX46" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>47.15625</v>
       </c>
       <c r="EY46" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>23.578125</v>
       </c>
       <c r="EZ46" s="25">
@@ -25013,30 +25048,30 @@
         <v>587</v>
       </c>
       <c r="P47" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>628</v>
       </c>
       <c r="Q47" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>643</v>
       </c>
       <c r="R47" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>661</v>
       </c>
       <c r="S47" s="25">
         <v>674</v>
       </c>
       <c r="T47" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>651</v>
       </c>
       <c r="U47" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>614</v>
       </c>
       <c r="V47" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>637</v>
       </c>
       <c r="W47" s="25"/>
@@ -25145,7 +25180,7 @@
         <v>326</v>
       </c>
       <c r="BW47" s="66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>348</v>
       </c>
       <c r="BX47" s="66">
@@ -25240,7 +25275,7 @@
       <c r="EA47" s="66"/>
       <c r="EB47" s="66"/>
       <c r="EC47" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED47" s="66"/>
@@ -25256,63 +25291,63 @@
         <v>0</v>
       </c>
       <c r="EJ47" s="25">
+        <f t="shared" si="41"/>
+        <v>17</v>
+      </c>
+      <c r="EK47" s="25">
+        <f t="shared" si="42"/>
+        <v>387</v>
+      </c>
+      <c r="EL47" s="25">
+        <f t="shared" si="23"/>
+        <v>813</v>
+      </c>
+      <c r="EM47" s="25">
+        <f t="shared" si="22"/>
+        <v>1062</v>
+      </c>
+      <c r="EN47" s="25">
+        <f t="shared" si="30"/>
+        <v>1215</v>
+      </c>
+      <c r="EO47" s="25">
+        <f t="shared" si="43"/>
+        <v>1304</v>
+      </c>
+      <c r="EP47" s="25">
+        <f t="shared" si="20"/>
+        <v>1325</v>
+      </c>
+      <c r="EQ47" s="25">
+        <f t="shared" si="34"/>
+        <v>1251</v>
+      </c>
+      <c r="ER47" s="25">
         <f t="shared" si="35"/>
-        <v>17</v>
-      </c>
-      <c r="EK47" s="25">
+        <v>1314</v>
+      </c>
+      <c r="ES47" s="25">
         <f t="shared" si="36"/>
-        <v>387</v>
-      </c>
-      <c r="EL47" s="25">
-        <f t="shared" si="17"/>
-        <v>813</v>
-      </c>
-      <c r="EM47" s="25">
-        <f t="shared" si="16"/>
-        <v>1062</v>
-      </c>
-      <c r="EN47" s="25">
-        <f t="shared" si="24"/>
-        <v>1215</v>
-      </c>
-      <c r="EO47" s="25">
-        <f t="shared" si="37"/>
-        <v>1304</v>
-      </c>
-      <c r="EP47" s="25">
-        <f t="shared" si="14"/>
-        <v>1325</v>
-      </c>
-      <c r="EQ47" s="25">
-        <f t="shared" si="28"/>
-        <v>1251</v>
-      </c>
-      <c r="ER47" s="25">
-        <f t="shared" si="29"/>
-        <v>1314</v>
-      </c>
-      <c r="ES47" s="25">
-        <f t="shared" si="30"/>
         <v>1339</v>
       </c>
       <c r="ET47" s="25">
-        <f t="shared" ref="ET47:EX47" si="41">ES47*1.01</f>
+        <f t="shared" ref="ET47:EX47" si="47">ES47*1.01</f>
         <v>1352.39</v>
       </c>
       <c r="EU47" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>1365.9139</v>
       </c>
       <c r="EV47" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>1379.5730390000001</v>
       </c>
       <c r="EW47" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>1393.3687693900001</v>
       </c>
       <c r="EX47" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>1407.3024570839002</v>
       </c>
       <c r="EY47" s="25"/>
@@ -25361,26 +25396,26 @@
         <v>601</v>
       </c>
       <c r="Q48" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>525</v>
       </c>
       <c r="R48" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>533</v>
       </c>
       <c r="S48" s="25">
         <v>544</v>
       </c>
       <c r="T48" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>469</v>
       </c>
       <c r="U48" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>394</v>
       </c>
       <c r="V48" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>302</v>
       </c>
       <c r="W48" s="25"/>
@@ -25486,7 +25521,7 @@
         <v>277</v>
       </c>
       <c r="BW48" s="66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>267</v>
       </c>
       <c r="BX48" s="66">
@@ -25561,7 +25596,7 @@
       <c r="EA48" s="66"/>
       <c r="EB48" s="66"/>
       <c r="EC48" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED48" s="66"/>
@@ -25577,15 +25612,15 @@
         <v>0</v>
       </c>
       <c r="EJ48" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="EK48" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>86</v>
       </c>
       <c r="EL48" s="25">
-        <f t="shared" ref="EL48:EL52" si="42">SUM(K48:L48)</f>
+        <f t="shared" ref="EL48:EL52" si="48">SUM(K48:L48)</f>
         <v>488</v>
       </c>
       <c r="EM48" s="25">
@@ -25593,19 +25628,19 @@
         <v>887</v>
       </c>
       <c r="EN48" s="25">
-        <f t="shared" ref="EN48:EN53" si="43">SUM(BN48:BQ48)</f>
+        <f t="shared" ref="EN48:EN53" si="49">SUM(BN48:BQ48)</f>
         <v>1108</v>
       </c>
       <c r="EO48" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>1058</v>
       </c>
       <c r="EP48" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1013</v>
       </c>
       <c r="EQ48" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>696</v>
       </c>
       <c r="ER48" s="25"/>
@@ -25661,26 +25696,26 @@
         <v>282</v>
       </c>
       <c r="Q49" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1010</v>
       </c>
       <c r="R49" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2190</v>
       </c>
       <c r="S49" s="25">
         <v>710</v>
       </c>
       <c r="T49" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>163</v>
       </c>
       <c r="U49" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>262</v>
       </c>
       <c r="V49" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>97</v>
       </c>
       <c r="W49" s="25"/>
@@ -25789,7 +25824,7 @@
         <v>517</v>
       </c>
       <c r="BW49" s="66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>193</v>
       </c>
       <c r="BX49" s="66">
@@ -25884,7 +25919,7 @@
       <c r="EA49" s="66"/>
       <c r="EB49" s="66"/>
       <c r="EC49" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED49" s="66"/>
@@ -25900,15 +25935,15 @@
         <v>431</v>
       </c>
       <c r="EJ49" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>330</v>
       </c>
       <c r="EK49" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1558</v>
       </c>
       <c r="EL49" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>2627</v>
       </c>
       <c r="EM49" s="25">
@@ -25916,27 +25951,27 @@
         <v>2085</v>
       </c>
       <c r="EN49" s="25">
+        <f t="shared" si="49"/>
+        <v>609</v>
+      </c>
+      <c r="EO49" s="25">
         <f t="shared" si="43"/>
-        <v>609</v>
-      </c>
-      <c r="EO49" s="25">
-        <f t="shared" si="37"/>
         <v>3200</v>
       </c>
       <c r="EP49" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>873</v>
       </c>
       <c r="EQ49" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>359</v>
       </c>
       <c r="ER49" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>560</v>
       </c>
       <c r="ES49" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>635</v>
       </c>
       <c r="ET49" s="25">
@@ -26008,30 +26043,30 @@
         <v>261</v>
       </c>
       <c r="P50" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>292</v>
       </c>
       <c r="Q50" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>274</v>
       </c>
       <c r="R50" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>290</v>
       </c>
       <c r="S50" s="25">
         <v>296</v>
       </c>
       <c r="T50" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>309</v>
       </c>
       <c r="U50" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>282</v>
       </c>
       <c r="V50" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>287</v>
       </c>
       <c r="W50" s="25"/>
@@ -26139,7 +26174,7 @@
         <v>149</v>
       </c>
       <c r="BW50" s="66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>147</v>
       </c>
       <c r="BX50" s="66">
@@ -26234,7 +26269,7 @@
       <c r="EA50" s="66"/>
       <c r="EB50" s="66"/>
       <c r="EC50" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED50" s="66"/>
@@ -26250,43 +26285,43 @@
         <v>281</v>
       </c>
       <c r="EJ50" s="25">
+        <f t="shared" si="41"/>
+        <v>329</v>
+      </c>
+      <c r="EK50" s="25">
+        <f t="shared" si="42"/>
+        <v>394</v>
+      </c>
+      <c r="EL50" s="25">
+        <f t="shared" si="48"/>
+        <v>488</v>
+      </c>
+      <c r="EM50" s="25">
+        <f t="shared" si="22"/>
+        <v>542</v>
+      </c>
+      <c r="EN50" s="25">
+        <f t="shared" si="49"/>
+        <v>556</v>
+      </c>
+      <c r="EO50" s="25">
+        <f t="shared" si="43"/>
+        <v>564</v>
+      </c>
+      <c r="EP50" s="25">
+        <f t="shared" si="20"/>
+        <v>605</v>
+      </c>
+      <c r="EQ50" s="25">
+        <f t="shared" si="34"/>
+        <v>569</v>
+      </c>
+      <c r="ER50" s="25">
         <f t="shared" si="35"/>
-        <v>329</v>
-      </c>
-      <c r="EK50" s="25">
+        <v>638</v>
+      </c>
+      <c r="ES50" s="25">
         <f t="shared" si="36"/>
-        <v>394</v>
-      </c>
-      <c r="EL50" s="25">
-        <f t="shared" si="42"/>
-        <v>488</v>
-      </c>
-      <c r="EM50" s="25">
-        <f t="shared" si="16"/>
-        <v>542</v>
-      </c>
-      <c r="EN50" s="25">
-        <f t="shared" si="43"/>
-        <v>556</v>
-      </c>
-      <c r="EO50" s="25">
-        <f t="shared" si="37"/>
-        <v>564</v>
-      </c>
-      <c r="EP50" s="25">
-        <f t="shared" si="14"/>
-        <v>605</v>
-      </c>
-      <c r="EQ50" s="25">
-        <f t="shared" si="28"/>
-        <v>569</v>
-      </c>
-      <c r="ER50" s="25">
-        <f t="shared" si="29"/>
-        <v>638</v>
-      </c>
-      <c r="ES50" s="25">
-        <f t="shared" si="30"/>
         <v>693</v>
       </c>
       <c r="ET50" s="25">
@@ -26294,23 +26329,23 @@
         <v>346.5</v>
       </c>
       <c r="EU50" s="25">
-        <f t="shared" ref="EU50:EY50" si="44">+ET50*0.5</f>
+        <f t="shared" ref="EU50:EY50" si="50">+ET50*0.5</f>
         <v>173.25</v>
       </c>
       <c r="EV50" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>86.625</v>
       </c>
       <c r="EW50" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>43.3125</v>
       </c>
       <c r="EX50" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>21.65625</v>
       </c>
       <c r="EY50" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>10.828125</v>
       </c>
       <c r="EZ50" s="25"/>
@@ -26354,30 +26389,30 @@
         <v>195</v>
       </c>
       <c r="P51" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>218</v>
       </c>
       <c r="Q51" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>211</v>
       </c>
       <c r="R51" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>189</v>
       </c>
       <c r="S51" s="25">
         <v>193</v>
       </c>
       <c r="T51" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>212</v>
       </c>
       <c r="U51" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>169</v>
       </c>
       <c r="V51" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>148</v>
       </c>
       <c r="W51" s="25"/>
@@ -26483,7 +26518,7 @@
         <v>91</v>
       </c>
       <c r="BW51" s="66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>102</v>
       </c>
       <c r="BX51" s="66">
@@ -26574,7 +26609,7 @@
       <c r="EA51" s="66"/>
       <c r="EB51" s="66"/>
       <c r="EC51" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED51" s="66"/>
@@ -26590,63 +26625,63 @@
         <v>442</v>
       </c>
       <c r="EJ51" s="25">
+        <f t="shared" si="41"/>
+        <v>449</v>
+      </c>
+      <c r="EK51" s="25">
+        <f t="shared" si="42"/>
+        <v>476</v>
+      </c>
+      <c r="EL51" s="25">
+        <f t="shared" si="48"/>
+        <v>494</v>
+      </c>
+      <c r="EM51" s="25">
+        <f t="shared" si="22"/>
+        <v>470</v>
+      </c>
+      <c r="EN51" s="25">
+        <f t="shared" si="49"/>
+        <v>413</v>
+      </c>
+      <c r="EO51" s="25">
+        <f t="shared" si="43"/>
+        <v>400</v>
+      </c>
+      <c r="EP51" s="25">
+        <f t="shared" si="20"/>
+        <v>405</v>
+      </c>
+      <c r="EQ51" s="25">
+        <f t="shared" si="34"/>
+        <v>317</v>
+      </c>
+      <c r="ER51" s="25">
         <f t="shared" si="35"/>
-        <v>449</v>
-      </c>
-      <c r="EK51" s="25">
+        <v>304</v>
+      </c>
+      <c r="ES51" s="25">
         <f t="shared" si="36"/>
-        <v>476</v>
-      </c>
-      <c r="EL51" s="25">
-        <f t="shared" si="42"/>
-        <v>494</v>
-      </c>
-      <c r="EM51" s="25">
-        <f t="shared" si="16"/>
-        <v>470</v>
-      </c>
-      <c r="EN51" s="25">
-        <f t="shared" si="43"/>
-        <v>413</v>
-      </c>
-      <c r="EO51" s="25">
-        <f t="shared" si="37"/>
-        <v>400</v>
-      </c>
-      <c r="EP51" s="25">
-        <f t="shared" si="14"/>
-        <v>405</v>
-      </c>
-      <c r="EQ51" s="25">
-        <f t="shared" si="28"/>
-        <v>317</v>
-      </c>
-      <c r="ER51" s="25">
-        <f t="shared" si="29"/>
-        <v>304</v>
-      </c>
-      <c r="ES51" s="25">
-        <f t="shared" si="30"/>
         <v>274</v>
       </c>
       <c r="ET51" s="25">
-        <f t="shared" ref="ET51:ET53" si="45">ES51*1.05</f>
+        <f t="shared" ref="ET51:ET53" si="51">ES51*1.05</f>
         <v>287.7</v>
       </c>
       <c r="EU51" s="25">
-        <f t="shared" ref="EU51:EX51" si="46">ET51*1.05</f>
+        <f t="shared" ref="EU51:EX51" si="52">ET51*1.05</f>
         <v>302.08499999999998</v>
       </c>
       <c r="EV51" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>317.18925000000002</v>
       </c>
       <c r="EW51" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>333.04871250000002</v>
       </c>
       <c r="EX51" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>349.70114812500003</v>
       </c>
       <c r="EY51" s="25">
@@ -26698,26 +26733,26 @@
         <v>212</v>
       </c>
       <c r="Q52" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>188</v>
       </c>
       <c r="R52" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>197</v>
       </c>
       <c r="S52" s="25">
         <v>167</v>
       </c>
       <c r="T52" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>164</v>
       </c>
       <c r="U52" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>135</v>
       </c>
       <c r="V52" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>143</v>
       </c>
       <c r="W52" s="25"/>
@@ -26823,7 +26858,7 @@
         <v>81</v>
       </c>
       <c r="BW52" s="66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>86</v>
       </c>
       <c r="BX52" s="66">
@@ -26897,7 +26932,7 @@
       <c r="EA52" s="66"/>
       <c r="EB52" s="66"/>
       <c r="EC52" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED52" s="66"/>
@@ -26913,15 +26948,15 @@
         <v>315</v>
       </c>
       <c r="EJ52" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>325</v>
       </c>
       <c r="EK52" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>364</v>
       </c>
       <c r="EL52" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>379</v>
       </c>
       <c r="EM52" s="25">
@@ -26929,19 +26964,19 @@
         <v>405</v>
       </c>
       <c r="EN52" s="25">
+        <f t="shared" si="49"/>
+        <v>404</v>
+      </c>
+      <c r="EO52" s="25">
         <f t="shared" si="43"/>
-        <v>404</v>
-      </c>
-      <c r="EO52" s="25">
-        <f t="shared" si="37"/>
         <v>385</v>
       </c>
       <c r="EP52" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>331</v>
       </c>
       <c r="EQ52" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>278</v>
       </c>
       <c r="ER52" s="25"/>
@@ -26982,26 +27017,26 @@
         <v>157</v>
       </c>
       <c r="Q53" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>140</v>
       </c>
       <c r="R53" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>146</v>
       </c>
       <c r="S53" s="25">
         <v>0</v>
       </c>
       <c r="T53" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>77</v>
       </c>
       <c r="U53" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>150</v>
       </c>
       <c r="V53" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>144</v>
       </c>
       <c r="W53" s="25"/>
@@ -27171,7 +27206,7 @@
       <c r="EA53" s="66"/>
       <c r="EB53" s="66"/>
       <c r="EC53" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED53" s="66"/>
@@ -27188,44 +27223,44 @@
         <v>311</v>
       </c>
       <c r="EN53" s="25">
+        <f t="shared" si="49"/>
+        <v>311</v>
+      </c>
+      <c r="EO53" s="25">
         <f t="shared" si="43"/>
-        <v>311</v>
-      </c>
-      <c r="EO53" s="25">
-        <f t="shared" si="37"/>
         <v>286</v>
       </c>
       <c r="EP53" s="25"/>
       <c r="EQ53" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>294</v>
       </c>
       <c r="ER53" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>310</v>
       </c>
       <c r="ES53" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>313</v>
       </c>
       <c r="ET53" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>328.65000000000003</v>
       </c>
       <c r="EU53" s="25">
-        <f t="shared" ref="EU53:EX53" si="47">ET53*1.05</f>
+        <f t="shared" ref="EU53:EX53" si="53">ET53*1.05</f>
         <v>345.08250000000004</v>
       </c>
       <c r="EV53" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>362.33662500000008</v>
       </c>
       <c r="EW53" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>380.4534562500001</v>
       </c>
       <c r="EX53" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>399.47612906250015</v>
       </c>
       <c r="EY53" s="25">
@@ -27269,7 +27304,7 @@
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
       <c r="U54" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>138</v>
       </c>
       <c r="V54" s="25">
@@ -27428,7 +27463,7 @@
         <v>131</v>
       </c>
       <c r="EC54" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>93</v>
       </c>
       <c r="ED54" s="66"/>
@@ -27445,15 +27480,15 @@
       <c r="EO54" s="25"/>
       <c r="EP54" s="25"/>
       <c r="EQ54" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>344</v>
       </c>
       <c r="ER54" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>384</v>
       </c>
       <c r="ES54" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>425</v>
       </c>
       <c r="ET54" s="25">
@@ -27461,19 +27496,19 @@
         <v>429.25</v>
       </c>
       <c r="EU54" s="25">
-        <f t="shared" ref="EU54:EX54" si="48">+ET54*1.01</f>
+        <f t="shared" ref="EU54:EX54" si="54">+ET54*1.01</f>
         <v>433.54250000000002</v>
       </c>
       <c r="EV54" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>437.877925</v>
       </c>
       <c r="EW54" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>442.25670424999998</v>
       </c>
       <c r="EX54" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>446.6792712925</v>
       </c>
       <c r="EY54" s="25"/>
@@ -27717,7 +27752,7 @@
       <c r="EA55" s="66"/>
       <c r="EB55" s="66"/>
       <c r="EC55" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED55" s="66"/>
@@ -27761,15 +27796,15 @@
         <v>337</v>
       </c>
       <c r="EQ55" s="25">
-        <f t="shared" ref="EQ55:EQ62" si="49">SUM(BZ55:CC55)</f>
+        <f t="shared" ref="EQ55:EQ62" si="55">SUM(BZ55:CC55)</f>
         <v>0</v>
       </c>
       <c r="ER55" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="ES55" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="ET55" s="25"/>
@@ -27782,7 +27817,7 @@
       <c r="FA55" s="46"/>
       <c r="FB55" s="16"/>
       <c r="FC55" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD55" s="46"/>
@@ -27969,7 +28004,7 @@
       <c r="EA56" s="66"/>
       <c r="EB56" s="66"/>
       <c r="EC56" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED56" s="66"/>
@@ -27985,11 +28020,11 @@
         <v>437</v>
       </c>
       <c r="EJ56" s="25">
-        <f t="shared" ref="EJ56:EJ62" si="50">SUM(AX56:BA56)</f>
+        <f t="shared" ref="EJ56:EJ62" si="56">SUM(AX56:BA56)</f>
         <v>457</v>
       </c>
       <c r="EK56" s="25">
-        <f t="shared" ref="EK56:EK62" si="51">SUM(BB56:BE56)</f>
+        <f t="shared" ref="EK56:EK62" si="57">SUM(BB56:BE56)</f>
         <v>500</v>
       </c>
       <c r="EL56" s="25">
@@ -28003,21 +28038,21 @@
       <c r="EN56" s="25"/>
       <c r="EO56" s="25"/>
       <c r="EQ56" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="ER56" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="ES56" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="FA56" s="46"/>
       <c r="FB56" s="111"/>
       <c r="FC56" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD56" s="25"/>
@@ -28188,7 +28223,7 @@
       <c r="EA57" s="66"/>
       <c r="EB57" s="66"/>
       <c r="EC57" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED57" s="66"/>
@@ -28204,11 +28239,11 @@
         <v>49</v>
       </c>
       <c r="EJ57" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>168</v>
       </c>
       <c r="EK57" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>259</v>
       </c>
       <c r="EL57" s="25"/>
@@ -28217,15 +28252,15 @@
       <c r="EO57" s="25"/>
       <c r="EP57" s="25"/>
       <c r="EQ57" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="ER57" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="ES57" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="ET57" s="25"/>
@@ -28238,7 +28273,7 @@
       <c r="FA57" s="46"/>
       <c r="FB57" s="112"/>
       <c r="FC57" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD57" s="99"/>
@@ -28409,7 +28444,7 @@
       <c r="EA58" s="66"/>
       <c r="EB58" s="66"/>
       <c r="EC58" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED58" s="66"/>
@@ -28425,11 +28460,11 @@
         <v>3</v>
       </c>
       <c r="EJ58" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>70</v>
       </c>
       <c r="EK58" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>117</v>
       </c>
       <c r="EL58" s="25"/>
@@ -28438,15 +28473,15 @@
       <c r="EO58" s="25"/>
       <c r="EP58" s="25"/>
       <c r="EQ58" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="ER58" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="ES58" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="ET58" s="25"/>
@@ -28459,7 +28494,7 @@
       <c r="FA58" s="46"/>
       <c r="FB58" s="16"/>
       <c r="FC58" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD58" s="46"/>
@@ -28621,7 +28656,7 @@
       <c r="EA59" s="66"/>
       <c r="EB59" s="66"/>
       <c r="EC59" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED59" s="66"/>
@@ -28637,11 +28672,11 @@
         <v>392</v>
       </c>
       <c r="EJ59" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>361</v>
       </c>
       <c r="EK59" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>326</v>
       </c>
       <c r="EL59" s="25"/>
@@ -28650,15 +28685,15 @@
       <c r="EO59" s="25"/>
       <c r="EP59" s="25"/>
       <c r="EQ59" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="ER59" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="ES59" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="ET59" s="25"/>
@@ -28671,7 +28706,7 @@
       <c r="FA59" s="46"/>
       <c r="FB59" s="16"/>
       <c r="FC59" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD59" s="46"/>
@@ -28833,7 +28868,7 @@
       <c r="EA60" s="66"/>
       <c r="EB60" s="66"/>
       <c r="EC60" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED60" s="66"/>
@@ -28849,11 +28884,11 @@
         <v>0</v>
       </c>
       <c r="EJ60" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>38</v>
       </c>
       <c r="EK60" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>104</v>
       </c>
       <c r="EL60" s="25"/>
@@ -28862,15 +28897,15 @@
       <c r="EO60" s="25"/>
       <c r="EP60" s="25"/>
       <c r="EQ60" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="ER60" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="ES60" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="ET60" s="25"/>
@@ -28883,7 +28918,7 @@
       <c r="FA60" s="46"/>
       <c r="FB60" s="16"/>
       <c r="FC60" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD60" s="46"/>
@@ -29045,7 +29080,7 @@
       <c r="EA61" s="66"/>
       <c r="EB61" s="66"/>
       <c r="EC61" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED61" s="66"/>
@@ -29061,11 +29096,11 @@
         <v>0</v>
       </c>
       <c r="EJ61" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>45</v>
       </c>
       <c r="EK61" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>57</v>
       </c>
       <c r="EL61" s="25"/>
@@ -29074,15 +29109,15 @@
       <c r="EO61" s="25"/>
       <c r="EP61" s="25"/>
       <c r="EQ61" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="ER61" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="ES61" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="ET61" s="25"/>
@@ -29095,7 +29130,7 @@
       <c r="FA61" s="46"/>
       <c r="FB61" s="16"/>
       <c r="FC61" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD61" s="46"/>
@@ -29257,7 +29292,7 @@
       <c r="EA62" s="66"/>
       <c r="EB62" s="66"/>
       <c r="EC62" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED62" s="66"/>
@@ -29273,11 +29308,11 @@
         <v>223</v>
       </c>
       <c r="EJ62" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>383</v>
       </c>
       <c r="EK62" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>407</v>
       </c>
       <c r="EL62" s="25"/>
@@ -29286,15 +29321,15 @@
       <c r="EO62" s="25"/>
       <c r="EP62" s="25"/>
       <c r="EQ62" s="25">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="ER62" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="ES62" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="ET62" s="25"/>
@@ -29307,7 +29342,7 @@
       <c r="FA62" s="46"/>
       <c r="FB62" s="16"/>
       <c r="FC62" s="54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="FD62" s="46"/>
@@ -29471,7 +29506,7 @@
       <c r="EA63" s="66"/>
       <c r="EB63" s="66"/>
       <c r="EC63" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED63" s="66"/>
@@ -29489,11 +29524,11 @@
       <c r="EP63" s="25"/>
       <c r="EQ63" s="25"/>
       <c r="ER63" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>234</v>
       </c>
       <c r="ES63" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>354</v>
       </c>
       <c r="ET63" s="25">
@@ -29501,19 +29536,19 @@
         <v>389.40000000000003</v>
       </c>
       <c r="EU63" s="25">
-        <f t="shared" ref="EU63:EX63" si="52">+ET63*1.1</f>
+        <f t="shared" ref="EU63:EX63" si="58">+ET63*1.1</f>
         <v>428.34000000000009</v>
       </c>
       <c r="EV63" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>471.17400000000015</v>
       </c>
       <c r="EW63" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>518.29140000000018</v>
       </c>
       <c r="EX63" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>570.12054000000023</v>
       </c>
       <c r="EY63" s="25"/>
@@ -29759,7 +29794,7 @@
       <c r="EA64" s="66"/>
       <c r="EB64" s="66"/>
       <c r="EC64" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED64" s="66"/>
@@ -29804,11 +29839,11 @@
       </c>
       <c r="EQ64" s="25"/>
       <c r="ER64" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>266</v>
       </c>
       <c r="ES64" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>138</v>
       </c>
       <c r="ET64" s="25"/>
@@ -29960,7 +29995,7 @@
       <c r="EA65" s="66"/>
       <c r="EB65" s="66"/>
       <c r="EC65" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED65" s="66"/>
@@ -30172,7 +30207,7 @@
       <c r="EA66" s="66"/>
       <c r="EB66" s="66"/>
       <c r="EC66" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1397</v>
       </c>
       <c r="ED66" s="66"/>
@@ -30233,35 +30268,35 @@
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
       <c r="I67" s="27">
-        <f>I8+I4+I5-SUM(I22:I53)</f>
+        <f t="shared" ref="I67:P67" si="59">I8+I4+I5-SUM(I22:I53)</f>
         <v>7606</v>
       </c>
       <c r="J67" s="27">
-        <f>J8+J4+J5-SUM(J22:J53)</f>
+        <f t="shared" si="59"/>
         <v>7873</v>
       </c>
       <c r="K67" s="27">
-        <f>K8+K4+K5-SUM(K22:K53)</f>
+        <f t="shared" si="59"/>
         <v>8448</v>
       </c>
       <c r="L67" s="27">
-        <f>L8+L4+L5-SUM(L22:L53)</f>
+        <f t="shared" si="59"/>
         <v>8812</v>
       </c>
       <c r="M67" s="27">
-        <f>M8+M4+M5-SUM(M22:M53)</f>
+        <f t="shared" si="59"/>
         <v>9113</v>
       </c>
       <c r="N67" s="27">
-        <f>N8+N4+N5-SUM(N22:N53)</f>
+        <f t="shared" si="59"/>
         <v>9363</v>
       </c>
       <c r="O67" s="27">
-        <f>O8+O4+O5-SUM(O22:O53)</f>
+        <f t="shared" si="59"/>
         <v>8582</v>
       </c>
       <c r="P67" s="27">
-        <f>P8+P4+P5-SUM(P22:P53)</f>
+        <f t="shared" si="59"/>
         <v>9042</v>
       </c>
       <c r="Q67" s="46"/>
@@ -30314,91 +30349,91 @@
       <c r="BF67" s="93"/>
       <c r="BG67" s="93"/>
       <c r="BH67" s="25">
-        <f>BH4+BH5+BH8-SUM(BH22:BH53)</f>
+        <f t="shared" ref="BH67:BT67" si="60">BH4+BH5+BH8-SUM(BH22:BH53)</f>
         <v>4080.910722056241</v>
       </c>
       <c r="BI67" s="25">
-        <f>BI4+BI5+BI8-SUM(BI22:BI53)</f>
+        <f t="shared" si="60"/>
         <v>4365.2622756988276</v>
       </c>
       <c r="BJ67" s="25">
-        <f>BJ4+BJ5+BJ8-SUM(BJ22:BJ53)</f>
+        <f t="shared" si="60"/>
         <v>4394</v>
       </c>
       <c r="BK67" s="25">
-        <f>BK4+BK5+BK8-SUM(BK22:BK53)</f>
+        <f t="shared" si="60"/>
         <v>4567</v>
       </c>
       <c r="BL67" s="25">
-        <f>BL4+BL5+BL8-SUM(BL22:BL53)</f>
+        <f t="shared" si="60"/>
         <v>4474</v>
       </c>
       <c r="BM67" s="25">
-        <f>BM4+BM5+BM8-SUM(BM22:BM53)</f>
+        <f t="shared" si="60"/>
         <v>4730</v>
       </c>
       <c r="BN67" s="25">
-        <f>BN4+BN5+BN8-SUM(BN22:BN53)</f>
+        <f t="shared" si="60"/>
         <v>4244</v>
       </c>
       <c r="BO67" s="25">
-        <f>BO4+BO5+BO8-SUM(BO22:BO53)</f>
+        <f t="shared" si="60"/>
         <v>4335</v>
       </c>
       <c r="BP67" s="25">
-        <f>BP4+BP5+BP8-SUM(BP22:BP53)</f>
+        <f t="shared" si="60"/>
         <v>4395</v>
       </c>
       <c r="BQ67" s="25">
-        <f>BQ4+BQ5+BQ8-SUM(BQ22:BQ53)</f>
+        <f t="shared" si="60"/>
         <v>4647</v>
       </c>
       <c r="BR67" s="25">
-        <f>BR4+BR5+BR8-SUM(BR22:BR53)</f>
+        <f t="shared" si="60"/>
         <v>4259</v>
       </c>
       <c r="BS67" s="25">
-        <f>BS4+BS5+BS8-SUM(BS22:BS53)</f>
+        <f t="shared" si="60"/>
         <v>4533</v>
       </c>
       <c r="BT67" s="25">
-        <f>BT4+BT5+BT8-SUM(BT22:BT53)</f>
+        <f t="shared" si="60"/>
         <v>4303</v>
       </c>
       <c r="BU67" s="25">
-        <f>BU4+BU5+BU7+BU8-SUM(BU22:BU66)</f>
+        <f t="shared" ref="BU67:CC67" si="61">BU4+BU5+BU7+BU8-SUM(BU22:BU66)</f>
         <v>4117</v>
       </c>
       <c r="BV67" s="25">
-        <f>BV4+BV5+BV7+BV8-SUM(BV22:BV66)</f>
+        <f t="shared" si="61"/>
         <v>4386</v>
       </c>
       <c r="BW67" s="25">
-        <f>BW4+BW5+BW7+BW8-SUM(BW22:BW66)</f>
+        <f t="shared" si="61"/>
         <v>4507</v>
       </c>
       <c r="BX67" s="25">
-        <f>BX4+BX5+BX7+BX8-SUM(BX22:BX66)</f>
+        <f t="shared" si="61"/>
         <v>4237</v>
       </c>
       <c r="BY67" s="25">
-        <f>BY4+BY5+BY7+BY8-SUM(BY22:BY66)</f>
+        <f t="shared" si="61"/>
         <v>4043</v>
       </c>
       <c r="BZ67" s="25">
-        <f>BZ4+BZ5+BZ7+BZ8-SUM(BZ22:BZ66)</f>
+        <f t="shared" si="61"/>
         <v>4217</v>
       </c>
       <c r="CA67" s="25">
-        <f>CA4+CA5+CA7+CA8-SUM(CA22:CA66)</f>
+        <f t="shared" si="61"/>
         <v>4087</v>
       </c>
       <c r="CB67" s="25">
-        <f>CB4+CB5+CB7+CB8-SUM(CB22:CB66)</f>
+        <f t="shared" si="61"/>
         <v>3723</v>
       </c>
       <c r="CC67" s="25">
-        <f>CC4+CC5+CC7+CC8-SUM(CC22:CC66)</f>
+        <f t="shared" si="61"/>
         <v>4220</v>
       </c>
       <c r="CD67" s="25"/>
@@ -30488,27 +30523,27 @@
       <c r="ER67" s="25"/>
       <c r="ES67" s="25"/>
       <c r="ET67" s="25">
-        <f t="shared" ref="ET67:EY67" si="53">ES67*0.9</f>
+        <f t="shared" ref="ET67:EY67" si="62">ES67*0.9</f>
         <v>0</v>
       </c>
       <c r="EU67" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="EV67" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="EW67" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="EX67" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="EY67" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="EZ67" s="25">
@@ -30543,39 +30578,39 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27">
-        <f>+I4+I5+I6+I8</f>
+        <f t="shared" ref="I68:Q68" si="63">+I4+I5+I6+I8</f>
         <v>16622</v>
       </c>
       <c r="J68" s="27">
-        <f>+J4+J5+J6+J8</f>
+        <f t="shared" si="63"/>
         <v>18889</v>
       </c>
       <c r="K68" s="27">
-        <f>+K4+K5+K6+K8</f>
+        <f t="shared" si="63"/>
         <v>19849</v>
       </c>
       <c r="L68" s="27">
-        <f>+L4+L5+L6+L8</f>
+        <f t="shared" si="63"/>
         <v>22192</v>
       </c>
       <c r="M68" s="27">
-        <f>+M4+M5+M6+M8</f>
+        <f t="shared" si="63"/>
         <v>22827</v>
       </c>
       <c r="N68" s="27">
-        <f>+N4+N5+N6+N8</f>
+        <f t="shared" si="63"/>
         <v>23306</v>
       </c>
       <c r="O68" s="27">
-        <f>+O4+O5+O6+O8</f>
+        <f t="shared" si="63"/>
         <v>22004</v>
       </c>
       <c r="P68" s="27">
-        <f>+P4+P5+P6+P8</f>
+        <f t="shared" si="63"/>
         <v>23613</v>
       </c>
       <c r="Q68" s="27">
-        <f>+Q4+Q5+Q6+Q8</f>
+        <f t="shared" si="63"/>
         <v>24006</v>
       </c>
       <c r="R68" s="27">
@@ -30636,59 +30671,59 @@
       <c r="BF68" s="24"/>
       <c r="BG68" s="24"/>
       <c r="BH68" s="27">
-        <f>SUM(BH22:BH67)+BH6</f>
+        <f t="shared" ref="BH68:BU68" si="64">SUM(BH22:BH67)+BH6</f>
         <v>12262.168589644925</v>
       </c>
       <c r="BI68" s="27">
-        <f>SUM(BI22:BI67)+BI6</f>
+        <f t="shared" si="64"/>
         <v>13158.408797443793</v>
       </c>
       <c r="BJ68" s="27">
-        <f>SUM(BJ22:BJ67)+BJ6</f>
+        <f t="shared" si="64"/>
         <v>11726</v>
       </c>
       <c r="BK68" s="27">
-        <f>SUM(BK22:BK67)+BK6</f>
+        <f t="shared" si="64"/>
         <v>11849</v>
       </c>
       <c r="BL68" s="27">
-        <f>SUM(BL22:BL67)+BL6</f>
+        <f t="shared" si="64"/>
         <v>11476</v>
       </c>
       <c r="BM68" s="27">
-        <f>SUM(BM22:BM67)+BM6</f>
+        <f t="shared" si="64"/>
         <v>12538</v>
       </c>
       <c r="BN68" s="27">
-        <f>SUM(BN22:BN67)+BN6</f>
+        <f t="shared" si="64"/>
         <v>11082</v>
       </c>
       <c r="BO68" s="27">
-        <f>SUM(BO22:BO67)+BO6</f>
+        <f t="shared" si="64"/>
         <v>11362</v>
       </c>
       <c r="BP68" s="27">
-        <f>SUM(BP22:BP67)+BP6</f>
+        <f t="shared" si="64"/>
         <v>11503</v>
       </c>
       <c r="BQ68" s="27">
-        <f>SUM(BQ22:BQ67)+BQ6</f>
+        <f t="shared" si="64"/>
         <v>12516</v>
       </c>
       <c r="BR68" s="27">
-        <f>SUM(BR22:BR67)+BR6</f>
+        <f t="shared" si="64"/>
         <v>11757</v>
       </c>
       <c r="BS68" s="27">
-        <f>SUM(BS22:BS67)+BS6</f>
+        <f t="shared" si="64"/>
         <v>12622</v>
       </c>
       <c r="BT68" s="27">
-        <f>SUM(BT22:BT67)+BT6</f>
+        <f t="shared" si="64"/>
         <v>12564</v>
       </c>
       <c r="BU68" s="27">
-        <f>SUM(BU22:BU67)+BU6</f>
+        <f t="shared" si="64"/>
         <v>12652</v>
       </c>
       <c r="BV68" s="27">
@@ -30696,31 +30731,31 @@
         <v>7859</v>
       </c>
       <c r="BW68" s="27">
-        <f>SUM(BW22:BW67)+BW6</f>
+        <f t="shared" ref="BW68:CC68" si="65">SUM(BW22:BW67)+BW6</f>
         <v>12391</v>
       </c>
       <c r="BX68" s="27">
-        <f>SUM(BX22:BX67)+BX6</f>
+        <f t="shared" si="65"/>
         <v>11491</v>
       </c>
       <c r="BY68" s="27">
-        <f>SUM(BY22:BY67)+BY6</f>
+        <f t="shared" si="65"/>
         <v>11346</v>
       </c>
       <c r="BZ68" s="27">
-        <f>SUM(BZ22:BZ67)+BZ6</f>
+        <f t="shared" si="65"/>
         <v>11120</v>
       </c>
       <c r="CA68" s="27">
-        <f>SUM(CA22:CA67)+CA6</f>
+        <f t="shared" si="65"/>
         <v>10551</v>
       </c>
       <c r="CB68" s="27">
-        <f>SUM(CB22:CB67)+CB6</f>
+        <f t="shared" si="65"/>
         <v>9821</v>
       </c>
       <c r="CC68" s="27">
-        <f>SUM(CC22:CC67)+CC6</f>
+        <f t="shared" si="65"/>
         <v>11039</v>
       </c>
       <c r="CD68" s="27"/>
@@ -30996,35 +31031,35 @@
         <v>1582</v>
       </c>
       <c r="ER69" s="25">
-        <f t="shared" ref="ER69:EY69" si="54">EQ69</f>
+        <f t="shared" ref="ER69:EY69" si="66">EQ69</f>
         <v>1582</v>
       </c>
       <c r="ES69" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1582</v>
       </c>
       <c r="ET69" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1582</v>
       </c>
       <c r="EU69" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1582</v>
       </c>
       <c r="EV69" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1582</v>
       </c>
       <c r="EW69" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1582</v>
       </c>
       <c r="EX69" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1582</v>
       </c>
       <c r="EY69" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>1582</v>
       </c>
       <c r="EZ69" s="25">
@@ -31255,35 +31290,35 @@
         <v>11942</v>
       </c>
       <c r="ER70" s="25">
-        <f t="shared" ref="ER70:EY70" si="55">ER68-ER71+ER69</f>
+        <f t="shared" ref="ER70:EY70" si="67">ER68-ER71+ER69</f>
         <v>18713</v>
       </c>
       <c r="ES70" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>48362</v>
       </c>
       <c r="ET70" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>49044</v>
       </c>
       <c r="EU70" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>49163</v>
       </c>
       <c r="EV70" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>49731</v>
       </c>
       <c r="EW70" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>46686</v>
       </c>
       <c r="EX70" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>47855</v>
       </c>
       <c r="EY70" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>53419</v>
       </c>
       <c r="EZ70" s="25">
@@ -31320,19 +31355,19 @@
         <v>11038</v>
       </c>
       <c r="I71" s="25">
-        <f t="shared" ref="I71:N71" si="56">I68-I70+I69</f>
+        <f t="shared" ref="I71:N71" si="68">I68-I70+I69</f>
         <v>12984</v>
       </c>
       <c r="J71" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>14670</v>
       </c>
       <c r="K71" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>15642</v>
       </c>
       <c r="L71" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>17249</v>
       </c>
       <c r="M71" s="25">
@@ -31340,31 +31375,31 @@
         <v>17799</v>
       </c>
       <c r="N71" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>15793</v>
       </c>
       <c r="O71" s="25">
-        <f t="shared" ref="O71:T71" si="57">O68-O70+O69</f>
+        <f t="shared" ref="O71:T71" si="69">O68-O70+O69</f>
         <v>16608</v>
       </c>
       <c r="P71" s="25">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>17635</v>
       </c>
       <c r="Q71" s="25">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>18022</v>
       </c>
       <c r="R71" s="25">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>18685</v>
       </c>
       <c r="S71" s="25">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>18644</v>
       </c>
       <c r="T71" s="25">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>17160</v>
       </c>
       <c r="U71" s="25"/>
@@ -31494,11 +31529,11 @@
         <v>21804</v>
       </c>
       <c r="EK71" s="25">
-        <f t="shared" ref="EK71:EL71" si="58">EK68+EK69-EK70</f>
+        <f t="shared" ref="EK71:EL71" si="70">EK68+EK69-EK70</f>
         <v>27654</v>
       </c>
       <c r="EL71" s="25">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>32891</v>
       </c>
       <c r="EM71" s="25">
@@ -31522,35 +31557,35 @@
         <v>32171</v>
       </c>
       <c r="ER71" s="25">
-        <f t="shared" ref="ER71:EY71" si="59">ER68*ER90</f>
+        <f t="shared" ref="ER71:EY71" si="71">ER68*ER90</f>
         <v>0</v>
       </c>
       <c r="ES71" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="ET71" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="EU71" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="EV71" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="EW71" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="EX71" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="EY71" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="EZ71" s="25">
@@ -31684,7 +31719,7 @@
         <v>9170</v>
       </c>
       <c r="EO72" s="25">
-        <f t="shared" ref="EO72" si="60">SUM(Q72:R72)</f>
+        <f t="shared" ref="EO72" si="72">SUM(Q72:R72)</f>
         <v>9475</v>
       </c>
       <c r="EP72" s="25">
@@ -31695,35 +31730,35 @@
         <v>8049</v>
       </c>
       <c r="ER72" s="25">
-        <f t="shared" ref="ER72:EY72" si="61">EQ72*0.99</f>
+        <f t="shared" ref="ER72:EY72" si="73">EQ72*0.99</f>
         <v>7968.51</v>
       </c>
       <c r="ES72" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>7888.8249000000005</v>
       </c>
       <c r="ET72" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>7809.9366510000009</v>
       </c>
       <c r="EU72" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>7731.8372844900005</v>
       </c>
       <c r="EV72" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>7654.5189116451002</v>
       </c>
       <c r="EW72" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>7577.973722528649</v>
       </c>
       <c r="EX72" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>7502.1939853033628</v>
       </c>
       <c r="EY72" s="25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>7427.1720454503293</v>
       </c>
       <c r="EZ72" s="25">
@@ -31940,7 +31975,7 @@
         <v>2332</v>
       </c>
       <c r="EO73" s="25">
-        <f t="shared" ref="EO73" si="62">SUM(Q73:R73)</f>
+        <f t="shared" ref="EO73" si="74">SUM(Q73:R73)</f>
         <v>2175</v>
       </c>
       <c r="EP73" s="25">
@@ -31951,35 +31986,35 @@
         <v>2342</v>
       </c>
       <c r="ER73" s="25">
-        <f t="shared" ref="ER73:EY73" si="63">EQ73*0.99</f>
+        <f t="shared" ref="ER73:EY73" si="75">EQ73*0.99</f>
         <v>2318.58</v>
       </c>
       <c r="ES73" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>2295.3941999999997</v>
       </c>
       <c r="ET73" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>2272.4402579999996</v>
       </c>
       <c r="EU73" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>2249.7158554199996</v>
       </c>
       <c r="EV73" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>2227.2186968657998</v>
       </c>
       <c r="EW73" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>2204.9465098971418</v>
       </c>
       <c r="EX73" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>2182.8970447981706</v>
       </c>
       <c r="EY73" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>2161.0680743501889</v>
       </c>
       <c r="EZ73" s="25">
@@ -32111,7 +32146,7 @@
         <v>8845</v>
       </c>
       <c r="EO74" s="25">
-        <f t="shared" ref="EO74" si="64">SUM(Q74:R74)</f>
+        <f t="shared" ref="EO74" si="76">SUM(Q74:R74)</f>
         <v>9874</v>
       </c>
       <c r="EP74" s="25">
@@ -32236,23 +32271,23 @@
       <c r="K76" s="25"/>
       <c r="L76" s="25"/>
       <c r="M76" s="25">
-        <f t="shared" ref="M76:Q76" si="65">SUM(M72:M74)-M75</f>
+        <f t="shared" ref="M76:Q76" si="77">SUM(M72:M74)-M75</f>
         <v>9214</v>
       </c>
       <c r="N76" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>8351</v>
       </c>
       <c r="O76" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>9567</v>
       </c>
       <c r="P76" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>10780</v>
       </c>
       <c r="Q76" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="77"/>
         <v>10052</v>
       </c>
       <c r="R76" s="25">
@@ -32300,59 +32335,59 @@
       <c r="EJ76" s="25"/>
       <c r="EK76" s="25"/>
       <c r="EL76" s="25">
-        <f t="shared" ref="EL76:EQ76" si="66">SUM(EL72:EL74)-EL75</f>
+        <f t="shared" ref="EL76:EQ76" si="78">SUM(EL72:EL74)-EL75</f>
         <v>18777</v>
       </c>
       <c r="EM76" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>17565</v>
       </c>
       <c r="EN76" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>20347</v>
       </c>
       <c r="EO76" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>21524</v>
       </c>
       <c r="EP76" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>22388</v>
       </c>
       <c r="EQ76" s="25">
-        <f t="shared" si="66"/>
+        <f t="shared" si="78"/>
         <v>18717</v>
       </c>
       <c r="ER76" s="25">
-        <f t="shared" ref="ER76:EY76" si="67">SUM(ER72:ER74)-ER75</f>
+        <f t="shared" ref="ER76:EY76" si="79">SUM(ER72:ER74)-ER75</f>
         <v>10287.09</v>
       </c>
       <c r="ES76" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>10184.2191</v>
       </c>
       <c r="ET76" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>10082.376909000001</v>
       </c>
       <c r="EU76" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>9981.55313991</v>
       </c>
       <c r="EV76" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>9881.737608510899</v>
       </c>
       <c r="EW76" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>9782.9202324257913</v>
       </c>
       <c r="EX76" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>9685.0910301015338</v>
       </c>
       <c r="EY76" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="79"/>
         <v>9588.2401198005173</v>
       </c>
       <c r="EZ76" s="23">
@@ -32407,23 +32442,23 @@
         <v>6605</v>
       </c>
       <c r="M77" s="27">
-        <f t="shared" ref="M77:Q77" si="68">M71-M76</f>
+        <f t="shared" ref="M77:Q77" si="80">M71-M76</f>
         <v>8585</v>
       </c>
       <c r="N77" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>7442</v>
       </c>
       <c r="O77" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>7041</v>
       </c>
       <c r="P77" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>6855</v>
       </c>
       <c r="Q77" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="80"/>
         <v>7970</v>
       </c>
       <c r="R77" s="27">
@@ -32569,63 +32604,63 @@
         <v>10133</v>
       </c>
       <c r="EL77" s="27">
-        <f t="shared" ref="EL77:EQ77" si="69">EL71-EL76</f>
+        <f t="shared" ref="EL77:EQ77" si="81">EL71-EL76</f>
         <v>14114</v>
       </c>
       <c r="EM77" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>16027</v>
       </c>
       <c r="EN77" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>14742</v>
       </c>
       <c r="EO77" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>15183</v>
       </c>
       <c r="EP77" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>13339</v>
       </c>
       <c r="EQ77" s="27">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>13454</v>
       </c>
       <c r="ER77" s="27">
-        <f t="shared" ref="ER77:EZ77" si="70">ER71-ER76</f>
+        <f t="shared" ref="ER77:EZ77" si="82">ER71-ER76</f>
         <v>-10287.09</v>
       </c>
       <c r="ES77" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-10184.2191</v>
       </c>
       <c r="ET77" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-10082.376909000001</v>
       </c>
       <c r="EU77" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-9981.55313991</v>
       </c>
       <c r="EV77" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-9881.737608510899</v>
       </c>
       <c r="EW77" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-9782.9202324257913</v>
       </c>
       <c r="EX77" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-9685.0910301015338</v>
       </c>
       <c r="EY77" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>-9588.2401198005173</v>
       </c>
       <c r="EZ77" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>21536</v>
       </c>
       <c r="FA77" s="24">
@@ -32727,7 +32762,7 @@
         <v>1123</v>
       </c>
       <c r="EO78" s="25">
-        <f t="shared" ref="EO78:EO79" si="71">SUM(Q78:R78)</f>
+        <f t="shared" ref="EO78:EO79" si="83">SUM(Q78:R78)</f>
         <v>792</v>
       </c>
       <c r="EP78" s="25">
@@ -32739,35 +32774,35 @@
         <v>-1569</v>
       </c>
       <c r="ER78" s="25">
-        <f t="shared" ref="ER78:EY78" si="72">ER88*$FJ$90</f>
+        <f t="shared" ref="ER78:EY78" si="84">ER88*$FJ$90</f>
         <v>-66.900000000000006</v>
       </c>
       <c r="ES78" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-460.35162000000003</v>
       </c>
       <c r="ET78" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-864.84530735999999</v>
       </c>
       <c r="EU78" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-1280.83975158168</v>
       </c>
       <c r="EV78" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-1708.8106814583641</v>
       </c>
       <c r="EW78" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-2149.2515164771962</v>
       </c>
       <c r="EX78" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-2602.67404293551</v>
       </c>
       <c r="EY78" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>-3069.6091157109176</v>
       </c>
       <c r="EZ78" s="25">
@@ -32988,7 +33023,7 @@
         <v>887</v>
       </c>
       <c r="EO79" s="25">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>2460</v>
       </c>
       <c r="EP79" s="25">
@@ -33032,47 +33067,47 @@
         <v>3135</v>
       </c>
       <c r="I80" s="27">
-        <f t="shared" ref="I80:S80" si="73">I77+I78-I79</f>
+        <f t="shared" ref="I80:S80" si="85">I77+I78-I79</f>
         <v>5299</v>
       </c>
       <c r="J80" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>5797</v>
       </c>
       <c r="K80" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>6723</v>
       </c>
       <c r="L80" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>7036</v>
       </c>
       <c r="M80" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>9085</v>
       </c>
       <c r="N80" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>7776</v>
       </c>
       <c r="O80" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>7278</v>
       </c>
       <c r="P80" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>7092</v>
       </c>
       <c r="Q80" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>7419</v>
       </c>
       <c r="R80" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>6096</v>
       </c>
       <c r="S80" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>7550</v>
       </c>
       <c r="T80" s="27">
@@ -33206,23 +33241,23 @@
         <v>6465</v>
       </c>
       <c r="EK80" s="27">
-        <f t="shared" ref="EK80:EZ80" si="74">EK77+EK78-EK79</f>
+        <f t="shared" ref="EK80:EZ80" si="86">EK77+EK78-EK79</f>
         <v>10461</v>
       </c>
       <c r="EL80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>14969</v>
       </c>
       <c r="EM80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>16861</v>
       </c>
       <c r="EN80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>14978</v>
       </c>
       <c r="EO80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>13515</v>
       </c>
       <c r="EP80" s="27">
@@ -33230,43 +33265,43 @@
         <v>11064</v>
       </c>
       <c r="EQ80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>11885</v>
       </c>
       <c r="ER80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>-10353.99</v>
       </c>
       <c r="ES80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>-10644.57072</v>
       </c>
       <c r="ET80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>-10947.22221636</v>
       </c>
       <c r="EU80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>-11262.39289149168</v>
       </c>
       <c r="EV80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>-11590.548289969263</v>
       </c>
       <c r="EW80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>-11932.171748902987</v>
       </c>
       <c r="EX80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>-12287.765073037044</v>
       </c>
       <c r="EY80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>-12657.849235511436</v>
       </c>
       <c r="EZ80" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>20972</v>
       </c>
       <c r="FA80" s="24">
@@ -33407,35 +33442,35 @@
         <v>2341</v>
       </c>
       <c r="ER81" s="25">
-        <f t="shared" ref="ER81:EY81" si="75">ER80*0.24</f>
+        <f t="shared" ref="ER81:EY81" si="87">ER80*0.24</f>
         <v>-2484.9575999999997</v>
       </c>
       <c r="ES81" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>-2554.6969727999999</v>
       </c>
       <c r="ET81" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>-2627.3333319263998</v>
       </c>
       <c r="EU81" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>-2702.9742939580028</v>
       </c>
       <c r="EV81" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>-2781.7315895926231</v>
       </c>
       <c r="EW81" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>-2863.7212197367166</v>
       </c>
       <c r="EX81" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>-2949.0636175288905</v>
       </c>
       <c r="EY81" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>-3037.8838165227444</v>
       </c>
       <c r="EZ81" s="25">
@@ -33472,51 +33507,51 @@
         <v>2336</v>
       </c>
       <c r="I82" s="25">
-        <f t="shared" ref="I82:N82" si="76">I80-I81</f>
+        <f t="shared" ref="I82:N82" si="88">I80-I81</f>
         <v>4204</v>
       </c>
       <c r="J82" s="25">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>4668</v>
       </c>
       <c r="K82" s="25">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>5022</v>
       </c>
       <c r="L82" s="25">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>5301</v>
       </c>
       <c r="M82" s="25">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>6970</v>
       </c>
       <c r="N82" s="25">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>6024</v>
       </c>
       <c r="O82" s="25">
-        <f t="shared" ref="O82:T82" si="77">O80-O81</f>
+        <f t="shared" ref="O82:T82" si="89">O80-O81</f>
         <v>5417</v>
       </c>
       <c r="P82" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>7092</v>
       </c>
       <c r="Q82" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>5741</v>
       </c>
       <c r="R82" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>4904</v>
       </c>
       <c r="S82" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>5750</v>
       </c>
       <c r="T82" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>3071</v>
       </c>
       <c r="U82" s="25"/>
@@ -33557,19 +33592,19 @@
         <v>4860</v>
       </c>
       <c r="EK82" s="25">
-        <f t="shared" ref="EK82:ET82" si="78">EK80-EK81</f>
+        <f t="shared" ref="EK82:ET82" si="90">EK80-EK81</f>
         <v>8177</v>
       </c>
       <c r="EL82" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>11533</v>
       </c>
       <c r="EM82" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>12994</v>
       </c>
       <c r="EN82" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>11661</v>
       </c>
       <c r="EO82" s="25">
@@ -33581,39 +33616,39 @@
         <v>8744</v>
       </c>
       <c r="EQ82" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>9544</v>
       </c>
       <c r="ER82" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>-7869.0324000000001</v>
       </c>
       <c r="ES82" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>-8089.8737471999993</v>
       </c>
       <c r="ET82" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>-8319.8888844335997</v>
       </c>
       <c r="EU82" s="25">
-        <f t="shared" ref="EU82:EY82" si="79">EU80-EU81</f>
+        <f t="shared" ref="EU82:EY82" si="91">EU80-EU81</f>
         <v>-8559.4185975336768</v>
       </c>
       <c r="EV82" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>-8808.8167003766393</v>
       </c>
       <c r="EW82" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>-9068.4505291662699</v>
       </c>
       <c r="EX82" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>-9338.7014555081532</v>
       </c>
       <c r="EY82" s="25">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>-9619.9654189886915</v>
       </c>
       <c r="EZ82" s="25">
@@ -33886,51 +33921,51 @@
         <v>2060</v>
       </c>
       <c r="I84" s="25">
-        <f t="shared" ref="I84:N84" si="80">I82-I83</f>
+        <f t="shared" ref="I84:N84" si="92">I82-I83</f>
         <v>3760</v>
       </c>
       <c r="J84" s="25">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>4169</v>
       </c>
       <c r="K84" s="25">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>4450</v>
       </c>
       <c r="L84" s="25">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>4582</v>
       </c>
       <c r="M84" s="25">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>6027</v>
       </c>
       <c r="N84" s="25">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>5291</v>
       </c>
       <c r="O84" s="25">
-        <f t="shared" ref="O84:T84" si="81">O82-O83</f>
+        <f t="shared" ref="O84:T84" si="93">O82-O83</f>
         <v>4505</v>
       </c>
       <c r="P84" s="25">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>6180</v>
       </c>
       <c r="Q84" s="25">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>5163</v>
       </c>
       <c r="R84" s="25">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>4756</v>
       </c>
       <c r="S84" s="25">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>5653</v>
       </c>
       <c r="T84" s="25">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>2943</v>
       </c>
       <c r="U84" s="25"/>
@@ -34059,19 +34094,19 @@
         <v>4322</v>
       </c>
       <c r="EK84" s="25">
-        <f t="shared" ref="EK84:EZ84" si="82">EK82-EK83</f>
+        <f t="shared" ref="EK84:EZ84" si="94">EK82-EK83</f>
         <v>7234</v>
       </c>
       <c r="EL84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>10242</v>
       </c>
       <c r="EM84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>11318</v>
       </c>
       <c r="EN84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>9786</v>
       </c>
       <c r="EO84" s="25">
@@ -34083,43 +34118,43 @@
         <v>8519</v>
       </c>
       <c r="EQ84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>9343</v>
       </c>
       <c r="ER84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>-7869.0324000000001</v>
       </c>
       <c r="ES84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>-8089.8737471999993</v>
       </c>
       <c r="ET84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>-8319.8888844335997</v>
       </c>
       <c r="EU84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>-8559.4185975336768</v>
       </c>
       <c r="EV84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>-8808.8167003766393</v>
       </c>
       <c r="EW84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>-9068.4505291662699</v>
       </c>
       <c r="EX84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>-9338.7014555081532</v>
       </c>
       <c r="EY84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>-9619.9654189886915</v>
       </c>
       <c r="EZ84" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>16577</v>
       </c>
       <c r="FA84" s="25">
@@ -34135,299 +34170,299 @@
         <v>13463</v>
       </c>
       <c r="FD84" s="25">
-        <f t="shared" ref="FD84:GI84" si="83">FC84*(1+$FJ$91)</f>
+        <f t="shared" ref="FD84:GI84" si="95">FC84*(1+$FJ$91)</f>
         <v>13597.630000000001</v>
       </c>
       <c r="FE84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>13733.606300000001</v>
       </c>
       <c r="FF84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>13870.942363000002</v>
       </c>
       <c r="FG84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>14009.651786630002</v>
       </c>
       <c r="FH84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>14149.748304496303</v>
       </c>
       <c r="FI84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>14291.245787541266</v>
       </c>
       <c r="FJ84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>14434.158245416678</v>
       </c>
       <c r="FK84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>14578.499827870844</v>
       </c>
       <c r="FL84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>14724.284826149553</v>
       </c>
       <c r="FM84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>14871.527674411049</v>
       </c>
       <c r="FN84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>15020.24295115516</v>
       </c>
       <c r="FO84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>15170.445380666712</v>
       </c>
       <c r="FP84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>15322.149834473379</v>
       </c>
       <c r="FQ84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>15475.371332818113</v>
       </c>
       <c r="FR84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>15630.125046146295</v>
       </c>
       <c r="FS84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>15786.426296607759</v>
       </c>
       <c r="FT84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>15944.290559573836</v>
       </c>
       <c r="FU84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>16103.733465169575</v>
       </c>
       <c r="FV84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>16264.77079982127</v>
       </c>
       <c r="FW84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>16427.418507819482</v>
       </c>
       <c r="FX84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>16591.692692897679</v>
       </c>
       <c r="FY84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>16757.609619826657</v>
       </c>
       <c r="FZ84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>16925.185716024924</v>
       </c>
       <c r="GA84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>17094.437573185172</v>
       </c>
       <c r="GB84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>17265.381948917024</v>
       </c>
       <c r="GC84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>17438.035768406193</v>
       </c>
       <c r="GD84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>17612.416126090255</v>
       </c>
       <c r="GE84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>17788.540287351156</v>
       </c>
       <c r="GF84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>17966.425690224667</v>
       </c>
       <c r="GG84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>18146.089947126915</v>
       </c>
       <c r="GH84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>18327.550846598184</v>
       </c>
       <c r="GI84" s="32">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>18510.826355064164</v>
       </c>
       <c r="GJ84" s="32">
-        <f t="shared" ref="GJ84:HO84" si="84">GI84*(1+$FJ$91)</f>
+        <f t="shared" ref="GJ84:HO84" si="96">GI84*(1+$FJ$91)</f>
         <v>18695.934618614807</v>
       </c>
       <c r="GK84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>18882.893964800955</v>
       </c>
       <c r="GL84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>19071.722904448965</v>
       </c>
       <c r="GM84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>19262.440133493456</v>
       </c>
       <c r="GN84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>19455.064534828391</v>
       </c>
       <c r="GO84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>19649.615180176675</v>
       </c>
       <c r="GP84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>19846.111331978442</v>
       </c>
       <c r="GQ84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>20044.572445298225</v>
       </c>
       <c r="GR84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>20245.018169751209</v>
       </c>
       <c r="GS84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>20447.468351448722</v>
       </c>
       <c r="GT84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>20651.943034963209</v>
       </c>
       <c r="GU84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>20858.462465312841</v>
       </c>
       <c r="GV84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>21067.04708996597</v>
       </c>
       <c r="GW84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>21277.717560865629</v>
       </c>
       <c r="GX84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>21490.494736474284</v>
       </c>
       <c r="GY84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>21705.399683839027</v>
       </c>
       <c r="GZ84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>21922.453680677416</v>
       </c>
       <c r="HA84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>22141.67821748419</v>
       </c>
       <c r="HB84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>22363.094999659032</v>
       </c>
       <c r="HC84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>22586.725949655622</v>
       </c>
       <c r="HD84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>22812.593209152179</v>
       </c>
       <c r="HE84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>23040.719141243702</v>
       </c>
       <c r="HF84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>23271.126332656138</v>
       </c>
       <c r="HG84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>23503.837595982699</v>
       </c>
       <c r="HH84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>23738.875971942525</v>
       </c>
       <c r="HI84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>23976.264731661951</v>
       </c>
       <c r="HJ84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>24216.027378978572</v>
       </c>
       <c r="HK84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>24458.187652768356</v>
       </c>
       <c r="HL84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>24702.769529296042</v>
       </c>
       <c r="HM84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>24949.797224589001</v>
       </c>
       <c r="HN84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>25199.295196834893</v>
       </c>
       <c r="HO84" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>25451.288148803244</v>
       </c>
       <c r="HP84" s="32">
-        <f t="shared" ref="HP84:HY84" si="85">HO84*(1+$FJ$91)</f>
+        <f t="shared" ref="HP84:HY84" si="97">HO84*(1+$FJ$91)</f>
         <v>25705.801030291277</v>
       </c>
       <c r="HQ84" s="32">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>25962.85904059419</v>
       </c>
       <c r="HR84" s="32">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>26222.487631000131</v>
       </c>
       <c r="HS84" s="32">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>26484.712507310134</v>
       </c>
       <c r="HT84" s="32">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>26749.559632383236</v>
       </c>
       <c r="HU84" s="32">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>27017.055228707068</v>
       </c>
       <c r="HV84" s="32">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>27287.22578099414</v>
       </c>
       <c r="HW84" s="32">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>27560.098038804081</v>
       </c>
       <c r="HX84" s="32">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>27835.699019192121</v>
       </c>
       <c r="HY84" s="32">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>28114.056009384043</v>
       </c>
     </row>
@@ -34454,51 +34489,51 @@
         <v>2.4104238397498516</v>
       </c>
       <c r="I85" s="49">
-        <f t="shared" ref="I85:N85" si="86">I84/I86</f>
+        <f t="shared" ref="I85:N85" si="98">I84/I86</f>
         <v>4.3591034019903718</v>
       </c>
       <c r="J85" s="49">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>4.8332718305579414</v>
       </c>
       <c r="K85" s="49">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>5.1590452496960513</v>
       </c>
       <c r="L85" s="49">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>5.3120776031701817</v>
       </c>
       <c r="M85" s="49">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>6.9873181393074386</v>
       </c>
       <c r="N85" s="49">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>6.1340468350880464</v>
       </c>
       <c r="O85" s="49">
-        <f t="shared" ref="O85:T85" si="87">O84/O86</f>
+        <f t="shared" ref="O85:T85" si="99">O84/O86</f>
         <v>5.2228087303102724</v>
       </c>
       <c r="P85" s="49">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>7.1646965490160897</v>
       </c>
       <c r="Q85" s="49">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>5.9856518256585876</v>
       </c>
       <c r="R85" s="49">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>5.5138020691133525</v>
       </c>
       <c r="S85" s="49">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>6.5537264711307364</v>
       </c>
       <c r="T85" s="49">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>3.4119258808663999</v>
       </c>
       <c r="U85" s="49"/>
@@ -34631,11 +34666,11 @@
         <v>6.1026426057431324</v>
       </c>
       <c r="EL85" s="49">
-        <f t="shared" ref="EL85:ET85" si="88">EL84/EL86</f>
+        <f t="shared" ref="EL85:ET85" si="100">EL84/EL86</f>
         <v>11.873919426379091</v>
       </c>
       <c r="EM85" s="49">
-        <f t="shared" si="88"/>
+        <f t="shared" si="100"/>
         <v>13.121364974395485</v>
       </c>
       <c r="EN85" s="49">
@@ -34651,19 +34686,19 @@
         <v>9.8763834791372265</v>
       </c>
       <c r="EQ85" s="49">
-        <f t="shared" si="88"/>
+        <f t="shared" si="100"/>
         <v>10.831676352339372</v>
       </c>
       <c r="ER85" s="49">
-        <f t="shared" si="88"/>
+        <f t="shared" si="100"/>
         <v>-9.1228526343650156</v>
       </c>
       <c r="ES85" s="49">
-        <f t="shared" si="88"/>
+        <f t="shared" si="100"/>
         <v>-9.3788819609287533</v>
       </c>
       <c r="ET85" s="49">
-        <f t="shared" si="88"/>
+        <f t="shared" si="100"/>
         <v>-9.6455467926373348</v>
       </c>
       <c r="EU85" s="49"/>
@@ -34873,15 +34908,15 @@
         <v>862.56269999999995</v>
       </c>
       <c r="EM86" s="25">
-        <f t="shared" ref="EM86:ET86" si="89">EL86</f>
+        <f t="shared" ref="EM86:ET86" si="101">EL86</f>
         <v>862.56269999999995</v>
       </c>
       <c r="EN86" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>862.56269999999995</v>
       </c>
       <c r="EO86" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>862.56269999999995</v>
       </c>
       <c r="EP86" s="25">
@@ -34889,19 +34924,19 @@
         <v>862.56269999999995</v>
       </c>
       <c r="EQ86" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>862.56269999999995</v>
       </c>
       <c r="ER86" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>862.56269999999995</v>
       </c>
       <c r="ES86" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>862.56269999999995</v>
       </c>
       <c r="ET86" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>862.56269999999995</v>
       </c>
       <c r="EU86" s="25"/>
@@ -35252,35 +35287,35 @@
         <v>-10681</v>
       </c>
       <c r="ER88" s="25">
-        <f t="shared" ref="ER88:ES88" si="90">EQ88+EQ84</f>
+        <f t="shared" ref="ER88:ES88" si="102">EQ88+EQ84</f>
         <v>-1338</v>
       </c>
       <c r="ES88" s="25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>-9207.0324000000001</v>
       </c>
       <c r="ET88" s="25">
-        <f t="shared" ref="ET88:EY88" si="91">ES88+ES84</f>
+        <f t="shared" ref="ET88:EY88" si="103">ES88+ES84</f>
         <v>-17296.906147199999</v>
       </c>
       <c r="EU88" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>-25616.795031633599</v>
       </c>
       <c r="EV88" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>-34176.21362916728</v>
       </c>
       <c r="EW88" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>-42985.030329543923</v>
       </c>
       <c r="EX88" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>-52053.480858710194</v>
       </c>
       <c r="EY88" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>-61392.182314218349</v>
       </c>
       <c r="EZ88" s="25"/>
@@ -35474,27 +35509,27 @@
         <v>0.74</v>
       </c>
       <c r="K90" s="29">
-        <f t="shared" ref="K90:P90" si="92">K71/K68</f>
+        <f t="shared" ref="K90:P90" si="104">K71/K68</f>
         <v>0.78804977580734548</v>
       </c>
       <c r="L90" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.77726207642393652</v>
       </c>
       <c r="M90" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.77973452490471806</v>
       </c>
       <c r="N90" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.6776366600875311</v>
       </c>
       <c r="O90" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.75477185966187965</v>
       </c>
       <c r="P90" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.74683437089738702</v>
       </c>
       <c r="Q90" s="29">
@@ -35630,31 +35665,31 @@
       <c r="EE90" s="48"/>
       <c r="EG90" s="29"/>
       <c r="EH90" s="29">
-        <f t="shared" ref="EH90:EN90" si="93">EH71/EH68</f>
+        <f t="shared" ref="EH90:EN90" si="105">EH71/EH68</f>
         <v>0.77042891122535107</v>
       </c>
       <c r="EI90" s="29">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>0.77576314821625603</v>
       </c>
       <c r="EJ90" s="29">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>0.73856784770679496</v>
       </c>
       <c r="EK90" s="29">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>0.77874461434485087</v>
       </c>
       <c r="EL90" s="29">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>0.78235531980685524</v>
       </c>
       <c r="EM90" s="29">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>0.72815555025686607</v>
       </c>
       <c r="EN90" s="29">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>0.75520306480425281</v>
       </c>
       <c r="EO90" s="113">
@@ -35665,7 +35700,7 @@
         <v>0.76049999999999995</v>
       </c>
       <c r="EQ90" s="29">
-        <f t="shared" ref="EQ90" si="94">EQ71/EQ68</f>
+        <f t="shared" ref="EQ90" si="106">EQ71/EQ68</f>
         <v>0.75641296936352309</v>
       </c>
       <c r="ER90" s="29"/>
@@ -35681,7 +35716,7 @@
         <v>0.78487046276769024</v>
       </c>
       <c r="FA90" s="29">
-        <f t="shared" ref="FA90" si="95">FA71/FA68</f>
+        <f t="shared" ref="FA90" si="107">FA71/FA68</f>
         <v>0.75973312526870596</v>
       </c>
       <c r="FI90" s="88" t="s">
@@ -35714,39 +35749,39 @@
         <v>0.28927714057081888</v>
       </c>
       <c r="I91" s="28">
-        <f t="shared" ref="I91:Q91" si="96">I72/I68</f>
+        <f t="shared" ref="I91:Q91" si="108">I72/I68</f>
         <v>0.26525087233786548</v>
       </c>
       <c r="J91" s="28">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>0.27613955212028163</v>
       </c>
       <c r="K91" s="28">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>0.26238097637160562</v>
       </c>
       <c r="L91" s="28">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>0.25450612833453495</v>
       </c>
       <c r="M91" s="28">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>0.24322074736058177</v>
       </c>
       <c r="N91" s="28">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>0.16197545696387197</v>
       </c>
       <c r="O91" s="28">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>0.19864570078167607</v>
       </c>
       <c r="P91" s="28">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>0.20323550586541311</v>
       </c>
       <c r="Q91" s="28">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>0.19024410564025659</v>
       </c>
       <c r="R91" s="28">
@@ -35817,51 +35852,51 @@
         <v>0.19104748462546628</v>
       </c>
       <c r="EP91" s="28">
-        <f t="shared" ref="EP91:EZ91" si="97">EP72/EP68</f>
+        <f t="shared" ref="EP91:EZ91" si="109">EP72/EP68</f>
         <v>0.20048176478045895</v>
       </c>
       <c r="EQ91" s="28">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>0.18925019397615855</v>
       </c>
       <c r="ER91" s="28">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>0.46515147977351001</v>
       </c>
       <c r="ES91" s="28">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>0.16863670158187261</v>
       </c>
       <c r="ET91" s="28">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>0.16455136005646626</v>
       </c>
       <c r="EU91" s="28">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>0.16249841921123978</v>
       </c>
       <c r="EV91" s="28">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>0.15897565705715799</v>
       </c>
       <c r="EW91" s="28">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>0.1680111236814617</v>
       </c>
       <c r="EX91" s="28">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>0.16212897338195845</v>
       </c>
       <c r="EY91" s="28">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>0.14327935732103186</v>
       </c>
       <c r="EZ91" s="28">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>0.16050271762426488</v>
       </c>
       <c r="FA91" s="28">
-        <f t="shared" ref="FA91" si="98">FA72/FA68</f>
+        <f t="shared" ref="FA91" si="110">FA72/FA68</f>
         <v>0.1503797710227544</v>
       </c>
       <c r="FI91" s="88" t="s">
@@ -35903,31 +35938,31 @@
         <v>0.35242098296664276</v>
       </c>
       <c r="K92" s="28">
-        <f t="shared" ref="K92:Q92" si="99">K73/K68</f>
+        <f t="shared" ref="K92:Q92" si="111">K73/K68</f>
         <v>5.40077585772583E-2</v>
       </c>
       <c r="L92" s="28">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>6.6240086517664026E-2</v>
       </c>
       <c r="M92" s="28">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>5.4190213343847202E-2</v>
       </c>
       <c r="N92" s="28">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>5.2175405474984983E-2</v>
       </c>
       <c r="O92" s="28">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>4.9491001636066172E-2</v>
       </c>
       <c r="P92" s="28">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>5.2640494642781518E-2</v>
       </c>
       <c r="Q92" s="28">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>4.0281596267599765E-2</v>
       </c>
       <c r="R92" s="28">
@@ -36086,51 +36121,51 @@
         <v>4.3855227341465873E-2</v>
       </c>
       <c r="EP92" s="28">
-        <f t="shared" ref="EP92:EZ92" si="100">EP73/EP68</f>
+        <f t="shared" ref="EP92:EZ92" si="112">EP73/EP68</f>
         <v>6.0727718378903776E-2</v>
       </c>
       <c r="EQ92" s="28">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v>5.5065716771296229E-2</v>
       </c>
       <c r="ER92" s="28">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v>0.13534411301149962</v>
       </c>
       <c r="ES92" s="28">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v>4.9067853783668229E-2</v>
       </c>
       <c r="ET92" s="28">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v>4.787915085752812E-2</v>
       </c>
       <c r="EU92" s="28">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v>4.7281811130913592E-2</v>
       </c>
       <c r="EV92" s="28">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v>4.6256800699200393E-2</v>
       </c>
       <c r="EW92" s="28">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v>4.8885830744438225E-2</v>
       </c>
       <c r="EX92" s="28">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v>4.7174314282587483E-2</v>
       </c>
       <c r="EY92" s="28">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v>4.1689682550112642E-2</v>
       </c>
       <c r="EZ92" s="28">
-        <f t="shared" si="100"/>
+        <f t="shared" si="112"/>
         <v>4.6739708176877046E-2</v>
       </c>
       <c r="FA92" s="28">
-        <f t="shared" ref="FA92" si="101">FA73/FA68</f>
+        <f t="shared" ref="FA92" si="113">FA73/FA68</f>
         <v>4.2403783379245552E-2</v>
       </c>
       <c r="FI92" s="88" t="s">
@@ -36172,31 +36207,31 @@
         <v>0.18283130835135153</v>
       </c>
       <c r="K93" s="28">
-        <f t="shared" ref="K93:Q93" si="102">K74/K68</f>
+        <f t="shared" ref="K93:Q93" si="114">K74/K68</f>
         <v>0.15431507884528187</v>
       </c>
       <c r="L93" s="28">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>0.15888608507570295</v>
       </c>
       <c r="M93" s="28">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>0.15924124939764314</v>
       </c>
       <c r="N93" s="28">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>0.20381017763666009</v>
       </c>
       <c r="O93" s="28">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>0.18664788220323578</v>
       </c>
       <c r="P93" s="28">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>0.20065218311946809</v>
       </c>
       <c r="Q93" s="28">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>0.18820294926268433</v>
       </c>
       <c r="R93" s="28">
@@ -36267,51 +36302,51 @@
         <v>0.19909265046879726</v>
       </c>
       <c r="EP93" s="28">
-        <f t="shared" ref="EP93:EZ93" si="103">EP74/EP68</f>
+        <f t="shared" ref="EP93:EZ93" si="115">EP74/EP68</f>
         <v>0.21184972319655157</v>
       </c>
       <c r="EQ93" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0.19576309045167054</v>
       </c>
       <c r="ER93" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="ES93" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="ET93" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="EU93" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="EV93" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="EW93" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="EX93" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="EY93" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="EZ93" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0.20837405483257035</v>
       </c>
       <c r="FA93" s="28">
-        <f t="shared" ref="FA93" si="104">FA74/FA68</f>
+        <f t="shared" ref="FA93" si="116">FA74/FA68</f>
         <v>0.21827677903218101</v>
       </c>
       <c r="FI93" s="114" t="s">
@@ -36354,43 +36389,43 @@
         <v>0.22392567642135672</v>
       </c>
       <c r="K94" s="29">
-        <f t="shared" ref="K94:R94" si="105">K77/K68</f>
+        <f t="shared" ref="K94:R94" si="117">K77/K68</f>
         <v>0.31734596201319965</v>
       </c>
       <c r="L94" s="29">
-        <f t="shared" si="105"/>
+        <f t="shared" si="117"/>
         <v>0.29762977649603461</v>
       </c>
       <c r="M94" s="29">
-        <f t="shared" si="105"/>
+        <f t="shared" si="117"/>
         <v>0.37608971831602928</v>
       </c>
       <c r="N94" s="29">
-        <f t="shared" si="105"/>
+        <f t="shared" si="117"/>
         <v>0.31931691409937357</v>
       </c>
       <c r="O94" s="29">
-        <f t="shared" si="105"/>
+        <f t="shared" si="117"/>
         <v>0.31998727504090163</v>
       </c>
       <c r="P94" s="29">
-        <f t="shared" si="105"/>
+        <f t="shared" si="117"/>
         <v>0.29030618726972429</v>
       </c>
       <c r="Q94" s="29">
-        <f t="shared" si="105"/>
+        <f t="shared" si="117"/>
         <v>0.33200033325002082</v>
       </c>
       <c r="R94" s="29">
-        <f t="shared" si="105"/>
+        <f t="shared" si="117"/>
         <v>0.28604854060913704</v>
       </c>
       <c r="S94" s="29">
-        <f t="shared" ref="S94:T94" si="106">S77/S68</f>
+        <f t="shared" ref="S94:T94" si="118">S77/S68</f>
         <v>0.35541484007144014</v>
       </c>
       <c r="T94" s="29">
-        <f t="shared" si="106"/>
+        <f t="shared" si="118"/>
         <v>0.20468221548732815</v>
       </c>
       <c r="U94" s="29"/>
@@ -36539,51 +36574,51 @@
         <v>0.30613973182780524</v>
       </c>
       <c r="EP94" s="29">
-        <f t="shared" ref="EP94:EZ94" si="107">EP77/EP68</f>
+        <f t="shared" ref="EP94:EZ94" si="119">EP77/EP68</f>
         <v>0.28185352660271312</v>
       </c>
       <c r="EQ94" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>0.31633396816439774</v>
       </c>
       <c r="ER94" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>-0.60049559278500964</v>
       </c>
       <c r="ES94" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>-0.21770455536554084</v>
       </c>
       <c r="ET94" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>-0.21243051091399437</v>
       </c>
       <c r="EU94" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>-0.20978023034215337</v>
       </c>
       <c r="EV94" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>-0.20523245775635837</v>
       </c>
       <c r="EW94" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>-0.21689695442589996</v>
       </c>
       <c r="EX94" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>-0.20930328766454592</v>
       </c>
       <c r="EY94" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>-0.18496903987114449</v>
       </c>
       <c r="EZ94" s="29">
-        <f t="shared" si="107"/>
+        <f t="shared" si="119"/>
         <v>0.36925398213397803</v>
       </c>
       <c r="FA94" s="29">
-        <f t="shared" ref="FA94" si="108">FA77/FA68</f>
+        <f t="shared" ref="FA94" si="120">FA77/FA68</f>
         <v>0.34867279183452493</v>
       </c>
       <c r="FI94" s="114" t="s">
@@ -36692,59 +36727,59 @@
         <v>0.30398791565649136</v>
       </c>
       <c r="EN95" s="28">
-        <f t="shared" ref="EN95:EZ95" si="109">EN80/EN68</f>
+        <f t="shared" ref="EN95:EZ95" si="121">EN80/EN68</f>
         <v>0.32236403159503263</v>
       </c>
       <c r="EO95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>0.2725073092045569</v>
       </c>
       <c r="EP95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>0.23378269872797194</v>
       </c>
       <c r="EQ95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>0.27944322964425949</v>
       </c>
       <c r="ER95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>-0.60440079388243528</v>
       </c>
       <c r="ES95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>-0.2275453339033775</v>
       </c>
       <c r="ET95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>-0.23065235802031098</v>
       </c>
       <c r="EU95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>-0.23669937352076836</v>
       </c>
       <c r="EV95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>-0.24072251323951199</v>
       </c>
       <c r="EW95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>-0.26454797243931771</v>
       </c>
       <c r="EX95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>-0.26554935001052543</v>
       </c>
       <c r="EY95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>-0.24418560556188507</v>
       </c>
       <c r="EZ95" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="121"/>
         <v>0.35958369768358966</v>
       </c>
       <c r="FA95" s="28">
-        <f t="shared" ref="FA95" si="110">FA80/FA68</f>
+        <f t="shared" ref="FA95" si="122">FA80/FA68</f>
         <v>0.33671438352892469</v>
       </c>
       <c r="FI95" s="114" t="s">
@@ -36787,43 +36822,43 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="K96" s="28">
-        <f t="shared" ref="K96:R96" si="111">K81/K80</f>
+        <f t="shared" ref="K96:R96" si="123">K81/K80</f>
         <v>0.25301204819277107</v>
       </c>
       <c r="L96" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0.24658897100625354</v>
       </c>
       <c r="M96" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0.23280132085855806</v>
       </c>
       <c r="N96" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0.22530864197530864</v>
       </c>
       <c r="O96" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0.25570211596592468</v>
       </c>
       <c r="P96" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="Q96" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0.2261760345059981</v>
       </c>
       <c r="R96" s="28">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0.19553805774278216</v>
       </c>
       <c r="S96" s="28">
-        <f t="shared" ref="S96:T96" si="112">S81/S80</f>
+        <f t="shared" ref="S96:T96" si="124">S81/S80</f>
         <v>0.23841059602649006</v>
       </c>
       <c r="T96" s="28">
-        <f t="shared" si="112"/>
+        <f t="shared" si="124"/>
         <v>0.14480646059593427</v>
       </c>
       <c r="U96" s="28"/>
@@ -36886,39 +36921,39 @@
         <v>0.2096890817064353</v>
       </c>
       <c r="EQ96" s="28">
-        <f t="shared" ref="EQ96:EY96" si="113">EQ81/EQ80</f>
+        <f t="shared" ref="EQ96:EY96" si="125">EQ81/EQ80</f>
         <v>0.19697097181320994</v>
       </c>
       <c r="ER96" s="28">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>0.24</v>
       </c>
       <c r="ES96" s="28">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>0.24</v>
       </c>
       <c r="ET96" s="28">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>0.24</v>
       </c>
       <c r="EU96" s="28">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>0.23999999999999996</v>
       </c>
       <c r="EV96" s="28">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>0.24</v>
       </c>
       <c r="EW96" s="28">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>0.24</v>
       </c>
       <c r="EX96" s="28">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>0.24</v>
       </c>
       <c r="EY96" s="28">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>0.24</v>
       </c>
       <c r="EZ96" s="28">
@@ -36926,7 +36961,7 @@
         <v>0.17137135227922945</v>
       </c>
       <c r="FA96" s="28">
-        <f t="shared" ref="FA96" si="114">FA81/FA80</f>
+        <f t="shared" ref="FA96" si="126">FA81/FA80</f>
         <v>0.14541757306346353</v>
       </c>
       <c r="FI96" s="44"/>
@@ -37106,51 +37141,51 @@
         <v>0.17561949193815188</v>
       </c>
       <c r="EN97" s="29">
-        <f t="shared" ref="EN97:EY97" si="115">EN84/EN68</f>
+        <f t="shared" ref="EN97:EY97" si="127">EN84/EN68</f>
         <v>0.2106192023760842</v>
       </c>
       <c r="EO97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>0.2</v>
       </c>
       <c r="EP97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>0.1800067616109538</v>
       </c>
       <c r="EQ97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>0.21967506054407374</v>
       </c>
       <c r="ER97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>-0.45934460335065086</v>
       </c>
       <c r="ES97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>-0.17293445376656688</v>
       </c>
       <c r="ET97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>-0.17529579209543633</v>
       </c>
       <c r="EU97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>-0.17989152387578397</v>
       </c>
       <c r="EV97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>-0.1829491100620291</v>
       </c>
       <c r="EW97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>-0.20105645905388148</v>
       </c>
       <c r="EX97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>-0.20181750600799933</v>
       </c>
       <c r="EY97" s="29">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>-0.18558106022703266</v>
       </c>
       <c r="EZ97" s="29">
@@ -37335,43 +37370,43 @@
         <v>7.3267007224671055E-2</v>
       </c>
       <c r="K100" s="29">
-        <f t="shared" ref="K100:T100" si="116">K68/I68-1</f>
+        <f t="shared" ref="K100:T100" si="128">K68/I68-1</f>
         <v>0.19414029599326188</v>
       </c>
       <c r="L100" s="29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>0.17486367727248653</v>
       </c>
       <c r="M100" s="29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>0.1500327472416747</v>
       </c>
       <c r="N100" s="29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>5.0198269646719584E-2</v>
       </c>
       <c r="O100" s="29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>-3.6053795943400413E-2</v>
       </c>
       <c r="P100" s="29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>1.3172573586200942E-2</v>
       </c>
       <c r="Q100" s="29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>9.0983457553172054E-2</v>
       </c>
       <c r="R100" s="29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>6.7886333799178411E-2</v>
       </c>
       <c r="S100" s="29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>2.6243439140214875E-2</v>
       </c>
       <c r="T100" s="29">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>-9.7120875634517767E-2</v>
       </c>
       <c r="U100" s="29"/>
@@ -37422,43 +37457,43 @@
       <c r="BN100" s="79"/>
       <c r="BO100" s="79"/>
       <c r="BP100" s="79">
-        <f t="shared" ref="BP100:BQ100" si="117">BP68/BL68-1</f>
+        <f t="shared" ref="BP100:BQ100" si="129">BP68/BL68-1</f>
         <v>2.3527361449982021E-3</v>
       </c>
       <c r="BQ100" s="79">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>-1.7546658159196538E-3</v>
       </c>
       <c r="BR100" s="79">
-        <f t="shared" ref="BR100:BW100" si="118">BR68/BN68-1</f>
+        <f t="shared" ref="BR100:BW100" si="130">BR68/BN68-1</f>
         <v>6.0909583107742193E-2</v>
       </c>
       <c r="BS100" s="79">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>0.1108959690195388</v>
       </c>
       <c r="BT100" s="79">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>9.2236807789272346E-2</v>
       </c>
       <c r="BU100" s="79">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>1.0866091403004097E-2</v>
       </c>
       <c r="BV100" s="79">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>-0.33154716339202173</v>
       </c>
       <c r="BW100" s="79">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>-1.8301378545396929E-2</v>
       </c>
       <c r="BX100" s="79">
-        <f t="shared" ref="BX100" si="119">BX68/BT68-1</f>
+        <f t="shared" ref="BX100" si="131">BX68/BT68-1</f>
         <v>-8.5402737981534527E-2</v>
       </c>
       <c r="BY100" s="79">
-        <f t="shared" ref="BY100" si="120">BY68/BU68-1</f>
+        <f t="shared" ref="BY100" si="132">BY68/BU68-1</f>
         <v>-0.10322478659500478</v>
       </c>
       <c r="BZ100" s="48"/>
@@ -37526,11 +37561,11 @@
       </c>
       <c r="EJ100" s="29"/>
       <c r="EK100" s="29">
-        <f t="shared" ref="EK100:EL100" si="121">EK68/EJ68-1</f>
+        <f t="shared" ref="EK100:EL100" si="133">EK68/EJ68-1</f>
         <v>0.20286565950816349</v>
       </c>
       <c r="EL100" s="29">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>0.18388668299963395</v>
       </c>
       <c r="EM100" s="29">
@@ -37550,59 +37585,59 @@
         <v>-4.5750579695533866E-2</v>
       </c>
       <c r="EQ100" s="29">
-        <f t="shared" ref="EQ100:ES100" si="122">EQ68/EP68-1</f>
+        <f t="shared" ref="EQ100:ES100" si="134">EQ68/EP68-1</f>
         <v>-0.10131851413599291</v>
       </c>
       <c r="ER100" s="29">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>-0.59721144576896856</v>
       </c>
       <c r="ES100" s="29">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>1.7307220827739185</v>
       </c>
       <c r="ET100" s="29">
-        <f t="shared" ref="ET100" si="123">ET68/ES68-1</f>
+        <f t="shared" ref="ET100" si="135">ET68/ES68-1</f>
         <v>1.4578879863189398E-2</v>
       </c>
       <c r="EU100" s="29">
-        <f t="shared" ref="EU100" si="124">EU68/ET68-1</f>
+        <f t="shared" ref="EU100" si="136">EU68/ET68-1</f>
         <v>2.5072689730731845E-3</v>
       </c>
       <c r="EV100" s="29">
-        <f t="shared" ref="EV100" si="125">EV68/EU68-1</f>
+        <f t="shared" ref="EV100" si="137">EV68/EU68-1</f>
         <v>1.1937538092936295E-2</v>
       </c>
       <c r="EW100" s="29">
-        <f t="shared" ref="EW100" si="126">EW68/EV68-1</f>
+        <f t="shared" ref="EW100" si="138">EW68/EV68-1</f>
         <v>-6.3241188809736393E-2</v>
       </c>
       <c r="EX100" s="29">
-        <f t="shared" ref="EX100" si="127">EX68/EW68-1</f>
+        <f t="shared" ref="EX100" si="139">EX68/EW68-1</f>
         <v>2.5917878680383089E-2</v>
       </c>
       <c r="EY100" s="29">
-        <f t="shared" ref="EY100" si="128">EY68/EX68-1</f>
+        <f t="shared" ref="EY100" si="140">EY68/EX68-1</f>
         <v>0.12024290623041511</v>
       </c>
       <c r="EZ100" s="29">
-        <f t="shared" ref="EZ100" si="129">EZ68/EY68-1</f>
+        <f t="shared" ref="EZ100" si="141">EZ68/EY68-1</f>
         <v>0.12512298165403091</v>
       </c>
       <c r="FA100" s="29">
-        <f t="shared" ref="FA100:FD100" si="130">FA68/EZ68-1</f>
+        <f t="shared" ref="FA100:FD100" si="142">FA68/EZ68-1</f>
         <v>7.6779315192976982E-2</v>
       </c>
       <c r="FB100" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="142"/>
         <v>-4.0158596200697394E-2</v>
       </c>
       <c r="FC100" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="142"/>
         <v>-1.6805189203536908E-2</v>
       </c>
       <c r="FD100" s="29">
-        <f t="shared" si="130"/>
+        <f t="shared" si="142"/>
         <v>2.073701616441137E-2</v>
       </c>
     </row>
@@ -38621,63 +38656,63 @@
       <c r="EK106" s="29"/>
       <c r="EL106" s="29"/>
       <c r="EM106" s="81">
-        <f>EM6/EL6-1</f>
+        <f t="shared" ref="EM106:FA106" si="143">EM6/EL6-1</f>
         <v>6.8937921573110739E-2</v>
       </c>
       <c r="EN106" s="81">
-        <f>EN6/EM6-1</f>
+        <f t="shared" si="143"/>
         <v>3.2727272727272716E-2</v>
       </c>
       <c r="EO106" s="81">
-        <f>EO6/EN6-1</f>
+        <f t="shared" si="143"/>
         <v>4.1321458160729074E-2</v>
       </c>
       <c r="EP106" s="81">
-        <f>EP6/EO6-1</f>
+        <f t="shared" si="143"/>
         <v>3.5803083043262074E-2</v>
       </c>
       <c r="EQ106" s="81">
-        <f>EQ6/EP6-1</f>
+        <f t="shared" si="143"/>
         <v>-6.5098415746519422E-2</v>
       </c>
       <c r="ER106" s="81">
-        <f>ER6/EQ6-1</f>
+        <f t="shared" si="143"/>
         <v>-1</v>
       </c>
       <c r="ES106" s="81" t="e">
-        <f>ES6/ER6-1</f>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="ET106" s="81" t="e">
-        <f>ET6/ES6-1</f>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EU106" s="81" t="e">
-        <f>EU6/ET6-1</f>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EV106" s="81" t="e">
-        <f>EV6/EU6-1</f>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EW106" s="81" t="e">
-        <f>EW6/EV6-1</f>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EX106" s="81">
-        <f>EX6/EW6-1</f>
+        <f t="shared" si="143"/>
         <v>6.6230648232469491E-2</v>
       </c>
       <c r="EY106" s="81">
-        <f>EY6/EX6-1</f>
+        <f t="shared" si="143"/>
         <v>5.5128503765820014E-3</v>
       </c>
       <c r="EZ106" s="81">
-        <f>EZ6/EY6-1</f>
+        <f t="shared" si="143"/>
         <v>6.4942084942084977E-2</v>
       </c>
       <c r="FA106" s="81">
-        <f>FA6/EZ6-1</f>
+        <f t="shared" si="143"/>
         <v>0.2877963889493147</v>
       </c>
       <c r="FC106" s="48"/>
@@ -38929,15 +38964,15 @@
       </c>
       <c r="EJ108" s="28"/>
       <c r="EK108" s="28">
-        <f t="shared" ref="EK108:EM110" si="131">EK72/EJ72-1</f>
+        <f t="shared" ref="EK108:EM110" si="144">EK72/EJ72-1</f>
         <v>0.14020148716718639</v>
       </c>
       <c r="EL108" s="28">
-        <f t="shared" si="131"/>
+        <f t="shared" si="144"/>
         <v>0.14189544546123911</v>
       </c>
       <c r="EM108" s="28">
-        <f t="shared" si="131"/>
+        <f t="shared" si="144"/>
         <v>-0.14084377302873985</v>
       </c>
       <c r="EN108" s="28">
@@ -39117,15 +39152,15 @@
       </c>
       <c r="EJ109" s="28"/>
       <c r="EK109" s="28">
-        <f t="shared" si="131"/>
+        <f t="shared" si="144"/>
         <v>0.10743405275779372</v>
       </c>
       <c r="EL109" s="28">
-        <f t="shared" si="131"/>
+        <f t="shared" si="144"/>
         <v>0.10090948462537885</v>
       </c>
       <c r="EM109" s="28">
-        <f t="shared" si="131"/>
+        <f t="shared" si="144"/>
         <v>-3.5011801730920555E-2</v>
       </c>
       <c r="EN109" s="29">
@@ -39308,15 +39343,15 @@
       </c>
       <c r="EJ110" s="28"/>
       <c r="EK110" s="28">
-        <f t="shared" si="131"/>
+        <f t="shared" si="144"/>
         <v>0.10690725649980592</v>
       </c>
       <c r="EL110" s="28">
-        <f t="shared" si="131"/>
+        <f t="shared" si="144"/>
         <v>0.15495179666958814</v>
       </c>
       <c r="EM110" s="28">
-        <f t="shared" si="131"/>
+        <f t="shared" si="144"/>
         <v>0.2725755046289271</v>
       </c>
       <c r="EN110" s="29">
@@ -40737,115 +40772,115 @@
       <c r="AZ123" s="48"/>
       <c r="BA123" s="48"/>
       <c r="BB123" s="79">
-        <f>BB20/AX20-1</f>
+        <f t="shared" ref="BB123:CC123" si="145">BB20/AX20-1</f>
         <v>0.18797953964194369</v>
       </c>
       <c r="BC123" s="79">
-        <f>BC20/AY20-1</f>
+        <f t="shared" si="145"/>
         <v>0.20546318289786214</v>
       </c>
       <c r="BD123" s="79">
-        <f>BD20/AZ20-1</f>
+        <f t="shared" si="145"/>
         <v>0.20113636363636367</v>
       </c>
       <c r="BE123" s="79">
-        <f>BE20/BA20-1</f>
+        <f t="shared" si="145"/>
         <v>0.31922196796338675</v>
       </c>
       <c r="BF123" s="79">
-        <f>BF20/BB20-1</f>
+        <f t="shared" si="145"/>
         <v>0.23358449946178683</v>
       </c>
       <c r="BG123" s="79">
-        <f>BG20/BC20-1</f>
+        <f t="shared" si="145"/>
         <v>0.18423645320197046</v>
       </c>
       <c r="BH123" s="79">
-        <f>BH20/BD20-1</f>
+        <f t="shared" si="145"/>
         <v>0.11352885525070966</v>
       </c>
       <c r="BI123" s="79">
-        <f>BI20/BE20-1</f>
+        <f t="shared" si="145"/>
         <v>0.1396357328707718</v>
       </c>
       <c r="BJ123" s="79">
-        <f>BJ20/BF20-1</f>
+        <f t="shared" si="145"/>
         <v>0.14223385689354284</v>
       </c>
       <c r="BK123" s="79">
-        <f>BK20/BG20-1</f>
+        <f t="shared" si="145"/>
         <v>0.16056572379367728</v>
       </c>
       <c r="BL123" s="79">
-        <f>BL20/BH20-1</f>
+        <f t="shared" si="145"/>
         <v>0.1724723874256584</v>
       </c>
       <c r="BM123" s="79">
-        <f>BM20/BI20-1</f>
+        <f t="shared" si="145"/>
         <v>8.9802130898021248E-2</v>
       </c>
       <c r="BN123" s="79">
-        <f>BN20/BJ20-1</f>
+        <f t="shared" si="145"/>
         <v>7.4866310160427885E-2</v>
       </c>
       <c r="BO123" s="79">
-        <f>BO20/BK20-1</f>
+        <f t="shared" si="145"/>
         <v>4.6594982078853153E-2</v>
       </c>
       <c r="BP123" s="79">
-        <f>BP20/BL20-1</f>
+        <f t="shared" si="145"/>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="BQ123" s="79">
-        <f>BQ20/BM20-1</f>
+        <f t="shared" si="145"/>
         <v>0.1061452513966481</v>
       </c>
       <c r="BR123" s="79">
-        <f>BR20/BN20-1</f>
+        <f t="shared" si="145"/>
         <v>5.2594171997156991E-2</v>
       </c>
       <c r="BS123" s="79">
-        <f>BS20/BO20-1</f>
+        <f t="shared" si="145"/>
         <v>0.10753424657534238</v>
       </c>
       <c r="BT123" s="79">
-        <f>BT20/BP20-1</f>
+        <f t="shared" si="145"/>
         <v>2.4456521739130377E-2</v>
       </c>
       <c r="BU123" s="79">
-        <f>BU20/BQ20-1</f>
+        <f t="shared" si="145"/>
         <v>-6.5025252525252486E-2</v>
       </c>
       <c r="BV123" s="79">
-        <f>BV20/BR20-1</f>
+        <f t="shared" si="145"/>
         <v>8.4402430790006644E-2</v>
       </c>
       <c r="BW123" s="79">
-        <f>BW20/BS20-1</f>
+        <f t="shared" si="145"/>
         <v>4.8237476808905333E-2</v>
       </c>
       <c r="BX123" s="79">
-        <f>BX20/BT20-1</f>
+        <f t="shared" si="145"/>
         <v>7.9575596816976457E-3</v>
       </c>
       <c r="BY123" s="79">
-        <f>BY20/BU20-1</f>
+        <f t="shared" si="145"/>
         <v>3.6461850101283E-2</v>
       </c>
       <c r="BZ123" s="79">
-        <f>BZ20/BV20-1</f>
+        <f t="shared" si="145"/>
         <v>-3.1133250311332517E-2</v>
       </c>
       <c r="CA123" s="79">
-        <f>CA20/BW20-1</f>
+        <f t="shared" si="145"/>
         <v>-0.11504424778761058</v>
       </c>
       <c r="CB123" s="79">
-        <f>CB20/BX20-1</f>
+        <f t="shared" si="145"/>
         <v>-0.10460526315789476</v>
       </c>
       <c r="CC123" s="79">
-        <f>CC20/BY20-1</f>
+        <f t="shared" si="145"/>
         <v>3.4527687296416865E-2</v>
       </c>
       <c r="CD123" s="79"/>
@@ -40984,115 +41019,115 @@
       <c r="AZ124" s="48"/>
       <c r="BA124" s="48"/>
       <c r="BB124" s="79">
-        <f>BB18/AX18-1</f>
+        <f t="shared" ref="BB124:CC124" si="146">BB18/AX18-1</f>
         <v>0.19207317073170738</v>
       </c>
       <c r="BC124" s="79">
-        <f>BC18/AY18-1</f>
+        <f t="shared" si="146"/>
         <v>0.2921348314606742</v>
       </c>
       <c r="BD124" s="79">
-        <f>BD18/AZ18-1</f>
+        <f t="shared" si="146"/>
         <v>0.58445040214477206</v>
       </c>
       <c r="BE124" s="79">
-        <f>BE18/BA18-1</f>
+        <f t="shared" si="146"/>
         <v>0.86387535984716535</v>
       </c>
       <c r="BF124" s="79">
-        <f>BF18/BB18-1</f>
+        <f t="shared" si="146"/>
         <v>1.2020460358056266</v>
       </c>
       <c r="BG124" s="79">
-        <f>BG18/BC18-1</f>
+        <f t="shared" si="146"/>
         <v>1.0695652173913044</v>
       </c>
       <c r="BH124" s="79">
-        <f>BH18/BD18-1</f>
+        <f t="shared" si="146"/>
         <v>0.7072758037225042</v>
       </c>
       <c r="BI124" s="79">
-        <f>BI18/BE18-1</f>
+        <f t="shared" si="146"/>
         <v>0.56960227272727271</v>
       </c>
       <c r="BJ124" s="79">
-        <f>BJ18/BF18-1</f>
+        <f t="shared" si="146"/>
         <v>0.35656213704994189</v>
       </c>
       <c r="BK124" s="79">
-        <f>BK18/BG18-1</f>
+        <f t="shared" si="146"/>
         <v>0.27521008403361336</v>
       </c>
       <c r="BL124" s="79">
-        <f>BL18/BH18-1</f>
+        <f t="shared" si="146"/>
         <v>0.19821605550049548</v>
       </c>
       <c r="BM124" s="79">
-        <f>BM18/BI18-1</f>
+        <f t="shared" si="146"/>
         <v>0.14117647058823524</v>
       </c>
       <c r="BN124" s="79">
-        <f>BN18/BJ18-1</f>
+        <f t="shared" si="146"/>
         <v>4.8801369863013644E-2</v>
       </c>
       <c r="BO124" s="79">
-        <f>BO18/BK18-1</f>
+        <f t="shared" si="146"/>
         <v>2.883031301482708E-2</v>
       </c>
       <c r="BP124" s="79">
-        <f>BP18/BL18-1</f>
+        <f t="shared" si="146"/>
         <v>7.1133167907361461E-2</v>
       </c>
       <c r="BQ124" s="79">
-        <f>BQ18/BM18-1</f>
+        <f t="shared" si="146"/>
         <v>4.9167327517843029E-2</v>
       </c>
       <c r="BR124" s="79">
-        <f>BR18/BN18-1</f>
+        <f t="shared" si="146"/>
         <v>6.6938775510203996E-2</v>
       </c>
       <c r="BS124" s="79">
-        <f>BS18/BO18-1</f>
+        <f t="shared" si="146"/>
         <v>7.125700560448367E-2</v>
       </c>
       <c r="BT124" s="79">
-        <f>BT18/BP18-1</f>
+        <f t="shared" si="146"/>
         <v>2.4710424710424617E-2</v>
       </c>
       <c r="BU124" s="79">
-        <f>BU18/BQ18-1</f>
+        <f t="shared" si="146"/>
         <v>-2.1919879062736181E-2</v>
       </c>
       <c r="BV124" s="79">
-        <f>BV18/BR18-1</f>
+        <f t="shared" si="146"/>
         <v>8.4162203519510426E-2</v>
       </c>
       <c r="BW124" s="79">
-        <f>BW18/BS18-1</f>
+        <f t="shared" si="146"/>
         <v>3.811659192825112E-2</v>
       </c>
       <c r="BX124" s="79">
-        <f>BX18/BT18-1</f>
+        <f t="shared" si="146"/>
         <v>2.2607385079125741E-2</v>
       </c>
       <c r="BY124" s="79">
-        <f>BY18/BU18-1</f>
+        <f t="shared" si="146"/>
         <v>-2.1638330757341562E-2</v>
       </c>
       <c r="BZ124" s="79">
-        <f>BZ18/BV18-1</f>
+        <f t="shared" si="146"/>
         <v>-2.1877205363443841E-2</v>
       </c>
       <c r="CA124" s="79">
-        <f>CA18/BW18-1</f>
+        <f t="shared" si="146"/>
         <v>-4.2476601871850206E-2</v>
       </c>
       <c r="CB124" s="79">
-        <f>CB18/BX18-1</f>
+        <f t="shared" si="146"/>
         <v>-0.12380250552689753</v>
       </c>
       <c r="CC124" s="79">
-        <f>CC18/BY18-1</f>
+        <f t="shared" si="146"/>
         <v>6.4770932069510234E-2</v>
       </c>
       <c r="CD124" s="79"/>
@@ -41231,115 +41266,115 @@
       <c r="AZ125" s="48"/>
       <c r="BA125" s="48"/>
       <c r="BB125" s="79">
-        <f>BB22/AX22-1</f>
+        <f t="shared" ref="BB125:CC125" si="147">BB22/AX22-1</f>
         <v>4.416666666666667</v>
       </c>
       <c r="BC125" s="79">
-        <f>BC22/AY22-1</f>
+        <f t="shared" si="147"/>
         <v>1.0532544378698225</v>
       </c>
       <c r="BD125" s="79">
-        <f>BD22/AZ22-1</f>
+        <f t="shared" si="147"/>
         <v>1.0680851063829788</v>
       </c>
       <c r="BE125" s="79">
-        <f>BE22/BA22-1</f>
+        <f t="shared" si="147"/>
         <v>1.403361344537815</v>
       </c>
       <c r="BF125" s="79">
-        <f>BF22/BB22-1</f>
+        <f t="shared" si="147"/>
         <v>1.6</v>
       </c>
       <c r="BG125" s="79">
-        <f>BG22/BC22-1</f>
+        <f t="shared" si="147"/>
         <v>1.0547550432276656</v>
       </c>
       <c r="BH125" s="79">
-        <f>BH22/BD22-1</f>
+        <f t="shared" si="147"/>
         <v>0.52469135802469147</v>
       </c>
       <c r="BI125" s="79">
-        <f>BI22/BE22-1</f>
+        <f t="shared" si="147"/>
         <v>0.45454545454545459</v>
       </c>
       <c r="BJ125" s="79">
-        <f>BJ22/BF22-1</f>
+        <f t="shared" si="147"/>
         <v>0.36538461538461542</v>
       </c>
       <c r="BK125" s="79">
-        <f>BK22/BG22-1</f>
+        <f t="shared" si="147"/>
         <v>0.38288920056100983</v>
       </c>
       <c r="BL125" s="79">
-        <f>BL22/BH22-1</f>
+        <f t="shared" si="147"/>
         <v>0.4331983805668016</v>
       </c>
       <c r="BM125" s="79">
-        <f>BM22/BI22-1</f>
+        <f t="shared" si="147"/>
         <v>0.36418269230769229</v>
       </c>
       <c r="BN125" s="79">
-        <f>BN22/BJ22-1</f>
+        <f t="shared" si="147"/>
         <v>0.22535211267605626</v>
       </c>
       <c r="BO125" s="79">
-        <f>BO22/BK22-1</f>
+        <f t="shared" si="147"/>
         <v>0.23732251521298164</v>
       </c>
       <c r="BP125" s="79">
-        <f>BP22/BL22-1</f>
+        <f t="shared" si="147"/>
         <v>0.27212806026365355</v>
       </c>
       <c r="BQ125" s="79">
-        <f>BQ22/BM22-1</f>
+        <f t="shared" si="147"/>
         <v>0.32599118942731287</v>
       </c>
       <c r="BR125" s="79">
-        <f>BR22/BN22-1</f>
+        <f t="shared" si="147"/>
         <v>0.31299734748010599</v>
       </c>
       <c r="BS125" s="79">
-        <f>BS22/BO22-1</f>
+        <f t="shared" si="147"/>
         <v>0.31557377049180335</v>
       </c>
       <c r="BT125" s="79">
-        <f>BT22/BP22-1</f>
+        <f t="shared" si="147"/>
         <v>0.17986676535899337</v>
       </c>
       <c r="BU125" s="79">
-        <f>BU22/BQ22-1</f>
+        <f t="shared" si="147"/>
         <v>2.1926910299003399E-2</v>
       </c>
       <c r="BV125" s="79">
-        <f>BV22/BR22-1</f>
+        <f t="shared" si="147"/>
         <v>0.12188552188552193</v>
       </c>
       <c r="BW125" s="79">
-        <f>BW22/BS22-1</f>
+        <f t="shared" si="147"/>
         <v>7.6012461059190128E-2</v>
       </c>
       <c r="BX125" s="79">
-        <f>BX22/BT22-1</f>
+        <f t="shared" si="147"/>
         <v>8.7829360100375453E-3</v>
       </c>
       <c r="BY125" s="79">
-        <f>BY22/BU22-1</f>
+        <f t="shared" si="147"/>
         <v>-5.0715214564369338E-2</v>
       </c>
       <c r="BZ125" s="79">
-        <f>BZ22/BV22-1</f>
+        <f t="shared" si="147"/>
         <v>-0.1494597839135654</v>
       </c>
       <c r="CA125" s="79">
-        <f>CA22/BW22-1</f>
+        <f t="shared" si="147"/>
         <v>-0.2420382165605095</v>
       </c>
       <c r="CB125" s="79">
-        <f>CB22/BX22-1</f>
+        <f t="shared" si="147"/>
         <v>-0.24378109452736318</v>
       </c>
       <c r="CC125" s="79">
-        <f>CC22/BY22-1</f>
+        <f t="shared" si="147"/>
         <v>-7.5342465753424626E-2</v>
       </c>
       <c r="CD125" s="79"/>
@@ -41478,87 +41513,87 @@
       <c r="AZ126" s="93"/>
       <c r="BA126" s="93"/>
       <c r="BB126" s="94">
-        <f t="shared" ref="BB126:BV126" si="132">BB43/AX43-1</f>
+        <f t="shared" ref="BB126:BV126" si="148">BB43/AX43-1</f>
         <v>5.5214723926380271E-2</v>
       </c>
       <c r="BC126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>7.344632768361592E-2</v>
       </c>
       <c r="BD126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>6.8181818181818121E-2</v>
       </c>
       <c r="BE126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>0.12734082397003754</v>
       </c>
       <c r="BF126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>3.6821705426356655E-2</v>
       </c>
       <c r="BG126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-8.7719298245614308E-3</v>
       </c>
       <c r="BH126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-5.1418439716312103E-2</v>
       </c>
       <c r="BI126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-1.6611295681063121E-2</v>
       </c>
       <c r="BJ126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-2.4299065420560706E-2</v>
       </c>
       <c r="BK126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-3.7168141592920367E-2</v>
       </c>
       <c r="BL126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-3.1775700934579487E-2</v>
       </c>
       <c r="BM126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-0.13851351351351349</v>
       </c>
       <c r="BN126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-0.15325670498084287</v>
       </c>
       <c r="BO126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-0.17279411764705888</v>
       </c>
       <c r="BP126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-0.17567567567567566</v>
       </c>
       <c r="BQ126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-0.10784313725490191</v>
       </c>
       <c r="BR126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-0.14479638009049778</v>
       </c>
       <c r="BS126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-8.666666666666667E-2</v>
       </c>
       <c r="BT126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-8.4309133489461341E-2</v>
       </c>
       <c r="BU126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-0.1648351648351648</v>
       </c>
       <c r="BV126" s="94">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-0.10317460317460314</v>
       </c>
       <c r="BW126" s="94"/>
@@ -41704,87 +41739,87 @@
       <c r="AZ127" s="93"/>
       <c r="BA127" s="93"/>
       <c r="BB127" s="94">
-        <f t="shared" ref="BB127:BV127" si="133">BB49/AX49-1</f>
+        <f t="shared" ref="BB127:BV127" si="149">BB49/AX49-1</f>
         <v>2.925925925925926</v>
       </c>
       <c r="BC127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>7.2105263157894743</v>
       </c>
       <c r="BD127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>1.5363636363636362</v>
       </c>
       <c r="BE127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>6.5161290322580649</v>
       </c>
       <c r="BF127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0.41745283018867929</v>
       </c>
       <c r="BG127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>1.3076923076923075</v>
       </c>
       <c r="BH127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>1.3978494623655915</v>
       </c>
       <c r="BI127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0.42632331902718179</v>
       </c>
       <c r="BJ127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0.43926788685524132</v>
       </c>
       <c r="BK127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0.25277777777777777</v>
       </c>
       <c r="BL127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>-0.61584454409566525</v>
       </c>
       <c r="BM127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>-0.48645937813440321</v>
       </c>
       <c r="BN127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>-0.67861271676300583</v>
       </c>
       <c r="BO127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>-0.89135254988913526</v>
       </c>
       <c r="BP127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>-0.60700389105058372</v>
       </c>
       <c r="BQ127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>-0.646484375</v>
       </c>
       <c r="BR127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0.44244604316546754</v>
       </c>
       <c r="BS127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>11.428571428571429</v>
       </c>
       <c r="BT127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>8.8415841584158414</v>
       </c>
       <c r="BU127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>5.6077348066298338</v>
       </c>
       <c r="BV127" s="94">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0.28927680798004984</v>
       </c>
       <c r="BW127" s="94"/>
@@ -41930,87 +41965,87 @@
       <c r="AZ128" s="93"/>
       <c r="BA128" s="93"/>
       <c r="BB128" s="94">
-        <f>BB28/AX28-1</f>
+        <f t="shared" ref="BB128:BV128" si="150">BB28/AX28-1</f>
         <v>2.7100271002709064E-3</v>
       </c>
       <c r="BC128" s="94">
-        <f>BC28/AY28-1</f>
+        <f t="shared" si="150"/>
         <v>0.22857142857142865</v>
       </c>
       <c r="BD128" s="94">
-        <f>BD28/AZ28-1</f>
+        <f t="shared" si="150"/>
         <v>0.3086053412462908</v>
       </c>
       <c r="BE128" s="94">
-        <f>BE28/BA28-1</f>
+        <f t="shared" si="150"/>
         <v>0.33717579250720453</v>
       </c>
       <c r="BF128" s="94">
-        <f>BF28/BB28-1</f>
+        <f t="shared" si="150"/>
         <v>0.22702702702702693</v>
       </c>
       <c r="BG128" s="94">
-        <f>BG28/BC28-1</f>
+        <f t="shared" si="150"/>
         <v>1.6279069767441756E-2</v>
       </c>
       <c r="BH128" s="94">
-        <f>BH28/BD28-1</f>
+        <f t="shared" si="150"/>
         <v>5.6689342403628107E-2</v>
       </c>
       <c r="BI128" s="94">
-        <f>BI28/BE28-1</f>
+        <f t="shared" si="150"/>
         <v>4.5258620689655249E-2</v>
       </c>
       <c r="BJ128" s="94">
-        <f>BJ28/BF28-1</f>
+        <f t="shared" si="150"/>
         <v>4.8458149779735615E-2</v>
       </c>
       <c r="BK128" s="94">
-        <f>BK28/BG28-1</f>
+        <f t="shared" si="150"/>
         <v>0.15102974828375282</v>
       </c>
       <c r="BL128" s="94">
-        <f>BL28/BH28-1</f>
+        <f t="shared" si="150"/>
         <v>4.0772532188841248E-2</v>
       </c>
       <c r="BM128" s="94">
-        <f>BM28/BI28-1</f>
+        <f t="shared" si="150"/>
         <v>0.12989690721649483</v>
       </c>
       <c r="BN128" s="94">
-        <f>BN28/BJ28-1</f>
+        <f t="shared" si="150"/>
         <v>2.3109243697478909E-2</v>
       </c>
       <c r="BO128" s="94">
-        <f>BO28/BK28-1</f>
+        <f t="shared" si="150"/>
         <v>3.9761431411530879E-2</v>
       </c>
       <c r="BP128" s="94">
-        <f>BP28/BL28-1</f>
+        <f t="shared" si="150"/>
         <v>5.7731958762886615E-2</v>
       </c>
       <c r="BQ128" s="94">
-        <f>BQ28/BM28-1</f>
+        <f t="shared" si="150"/>
         <v>5.1094890510948954E-2</v>
       </c>
       <c r="BR128" s="94">
-        <f>BR28/BN28-1</f>
+        <f t="shared" si="150"/>
         <v>6.1601642710472193E-2</v>
       </c>
       <c r="BS128" s="94">
-        <f>BS28/BO28-1</f>
+        <f t="shared" si="150"/>
         <v>-0.21606118546845121</v>
       </c>
       <c r="BT128" s="94">
-        <f>BT28/BP28-1</f>
+        <f t="shared" si="150"/>
         <v>-0.29434697855750491</v>
       </c>
       <c r="BU128" s="94">
-        <f>BU28/BQ28-1</f>
+        <f t="shared" si="150"/>
         <v>-0.50173611111111116</v>
       </c>
       <c r="BV128" s="94">
-        <f>BV28/BR28-1</f>
+        <f t="shared" si="150"/>
         <v>-0.30947775628626695</v>
       </c>
       <c r="BW128" s="94"/>
@@ -42156,87 +42191,87 @@
       <c r="AZ129" s="93"/>
       <c r="BA129" s="93"/>
       <c r="BB129" s="94">
-        <f t="shared" ref="BB129:BV129" si="134">BB44/AX44-1</f>
+        <f t="shared" ref="BB129:BV129" si="151">BB44/AX44-1</f>
         <v>0.12456747404844282</v>
       </c>
       <c r="BC129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>0.20338983050847448</v>
       </c>
       <c r="BD129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>0.18243243243243246</v>
       </c>
       <c r="BE129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>0.24749163879598668</v>
       </c>
       <c r="BF129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="BG129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>5.3521126760563309E-2</v>
       </c>
       <c r="BH129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="BI129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>5.3619302949061698E-2</v>
       </c>
       <c r="BJ129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>0.14285714285714279</v>
       </c>
       <c r="BK129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>8.8235294117646967E-2</v>
       </c>
       <c r="BL129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>9.4285714285714306E-2</v>
       </c>
       <c r="BM129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>0.13740458015267176</v>
       </c>
       <c r="BN129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>-7.7500000000000013E-2</v>
       </c>
       <c r="BO129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>2.2113022113022129E-2</v>
       </c>
       <c r="BP129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>5.7441253263707637E-2</v>
       </c>
       <c r="BQ129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>-4.4742729306487261E-3</v>
       </c>
       <c r="BR129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>6.5040650406503975E-2</v>
       </c>
       <c r="BS129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>7.9326923076923128E-2</v>
       </c>
       <c r="BT129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>8.1481481481481488E-2</v>
       </c>
       <c r="BU129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>-0.15730337078651691</v>
       </c>
       <c r="BV129" s="94">
-        <f t="shared" si="134"/>
+        <f t="shared" si="151"/>
         <v>0.12213740458015265</v>
       </c>
       <c r="BW129" s="94"/>
@@ -42382,87 +42417,87 @@
       <c r="AZ130" s="93"/>
       <c r="BA130" s="93"/>
       <c r="BB130" s="94">
-        <f t="shared" ref="BB130:BK130" si="135">BB46/AX46-1</f>
+        <f t="shared" ref="BB130:BK130" si="152">BB46/AX46-1</f>
         <v>0.43478260869565211</v>
       </c>
       <c r="BC130" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>0.484375</v>
       </c>
       <c r="BD130" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>0.46896551724137936</v>
       </c>
       <c r="BE130" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>0.56164383561643838</v>
       </c>
       <c r="BF130" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>0.44242424242424239</v>
       </c>
       <c r="BG130" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>0.23157894736842111</v>
       </c>
       <c r="BH130" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>0.1220657276995305</v>
       </c>
       <c r="BI130" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>0.14035087719298245</v>
       </c>
       <c r="BJ130" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>0.12184873949579833</v>
       </c>
       <c r="BK130" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>0.20512820512820507</v>
       </c>
       <c r="BL130" s="94">
-        <f t="shared" ref="BL130:BU130" si="136">BL46/BH46-1</f>
+        <f t="shared" ref="BL130:BU130" si="153">BL46/BH46-1</f>
         <v>0.21338912133891208</v>
       </c>
       <c r="BM130" s="94">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BN130" s="94">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>5.2434456928838857E-2</v>
       </c>
       <c r="BO130" s="94">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>3.5460992907801359E-2</v>
       </c>
       <c r="BP130" s="94">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>5.862068965517242E-2</v>
       </c>
       <c r="BQ130" s="94">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>6.0897435897435903E-2</v>
       </c>
       <c r="BR130" s="94">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>5.3380782918149405E-2</v>
       </c>
       <c r="BS130" s="94">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>0.13013698630136994</v>
       </c>
       <c r="BT130" s="94">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>6.1889250814332275E-2</v>
       </c>
       <c r="BU130" s="94">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>-6.9486404833836835E-2</v>
       </c>
       <c r="BV130" s="94">
-        <f t="shared" ref="BV130" si="137">BV46/BR46-1</f>
+        <f t="shared" ref="BV130" si="154">BV46/BR46-1</f>
         <v>0.18918918918918926</v>
       </c>
       <c r="BW130" s="94"/>
@@ -42611,75 +42646,75 @@
       <c r="BC131" s="94"/>
       <c r="BD131" s="94"/>
       <c r="BE131" s="94">
-        <f t="shared" ref="BE131:BV131" si="138">BE47/BA47-1</f>
+        <f t="shared" ref="BE131:BV131" si="155">BE47/BA47-1</f>
         <v>7.2941176470588243</v>
       </c>
       <c r="BF131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>2.0175438596491229</v>
       </c>
       <c r="BG131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>1.2159090909090908</v>
       </c>
       <c r="BH131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>1.0891089108910892</v>
       </c>
       <c r="BI131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="BJ131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>0.41279069767441867</v>
       </c>
       <c r="BK131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="BL131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>0.28436018957345977</v>
       </c>
       <c r="BM131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>0.22553191489361701</v>
       </c>
       <c r="BN131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>0.17695473251028804</v>
       </c>
       <c r="BO131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>0.1576923076923078</v>
       </c>
       <c r="BP131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>9.9630996309963082E-2</v>
       </c>
       <c r="BQ131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>0.14583333333333326</v>
       </c>
       <c r="BR131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>0.11888111888111896</v>
       </c>
       <c r="BS131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>7.3089700996677776E-2</v>
       </c>
       <c r="BT131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>7.0469798657718075E-2</v>
       </c>
       <c r="BU131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>3.6363636363636376E-2</v>
       </c>
       <c r="BV131" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="155"/>
         <v>1.8750000000000044E-2</v>
       </c>
       <c r="BW131" s="94"/>
@@ -42835,47 +42870,47 @@
       <c r="BJ132" s="66"/>
       <c r="BK132" s="66"/>
       <c r="BL132" s="94">
-        <f>BL24/BH24-1</f>
+        <f t="shared" ref="BL132:BV132" si="156">BL24/BH24-1</f>
         <v>0.24479166666666674</v>
       </c>
       <c r="BM132" s="94">
-        <f>BM24/BI24-1</f>
+        <f t="shared" si="156"/>
         <v>-0.1648351648351648</v>
       </c>
       <c r="BN132" s="94">
-        <f>BN24/BJ24-1</f>
+        <f t="shared" si="156"/>
         <v>-0.18250950570342206</v>
       </c>
       <c r="BO132" s="94">
-        <f>BO24/BK24-1</f>
+        <f t="shared" si="156"/>
         <v>-0.13793103448275867</v>
       </c>
       <c r="BP132" s="94">
-        <f>BP24/BL24-1</f>
+        <f t="shared" si="156"/>
         <v>2.9288702928870203E-2</v>
       </c>
       <c r="BQ132" s="94">
-        <f>BQ24/BM24-1</f>
+        <f t="shared" si="156"/>
         <v>0.20175438596491224</v>
       </c>
       <c r="BR132" s="94">
-        <f>BR24/BN24-1</f>
+        <f t="shared" si="156"/>
         <v>0.29767441860465116</v>
       </c>
       <c r="BS132" s="94">
-        <f>BS24/BO24-1</f>
+        <f t="shared" si="156"/>
         <v>0.30666666666666664</v>
       </c>
       <c r="BT132" s="94">
-        <f>BT24/BP24-1</f>
+        <f t="shared" si="156"/>
         <v>0.20325203252032531</v>
       </c>
       <c r="BU132" s="94">
-        <f>BU24/BQ24-1</f>
+        <f t="shared" si="156"/>
         <v>0.2007299270072993</v>
       </c>
       <c r="BV132" s="94">
-        <f>BV24/BR24-1</f>
+        <f t="shared" si="156"/>
         <v>0.17204301075268824</v>
       </c>
       <c r="BW132" s="94"/>
@@ -43026,67 +43061,67 @@
       <c r="BE133" s="94"/>
       <c r="BF133" s="94"/>
       <c r="BG133" s="94">
-        <f t="shared" ref="BG133:BV133" si="139">BG48/BC48-1</f>
+        <f t="shared" ref="BG133:BV133" si="157">BG48/BC48-1</f>
         <v>3.3809523809523814</v>
       </c>
       <c r="BH133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>9.1428571428571423</v>
       </c>
       <c r="BI133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>2.5098039215686274</v>
       </c>
       <c r="BJ133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>1.2666666666666666</v>
       </c>
       <c r="BK133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>1.2173913043478262</v>
       </c>
       <c r="BL133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.61971830985915499</v>
       </c>
       <c r="BM133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.58100558659217882</v>
       </c>
       <c r="BN133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.41764705882352948</v>
       </c>
       <c r="BO133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.30392156862745101</v>
       </c>
       <c r="BP133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.16521739130434776</v>
       </c>
       <c r="BQ133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.1766784452296819</v>
       </c>
       <c r="BR133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>3.3195020746888071E-2</v>
       </c>
       <c r="BS133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>3.7593984962406068E-2</v>
       </c>
       <c r="BT133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>-4.8507462686567138E-2</v>
       </c>
       <c r="BU133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>-0.16516516516516522</v>
       </c>
       <c r="BV133" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0.11244979919678721</v>
       </c>
       <c r="BW133" s="94"/>
@@ -43232,87 +43267,87 @@
       <c r="AZ134" s="93"/>
       <c r="BA134" s="93"/>
       <c r="BB134" s="94">
-        <f t="shared" ref="BB134:BV134" si="140">BB55/AX55-1</f>
+        <f t="shared" ref="BB134:BV134" si="158">BB55/AX55-1</f>
         <v>6.8493150684931781E-3</v>
       </c>
       <c r="BC134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="BD134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>0.11724137931034484</v>
       </c>
       <c r="BE134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>0.17518248175182483</v>
       </c>
       <c r="BF134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>0.23129251700680276</v>
       </c>
       <c r="BG134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>0.10303030303030303</v>
       </c>
       <c r="BH134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-1.2345679012345734E-2</v>
       </c>
       <c r="BI134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>5.5900621118012417E-2</v>
       </c>
       <c r="BJ134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-9.9447513812154664E-2</v>
       </c>
       <c r="BK134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-3.2967032967032961E-2</v>
       </c>
       <c r="BL134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-5.6250000000000022E-2</v>
       </c>
       <c r="BM134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-0.16470588235294115</v>
       </c>
       <c r="BN134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-0.16564417177914115</v>
       </c>
       <c r="BO134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-0.27272727272727271</v>
       </c>
       <c r="BP134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-0.16556291390728473</v>
       </c>
       <c r="BQ134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-0.21126760563380287</v>
       </c>
       <c r="BR134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-0.24264705882352944</v>
       </c>
       <c r="BS134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-0.171875</v>
       </c>
       <c r="BT134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-0.22222222222222221</v>
       </c>
       <c r="BU134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-0.1964285714285714</v>
       </c>
       <c r="BV134" s="94">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-0.11650485436893199</v>
       </c>
       <c r="BW134" s="94"/>
@@ -43458,87 +43493,87 @@
       <c r="AZ135" s="93"/>
       <c r="BA135" s="93"/>
       <c r="BB135" s="94">
-        <f>BB15/AX15-1</f>
+        <f t="shared" ref="BB135:BV135" si="159">BB15/AX15-1</f>
         <v>1.1315789473684212</v>
       </c>
       <c r="BC135" s="94">
-        <f>BC15/AY15-1</f>
+        <f t="shared" si="159"/>
         <v>0.81818181818181812</v>
       </c>
       <c r="BD135" s="94">
-        <f>BD15/AZ15-1</f>
+        <f t="shared" si="159"/>
         <v>0.52941176470588225</v>
       </c>
       <c r="BE135" s="94">
-        <f>BE15/BA15-1</f>
+        <f t="shared" si="159"/>
         <v>0.68493150684931514</v>
       </c>
       <c r="BF135" s="94">
-        <f>BF15/BB15-1</f>
+        <f t="shared" si="159"/>
         <v>0.53086419753086411</v>
       </c>
       <c r="BG135" s="94">
-        <f>BG15/BC15-1</f>
+        <f t="shared" si="159"/>
         <v>0.33000000000000007</v>
       </c>
       <c r="BH135" s="94">
-        <f>BH15/BD15-1</f>
+        <f t="shared" si="159"/>
         <v>0.29807692307692313</v>
       </c>
       <c r="BI135" s="94">
-        <f>BI15/BE15-1</f>
+        <f t="shared" si="159"/>
         <v>0.17886178861788626</v>
       </c>
       <c r="BJ135" s="94">
-        <f>BJ15/BF15-1</f>
+        <f t="shared" si="159"/>
         <v>9.6774193548387011E-2</v>
       </c>
       <c r="BK135" s="94">
-        <f>BK15/BG15-1</f>
+        <f t="shared" si="159"/>
         <v>0.11278195488721798</v>
       </c>
       <c r="BL135" s="94">
-        <f>BL15/BH15-1</f>
+        <f t="shared" si="159"/>
         <v>7.4074074074074181E-2</v>
       </c>
       <c r="BM135" s="94">
-        <f>BM15/BI15-1</f>
+        <f t="shared" si="159"/>
         <v>-4.8275862068965503E-2</v>
       </c>
       <c r="BN135" s="94">
-        <f>BN15/BJ15-1</f>
+        <f t="shared" si="159"/>
         <v>-8.0882352941176516E-2</v>
       </c>
       <c r="BO135" s="94">
-        <f>BO15/BK15-1</f>
+        <f t="shared" si="159"/>
         <v>-9.4594594594594628E-2</v>
       </c>
       <c r="BP135" s="94">
-        <f>BP15/BL15-1</f>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="BQ135" s="94">
-        <f>BQ15/BM15-1</f>
+        <f t="shared" si="159"/>
         <v>0.13043478260869557</v>
       </c>
       <c r="BR135" s="94">
-        <f>BR15/BN15-1</f>
+        <f t="shared" si="159"/>
         <v>0.21599999999999997</v>
       </c>
       <c r="BS135" s="94">
-        <f>BS15/BO15-1</f>
+        <f t="shared" si="159"/>
         <v>0.20149253731343286</v>
       </c>
       <c r="BT135" s="94">
-        <f>BT15/BP15-1</f>
+        <f t="shared" si="159"/>
         <v>8.2758620689655116E-2</v>
       </c>
       <c r="BU135" s="94">
-        <f>BU15/BQ15-1</f>
+        <f t="shared" si="159"/>
         <v>-3.8461538461538436E-2</v>
       </c>
       <c r="BV135" s="94">
-        <f>BV15/BR15-1</f>
+        <f t="shared" si="159"/>
         <v>-2.6315789473684181E-2</v>
       </c>
       <c r="BW135" s="94"/>
@@ -43684,87 +43719,87 @@
       <c r="AZ136" s="93"/>
       <c r="BA136" s="93"/>
       <c r="BB136" s="94">
-        <f t="shared" ref="BB136:BK137" si="141">BB50/AX50-1</f>
+        <f t="shared" ref="BB136:BK137" si="160">BB50/AX50-1</f>
         <v>0</v>
       </c>
       <c r="BC136" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>0.25316455696202533</v>
       </c>
       <c r="BD136" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>0.23456790123456783</v>
       </c>
       <c r="BE136" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>0.31325301204819267</v>
       </c>
       <c r="BF136" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>0.27906976744186052</v>
       </c>
       <c r="BG136" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>0.14141414141414144</v>
       </c>
       <c r="BH136" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>0.26</v>
       </c>
       <c r="BI136" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>0.27522935779816504</v>
       </c>
       <c r="BJ136" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>0.1272727272727272</v>
       </c>
       <c r="BK136" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>0.21238938053097356</v>
       </c>
       <c r="BL136" s="94">
-        <f t="shared" ref="BL136:BU137" si="142">BL50/BH50-1</f>
+        <f t="shared" ref="BL136:BU137" si="161">BL50/BH50-1</f>
         <v>8.7301587301587213E-2</v>
       </c>
       <c r="BM136" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>3.5971223021582732E-2</v>
       </c>
       <c r="BN136" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>3.2258064516129004E-2</v>
       </c>
       <c r="BO136" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>-7.2992700729926918E-3</v>
       </c>
       <c r="BP136" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>4.3795620437956151E-2</v>
       </c>
       <c r="BQ136" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>3.4722222222222321E-2</v>
       </c>
       <c r="BR136" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>2.34375E-2</v>
       </c>
       <c r="BS136" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>5.1470588235294157E-2</v>
       </c>
       <c r="BT136" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>3.4965034965035002E-2</v>
       </c>
       <c r="BU136" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>-4.6979865771812124E-2</v>
       </c>
       <c r="BV136" s="94">
-        <f t="shared" ref="BV136:BV137" si="143">BV50/BR50-1</f>
+        <f t="shared" ref="BV136:BV137" si="162">BV50/BR50-1</f>
         <v>0.13740458015267176</v>
       </c>
       <c r="BW136" s="94"/>
@@ -43910,87 +43945,87 @@
       <c r="AZ137" s="93"/>
       <c r="BA137" s="93"/>
       <c r="BB137" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>9.1743119266054496E-3</v>
       </c>
       <c r="BC137" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>5.1724137931034475E-2</v>
       </c>
       <c r="BD137" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>5.4545454545454453E-2</v>
       </c>
       <c r="BE137" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>0.12280701754385959</v>
       </c>
       <c r="BF137" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>7.2727272727272751E-2</v>
       </c>
       <c r="BG137" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>3.2786885245901676E-2</v>
       </c>
       <c r="BH137" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>1.7241379310344751E-2</v>
       </c>
       <c r="BI137" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>3.125E-2</v>
       </c>
       <c r="BJ137" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>-8.4745762711864181E-3</v>
       </c>
       <c r="BK137" s="94">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>-3.1746031746031744E-2</v>
       </c>
       <c r="BL137" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="BM137" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>-0.14393939393939392</v>
       </c>
       <c r="BN137" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>-0.17094017094017089</v>
       </c>
       <c r="BO137" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>-0.19672131147540983</v>
       </c>
       <c r="BP137" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>-0.10169491525423724</v>
       </c>
       <c r="BQ137" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>-8.8495575221239076E-3</v>
       </c>
       <c r="BR137" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>7.2164948453608213E-2</v>
       </c>
       <c r="BS137" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>9.1836734693877542E-2</v>
       </c>
       <c r="BT137" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>-5.6603773584905648E-2</v>
       </c>
       <c r="BU137" s="94">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>-0.2053571428571429</v>
       </c>
       <c r="BV137" s="94">
-        <f t="shared" si="143"/>
+        <f t="shared" si="162"/>
         <v>-0.125</v>
       </c>
       <c r="BW137" s="94"/>
@@ -44136,87 +44171,87 @@
       <c r="AZ138" s="93"/>
       <c r="BA138" s="93"/>
       <c r="BB138" s="94">
-        <f>BB27/AX27-1</f>
+        <f t="shared" ref="BB138:BV138" si="163">BB27/AX27-1</f>
         <v>5.9523809523809534E-2</v>
       </c>
       <c r="BC138" s="94">
-        <f>BC27/AY27-1</f>
+        <f t="shared" si="163"/>
         <v>0.18586636397103939</v>
       </c>
       <c r="BD138" s="94">
-        <f>BD27/AZ27-1</f>
+        <f t="shared" si="163"/>
         <v>0.16279069767441867</v>
       </c>
       <c r="BE138" s="94">
-        <f>BE27/BA27-1</f>
+        <f t="shared" si="163"/>
         <v>0.2441860465116279</v>
       </c>
       <c r="BF138" s="94">
-        <f>BF27/BB27-1</f>
+        <f t="shared" si="163"/>
         <v>0.22471910112359561</v>
       </c>
       <c r="BG138" s="94">
-        <f>BG27/BC27-1</f>
+        <f t="shared" si="163"/>
         <v>6.1855670103092786E-2</v>
       </c>
       <c r="BH138" s="94">
-        <f>BH27/BD27-1</f>
+        <f t="shared" si="163"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="BI138" s="94">
-        <f>BI27/BE27-1</f>
+        <f t="shared" si="163"/>
         <v>8.4112149532710179E-2</v>
       </c>
       <c r="BJ138" s="94">
-        <f>BJ27/BF27-1</f>
+        <f t="shared" si="163"/>
         <v>1.8348623853210899E-2</v>
       </c>
       <c r="BK138" s="94">
-        <f>BK27/BG27-1</f>
+        <f t="shared" si="163"/>
         <v>0.16504854368932032</v>
       </c>
       <c r="BL138" s="94">
-        <f>BL27/BH27-1</f>
+        <f t="shared" si="163"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="BM138" s="94">
-        <f>BM27/BI27-1</f>
+        <f t="shared" si="163"/>
         <v>0.10344827586206895</v>
       </c>
       <c r="BN138" s="94">
-        <f>BN27/BJ27-1</f>
+        <f t="shared" si="163"/>
         <v>5.4054054054053946E-2</v>
       </c>
       <c r="BO138" s="94">
-        <f>BO27/BK27-1</f>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="BP138" s="94">
-        <f>BP27/BL27-1</f>
+        <f t="shared" si="163"/>
         <v>-3.2258064516129004E-2</v>
       </c>
       <c r="BQ138" s="94">
-        <f>BQ27/BM27-1</f>
+        <f t="shared" si="163"/>
         <v>8.59375E-2</v>
       </c>
       <c r="BR138" s="94">
-        <f>BR27/BN27-1</f>
+        <f t="shared" si="163"/>
         <v>2.564102564102555E-2</v>
       </c>
       <c r="BS138" s="94">
-        <f>BS27/BO27-1</f>
+        <f t="shared" si="163"/>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="BT138" s="94">
-        <f>BT27/BP27-1</f>
+        <f t="shared" si="163"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="BU138" s="94">
-        <f>BU27/BQ27-1</f>
+        <f t="shared" si="163"/>
         <v>-7.9136690647481966E-2</v>
       </c>
       <c r="BV138" s="94">
-        <f>BV27/BR27-1</f>
+        <f t="shared" si="163"/>
         <v>0.125</v>
       </c>
       <c r="BW138" s="94"/>
@@ -45105,7 +45140,7 @@
         <v>9786</v>
       </c>
       <c r="EO143" s="23">
-        <f t="shared" ref="EO143" si="144">EO84</f>
+        <f t="shared" ref="EO143" si="164">EO84</f>
         <v>9919</v>
       </c>
       <c r="EP143" s="47"/>
@@ -46319,9 +46354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D7509D-B07E-4040-BDE2-947BE83599F5}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46554,6 +46587,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -46667,15 +46709,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -46683,6 +46716,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C23984D-947A-4544-B729-0E53BCCB05F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2911DF48-8F96-42CC-AFEE-EFAF0475AAB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46694,14 +46735,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C23984D-947A-4544-B729-0E53BCCB05F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ROG VX.xlsx
+++ b/ROG VX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E86E6-4DF7-4155-A3FB-4E1C2C59B07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D05BA-6F8A-45F9-8FCA-473CE46927DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16070" yWindow="3900" windowWidth="21730" windowHeight="15370" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42170" yWindow="3130" windowWidth="25950" windowHeight="16260" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management and Structure" sheetId="121" r:id="rId1"/>
@@ -22,34 +22,36 @@
     <sheet name="Tecentriq" sheetId="131" r:id="rId7"/>
     <sheet name="Phesgo" sheetId="137" r:id="rId8"/>
     <sheet name="Diagnostics" sheetId="124" r:id="rId9"/>
-    <sheet name="MabThera" sheetId="115" r:id="rId10"/>
-    <sheet name="Hemlibra" sheetId="134" r:id="rId11"/>
-    <sheet name="Avastin" sheetId="113" r:id="rId12"/>
-    <sheet name="Avastin Model" sheetId="128" r:id="rId13"/>
-    <sheet name="Polivy" sheetId="133" r:id="rId14"/>
-    <sheet name="Herceptin" sheetId="118" r:id="rId15"/>
-    <sheet name="Pegasys" sheetId="119" r:id="rId16"/>
-    <sheet name="Xeloda" sheetId="127" r:id="rId17"/>
-    <sheet name="tiragolumab" sheetId="135" r:id="rId18"/>
-    <sheet name="Actemra" sheetId="112" r:id="rId19"/>
-    <sheet name="Lucentis" sheetId="123" r:id="rId20"/>
-    <sheet name="Perjeta" sheetId="117" r:id="rId21"/>
-    <sheet name="Ocrevus" sheetId="126" r:id="rId22"/>
-    <sheet name="Kadcyla" sheetId="130" r:id="rId23"/>
-    <sheet name="Mircera" sheetId="102" r:id="rId24"/>
-    <sheet name="Tarceva" sheetId="122" r:id="rId25"/>
-    <sheet name="Failures" sheetId="125" r:id="rId26"/>
-    <sheet name="dalcetrapib" sheetId="111" r:id="rId27"/>
-    <sheet name="aleglitazar" sheetId="120" r:id="rId28"/>
-    <sheet name="R1626" sheetId="114" r:id="rId29"/>
-    <sheet name="taspoglutide" sheetId="116" r:id="rId30"/>
+    <sheet name="Elevidys" sheetId="139" r:id="rId10"/>
+    <sheet name="Evrysdi" sheetId="138" r:id="rId11"/>
+    <sheet name="MabThera" sheetId="115" r:id="rId12"/>
+    <sheet name="Hemlibra" sheetId="134" r:id="rId13"/>
+    <sheet name="Avastin" sheetId="113" r:id="rId14"/>
+    <sheet name="Avastin Model" sheetId="128" r:id="rId15"/>
+    <sheet name="Polivy" sheetId="133" r:id="rId16"/>
+    <sheet name="Herceptin" sheetId="118" r:id="rId17"/>
+    <sheet name="Pegasys" sheetId="119" r:id="rId18"/>
+    <sheet name="Xeloda" sheetId="127" r:id="rId19"/>
+    <sheet name="tiragolumab" sheetId="135" r:id="rId20"/>
+    <sheet name="Actemra" sheetId="112" r:id="rId21"/>
+    <sheet name="Lucentis" sheetId="123" r:id="rId22"/>
+    <sheet name="Perjeta" sheetId="117" r:id="rId23"/>
+    <sheet name="Ocrevus" sheetId="126" r:id="rId24"/>
+    <sheet name="Kadcyla" sheetId="130" r:id="rId25"/>
+    <sheet name="Mircera" sheetId="102" r:id="rId26"/>
+    <sheet name="Tarceva" sheetId="122" r:id="rId27"/>
+    <sheet name="Failures" sheetId="125" r:id="rId28"/>
+    <sheet name="dalcetrapib" sheetId="111" r:id="rId29"/>
+    <sheet name="aleglitazar" sheetId="120" r:id="rId30"/>
+    <sheet name="R1626" sheetId="114" r:id="rId31"/>
+    <sheet name="taspoglutide" sheetId="116" r:id="rId32"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId31"/>
-    <externalReference r:id="rId32"/>
     <externalReference r:id="rId33"/>
     <externalReference r:id="rId34"/>
     <externalReference r:id="rId35"/>
+    <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
   </externalReferences>
   <definedNames>
     <definedName name="__FDS_HYPERLINK_TOGGLE_STATE__" hidden="1">"ON"</definedName>
@@ -2361,7 +2363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="1014">
   <si>
     <t>Gross Profit</t>
   </si>
@@ -4400,9 +4402,6 @@
     <t>Q210</t>
   </si>
   <si>
-    <t>750 PC salespeople in the US</t>
-  </si>
-  <si>
     <t>Phase II/III RITUXVAS - Rituxan versus Cyclophosphamide in ANCA-Associated Renal Vasculitis - NEJM 2010</t>
   </si>
   <si>
@@ -5370,6 +5369,42 @@
   </si>
   <si>
     <t>3/25/25: AGM. Dividend CHF 9.70.</t>
+  </si>
+  <si>
+    <t>3/17/25: MDA presentations.</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>PTCT</t>
+  </si>
+  <si>
+    <t>5-year data at MDA 2025</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>Sarepta</t>
+  </si>
+  <si>
+    <t>"EMBARK"</t>
+  </si>
+  <si>
+    <t>2-year data at MDA 2025</t>
+  </si>
+  <si>
+    <t>"101"</t>
+  </si>
+  <si>
+    <t>"102"</t>
+  </si>
+  <si>
+    <t>"ENDEAVOR"</t>
+  </si>
+  <si>
+    <t>Phase III "SUNFISH" n=231 Type 2/3 SMA - NCT0290685</t>
   </si>
 </sst>
 </file>
@@ -5708,7 +5743,7 @@
     <xf numFmtId="6" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5981,6 +6016,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -6772,7 +6810,7 @@
     </row>
     <row r="22" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="40" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -6780,7 +6818,7 @@
         <v>308</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -6788,7 +6826,7 @@
         <v>310</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -6796,7 +6834,7 @@
         <v>448</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -6804,7 +6842,7 @@
         <v>416</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -6816,6 +6854,153 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D6C1E7-E82D-44AC-A17C-198506D7E061}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C6" s="40" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C10" s="40" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C13" s="40" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C16" s="40" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A7BDF025-D314-422D-8026-21AF8D9F400E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35181550-2C60-4D31-8950-C59764829BC8}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C7" s="40" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4C4B5457-511E-4CEF-98D6-780325045EF6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
@@ -6886,26 +7071,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>913</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>915</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6913,7 +7098,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7018,12 +7203,12 @@
     </row>
     <row r="37" spans="3:29" ht="13" x14ac:dyDescent="0.3">
       <c r="C37" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="3:29" x14ac:dyDescent="0.25">
@@ -7031,12 +7216,12 @@
     </row>
     <row r="40" spans="3:29" ht="13" x14ac:dyDescent="0.3">
       <c r="C40" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="41" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="43" spans="3:29" ht="13" x14ac:dyDescent="0.3">
@@ -7494,7 +7679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914A0F0E-07B1-F341-AD79-56F9F4F62487}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -7512,15 +7697,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7528,7 +7713,7 @@
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -7539,7 +7724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D112"/>
   <sheetViews>
@@ -8090,7 +8275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
@@ -8812,7 +8997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC6E127-785F-4CE6-BD27-DE08806227C3}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -8830,18 +9015,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -8849,15 +9034,15 @@
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8865,7 +9050,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -8875,17 +9060,17 @@
     </row>
     <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -8896,7 +9081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -9027,7 +9212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -9109,7 +9294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -9155,211 +9340,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B12579-86B6-4388-B513-8B891427E3C2}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>814</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>815</v>
-      </c>
-      <c r="C3" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C7" s="40" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C12" s="40" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7092318C-0EE8-4263-A5F7-AB3F9CDD04A9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C8" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C9" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C12" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C16" s="16" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -10061,6 +10041,211 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B12579-86B6-4388-B513-8B891427E3C2}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C7" s="40" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C12" s="40" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7092318C-0EE8-4263-A5F7-AB3F9CDD04A9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C8" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C9" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C12" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C16" s="16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -10120,7 +10305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -10174,12 +10359,12 @@
     </row>
     <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -10202,7 +10387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -10340,7 +10525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -10378,7 +10563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -10468,7 +10653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -10527,7 +10712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -10769,7 +10954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -10885,159 +11070,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C7" s="40" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C7" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C10" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -11068,10 +11100,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
@@ -11083,7 +11115,7 @@
         <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11091,7 +11123,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>86</v>
@@ -11100,7 +11132,7 @@
         <v>1999</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>399</v>
@@ -11111,7 +11143,7 @@
         <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>206</v>
@@ -11122,17 +11154,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11146,12 +11178,12 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11407,7 +11439,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>587</v>
@@ -11422,7 +11454,7 @@
         <v>588</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>253</v>
@@ -11430,7 +11462,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>67</v>
@@ -11479,7 +11511,7 @@
         <v>80</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>347</v>
@@ -11490,7 +11522,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="53" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>115</v>
@@ -11570,10 +11602,10 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="53" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>80</v>
@@ -11582,7 +11614,7 @@
         <v>573</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>253</v>
@@ -11590,7 +11622,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="53" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>313</v>
@@ -11637,6 +11669,159 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C7" s="40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C7" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C10" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -11752,10 +11937,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11832,7 +12017,7 @@
         <v>800.40300000000002</v>
       </c>
       <c r="K3" s="54" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -11889,21 +12074,21 @@
         <v>10510</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D6" s="118">
         <v>43055</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="35" t="s">
@@ -11916,17 +12101,17 @@
         <v>29209</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
+        <v>810</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>811</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>812</v>
       </c>
       <c r="D7" s="118">
         <v>42508</v>
@@ -11935,7 +12120,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>161</v>
@@ -11952,7 +12137,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>405</v>
@@ -11973,7 +12158,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>123</v>
@@ -12061,7 +12246,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>317</v>
@@ -12086,7 +12271,7 @@
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>84</v>
@@ -12132,24 +12317,24 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="E16" s="41" t="s">
         <v>846</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="E16" s="41" t="s">
+      <c r="F16" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="G16" s="83" t="s">
         <v>847</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>377</v>
@@ -12167,7 +12352,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="53" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>572</v>
@@ -12186,359 +12371,351 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="s">
-        <v>909</v>
+      <c r="B19" s="38" t="s">
+        <v>798</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="122">
-        <v>43397</v>
-      </c>
-      <c r="E19" s="41">
-        <v>1</v>
+        <v>1003</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="41" t="s">
+        <v>1004</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="53" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>908</v>
+        <v>86</v>
       </c>
       <c r="D20" s="122">
-        <v>44057</v>
+        <v>43397</v>
       </c>
       <c r="E20" s="41">
         <v>1</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>973</v>
-      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="53" t="s">
-        <v>964</v>
+        <v>906</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="35"/>
+        <v>907</v>
+      </c>
+      <c r="D21" s="122">
+        <v>44057</v>
+      </c>
+      <c r="E21" s="41">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
+        <v>963</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="122"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="53" t="s">
+        <v>902</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>904</v>
-      </c>
-      <c r="D22" s="122">
+      <c r="D23" s="122">
         <v>44917</v>
-      </c>
-      <c r="E22" s="41">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>884</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
-        <v>905</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D23" s="122">
-        <v>44589</v>
       </c>
       <c r="E23" s="41">
         <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
-        <v>995</v>
+        <v>904</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c r="D24" s="122">
-        <v>44011</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>996</v>
+        <v>44589</v>
+      </c>
+      <c r="E24" s="41">
+        <v>1</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="I24" s="3" t="s">
-        <v>1001</v>
+        <v>905</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
+        <v>994</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="122">
+        <v>44011</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>995</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="I25" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>1998</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="14">
         <v>1</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G26" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I26" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="53" t="s">
+        <v>728</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
-        <v>729</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>2007</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="G28" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
+      <c r="I28" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="12"/>
-      <c r="I28" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="119" t="s">
-        <v>898</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>899</v>
-      </c>
-      <c r="G29" s="36"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="12"/>
       <c r="I29" s="3" t="s">
-        <v>953</v>
+        <v>854</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
-        <v>883</v>
+      <c r="B30" s="119" t="s">
+        <v>897</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>850</v>
+        <v>877</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>884</v>
-      </c>
-      <c r="G30" s="120" t="s">
-        <v>891</v>
+      <c r="E30" s="41" t="s">
+        <v>898</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="I30" s="3" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="38" t="s">
-        <v>897</v>
+      <c r="B31" s="53" t="s">
+        <v>882</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>962</v>
+        <v>849</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="14">
-        <v>1</v>
-      </c>
       <c r="F31" s="10" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>161</v>
+        <v>890</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="s">
-        <v>900</v>
+      <c r="B32" s="38" t="s">
+        <v>896</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>123</v>
+        <v>961</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>114</v>
       </c>
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
       <c r="F32" s="10" t="s">
-        <v>901</v>
-      </c>
-      <c r="G32" s="120"/>
+        <v>884</v>
+      </c>
+      <c r="G32" s="120" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="53" t="s">
-        <v>910</v>
-      </c>
-      <c r="C33" s="10"/>
+        <v>899</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="D33" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="G33" s="120"/>
-      <c r="I33" s="3" t="s">
-        <v>679</v>
-      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="53" t="s">
-        <v>886</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>888</v>
+        <v>909</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>887</v>
-      </c>
-      <c r="G34" s="120" t="s">
-        <v>529</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="G34" s="120"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="53" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>891</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="53" t="s">
-        <v>895</v>
-      </c>
-      <c r="C36" s="10"/>
+        <v>888</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>891</v>
+      </c>
       <c r="F36" s="10" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="53" t="s">
-        <v>902</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>360</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="F37" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>161</v>
+        <v>895</v>
+      </c>
+      <c r="G37" s="120" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="53" t="s">
-        <v>969</v>
+        <v>901</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>970</v>
+        <v>359</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>971</v>
+        <v>360</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>972</v>
+        <v>361</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>161</v>
@@ -12546,15 +12723,19 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="53" t="s">
-        <v>734</v>
+        <v>968</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="41"/>
+        <v>969</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>970</v>
+      </c>
       <c r="F39" s="10" t="s">
-        <v>361</v>
+        <v>971</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>161</v>
@@ -12562,30 +12743,26 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="53" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="41">
-        <v>1</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="10" t="s">
-        <v>736</v>
+        <v>361</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="53" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>359</v>
+        <v>734</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>110</v>
@@ -12594,13 +12771,15 @@
         <v>1</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="G41" s="35"/>
+        <v>735</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="53" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>359</v>
@@ -12608,40 +12787,40 @@
       <c r="D42" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="41" t="s">
-        <v>739</v>
+      <c r="E42" s="41">
+        <v>1</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>253</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="G42" s="35"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="53" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="41">
-        <v>1</v>
+      <c r="E43" s="41" t="s">
+        <v>738</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="G43" s="35"/>
+        <v>739</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="53" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>110</v>
@@ -12650,18 +12829,16 @@
         <v>1</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="53" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>707</v>
+        <v>359</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>110</v>
@@ -12670,55 +12847,55 @@
         <v>1</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="46" spans="2:9" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="B46" s="53" t="s">
+        <v>705</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="41">
         <v>1</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>383</v>
+        <v>707</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="53" t="s">
-        <v>692</v>
-      </c>
-      <c r="C47" s="10" t="s">
+    <row r="47" spans="2:9" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="14">
         <v>1</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="53" t="s">
-        <v>279</v>
+        <v>691</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>115</v>
@@ -12730,13 +12907,15 @@
         <v>1</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="G48" s="35"/>
+        <v>474</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="53" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>115</v>
@@ -12748,15 +12927,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>253</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="G49" s="35"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="53" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>115</v>
@@ -12768,15 +12945,15 @@
         <v>1</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>385</v>
+        <v>473</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="53" t="s">
-        <v>670</v>
+        <v>384</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>115</v>
@@ -12788,15 +12965,15 @@
         <v>1</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="53" t="s">
-        <v>371</v>
+        <v>670</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>115</v>
@@ -12807,25 +12984,25 @@
       <c r="E52" s="41">
         <v>1</v>
       </c>
+      <c r="F52" s="10" t="s">
+        <v>386</v>
+      </c>
       <c r="G52" s="35" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="C53" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="41">
         <v>1</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>369</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>253</v>
@@ -12833,28 +13010,30 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="53" t="s">
-        <v>919</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>920</v>
-      </c>
-      <c r="D54" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>110</v>
       </c>
       <c r="E54" s="14">
         <v>1</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>921</v>
-      </c>
-      <c r="G54" s="35"/>
+        <v>369</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="53" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>110</v>
@@ -12863,16 +13042,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G55" s="35"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="53" t="s">
-        <v>607</v>
+        <v>921</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>115</v>
+        <v>919</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>110</v>
@@ -12880,14 +13059,14 @@
       <c r="E56" s="14">
         <v>1</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="35" t="s">
-        <v>253</v>
-      </c>
+      <c r="F56" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="G56" s="35"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="53" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>115</v>
@@ -12895,8 +13074,8 @@
       <c r="D57" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="41" t="s">
-        <v>575</v>
+      <c r="E57" s="14">
+        <v>1</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="35" t="s">
@@ -12905,30 +13084,28 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="53" t="s">
-        <v>671</v>
+        <v>574</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>605</v>
+        <v>115</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E58" s="41">
-        <v>1</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>386</v>
-      </c>
+      <c r="E58" s="41" t="s">
+        <v>575</v>
+      </c>
+      <c r="F58" s="10"/>
       <c r="G58" s="35" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="53" t="s">
-        <v>375</v>
+        <v>671</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>115</v>
+        <v>605</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>110</v>
@@ -12937,7 +13114,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>472</v>
+        <v>386</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>253</v>
@@ -12945,30 +13122,30 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="53" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>366</v>
+        <v>115</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="41">
         <v>1</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="53" t="s">
-        <v>590</v>
+        <v>365</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>115</v>
+        <v>366</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>110</v>
@@ -12977,70 +13154,70 @@
         <v>1</v>
       </c>
       <c r="F61" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="53" t="s">
+        <v>590</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="14">
+        <v>1</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="G61" s="35" t="s">
+      <c r="G62" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="B62" s="96" t="s">
-        <v>733</v>
-      </c>
-      <c r="C62" s="121" t="s">
+      <c r="I62" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="B63" s="96" t="s">
+        <v>732</v>
+      </c>
+      <c r="C63" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="D62" s="121" t="s">
+      <c r="D63" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="97">
+      <c r="E63" s="97">
         <v>1</v>
       </c>
-      <c r="F62" s="121" t="s">
+      <c r="F63" s="121" t="s">
         <v>350</v>
       </c>
-      <c r="G62" s="98" t="s">
+      <c r="G63" s="98" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="2:9" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B63" s="53" t="s">
+    <row r="64" spans="2:9" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B64" s="53" t="s">
         <v>576</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="E63" s="14">
-        <v>1</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="53" t="s">
-        <v>351</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E64" s="14">
         <v>1</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>161</v>
@@ -13048,19 +13225,19 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="53" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>115</v>
+        <v>352</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E65" s="41" t="s">
-        <v>373</v>
+      <c r="E65" s="14">
+        <v>1</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>161</v>
@@ -13068,37 +13245,39 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="53" t="s">
-        <v>584</v>
+        <v>372</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>413</v>
+        <v>115</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E66" s="41" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>583</v>
+        <v>374</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="53"/>
+      <c r="B67" s="53" t="s">
+        <v>584</v>
+      </c>
       <c r="C67" s="10" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="41">
-        <v>1</v>
+      <c r="E67" s="41" t="s">
+        <v>414</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>253</v>
@@ -13107,7 +13286,7 @@
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="53"/>
       <c r="C68" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>110</v>
@@ -13116,188 +13295,205 @@
         <v>1</v>
       </c>
       <c r="F68" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="53"/>
+      <c r="C69" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="41">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G68" s="35" t="s">
+      <c r="G69" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="61" t="s">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C70" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="D69" s="62" t="s">
+      <c r="D70" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E70" s="22">
         <v>1</v>
       </c>
-      <c r="F69" s="62" t="s">
+      <c r="F70" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="G69" s="63" t="s">
+      <c r="G70" s="63" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="B71" s="3"/>
-      <c r="F71" s="18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B72" s="3"/>
       <c r="F72" s="18" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B73" s="3"/>
       <c r="F73" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="B74" s="3"/>
+      <c r="F74" s="18" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="F74" s="18" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="F75" s="18" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="F76" s="18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="F77" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="F78" s="18" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="F79" s="18" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="F80" s="18" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F81" s="18" t="s">
-        <v>458</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F82" s="18" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F83" s="18" t="s">
-        <v>505</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F84" s="18" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F85" s="18" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F86" s="18" t="s">
-        <v>431</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F87" s="18" t="s">
-        <v>595</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F88" s="18" t="s">
-        <v>693</v>
+        <v>595</v>
       </c>
     </row>
     <row r="89" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F89" s="18" t="s">
-        <v>475</v>
+        <v>692</v>
       </c>
     </row>
     <row r="90" spans="6:6" ht="13" x14ac:dyDescent="0.3">
       <c r="F90" s="18" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F92" s="117" t="s">
-        <v>834</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="F91" s="18" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="117" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F94" s="117"/>
+      <c r="F94" s="117" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F95" s="3" t="s">
-        <v>856</v>
-      </c>
+      <c r="F95" s="117"/>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="117" t="s">
-        <v>842</v>
+      <c r="F96" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="3" t="s">
-        <v>947</v>
+      <c r="F97" s="117" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99" s="117" t="s">
-        <v>924</v>
+      <c r="F99" s="3" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="117" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="117"/>
+      <c r="F101" s="117" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="117" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103" s="117"/>
+    <row r="103" spans="6:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="F103" s="123" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="117"/>
@@ -13313,11 +13509,14 @@
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="117"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="117"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B27" location="Mircera!A1" display="Mircera (CERA)" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B28" location="Mircera!A1" display="Mircera (CERA)" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="B14" location="Actemra!A1" display="Actemra" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="B3" location="Avastin!A1" display="Avastin (bevacizumab)" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="B5" location="MabThera!A1" display="MabThera/Rituxan" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
@@ -13328,15 +13527,16 @@
     <hyperlink ref="I14" location="Failures!A1" display="Failures" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
     <hyperlink ref="B7" location="Tecentriq!A1" display="Tecentriq (atezolizumab)" xr:uid="{C7FB439F-D96B-4A7C-A1A3-DEBF4D4B91A8}"/>
     <hyperlink ref="B11" location="Lucentis!A1" display="Lucentis (ranibizumab)" xr:uid="{98F1104D-A5E2-4615-843A-9BC0949A0E4F}"/>
-    <hyperlink ref="B25" location="Xeloda!A1" display="Xeloda (capecitabine)" xr:uid="{8F2B063A-3A15-4B1A-884E-2E99BF7876ED}"/>
+    <hyperlink ref="B26" location="Xeloda!A1" display="Xeloda (capecitabine)" xr:uid="{8F2B063A-3A15-4B1A-884E-2E99BF7876ED}"/>
     <hyperlink ref="B8" location="pertuzumab!A1" display="pertuzumab" xr:uid="{2102BCC2-8611-491C-B597-7B5693B26690}"/>
     <hyperlink ref="B13" location="Kadcyla!A1" display="Kadcyla (trastuzumab-DM1)" xr:uid="{0181DD6A-FC19-4133-B47A-15F0C3075EB5}"/>
     <hyperlink ref="B9" location="Ocrevus!A1" display="Ocrevus (ocrelizumab)" xr:uid="{04ABF57F-9F2D-412F-9F21-BE805E3FE321}"/>
     <hyperlink ref="B16" location="Polivy!A1" display="Polivy (polatuzumab vedotin)" xr:uid="{6AF5067F-A358-4F13-A8ED-CEB4A668A3F6}"/>
     <hyperlink ref="B6" location="Hemlibra!A1" display="Hemlibra" xr:uid="{057E581E-A1F4-5642-9D1B-72A6704C2D09}"/>
-    <hyperlink ref="B31" location="tiragolumab!A1" display="RG6058 (tiragolumab)" xr:uid="{1AD505D8-4B83-4C31-819B-4E2178915B14}"/>
-    <hyperlink ref="B23" location="Vabysmo!A1" display="Vabysmo (faricimab)" xr:uid="{13BD768C-4C0B-4B51-93F3-17E7B55F8F81}"/>
-    <hyperlink ref="B24" location="Phesgo!A1" display="Phesgo (pertuzumab/trastuzumab)" xr:uid="{020C13B7-88D5-45D0-BDE0-EE2F16A3AB57}"/>
+    <hyperlink ref="B32" location="tiragolumab!A1" display="RG6058 (tiragolumab)" xr:uid="{1AD505D8-4B83-4C31-819B-4E2178915B14}"/>
+    <hyperlink ref="B24" location="Vabysmo!A1" display="Vabysmo (faricimab)" xr:uid="{13BD768C-4C0B-4B51-93F3-17E7B55F8F81}"/>
+    <hyperlink ref="B25" location="Phesgo!A1" display="Phesgo (pertuzumab/trastuzumab)" xr:uid="{020C13B7-88D5-45D0-BDE0-EE2F16A3AB57}"/>
+    <hyperlink ref="B19" location="Evrysdi!A1" display="Evrysdi" xr:uid="{9B8D2AE7-9267-451E-8A6C-2364E87F9B21}"/>
   </hyperlinks>
   <pageMargins left="0.18" right="0.17" top="0.33" bottom="0.31" header="0.17" footer="0.35"/>
   <pageSetup scale="55" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -13486,76 +13686,76 @@
         <v>593</v>
       </c>
       <c r="U2" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="V2" s="68" t="s">
         <v>695</v>
       </c>
-      <c r="V2" s="68" t="s">
-        <v>696</v>
-      </c>
       <c r="W2" s="68" t="s">
+        <v>713</v>
+      </c>
+      <c r="X2" s="68" t="s">
         <v>714</v>
       </c>
-      <c r="X2" s="68" t="s">
-        <v>715</v>
-      </c>
       <c r="Y2" s="68" t="s">
+        <v>753</v>
+      </c>
+      <c r="Z2" s="68" t="s">
         <v>754</v>
       </c>
-      <c r="Z2" s="68" t="s">
+      <c r="AA2" s="68" t="s">
         <v>755</v>
       </c>
-      <c r="AA2" s="68" t="s">
+      <c r="AB2" s="68" t="s">
         <v>756</v>
       </c>
-      <c r="AB2" s="68" t="s">
-        <v>757</v>
-      </c>
       <c r="AC2" s="68" t="s">
+        <v>857</v>
+      </c>
+      <c r="AD2" s="68" t="s">
         <v>858</v>
       </c>
-      <c r="AD2" s="68" t="s">
+      <c r="AE2" s="68" t="s">
         <v>859</v>
       </c>
-      <c r="AE2" s="68" t="s">
+      <c r="AF2" s="68" t="s">
         <v>860</v>
       </c>
-      <c r="AF2" s="68" t="s">
+      <c r="AG2" s="68" t="s">
         <v>861</v>
       </c>
-      <c r="AG2" s="68" t="s">
+      <c r="AH2" s="68" t="s">
         <v>862</v>
       </c>
-      <c r="AH2" s="68" t="s">
+      <c r="AI2" s="68" t="s">
         <v>863</v>
       </c>
-      <c r="AI2" s="68" t="s">
+      <c r="AJ2" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="AJ2" s="68" t="s">
+      <c r="AK2" s="68" t="s">
         <v>865</v>
       </c>
-      <c r="AK2" s="68" t="s">
+      <c r="AL2" s="68" t="s">
         <v>866</v>
       </c>
-      <c r="AL2" s="68" t="s">
+      <c r="AM2" s="68" t="s">
         <v>867</v>
       </c>
-      <c r="AM2" s="68" t="s">
+      <c r="AN2" s="68" t="s">
         <v>868</v>
       </c>
-      <c r="AN2" s="68" t="s">
+      <c r="AO2" s="68" t="s">
         <v>869</v>
       </c>
-      <c r="AO2" s="68" t="s">
+      <c r="AP2" s="68" t="s">
         <v>870</v>
       </c>
-      <c r="AP2" s="68" t="s">
+      <c r="AQ2" s="68" t="s">
         <v>871</v>
       </c>
-      <c r="AQ2" s="68" t="s">
+      <c r="AR2" s="68" t="s">
         <v>872</v>
-      </c>
-      <c r="AR2" s="68" t="s">
-        <v>873</v>
       </c>
       <c r="AS2" s="68"/>
       <c r="AT2" s="68"/>
@@ -13641,178 +13841,178 @@
         <v>678</v>
       </c>
       <c r="BX2" s="52" t="s">
+        <v>683</v>
+      </c>
+      <c r="BY2" s="52" t="s">
         <v>684</v>
       </c>
-      <c r="BY2" s="52" t="s">
+      <c r="BZ2" s="52" t="s">
         <v>685</v>
       </c>
-      <c r="BZ2" s="52" t="s">
+      <c r="CA2" s="52" t="s">
         <v>686</v>
       </c>
-      <c r="CA2" s="52" t="s">
+      <c r="CB2" s="52" t="s">
         <v>687</v>
       </c>
-      <c r="CB2" s="52" t="s">
+      <c r="CC2" s="52" t="s">
         <v>688</v>
       </c>
-      <c r="CC2" s="52" t="s">
-        <v>689</v>
-      </c>
       <c r="CD2" s="52" t="s">
+        <v>715</v>
+      </c>
+      <c r="CE2" s="52" t="s">
         <v>716</v>
       </c>
-      <c r="CE2" s="52" t="s">
+      <c r="CF2" s="52" t="s">
         <v>717</v>
       </c>
-      <c r="CF2" s="52" t="s">
+      <c r="CG2" s="52" t="s">
         <v>718</v>
       </c>
-      <c r="CG2" s="52" t="s">
-        <v>719</v>
-      </c>
       <c r="CH2" s="52" t="s">
+        <v>724</v>
+      </c>
+      <c r="CI2" s="52" t="s">
         <v>725</v>
       </c>
-      <c r="CI2" s="52" t="s">
+      <c r="CJ2" s="52" t="s">
         <v>726</v>
       </c>
-      <c r="CJ2" s="52" t="s">
+      <c r="CK2" s="52" t="s">
         <v>727</v>
       </c>
-      <c r="CK2" s="52" t="s">
-        <v>728</v>
-      </c>
       <c r="CL2" s="52" t="s">
+        <v>746</v>
+      </c>
+      <c r="CM2" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="CM2" s="52" t="s">
+      <c r="CN2" s="52" t="s">
         <v>748</v>
       </c>
-      <c r="CN2" s="52" t="s">
+      <c r="CO2" s="52" t="s">
         <v>749</v>
       </c>
-      <c r="CO2" s="52" t="s">
-        <v>750</v>
-      </c>
       <c r="CP2" s="52" t="s">
+        <v>760</v>
+      </c>
+      <c r="CQ2" s="52" t="s">
         <v>761</v>
       </c>
-      <c r="CQ2" s="52" t="s">
+      <c r="CR2" s="52" t="s">
         <v>762</v>
       </c>
-      <c r="CR2" s="52" t="s">
+      <c r="CS2" s="52" t="s">
         <v>763</v>
       </c>
-      <c r="CS2" s="52" t="s">
+      <c r="CT2" s="52" t="s">
         <v>764</v>
       </c>
-      <c r="CT2" s="52" t="s">
+      <c r="CU2" s="52" t="s">
         <v>765</v>
       </c>
-      <c r="CU2" s="52" t="s">
+      <c r="CV2" s="52" t="s">
         <v>766</v>
       </c>
-      <c r="CV2" s="52" t="s">
+      <c r="CW2" s="52" t="s">
         <v>767</v>
       </c>
-      <c r="CW2" s="52" t="s">
+      <c r="CX2" s="52" t="s">
         <v>768</v>
       </c>
-      <c r="CX2" s="52" t="s">
+      <c r="CY2" s="52" t="s">
         <v>769</v>
       </c>
-      <c r="CY2" s="52" t="s">
+      <c r="CZ2" s="52" t="s">
         <v>770</v>
       </c>
-      <c r="CZ2" s="52" t="s">
+      <c r="DA2" s="52" t="s">
         <v>771</v>
       </c>
-      <c r="DA2" s="52" t="s">
+      <c r="DB2" s="52" t="s">
         <v>772</v>
       </c>
-      <c r="DB2" s="52" t="s">
+      <c r="DC2" s="52" t="s">
         <v>773</v>
       </c>
-      <c r="DC2" s="52" t="s">
+      <c r="DD2" s="52" t="s">
         <v>774</v>
       </c>
-      <c r="DD2" s="52" t="s">
+      <c r="DE2" s="52" t="s">
         <v>775</v>
       </c>
-      <c r="DE2" s="52" t="s">
+      <c r="DF2" s="52" t="s">
         <v>776</v>
       </c>
-      <c r="DF2" s="52" t="s">
+      <c r="DG2" s="52" t="s">
         <v>777</v>
       </c>
-      <c r="DG2" s="52" t="s">
+      <c r="DH2" s="52" t="s">
         <v>778</v>
       </c>
-      <c r="DH2" s="52" t="s">
+      <c r="DI2" s="52" t="s">
         <v>779</v>
       </c>
-      <c r="DI2" s="52" t="s">
+      <c r="DJ2" s="52" t="s">
         <v>780</v>
       </c>
-      <c r="DJ2" s="52" t="s">
+      <c r="DK2" s="52" t="s">
         <v>781</v>
       </c>
-      <c r="DK2" s="52" t="s">
+      <c r="DL2" s="52" t="s">
         <v>782</v>
       </c>
-      <c r="DL2" s="52" t="s">
+      <c r="DM2" s="52" t="s">
         <v>783</v>
       </c>
-      <c r="DM2" s="52" t="s">
+      <c r="DN2" s="52" t="s">
         <v>784</v>
       </c>
-      <c r="DN2" s="52" t="s">
+      <c r="DO2" s="52" t="s">
         <v>785</v>
       </c>
-      <c r="DO2" s="52" t="s">
+      <c r="DP2" s="52" t="s">
         <v>786</v>
       </c>
-      <c r="DP2" s="52" t="s">
+      <c r="DQ2" s="52" t="s">
         <v>787</v>
       </c>
-      <c r="DQ2" s="52" t="s">
+      <c r="DR2" s="52" t="s">
         <v>788</v>
       </c>
-      <c r="DR2" s="52" t="s">
+      <c r="DS2" s="52" t="s">
         <v>789</v>
       </c>
-      <c r="DS2" s="52" t="s">
+      <c r="DT2" s="52" t="s">
         <v>790</v>
       </c>
-      <c r="DT2" s="52" t="s">
+      <c r="DU2" s="52" t="s">
         <v>791</v>
       </c>
-      <c r="DU2" s="52" t="s">
-        <v>792</v>
-      </c>
       <c r="DV2" s="52" t="s">
+        <v>873</v>
+      </c>
+      <c r="DW2" s="52" t="s">
         <v>874</v>
       </c>
-      <c r="DW2" s="52" t="s">
+      <c r="DX2" s="52" t="s">
         <v>875</v>
       </c>
-      <c r="DX2" s="52" t="s">
+      <c r="DY2" s="52" t="s">
         <v>876</v>
       </c>
-      <c r="DY2" s="52" t="s">
-        <v>877</v>
-      </c>
       <c r="DZ2" s="52" t="s">
+        <v>925</v>
+      </c>
+      <c r="EA2" s="52" t="s">
         <v>926</v>
       </c>
-      <c r="EA2" s="52" t="s">
+      <c r="EB2" s="52" t="s">
         <v>927</v>
       </c>
-      <c r="EB2" s="52" t="s">
+      <c r="EC2" s="52" t="s">
         <v>928</v>
-      </c>
-      <c r="EC2" s="52" t="s">
-        <v>929</v>
       </c>
       <c r="ED2" s="52"/>
       <c r="EE2" s="52"/>
@@ -15230,7 +15430,7 @@
     </row>
     <row r="7" spans="1:167" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -15430,7 +15630,7 @@
     </row>
     <row r="8" spans="1:167" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -15727,7 +15927,7 @@
     </row>
     <row r="9" spans="1:167" s="116" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -15938,7 +16138,7 @@
     </row>
     <row r="10" spans="1:167" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -16149,7 +16349,7 @@
     </row>
     <row r="11" spans="1:167" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -16382,7 +16582,7 @@
     </row>
     <row r="12" spans="1:167" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -16593,7 +16793,7 @@
     </row>
     <row r="13" spans="1:167" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -17434,7 +17634,7 @@
     </row>
     <row r="16" spans="1:167" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -17657,7 +17857,7 @@
     </row>
     <row r="17" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -18247,7 +18447,7 @@
     </row>
     <row r="19" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -18837,7 +19037,7 @@
     </row>
     <row r="21" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -19427,7 +19627,7 @@
     </row>
     <row r="23" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -20364,7 +20564,7 @@
     </row>
     <row r="26" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -21314,7 +21514,7 @@
     </row>
     <row r="29" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -21513,7 +21713,7 @@
     </row>
     <row r="30" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -21702,7 +21902,7 @@
     </row>
     <row r="31" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -21880,7 +22080,7 @@
     </row>
     <row r="32" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
@@ -22060,7 +22260,7 @@
     </row>
     <row r="33" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -22236,7 +22436,7 @@
     </row>
     <row r="34" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -22412,7 +22612,7 @@
     </row>
     <row r="35" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -22580,7 +22780,7 @@
     </row>
     <row r="36" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -22756,7 +22956,7 @@
     </row>
     <row r="37" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -22932,7 +23132,7 @@
     </row>
     <row r="38" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -23106,7 +23306,7 @@
     </row>
     <row r="39" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -23280,7 +23480,7 @@
     </row>
     <row r="40" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -23454,7 +23654,7 @@
     </row>
     <row r="41" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
@@ -23628,7 +23828,7 @@
     </row>
     <row r="42" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -24490,7 +24690,7 @@
     </row>
     <row r="45" spans="2:160" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -29349,7 +29549,7 @@
     </row>
     <row r="63" spans="2:169" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
@@ -36350,7 +36550,7 @@
         <v>0.21827677903218101</v>
       </c>
       <c r="FI93" s="114" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="FJ93" s="25">
         <f>NPV(FJ92,ES84:IB84)+Main!J5-Main!J6+ER84</f>
@@ -36622,7 +36822,7 @@
         <v>0.34867279183452493</v>
       </c>
       <c r="FI94" s="114" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="FJ94" s="50">
         <f>FJ93/Main!J3</f>
@@ -36783,7 +36983,7 @@
         <v>0.33671438352892469</v>
       </c>
       <c r="FI95" s="114" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="FJ95" s="104">
         <f>FJ94/Main!J2-1</f>
@@ -38001,7 +38201,7 @@
     </row>
     <row r="103" spans="2:160" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C103" s="75"/>
       <c r="D103" s="75"/>
@@ -38172,7 +38372,7 @@
     </row>
     <row r="104" spans="2:160" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B104" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C104" s="75"/>
       <c r="D104" s="75"/>
@@ -38343,7 +38543,7 @@
     </row>
     <row r="105" spans="2:160" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B105" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C105" s="75"/>
       <c r="D105" s="75"/>
@@ -38514,7 +38714,7 @@
     </row>
     <row r="106" spans="2:160" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C106" s="75"/>
       <c r="D106" s="75"/>
@@ -45366,7 +45566,7 @@
     </row>
     <row r="148" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
@@ -45485,7 +45685,7 @@
     </row>
     <row r="150" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
@@ -45535,7 +45735,7 @@
     </row>
     <row r="151" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
@@ -45585,7 +45785,7 @@
     </row>
     <row r="152" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
@@ -45634,7 +45834,7 @@
     </row>
     <row r="153" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B153" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
@@ -45684,7 +45884,7 @@
     </row>
     <row r="154" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B154" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
@@ -45733,7 +45933,7 @@
     </row>
     <row r="155" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B155" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
@@ -45782,7 +45982,7 @@
     </row>
     <row r="156" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
@@ -45831,7 +46031,7 @@
     </row>
     <row r="157" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G157" s="25"/>
       <c r="H157" s="25"/>
@@ -45880,7 +46080,7 @@
     </row>
     <row r="158" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B158" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
@@ -45930,7 +46130,7 @@
     </row>
     <row r="159" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
@@ -45979,7 +46179,7 @@
     </row>
     <row r="160" spans="2:159" ht="13" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="FC160" s="24">
         <f>SUM(FC151:FC159)</f>
@@ -45997,7 +46197,7 @@
     </row>
     <row r="163" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B163" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="FC163" s="23">
         <v>12158</v>
@@ -46005,7 +46205,7 @@
     </row>
     <row r="164" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B164" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="FC164" s="23">
         <v>4325</v>
@@ -46013,7 +46213,7 @@
     </row>
     <row r="165" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B165" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="FC165" s="23">
         <f>1684+1059</f>
@@ -46022,7 +46222,7 @@
     </row>
     <row r="166" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="FC166" s="23">
         <f>2257+593</f>
@@ -46031,7 +46231,7 @@
     </row>
     <row r="167" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B167" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="FC167" s="23">
         <v>1541</v>
@@ -46039,7 +46239,7 @@
     </row>
     <row r="168" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B168" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="FC168" s="23">
         <v>4379</v>
@@ -46047,7 +46247,7 @@
     </row>
     <row r="169" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B169" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="FC169" s="23">
         <v>33263</v>
@@ -46055,7 +46255,7 @@
     </row>
     <row r="170" spans="2:159" ht="13" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="FC170" s="24">
         <f>SUM(FC162:FC169)</f>
@@ -46097,18 +46297,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -46116,23 +46316,23 @@
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -46140,13 +46340,13 @@
         <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -46156,32 +46356,32 @@
     </row>
     <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="40" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="40" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="13" x14ac:dyDescent="0.3">
@@ -46189,37 +46389,37 @@
     </row>
     <row r="18" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="40" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="40" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="29" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C33" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
   </sheetData>
@@ -46251,18 +46451,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -46270,21 +46470,21 @@
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -46294,52 +46494,52 @@
     </row>
     <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="40" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="40" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -46369,18 +46569,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -46396,12 +46596,12 @@
         <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -46409,7 +46609,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -46419,7 +46619,7 @@
     </row>
     <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="40" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -46566,15 +46766,15 @@
     </row>
     <row r="19" spans="2:5" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="40" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -46587,15 +46787,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -46709,6 +46900,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -46716,14 +46916,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C23984D-947A-4544-B729-0E53BCCB05F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2911DF48-8F96-42CC-AFEE-EFAF0475AAB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46735,6 +46927,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C23984D-947A-4544-B729-0E53BCCB05F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
